--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="flow_info2" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
   <si>
     <t>id</t>
   </si>
@@ -164,7 +164,7 @@
     <t>d656fb5a-72a6-447d-a013-a0493fdb8098</t>
   </si>
   <si>
-    <t>6a57520a-4063-4d9a-b04b-8dfd62112441</t>
+    <t>eb941871-9a6c-4918-8836-bd4c5315dec5</t>
   </si>
   <si>
     <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"xiaohong","id":"2","age":"20"},{"name":"xiaowang","id":"3","age":"30"},{"name":"tyest","id":"4","age":"12"},{"name":"","id":"5","age":""},{"name":"james","id":"6","age":"50"}]</t>
@@ -179,7 +179,7 @@
     <t>a3064e14-f4e9-4b10-8a02-19c9854d8909</t>
   </si>
   <si>
-    <t>02d9646d-03d1-477b-93d9-c1b97a894379</t>
+    <t>ad2cc0ba-436b-4236-8ad7-f31fe48eb059</t>
   </si>
   <si>
     <t>[{"gender":"male","name":"wac","id":"1","age":"30"},{"gender":"female","name":"xh","id":"2","age":"18"}]</t>
@@ -200,37 +200,19 @@
     <t>3c39ddfd-2aae-48df-8793-a20f0d652fca</t>
   </si>
   <si>
-    <t>a890463d-d9e1-4b0a-b648-0b37bb1f8360</t>
+    <t>c1b4e192-2d8a-4f6e-a623-426b65ce4a66</t>
   </si>
   <si>
     <t>bbc9a8d4-4100-4aac-a598-6e4eabc6b6bf</t>
   </si>
   <si>
-    <r>
-      <t>tc_df_all_step_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>sink</t>
-    </r>
+    <t>tc_df_all_step_多sink</t>
   </si>
   <si>
     <t>0d3e58a1-2b84-4ab6-81e0-fa5b53c4926e</t>
   </si>
   <si>
-    <t>b7e7d44d-d145-487a-a8ea-0954ae126004</t>
+    <t>b4fbcf4e-2df3-453e-b233-41c4be082ffa</t>
   </si>
   <si>
     <t>[{"right_age":"50","left_name":"james","left_age":"50","right_id":"6","right_name":"james","left_id":"6"}]</t>
@@ -284,33 +266,2357 @@
     <t>[{"left_TIME":"2018-12-21 12:16:03.0","left_NAME":"name5","right_AGE":"82","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:03.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"82","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:02.0","left_NAME":"name5","right_AGE":"81","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:02.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"81","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:01.0","left_NAME":"name5","right_AGE":"80","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:01.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"80","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:00.0","left_NAME":"name5","right_AGE":"79","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:00.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"79","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:59.0","left_NAME":"name5","right_AGE":"78","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:59.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"78","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:58.0","left_NAME":"name5","right_AGE":"77","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:58.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"77","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:57.0","left_NAME":"name5","right_AGE":"76","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:57.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"76","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:56.0","left_NAME":"name5","right_AGE":"75","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:56.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"75","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:55.0","left_NAME":"name5","right_AGE":"74","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:55.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"74","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:54.0","left_NAME":"name5","right_AGE":"73","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:54.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"73","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:53.0","left_NAME":"name5","right_AGE":"72","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:53.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"72","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:52.0","left_NAME":"name5","right_AGE":"71","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:52.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"71","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:51.0","left_NAME":"name5","right_AGE":"70","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:51.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"70","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:50.0","left_NAME":"name5","right_AGE":"69","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:50.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"69","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:49.0","left_NAME":"name5","right_AGE":"68","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:49.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"68","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:48.0","left_NAME":"name5","right_AGE":"67","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:48.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"67","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:47.0","left_NAME":"name5","right_AGE":"66","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:47.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"66","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:45.0","left_NAME":"name5","right_AGE":"65","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:45.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"65","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:44.0","left_NAME":"name5","right_AGE":"64","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:44.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"64","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:43.0","left_NAME":"name5","right_AGE":"63","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:43.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"63","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:42.0","left_NAME":"name5","right_AGE":"62","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:42.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"62","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:41.0","left_NAME":"name5","right_AGE":"61","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:41.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"61","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:40.0","left_NAME":"name5","right_AGE":"60","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:40.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"60","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:39.0","left_NAME":"name5","right_AGE":"59","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:39.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"59","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:38.0","left_NAME":"name5","right_AGE":"58","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:38.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"58","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:37.0","left_NAME":"name5","right_AGE":"57","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:37.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"57","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:36.0","left_NAME":"name5","right_AGE":"56","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:36.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"56","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:35.0","left_NAME":"name5","right_AGE":"55","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:35.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"55","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:34.0","left_NAME":"name5","right_AGE":"54","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:34.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"54","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:33.0","left_NAME":"name5","right_AGE":"53","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:33.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"53","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:32.0","left_NAME":"name5","right_AGE":"52","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:32.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"52","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:31.0","left_NAME":"name5","right_AGE":"51","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:31.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"51","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:30.0","left_NAME":"name5","right_AGE":"50","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:30.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"50","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":"6"},{"left_TIME":"2018-12-21 12:15:29.0","left_NAME":"name5","right_AGE":"49","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:29.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"49","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:28.0","left_NAME":"name5","right_AGE":"48","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:28.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"48","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:26.0","left_NAME":"name5","right_AGE":"47","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:26.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"47","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:25.0","left_NAME":"name5","right_AGE":"46","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:25.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"46","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:24.0","left_NAME":"name5","right_AGE":"45","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:24.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"45","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:23.0","left_NAME":"name5","right_AGE":"44","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:23.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"44","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:22.0","left_NAME":"name5","right_AGE":"43","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:22.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"43","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:21.0","left_NAME":"name5","right_AGE":"42","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:21.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"42","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:20.0","left_NAME":"name5","right_AGE":"41","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:20.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"41","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:19.0","left_NAME":"name5","right_AGE":"40","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:19.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"40","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:18.0","left_NAME":"name5","right_AGE":"39","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:18.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"39","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:17.0","left_NAME":"name5","right_AGE":"38","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:17.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"38","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:16.0","left_NAME":"name5","right_AGE":"37","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:16.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"37","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:15.0","left_NAME":"name5","right_AGE":"36","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:15.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"36","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:14.0","left_NAME":"name5","right_AGE":"35","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:14.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"35","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:13.0","left_NAME":"name5","right_AGE":"34","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:13.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"34","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:12.0","left_NAME":"name5","right_AGE":"33","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:12.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"33","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""}]</t>
   </si>
   <si>
+    <t>[{"left_TIME":"2018-12-21 12:16:03.0","left_NAME":"name5","right_AGE":"82","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:03.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"82","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:02.0","left_NAME":"name5","right_AGE":"81","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:02.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"81","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:01.0","left_NAME":"name5","right_AGE":"80","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:01.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"80","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:00.0","left_NAME":"name5","right_AGE":"79","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:00.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"79","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:59.0","left_NAME":"name5","right_AGE":"78","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:59.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"78","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:58.0","left_NAME":"name5","right_AGE":"77","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:58.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"77","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:57.0","left_NAME":"name5","right_AGE":"76","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:57.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"76","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:56.0","left_NAME":"name5","right_AGE":"75","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:56.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"75","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:55.0","left_NAME":"name5","right_AGE":"74","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:55.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"74","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:54.0","left_NAME":"name5","right_AGE":"73","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:54.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"73","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:53.0","left_NAME":"name5","right_AGE":"72","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:53.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"72","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:52.0","left_NAME":"name5","right_AGE":"71","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:52.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"71","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:51.0","left_NAME":"name5","right_AGE":"70","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:51.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"70","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:50.0","left_NAME":"name5","right_AGE":"69","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:50.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"69","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:49.0","left_NAME":"name5","right_AGE":"68","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:49.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"68","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:48.0","left_NAME":"name5","right_AGE":"67","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:48.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"67","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:47.0","left_NAME":"name5","right_AGE":"66","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:47.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"66","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:45.0","left_NAME":"name5","right_AGE":"65","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:45.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"65","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:44.0","left_NAME":"name5","right_AGE":"64","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:44.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"64","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:43.0","left_NAME":"name5","right_AGE":"63","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:43.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"63","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:42.0","left_NAME":"name5","right_AGE":"62","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:42.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"62","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:41.0","left_NAME":"name5","right_AGE":"61","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:41.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"61","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:40.0","left_NAME":"name5","right_AGE":"60","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:40.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"60","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:39.0","left_NAME":"name5","right_AGE":"59","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:39.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"59","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:38.0","left_NAME":"name5","right_AGE":"58","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:38.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"58","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:37.0","left_NAME":"name5","right_AGE":"57","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:37.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"57","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:36.0","left_NAME":"name5","right_AGE":"56","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:36.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"56","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:35.0","left_NAME":"name5","right_AGE":"55","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:35.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"55","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:34.0","left_NAME":"name5","right_AGE":"54","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:34.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"54","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:33.0","left_NAME":"name5","right_AGE":"53","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:33.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"53","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:32.0","left_NAME":"name5","right_AGE":"52","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:32.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"52","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:31.0","left_NAME":"name5","right_AGE":"51","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:31.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"51","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:30.0","left_NAME":"name5","right_AGE":"50","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:30.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"50","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":"6"},{"left_TIME":"2018-12-21 12:15:29.0","left_NAME":"name5","right_AGE":"49","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:29.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"49","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:28.0","left_NAME":"name5","right_AGE":"48","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:28.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"48","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:26.0","left_NAME":"name5","right_AGE":"47","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:26.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"47","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:25.0","left_NAME":"name5","right_AGE":"46","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:25.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"46","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:24.0","left_NAME":"name5","right_AGE":"45","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:24.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"45","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:23.0","left_NAME":"name5","right_AGE":"44","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:23.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"44","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:22.0","left_NAME":"name5","right_AGE":"43","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:22.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"43","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:21.0","left_NAME":"name5","right_AGE":"42","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:21.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"42","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:20.0","left_NAME":"name5","right_AGE":"41","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:20.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"41","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:19.0","left_NAME":"name5","right_AGE":"40","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:19.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"40","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:18.0","left_NAME":"name5","right_AGE":"39","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:18.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"39","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:17.0","left_NAME":"name5","right_AGE":"38","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:17.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"38","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:16.0","left_NAME":"name5","right_AGE":"37","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:16.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"37","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:15.0","left_NAME":"name5","right_AGE":"36","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:15.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"36","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:14.0","left_NAME":"name5","right_AGE":"35","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:14.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"35","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:13.0","left_NAME":"name5","right_AGE":"34","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:13.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"34","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:12.0","left_NAME":"name5","right_AGE":"33","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:12.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"33","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:11.0","left_NAME":"name5","right_AGE":"32","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:11.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"32","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:10.0","left_NAME":"name5","right_AGE":"31","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:10.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"31","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:08.0","left_NAME":"name5","right_AGE":"30","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:08.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"30","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":"3"},{"left_TIME":"2018-12-21 12:15:07.0","left_NAME":"name5","right_AGE":"29","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:07.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"29","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:06.0","left_NAME":"name5","right_AGE":"28","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:06.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"28","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:05.0","left_NAME":"name5","right_AGE":"27","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:05.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"27","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:04.0","left_NAME":"name5","right_AGE":"26","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:04.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"26","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:03.0","left_NAME":"name5","right_AGE":"25","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:03.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"25","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:02.0","left_NAME":"name5","right_AGE":"24","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:02.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"24","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:01.0","left_NAME":"name5","right_AGE":"23","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:01.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"23","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:00.0","left_NAME":"name5","right_AGE":"22","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:00.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"22","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:14:59.0","left_NAME":"name5","right_AGE":"21","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:14:59.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"21","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:14:58.0","left_NAME":"name5","right_AGE":"20","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:14:58.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"20","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":"2"},{"left_TIME":"2018-12-21 12:14:57.0","left_NAME":"name5","right_AGE":"19","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:14:57.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"19","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:14:56.0","left_NAME":"name5","right_AGE":"18","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:14:56.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"18","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":"1"},{"left_TIME":"2018-12-21 12:14:55.0","left_NAME":"name5","right_AGE":"17","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:14:55.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"17","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:14:54.0","left_NAME":"name5","right_AGE":"16","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:14:54.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"16","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:14:52.0","left_NAME":"name5","right_AGE":"15","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:14:52.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"15","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:14:51.0","left_NAME":"name5","right_AGE":"14","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:14:51.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"14","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:14:50.0","left_NAME":"name5","right_AGE":"13","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:14:50.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"13","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:14:49.0","left_NAME":"name5","right_AGE":"12","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:14:49.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"12","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":"4"},{"left_TIME":"2018-12-21 12:14:48.0","left_NAME":"name5","right_AGE":"11","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:14:48.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"11","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:14:47.0","left_NAME":"name5","right_AGE":"10","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:14:47.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"10","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:14:46.0","left_NAME":"name5","right_AGE":"9","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","ri</t>
+  </si>
+  <si>
     <t>fail</t>
   </si>
   <si>
-    <t>execution: b7e7d44d-d145-487a-a8ea-0954ae126004 预期结果实际结果不一致 
-预期结果: [{"left_TIME":"2018-12-21 12:16:03.0","left_NAME":"name5","right_AGE":"82","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:03.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"82","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:02.0","left_NAME":"name5","right_AGE":"81","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:02.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"81","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:01.0","left_NAME":"name5","right_AGE":"80","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:01.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"80","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:00.0","left_NAME":"name5","right_AGE":"79","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:00.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"79","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:59.0","left_NAME":"name5","right_AGE":"78","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:59.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"78","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:58.0","left_NAME":"name5","right_AGE":"77","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:58.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"77","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:57.0","left_NAME":"name5","right_AGE":"76","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:57.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"76","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:56.0","left_NAME":"name5","right_AGE":"75","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:56.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"75","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:55.0","left_NAME":"name5","right_AGE":"74","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:55.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"74","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:54.0","left_NAME":"name5","right_AGE":"73","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:54.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"73","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:53.0","left_NAME":"name5","right_AGE":"72","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:53.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"72","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:52.0","left_NAME":"name5","right_AGE":"71","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:52.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"71","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:51.0","left_NAME":"name5","right_AGE":"70","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:51.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"70","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:50.0","left_NAME":"name5","right_AGE":"69","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:50.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"69","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:49.0","left_NAME":"name5","right_AGE":"68","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:49.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"68","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:48.0","left_NAME":"name5","right_AGE":"67","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:48.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"67","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:47.0","left_NAME":"name5","right_AGE":"66","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:47.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"66","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:45.0","left_NAME":"name5","right_AGE":"65","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:45.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"65","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:44.0","left_NAME":"name5","right_AGE":"64","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:44.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"64","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:43.0","left_NAME":"name5","right_AGE":"63","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:43.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"63","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:42.0","left_NAME":"name5","right_AGE":"62","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:42.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"62","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:41.0","left_NAME":"name5","right_AGE":"61","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:41.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"61","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:40.0","left_NAME":"name5","right_AGE":"60","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:40.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"60","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:39.0","left_NAME":"name5","right_AGE":"59","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:39.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"59","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:38.0","left_NAME":"name5","right_AGE":"58","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:38.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"58","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:37.0","left_NAME":"name5","right_AGE":"57","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:37.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"57","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:36.0","left_NAME":"name5","right_AGE":"56","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:36.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"56","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:35.0","left_NAME":"name5","right_AGE":"55","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:35.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"55","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:34.0","left_NAME":"name5","right_AGE":"54","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:34.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"54","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:33.0","left_NAME":"name5","right_AGE":"53","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:33.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"53","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:32.0","left_NAME":"name5","right_AGE":"52","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:32.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"52","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:31.0","left_NAME":"name5","right_AGE":"51","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:31.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"51","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:30.0","left_NAME":"name5","right_AGE":"50","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:30.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"50","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":"6"},{"left_TIME":"2018-12-21 12:15:29.0","left_NAME":"name5","right_AGE":"49","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:29.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"49","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:28.0","left_NAME":"name5","right_AGE":"48","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:28.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"48","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:26.0","left_NAME":"name5","right_AGE":"47","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:26.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"47","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:25.0","left_NAME":"name5","right_AGE":"46","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:25.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"46","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:24.0","left_NAME":"name5","right_AGE":"45","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:24.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"45","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:23.0","left_NAME":"name5","right_AGE":"44","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:23.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"44","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:22.0","left_NAME":"name5","right_AGE":"43","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:22.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"43","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:21.0","left_NAME":"name5","right_AGE":"42","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:21.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"42","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:20.0","left_NAME":"name5","right_AGE":"41","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:20.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"41","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:19.0","left_NAME":"name5","right_AGE":"40","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:19.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"40","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:18.0","left_NAME":"name5","right_AGE":"39","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:18.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"39","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:17.0","left_NAME":"name5","right_AGE":"38","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:17.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"38","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:16.0","left_NAME":"name5","right_AGE":"37","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:16.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"37","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:15.0","left_NAME":"name5","right_AGE":"36","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:15.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"36","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:14.0","left_NAME":"name5","right_AGE":"35","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:14.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"35","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:13.0","left_NAME":"name5","right_AGE":"34","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:13.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"34","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:12.0","left_NAME":"name5","right_AGE":"33","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:12.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"33","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""}]
-实际结果: [{"left_TIME":"2018-12-21 12:16:03.0","left_NAME":"name5","right_AGE":"82","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:03.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"82","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:02.0","left_NAME":"name5","right_AGE":"81","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:02.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"81","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:01.0","left_NAME":"name5","right_AGE":"80","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:01.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"80","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:00.0","left_NAME":"name5","right_AGE":"79","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:00.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"79","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:59.0","left_NAME":"name5","right_AGE":"78","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:59.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"78","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:58.0","left_NAME":"name5","right_AGE":"77","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:58.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"77","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:57.0","left_NAME":"name5","right_AGE":"76","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:57.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"76","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:56.0","left_NAME":"name5","right_AGE":"75","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:56.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"75","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:55.0","left_NAME":"name5","right_AGE":"74","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:55.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"74","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:54.0","left_NAME":"name5","right_AGE":"73","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:54.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"73","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:53.0","left_NAME":"name5","right_AGE":"72","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:53.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"72","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:52.0","left_NAME":"name5","right_AGE":"71","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:52.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"71","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:51.0","left_NAME":"name5","right_AGE":"70","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:51.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"70","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:50.0","left_NAME":"name5","right_AGE":"69","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:50.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"69","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:49.0","left_NAME":"name5","right_AGE":"68","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:49.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"68","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:48.0","left_NAME":"name5","right_AGE":"67","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:48.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"67","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:47.0","left_NAME":"name5","right_AGE":"66","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:47.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"66","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:45.0","left_NAME":"name5","right_AGE":"65","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:45.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"65","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:44.0","left_NAME":"name5","right_AGE":"64","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:44.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"64","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:43.0","left_NAME":"name5","right_AGE":"63","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:43.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"63","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:42.0","left_NAME":"name5","right_AGE":"62","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:42.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"62","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:41.0","left_NAME":"name5","right_AGE":"61","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:41.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"61","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:40.0","left_NAME":"name5","right_AGE":"60","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:40.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"60","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:39.0","left_NAME":"name5","right_AGE":"59","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALA</t>
+    <t xml:space="preserve">execution: b4fbcf4e-2df3-453e-b233-41c4be082ffa 预期结果实际结果不一致 </t>
   </si>
   <si>
     <t>81e3b910-9f26-45d4-921a-2ecb36aaf4f1</t>
   </si>
   <si>
-    <t>3ef2ae16-62f3-4474-9af9-ef9a5bafa890</t>
-  </si>
-  <si>
-    <t>0644b0e1-656d-4772-bce2-f2637d10a601</t>
-  </si>
-  <si>
-    <t>078f00fd-0975-4986-ab19-e32fbceb519e</t>
-  </si>
-  <si>
-    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
-  </si>
-  <si>
-    <t>4587ccb9-5394-4dd3-bb0f-943256e2b31e</t>
-  </si>
-  <si>
-    <t>b34dde1b-8dbc-49bb-8028-ad3c192b630f</t>
+    <t>9c0173f1-820e-4884-8c53-14abed39b53f</t>
+  </si>
+  <si>
+    <r>
+      <t>[{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"89","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"1"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"85","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"2"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"95","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>李四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"3"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"65","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>李四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"4"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"35","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>李四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"5"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"58","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"6"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"96","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"7"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"96","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"8"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"85","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"9"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"95","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"10"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"78","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"11"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"98","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小玲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"12"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"46","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小玲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"13"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"78","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小玲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"14"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"68","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"15"}]</t>
+    </r>
+  </si>
+  <si>
+    <t>d7e4d13d-9e94-4357-93b1-f0e94c86b281</t>
+  </si>
+  <si>
+    <r>
+      <t>[{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"89","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"1"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"85","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"2"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"95","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>李四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"3"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"96","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"7"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"96","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"8"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"85","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"9"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"95","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"10"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"78","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"11"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"98","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小玲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"12"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"78","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小玲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"14"}]</t>
+    </r>
+  </si>
+  <si>
+    <t>2af17ad3-4210-436a-bd2c-69cc3c0e05ba</t>
+  </si>
+  <si>
+    <r>
+      <t>[{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"89","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"1"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"85","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"2"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"68","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"15"}]</t>
+    </r>
+  </si>
+  <si>
+    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
+  </si>
+  <si>
+    <t>ca3b2e8d-253c-4a47-beff-dc5ff4530a2d</t>
+  </si>
+  <si>
+    <r>
+      <t>[{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"78","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"11"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"98","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小玲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"12"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"46","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小玲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"13"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"78","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小玲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"14"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"68","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"15"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"89","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"1"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"85","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"2"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"95","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>李四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"3"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"65","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>李四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"4"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"35","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>李四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"5"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"58","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"6"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"96","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"7"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"96","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"8"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"85","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"9"},{"subject":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade":"95","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"10"}]</t>
+    </r>
+  </si>
+  <si>
+    <t>09b4cf18-e07e-4602-a91f-5d7fbe194f97</t>
+  </si>
+  <si>
+    <r>
+      <t>[{"subject1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"1","name1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade1":"89"},{"subject1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"2","name1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade1":"85"},{"subject1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"3","name1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>李四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade1":"95"},{"subject1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"4","name1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>李四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade1":"65"},{"subject1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"5","name1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>李四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade1":"35"},{"subject1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"6","name1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade1":"58"},{"subject1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"7","name1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade1":"96"},{"subject1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"8","name1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade1":"96"},{"subject1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"9","name1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade1":"85"},{"subject1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"10","name1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade1":"95"},{"subject1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"11","name1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade1":"78"},{"subject1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"12","name1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小玲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade1":"98"},{"subject1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"13","name1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小玲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade1":"46"},{"subject1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"14","name1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小玲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade1":"78"},{"subject1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","id":"15","name1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","grade1":"68"}]</t>
+    </r>
+  </si>
+  <si>
+    <t>source,sample, sink</t>
+  </si>
+  <si>
+    <t>09296a11-5abf-4af4-a58f-2f14e414db67</t>
+  </si>
+  <si>
+    <t>tc_auto_df_sample_false1545633385849</t>
+  </si>
+  <si>
+    <t>57502b49-61df-43ce-b0b4-8744fd42e8bb</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming1","id":"1","age":"181"}]</t>
+  </si>
+  <si>
+    <t>source, supplement, sink</t>
+  </si>
+  <si>
+    <t>2557e2c9-dfcd-4305-b3f4-b4ab6df30783</t>
+  </si>
+  <si>
+    <t>tc_auto_df_sink_hdfs_path使用$进行分区、使用sliceTimeColumn1545633382888</t>
+  </si>
+  <si>
+    <t>e461803b-b2a0-42dd-baa9-ec1ab8684d3c</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming","id":"1","age":"18"}]</t>
+  </si>
+  <si>
+    <t>ec8cf502-11a6-4787-aa9c-e8e21c4b637d</t>
+  </si>
+  <si>
+    <t>2bdf6d74-3cbf-46a5-9c90-6abb6236a2a0</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaowang","id":"3","age":"30"}]</t>
+  </si>
+  <si>
+    <t>4d5db873-d7ea-45f2-8f56-3a283224dba7</t>
+  </si>
+  <si>
+    <t>[{"name":"tyest","id":"4","age":"12"}]</t>
+  </si>
+  <si>
+    <t>999e6bfe-efac-433c-90e2-47956c350481</t>
+  </si>
+  <si>
+    <t>[{"name":"空","id":"5","age":"空"}]</t>
+  </si>
+  <si>
+    <t>797fbce6-c33d-48ff-a832-43742447d8b9</t>
+  </si>
+  <si>
+    <t>tc_auto_df_join_outerjoin1545633381249</t>
+  </si>
+  <si>
+    <t>d8a6e308-abcc-4782-8b88-7da81ec78c4d</t>
+  </si>
+  <si>
+    <t>[{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"},{"Oname":"","Osalary":"","Oid":""},{"Oname":"","Osalary":"","Oid":""}]</t>
+  </si>
+  <si>
+    <t>3952884c-6dd3-40b5-9b26-3d3865dd0d7f</t>
+  </si>
+  <si>
+    <t>tc_auto_df_join_inner1545633379403</t>
+  </si>
+  <si>
+    <t>1b29d436-ce04-4ed8-82ba-1bae313ff860</t>
+  </si>
+  <si>
+    <t>[{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"}]</t>
+  </si>
+  <si>
+    <t>46fca021-28be-4699-a0a8-9c5fdd510f88</t>
+  </si>
+  <si>
+    <r>
+      <t>tc_auto_df_union_001_distinct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>true1545633380382</t>
+    </r>
+  </si>
+  <si>
+    <t>2a7fb401-f7df-4961-8b98-f52d9c8b59c0</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaowang1","id":"3","age":"301"},{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"tyest1","id":"4","age":"121"},{"name":"james1","id":"1","age":"501"}]</t>
+  </si>
+  <si>
+    <t>4a101c14-1cdb-48b5-bd39-06b7aeef6858</t>
+  </si>
+  <si>
+    <t>tc_auto_df_top1545633383981</t>
+  </si>
+  <si>
+    <t>c09566fa-8b70-49f6-a4c0-4e9e90fc5d0b</t>
+  </si>
+  <si>
+    <t>[{"name":"tyest","id":"4","age":"12"},{"name":"xiaoming","id":"1","age":"18"},{"name":"james","id":"6","age":"50"},{"name":"xiaowang","id":"3","age":"30"},{"name":"","id":"5","age":""},{"name":"xiaohong","id":"2","age":"20"}]</t>
+  </si>
+  <si>
+    <t>593c39ef-3116-431b-8e7f-f8d3e8aab452</t>
+  </si>
+  <si>
+    <t>tc_auto_df_desicion_yes1545633385200</t>
+  </si>
+  <si>
+    <t>aa506523-53b8-4242-bd20-bbb903c3da1d</t>
+  </si>
+  <si>
+    <t>6730da64-9444-44ff-8cef-fa0c74fa612e</t>
+  </si>
+  <si>
+    <t>tc_auto_df_sink_mysql_length1545633380883</t>
+  </si>
+  <si>
+    <t>4d41e563-6e7b-4ecd-9db9-c6f3af87d323</t>
+  </si>
+  <si>
+    <t>6cba86d5-1969-4e5f-a6f9-410d4eb9c030</t>
+  </si>
+  <si>
+    <t>tc_auto_df_minus1545633384706</t>
+  </si>
+  <si>
+    <t>66bf6ade-107d-4a9e-816e-b496c903221e</t>
+  </si>
+  <si>
+    <t>72a5c601-52a8-4f75-b194-5dc7507167be</t>
+  </si>
+  <si>
+    <r>
+      <t>tc_auto_df_sink_hive_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>分区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>1545633382059</t>
+    </r>
+  </si>
+  <si>
+    <t>f9a691f5-d0c5-44ab-aa1a-d32957f6c803</t>
+  </si>
+  <si>
+    <t>[{"pt_id":"3","name":"xiaoming","id":"1","age":"22"},{"pt_id":"3","name":"xiaohong","id":"2","age":"33"},{"pt_id":"3","name":"xiaozhang","id":"3","age":"18"},{"pt_id":"3","name":"xiaohuang","id":"1","age":"18"},{"pt_id":"4","name":"xiaoming","id":"1","age":"1000"},{"pt_id":"4","name":"xiaohong","id":"2","age":"20000"},{"pt_id":"4","name":"xiaowang","id":"3","age":"3012"},{"pt_id":"4","name":"tyest","id":"5","age":"12"}]</t>
+  </si>
+  <si>
+    <t>73cb302d-2fb3-4b54-b413-2247b98f5d1a</t>
+  </si>
+  <si>
+    <r>
+      <t>tc_auto_df_filter_age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>1545633384496</t>
+    </r>
+  </si>
+  <si>
+    <t>35599327-0f59-414e-9776-06b9188e9ee5</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"tyest","id":"4","age":"12"}]</t>
   </si>
 </sst>
 </file>
@@ -323,11 +2629,36 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -337,8 +2668,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -352,23 +2691,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -383,69 +2706,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -467,7 +2728,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -481,12 +2781,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,37 +2826,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,25 +2850,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,43 +2874,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +2892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,7 +2904,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,19 +2916,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,13 +2982,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,6 +3029,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -699,16 +3045,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,7 +3078,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,181 +3123,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1502,13 +3844,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="4" max="4" width="9.14285714285714" style="1"/>
+    <col min="7" max="7" width="9.14285714285714" style="2"/>
+    <col min="12" max="12" width="32.7142857142857" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -1520,7 +3867,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1529,7 +3876,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1558,7 +3905,7 @@
       <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E2" t="s">
@@ -1567,7 +3914,7 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H2" t="s">
@@ -1590,7 +3937,7 @@
       <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E3" t="s">
@@ -1599,7 +3946,7 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>55</v>
       </c>
       <c r="H3" t="s">
@@ -1616,7 +3963,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E4" t="s">
@@ -1625,7 +3972,7 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>55</v>
       </c>
       <c r="H4" t="s">
@@ -1642,7 +3989,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E5" t="s">
@@ -1651,7 +3998,7 @@
       <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="H5" t="s">
@@ -1674,7 +4021,7 @@
       <c r="C6" t="s">
         <v>59</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E6" t="s">
@@ -1683,7 +4030,7 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H6" t="s">
@@ -1703,10 +4050,10 @@
       <c r="B7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E7" t="s">
@@ -1715,7 +4062,7 @@
       <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>66</v>
       </c>
       <c r="H7" t="s">
@@ -1732,7 +4079,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E8" t="s">
@@ -1741,7 +4088,7 @@
       <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H8" t="s">
@@ -1758,7 +4105,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E9" t="s">
@@ -1767,7 +4114,7 @@
       <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>69</v>
       </c>
       <c r="H9" t="s">
@@ -1784,7 +4131,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E10" t="s">
@@ -1793,7 +4140,7 @@
       <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>71</v>
       </c>
       <c r="H10" t="s">
@@ -1810,7 +4157,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E11" t="s">
@@ -1819,7 +4166,7 @@
       <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H11" t="s">
@@ -1836,7 +4183,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E12" t="s">
@@ -1845,7 +4192,7 @@
       <c r="F12" t="s">
         <v>16</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H12" t="s">
@@ -1862,7 +4209,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E13" t="s">
@@ -1871,7 +4218,7 @@
       <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>77</v>
       </c>
       <c r="H13" t="s">
@@ -1888,7 +4235,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E14" t="s">
@@ -1897,7 +4244,7 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>79</v>
       </c>
       <c r="H14" t="s">
@@ -1914,7 +4261,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E15" t="s">
@@ -1923,7 +4270,7 @@
       <c r="F15" t="s">
         <v>16</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H15" t="s">
@@ -1936,11 +4283,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" ht="99.8" customHeight="1" spans="1:11">
+    <row r="16" ht="17" customHeight="1" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E16" t="s">
@@ -1949,15 +4296,17 @@
       <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H16"/>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
       <c r="I16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="2" t="s">
         <v>84</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="K16" t="s">
         <v>19</v>
@@ -1967,8 +4316,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
-        <v>85</v>
+      <c r="D17" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E17" t="s">
         <v>65</v>
@@ -1976,7 +4325,7 @@
       <c r="F17" t="s">
         <v>16</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H17" t="s">
@@ -1999,17 +4348,17 @@
       <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
-      <c r="G18" t="s">
-        <v>17</v>
+      <c r="G18" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="H18" t="s">
         <v>17</v>
@@ -2034,17 +4383,17 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
-        <v>25</v>
+      <c r="G19" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="H19" t="s">
         <v>25</v>
@@ -2069,20 +4418,20 @@
       <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
-      <c r="G20" t="s">
-        <v>31</v>
+      <c r="G20" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
@@ -2104,17 +4453,17 @@
       <c r="C21" t="s">
         <v>35</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
-      <c r="G21" t="s">
-        <v>38</v>
+      <c r="G21" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="H21" t="s">
         <v>38</v>
@@ -2139,17 +4488,17 @@
       <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
-      <c r="G22" t="s">
-        <v>44</v>
+      <c r="G22" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="H22" t="s">
         <v>44</v>
@@ -2162,6 +4511,328 @@
       </c>
       <c r="L22" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -448,55 +448,55 @@
     <t xml:space="preserve">execution: 8a2e83a0-3579-4e06-8872-fe51e3551b45 预期结果实际结果不一致 </t>
   </si>
   <si>
+    <t>68c86e6b-f6f8-4c7b-b61d-28123e9ddb03</t>
+  </si>
+  <si>
+    <t>02b3801a-576a-40f4-b8d9-f69619a9d24a</t>
+  </si>
+  <si>
+    <t>[{"left_name":"james","right_id":"","right_name":"","salary":"","left_id":"6","age":"1","age1":""}]</t>
+  </si>
+  <si>
+    <t>4ff14278-bdd7-469d-ae71-d3f6fcaed4dd</t>
+  </si>
+  <si>
+    <t>[{"right_age":"30","left_name":"xiaoming","left_age":"18","right_id":"3","right_name":"xiaowang","left_id":"1"},{"right_age":"30","left_name":"xiaohong","left_age":"20","right_id":"3","right_name":"xiaowang","left_id":"2"},{"right_age":"30","left_name":"xiaowang","left_age":"30","right_id":"3","right_name":"xiaowang","left_id":"3"},{"right_age":"30","left_name":"tyest","left_age":"12","right_id":"3","right_name":"xiaowang","left_id":"4"},{"right_age":"30","left_name":"","left_age":"","right_id":"3","right_name":"xiaowang","left_id":"5"},{"right_age":"30","left_name":"james","left_age":"50","right_id":"3","right_name":"xiaowang","left_id":"6"},{"right_age":"20","left_name":"xiaoming","left_age":"18","right_id":"2","right_name":"xiaohong","left_id":"1"},{"right_age":"20","left_name":"xiaohong","left_age":"20","right_id":"2","right_name":"xiaohong","left_id":"2"},{"right_age":"20","left_name":"xiaowang","left_age":"30","right_id":"2","right_name":"xiaohong","left_id":"3"},{"right_age":"20","left_name":"tyest","left_age":"12","right_id":"2","right_name":"xiaohong","left_id":"4"},{"right_age":"20","left_name":"","left_age":"","right_id":"2","right_name":"xiaohong","left_id":"5"},{"right_age":"20","left_name":"james","left_age":"50","right_id":"2","right_name":"xiaohong","left_id":"6"},{"right_age":"18","left_name":"xiaoming","left_age":"18","right_id":"1","right_name":"xiaoming","left_id":"1"},{"right_age":"18","left_name":"xiaohong","left_age":"20","right_id":"1","right_name":"xiaoming","left_id":"2"},{"right_age":"18","left_name":"xiaowang","left_age":"30","right_id":"1","right_name":"xiaoming","left_id":"3"},{"right_age":"18","left_name":"tyest","left_age":"12","right_id":"1","right_name":"xiaoming","left_id":"4"},{"right_age":"18","left_name":"","left_age":"","right_id":"1","right_name":"xiaoming","left_id":"5"},{"right_age":"18","left_name":"james","left_age":"50","right_id":"1","right_name":"xiaoming","left_id":"6"},{"right_age":"12","left_name":"xiaoming","left_age":"18","right_id":"4","right_name":"tyest","left_id":"1"},{"right_age":"12","left_name":"xiaohong","left_age":"20","right_id":"4","right_name":"tyest","left_id":"2"},{"right_age":"12","left_name":"xiaowang","left_age":"30","right_id":"4","right_name":"tyest","left_id":"3"},{"right_age":"12","left_name":"tyest","left_age":"12","right_id":"4","right_name":"tyest","left_id":"4"},{"right_age":"12","left_name":"","left_age":"","right_id":"4","right_name":"tyest","left_id":"5"},{"right_age":"12","left_name":"james","left_age":"50","right_id":"4","right_name":"tyest","left_id":"6"},{"right_age":"50","left_name":"xiaoming","left_age":"18","right_id":"6","right_name":"james","left_id":"1"},{"right_age":"50","left_name":"xiaohong","left_age":"20","right_id":"6","right_name":"james","left_id":"2"},{"right_age":"50","left_name":"xiaowang","left_age":"30","right_id":"6","right_name":"james","left_id":"3"},{"right_age":"50","left_name":"tyest","left_age":"12","right_id":"6","right_name":"james","left_id":"4"},{"right_age":"50","left_name":"","left_age":"","right_id":"6","right_name":"james","left_id":"5"},{"right_age":"50","left_name":"james","left_age":"50","right_id":"6","right_name":"james","left_id":"6"},{"right_age":"","left_name":"xiaoming","left_age":"18","right_id":"5","right_name":"","left_id":"1"},{"right_age":"","left_name":"xiaohong","left_age":"20","right_id":"5","right_name":"","left_id":"2"},{"right_age":"","left_name":"xiaowang","left_age":"30","right_id":"5","right_name":"","left_id":"3"},{"right_age":"","left_name":"tyest","left_age":"12","right_id":"5","right_name":"","left_id":"4"},{"right_age":"","left_name":"","left_age":"","right_id":"5","right_name":"","left_id":"5"},{"right_age":"","left_name":"james","left_age":"50","right_id":"5","right_name":"","left_id":"6"}]</t>
+  </si>
+  <si>
+    <t>2ef3666a-1ef8-4928-8c8b-d0265ed39ecc</t>
+  </si>
+  <si>
+    <t>[{"a":"6","b":"james","c":"1"}]</t>
+  </si>
+  <si>
+    <t>933b5159-75ee-4553-9cef-f22dbe20d1c7</t>
+  </si>
+  <si>
+    <t>4183b8bc-e5d2-435a-b1b5-a5e29adfbf6d</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"xiaohong","id":"2","age":"20"},{"name":"xiaowang","id":"3","age":"30"},{"name":"tyest","id":"4","age":"12"},{"name":"null","id":"5","age":"null"},{"name":"james","id":"6","age":"50"}]</t>
+  </si>
+  <si>
+    <t>93b30137-b322-4056-921f-1792759be692</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>d3353172-dfb8-4131-a274-b16900ed054f</t>
+  </si>
+  <si>
+    <t>068ed5db-9be7-4fc0-a50d-2650557779ad</t>
+  </si>
+  <si>
+    <t>[{"left_TIME":"2018-12-21 12:16:03.0","left_NAME":"name5","right_AGE":"82","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:03.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"82","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:02.0","left_NAME":"name5","right_AGE":"81","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:02.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"81","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:01.0","left_NAME":"name5","right_AGE":"80","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:01.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"80","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:00.0","left_NAME":"name5","right_AGE":"79","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:00.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"79","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:59.0","left_NAME":"name5","right_AGE":"78","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:59.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"78","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:58.0","left_NAME":"name5","right_AGE":"77","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:58.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"77","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:57.0","left_NAME":"name5","right_AGE":"76","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:57.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"76","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:56.0","left_NAME":"name5","right_AGE":"75","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:56.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"75","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:55.0","left_NAME":"name5","right_AGE":"74","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:55.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"74","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:54.0","left_NAME":"name5","right_AGE":"73","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:54.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"73","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:53.0","left_NAME":"name5","right_AGE":"72","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:53.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"72","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:52.0","left_NAME":"name5","right_AGE":"71","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:52.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"71","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:51.0","left_NAME":"name5","right_AGE":"70","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:51.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"70","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:50.0","left_NAME":"name5","right_AGE":"69","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:50.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"69","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:49.0","left_NAME":"name5","right_AGE":"68","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:49.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"68","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:48.0","left_NAME":"name5","right_AGE":"67","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:48.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"67","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:47.0","left_NAME":"name5","right_AGE":"66","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:47.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"66","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:45.0","left_NAME":"name5","right_AGE":"65","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:45.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"65","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:44.0","left_NAME":"name5","right_AGE":"64","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:44.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"64","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:43.0","left_NAME":"name5","right_AGE":"63","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:43.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"63","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:42.0","left_NAME":"name5","right_AGE":"62","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:42.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"62","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:41.0","left_NAME":"name5","right_AGE":"61","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:41.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"61","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:40.0","left_NAME":"name5","right_AGE":"60","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:40.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"60","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:39.0","left_NAME":"name5","right_AGE":"59","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:39.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"59","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:38.0","left_NAME":"name5","right_AGE":"58","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:38.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"58","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:37.0","left_NAME":"name5","right_AGE":"57","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:37.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"57","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:36.0","left_NAME":"name5","right_AGE":"56","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:36.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"56","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:35.0","left_NAME":"name5","right_AGE":"55","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:35.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"55","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:34.0","left_NAME":"name5","right_AGE":"54","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:34.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"54","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:33.0","left_NAME":"name5","right_AGE":"53","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:33.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"53","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:32.0","left_NAME":"name5","right_AGE":"52","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:32.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"52","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:31.0","left_NAME":"name5","right_AGE":"51","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:31.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"51","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:30.0","left_NAME":"name5","right_AGE":"50","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:30.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"50","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":"6"},{"left_TIME":"2018-12-21 12:15:29.0","left_NAME":"name5","right_AGE":"49","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:29.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"49","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:28.0","left_NAME":"name5","right_AGE":"48","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:28.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"48","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:26.0","left_NAME":"name5","right_AGE":"47","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:26.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"47","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:25.0","left_NAME":"name5","right_AGE":"46","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:25.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"46","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:24.0","left_NAME":"name5","right_AGE":"45","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:24.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"45","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:23.0","left_NAME":"name5","right_AGE":"44","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:23.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"44","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:22.0","left_NAME":"name5","right_AGE":"43","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:22.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"43","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:21.0","left_NAME":"name5","right_AGE":"42","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:21.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"42","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:20.0","left_NAME":"name5","right_AGE":"41","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:20.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"41","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:19.0","left_NAME":"name5","right_AGE":"40","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:19.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"40","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:18.0","left_NAME":"name5","right_AGE":"39","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:18.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"39","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:17.0","left_NAME":"name5","right_AGE":"38","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:17.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"38","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:16.0","left_NAME":"name5","right_AGE":"37","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:16.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"37","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:15.0","left_NAME":"name5","right_AGE":"36","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:15.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"36","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:14.0","left_NAME":"name5","right_AGE":"35","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:14.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"35","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:13.0","left_NAME":"name5","right_AGE":"34","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:13.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"34","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:12.0","left_NAME":"name5","right_AGE":"33","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:12.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"33","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""}]</t>
+  </si>
+  <si>
+    <t>81e3b910-9f26-45d4-921a-2ecb36aaf4f1</t>
+  </si>
+  <si>
     <t>涉及到返回多个数据集且顺序不固定，需要单独处理</t>
-  </si>
-  <si>
-    <t>68c86e6b-f6f8-4c7b-b61d-28123e9ddb03</t>
-  </si>
-  <si>
-    <t>02b3801a-576a-40f4-b8d9-f69619a9d24a</t>
-  </si>
-  <si>
-    <t>[{"left_name":"james","right_id":"","right_name":"","salary":"","left_id":"6","age":"1","age1":""}]</t>
-  </si>
-  <si>
-    <t>4ff14278-bdd7-469d-ae71-d3f6fcaed4dd</t>
-  </si>
-  <si>
-    <t>[{"right_age":"30","left_name":"xiaoming","left_age":"18","right_id":"3","right_name":"xiaowang","left_id":"1"},{"right_age":"30","left_name":"xiaohong","left_age":"20","right_id":"3","right_name":"xiaowang","left_id":"2"},{"right_age":"30","left_name":"xiaowang","left_age":"30","right_id":"3","right_name":"xiaowang","left_id":"3"},{"right_age":"30","left_name":"tyest","left_age":"12","right_id":"3","right_name":"xiaowang","left_id":"4"},{"right_age":"30","left_name":"","left_age":"","right_id":"3","right_name":"xiaowang","left_id":"5"},{"right_age":"30","left_name":"james","left_age":"50","right_id":"3","right_name":"xiaowang","left_id":"6"},{"right_age":"20","left_name":"xiaoming","left_age":"18","right_id":"2","right_name":"xiaohong","left_id":"1"},{"right_age":"20","left_name":"xiaohong","left_age":"20","right_id":"2","right_name":"xiaohong","left_id":"2"},{"right_age":"20","left_name":"xiaowang","left_age":"30","right_id":"2","right_name":"xiaohong","left_id":"3"},{"right_age":"20","left_name":"tyest","left_age":"12","right_id":"2","right_name":"xiaohong","left_id":"4"},{"right_age":"20","left_name":"","left_age":"","right_id":"2","right_name":"xiaohong","left_id":"5"},{"right_age":"20","left_name":"james","left_age":"50","right_id":"2","right_name":"xiaohong","left_id":"6"},{"right_age":"18","left_name":"xiaoming","left_age":"18","right_id":"1","right_name":"xiaoming","left_id":"1"},{"right_age":"18","left_name":"xiaohong","left_age":"20","right_id":"1","right_name":"xiaoming","left_id":"2"},{"right_age":"18","left_name":"xiaowang","left_age":"30","right_id":"1","right_name":"xiaoming","left_id":"3"},{"right_age":"18","left_name":"tyest","left_age":"12","right_id":"1","right_name":"xiaoming","left_id":"4"},{"right_age":"18","left_name":"","left_age":"","right_id":"1","right_name":"xiaoming","left_id":"5"},{"right_age":"18","left_name":"james","left_age":"50","right_id":"1","right_name":"xiaoming","left_id":"6"},{"right_age":"12","left_name":"xiaoming","left_age":"18","right_id":"4","right_name":"tyest","left_id":"1"},{"right_age":"12","left_name":"xiaohong","left_age":"20","right_id":"4","right_name":"tyest","left_id":"2"},{"right_age":"12","left_name":"xiaowang","left_age":"30","right_id":"4","right_name":"tyest","left_id":"3"},{"right_age":"12","left_name":"tyest","left_age":"12","right_id":"4","right_name":"tyest","left_id":"4"},{"right_age":"12","left_name":"","left_age":"","right_id":"4","right_name":"tyest","left_id":"5"},{"right_age":"12","left_name":"james","left_age":"50","right_id":"4","right_name":"tyest","left_id":"6"},{"right_age":"50","left_name":"xiaoming","left_age":"18","right_id":"6","right_name":"james","left_id":"1"},{"right_age":"50","left_name":"xiaohong","left_age":"20","right_id":"6","right_name":"james","left_id":"2"},{"right_age":"50","left_name":"xiaowang","left_age":"30","right_id":"6","right_name":"james","left_id":"3"},{"right_age":"50","left_name":"tyest","left_age":"12","right_id":"6","right_name":"james","left_id":"4"},{"right_age":"50","left_name":"","left_age":"","right_id":"6","right_name":"james","left_id":"5"},{"right_age":"50","left_name":"james","left_age":"50","right_id":"6","right_name":"james","left_id":"6"},{"right_age":"","left_name":"xiaoming","left_age":"18","right_id":"5","right_name":"","left_id":"1"},{"right_age":"","left_name":"xiaohong","left_age":"20","right_id":"5","right_name":"","left_id":"2"},{"right_age":"","left_name":"xiaowang","left_age":"30","right_id":"5","right_name":"","left_id":"3"},{"right_age":"","left_name":"tyest","left_age":"12","right_id":"5","right_name":"","left_id":"4"},{"right_age":"","left_name":"","left_age":"","right_id":"5","right_name":"","left_id":"5"},{"right_age":"","left_name":"james","left_age":"50","right_id":"5","right_name":"","left_id":"6"}]</t>
-  </si>
-  <si>
-    <t>2ef3666a-1ef8-4928-8c8b-d0265ed39ecc</t>
-  </si>
-  <si>
-    <t>[{"a":"6","b":"james","c":"1"}]</t>
-  </si>
-  <si>
-    <t>933b5159-75ee-4553-9cef-f22dbe20d1c7</t>
-  </si>
-  <si>
-    <t>4183b8bc-e5d2-435a-b1b5-a5e29adfbf6d</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"xiaohong","id":"2","age":"20"},{"name":"xiaowang","id":"3","age":"30"},{"name":"tyest","id":"4","age":"12"},{"name":"null","id":"5","age":"null"},{"name":"james","id":"6","age":"50"}]</t>
-  </si>
-  <si>
-    <t>93b30137-b322-4056-921f-1792759be692</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>d3353172-dfb8-4131-a274-b16900ed054f</t>
-  </si>
-  <si>
-    <t>068ed5db-9be7-4fc0-a50d-2650557779ad</t>
-  </si>
-  <si>
-    <t>[{"left_TIME":"2018-12-21 12:16:03.0","left_NAME":"name5","right_AGE":"82","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:03.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"82","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:02.0","left_NAME":"name5","right_AGE":"81","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:02.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"81","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:01.0","left_NAME":"name5","right_AGE":"80","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:01.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"80","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:00.0","left_NAME":"name5","right_AGE":"79","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:00.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"79","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:59.0","left_NAME":"name5","right_AGE":"78","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:59.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"78","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:58.0","left_NAME":"name5","right_AGE":"77","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:58.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"77","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:57.0","left_NAME":"name5","right_AGE":"76","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:57.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"76","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:56.0","left_NAME":"name5","right_AGE":"75","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:56.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"75","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:55.0","left_NAME":"name5","right_AGE":"74","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:55.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"74","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:54.0","left_NAME":"name5","right_AGE":"73","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:54.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"73","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:53.0","left_NAME":"name5","right_AGE":"72","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:53.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"72","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:52.0","left_NAME":"name5","right_AGE":"71","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:52.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"71","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:51.0","left_NAME":"name5","right_AGE":"70","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:51.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"70","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:50.0","left_NAME":"name5","right_AGE":"69","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:50.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"69","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:49.0","left_NAME":"name5","right_AGE":"68","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:49.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"68","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:48.0","left_NAME":"name5","right_AGE":"67","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:48.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"67","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:47.0","left_NAME":"name5","right_AGE":"66","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:47.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"66","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:45.0","left_NAME":"name5","right_AGE":"65","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:45.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"65","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:44.0","left_NAME":"name5","right_AGE":"64","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:44.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"64","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:43.0","left_NAME":"name5","right_AGE":"63","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:43.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"63","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:42.0","left_NAME":"name5","right_AGE":"62","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:42.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"62","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:41.0","left_NAME":"name5","right_AGE":"61","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:41.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"61","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:40.0","left_NAME":"name5","right_AGE":"60","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:40.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"60","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:39.0","left_NAME":"name5","right_AGE":"59","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:39.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"59","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:38.0","left_NAME":"name5","right_AGE":"58","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:38.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"58","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:37.0","left_NAME":"name5","right_AGE":"57","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:37.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"57","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:36.0","left_NAME":"name5","right_AGE":"56","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:36.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"56","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:35.0","left_NAME":"name5","right_AGE":"55","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:35.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"55","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:34.0","left_NAME":"name5","right_AGE":"54","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:34.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"54","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:33.0","left_NAME":"name5","right_AGE":"53","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:33.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"53","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:32.0","left_NAME":"name5","right_AGE":"52","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:32.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"52","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:31.0","left_NAME":"name5","right_AGE":"51","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:31.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"51","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:30.0","left_NAME":"name5","right_AGE":"50","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:30.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"50","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":"6"},{"left_TIME":"2018-12-21 12:15:29.0","left_NAME":"name5","right_AGE":"49","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:29.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"49","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:28.0","left_NAME":"name5","right_AGE":"48","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:28.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"48","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:26.0","left_NAME":"name5","right_AGE":"47","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:26.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"47","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:25.0","left_NAME":"name5","right_AGE":"46","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:25.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"46","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:24.0","left_NAME":"name5","right_AGE":"45","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:24.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"45","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:23.0","left_NAME":"name5","right_AGE":"44","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:23.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"44","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:22.0","left_NAME":"name5","right_AGE":"43","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:22.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"43","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:21.0","left_NAME":"name5","right_AGE":"42","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:21.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"42","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:20.0","left_NAME":"name5","right_AGE":"41","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:20.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"41","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:19.0","left_NAME":"name5","right_AGE":"40","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:19.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"40","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:18.0","left_NAME":"name5","right_AGE":"39","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:18.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"39","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:17.0","left_NAME":"name5","right_AGE":"38","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:17.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"38","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:16.0","left_NAME":"name5","right_AGE":"37","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:16.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"37","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:15.0","left_NAME":"name5","right_AGE":"36","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:15.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"36","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:14.0","left_NAME":"name5","right_AGE":"35","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:14.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"35","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:13.0","left_NAME":"name5","right_AGE":"34","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:13.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"34","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:12.0","left_NAME":"name5","right_AGE":"33","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:12.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"33","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""}]</t>
-  </si>
-  <si>
-    <t>81e3b910-9f26-45d4-921a-2ecb36aaf4f1</t>
   </si>
   <si>
     <t>c06eda03-8a2e-4967-b8dd-a05c935d7722</t>
@@ -554,29 +554,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -589,16 +575,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -612,27 +590,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -641,17 +598,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -672,17 +621,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -703,6 +665,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -713,13 +713,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,25 +845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,61 +863,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,73 +887,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,9 +909,68 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,210 +1004,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1885,10 +1885,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.5"/>
@@ -2527,7 +2527,374 @@
         <v>21</v>
       </c>
     </row>
+    <row r="20" customFormat="1" spans="1:13">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" customFormat="1" ht="12.75" spans="1:13">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:13">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" customFormat="1" ht="12.75" spans="1:13">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:13">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s">
+        <v>142</v>
+      </c>
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" customFormat="1" ht="12.75" spans="1:13">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:13">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" customFormat="1" ht="12.75" spans="1:13">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>142</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:13">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" customFormat="1" ht="17" customHeight="1" spans="1:13">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:13">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
+        <v>142</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M20:M30"/>
+  </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.609027777777778" bottom="0.36875" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2544,7 +2911,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="A2" sqref="$A2:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2622,7 +2989,7 @@
         <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2630,7 +2997,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
         <v>140</v>
@@ -2660,7 +3027,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
         <v>140</v>
@@ -2669,7 +3036,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -2690,7 +3057,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
         <v>140</v>
@@ -2699,7 +3066,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -2720,7 +3087,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
         <v>140</v>
@@ -2729,7 +3096,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
@@ -2750,7 +3117,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
         <v>140</v>
@@ -2777,7 +3144,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
         <v>140</v>
@@ -2786,7 +3153,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
@@ -2807,7 +3174,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
         <v>140</v>
@@ -2816,7 +3183,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
@@ -2837,7 +3204,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
         <v>140</v>
@@ -2846,7 +3213,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
@@ -2867,7 +3234,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
         <v>140</v>
@@ -2876,7 +3243,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
@@ -2897,7 +3264,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
         <v>140</v>
@@ -2906,7 +3273,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>

--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -448,6 +448,9 @@
     <t xml:space="preserve">execution: 8a2e83a0-3579-4e06-8872-fe51e3551b45 预期结果实际结果不一致 </t>
   </si>
   <si>
+    <t>涉及到返回多个数据集且顺序不固定，需要单独处理</t>
+  </si>
+  <si>
     <t>68c86e6b-f6f8-4c7b-b61d-28123e9ddb03</t>
   </si>
   <si>
@@ -494,9 +497,6 @@
   </si>
   <si>
     <t>81e3b910-9f26-45d4-921a-2ecb36aaf4f1</t>
-  </si>
-  <si>
-    <t>涉及到返回多个数据集且顺序不固定，需要单独处理</t>
   </si>
   <si>
     <t>c06eda03-8a2e-4967-b8dd-a05c935d7722</t>
@@ -520,8 +520,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -554,7 +554,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -569,30 +675,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -606,16 +689,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -628,81 +703,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -713,13 +713,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,19 +755,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,13 +827,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +839,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,7 +851,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,7 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,91 +893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,35 +909,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -945,31 +916,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -990,165 +946,209 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1885,10 +1885,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.5"/>
@@ -2527,374 +2527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:13">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" customFormat="1" ht="12.75" spans="1:13">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s">
-        <v>142</v>
-      </c>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" customFormat="1" spans="1:13">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" t="s">
-        <v>142</v>
-      </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" customFormat="1" ht="12.75" spans="1:13">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" customFormat="1" spans="1:13">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" t="s">
-        <v>142</v>
-      </c>
-      <c r="K24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" customFormat="1" ht="12.75" spans="1:13">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" customFormat="1" spans="1:13">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" customFormat="1" ht="12.75" spans="1:13">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27" t="s">
-        <v>153</v>
-      </c>
-      <c r="E27" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" t="s">
-        <v>142</v>
-      </c>
-      <c r="K27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:13">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" t="s">
-        <v>142</v>
-      </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" customFormat="1" spans="1:13">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" t="s">
-        <v>142</v>
-      </c>
-      <c r="K30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30"/>
-      <c r="M30" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="M20:M30"/>
-  </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.609027777777778" bottom="0.36875" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2989,7 +2622,7 @@
         <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2997,7 +2630,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
         <v>140</v>
@@ -3027,7 +2660,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
         <v>140</v>
@@ -3036,7 +2669,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -3057,7 +2690,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
         <v>140</v>
@@ -3066,7 +2699,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -3087,7 +2720,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
         <v>140</v>
@@ -3096,7 +2729,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
@@ -3117,7 +2750,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
         <v>140</v>
@@ -3144,7 +2777,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
         <v>140</v>
@@ -3153,7 +2786,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
@@ -3174,7 +2807,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
         <v>140</v>
@@ -3183,7 +2816,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
@@ -3204,7 +2837,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
         <v>140</v>
@@ -3213,7 +2846,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
@@ -3234,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
         <v>140</v>
@@ -3243,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
@@ -3264,7 +2897,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s">
         <v>140</v>
@@ -3273,7 +2906,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>

--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="flow_info22" sheetId="1" r:id="rId1"/>
+    <sheet name="flow_info-new" sheetId="1" r:id="rId1"/>
     <sheet name="flow_info" sheetId="2" r:id="rId2"/>
     <sheet name="flow_info-需要处理" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
   <si>
     <t>id</t>
   </si>
@@ -55,22 +55,609 @@
     <t>step</t>
   </si>
   <si>
-    <t>2557e2c9-dfcd-4305-b3f4-b4ab6df30783</t>
-  </si>
-  <si>
-    <t>tc_auto_df_sink_hdfs_path使用$进行分区、使用sliceTimeColumn1545633382888</t>
-  </si>
-  <si>
-    <t>6a34c709-4016-430e-bbd8-d4ae3911906e</t>
-  </si>
-  <si>
-    <t>d6fa1f94-a6f2-41a3-9df5-46aa4ba8f626</t>
+    <t>73cb302d-2fb3-4b54-b413-2247b98f5d1a</t>
+  </si>
+  <si>
+    <t>tc_auto_df_filter_age小于1545633384496</t>
+  </si>
+  <si>
+    <t>35599327-0f59-414e-9776-06b9188e9ee5</t>
+  </si>
+  <si>
+    <t>4a41d92f-6b49-4a64-bce8-01a607b4c540</t>
   </si>
   <si>
     <t>SUCCEEDED</t>
   </si>
   <si>
-    <t>[{"name":"xiaowang","id":"3","age":"30"}]</t>
+    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"tyest","id":"4","age":"12"}]</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>overwrite</t>
+  </si>
+  <si>
+    <t>新加</t>
+  </si>
+  <si>
+    <t>593c39ef-3116-431b-8e7f-f8d3e8aab452</t>
+  </si>
+  <si>
+    <t>tc_auto_df_desicion_yes1545633385200</t>
+  </si>
+  <si>
+    <t>aa506523-53b8-4242-bd20-bbb903c3da1d</t>
+  </si>
+  <si>
+    <t>81f363c9-43a9-4c27-bc24-7ca21a7bc510</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"xiaohong","id":"2","age":"20"},{"name":"xiaowang","id":"3","age":"30"},{"name":"tyest","id":"4","age":"12"},{"name":"","id":"5","age":""},{"name":"james","id":"6","age":"50"}]</t>
+  </si>
+  <si>
+    <t>7947b925-7fde-4f7b-8c89-6b443928f7f5</t>
+  </si>
+  <si>
+    <t>tc_auto_df_top_RATE没有groupby字段ignore1545633379539</t>
+  </si>
+  <si>
+    <t>05b4fcbc-ba25-4f05-9081-c807e7cdf690</t>
+  </si>
+  <si>
+    <t>9b809c32-e928-4232-b680-57b1839a5c38</t>
+  </si>
+  <si>
+    <t>[{"name":"","id":"5","age":""},{"name":"tyest","id":"4","age":"12"},{"name":"xiaoming","id":"1","age":"18"}]</t>
+  </si>
+  <si>
+    <t>7a55a2f3-12ef-4ca4-b174-7c1fce94b254</t>
+  </si>
+  <si>
+    <t>tc_auto_df_validate_action_save1545633385422</t>
+  </si>
+  <si>
+    <t>e8c1a1ec-1eb6-4034-8271-aa4441554eeb</t>
+  </si>
+  <si>
+    <t>c08f9fb6-2c8d-4ce4-80ef-167b6634e8f6</t>
+  </si>
+  <si>
+    <t>[{"name":"tyest","id":"4","age":"12"},{"name":"","id":"5","age":""},{"name":"james","id":"6","age":"50"}]</t>
+  </si>
+  <si>
+    <t>f446e9e5-bda4-40c7-943f-6c5026886a27</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"xiaohong","id":"2","age":"20"},{"name":"xiaowang","id":"3","age":"30"}]</t>
+  </si>
+  <si>
+    <t>85a197c6-013d-479e-885e-935bb5e5bf61</t>
+  </si>
+  <si>
+    <t>tc_auto_df_source_hbase_append1545633381086</t>
+  </si>
+  <si>
+    <t>a4a2e7b8-4e12-4d70-b099-ebfcefcf51f7</t>
+  </si>
+  <si>
+    <t>5dac92e6-0c0b-4884-b851-74a3ac8ea636</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming","ROW":"key1","id":"1","age":"18"},{"name":"xiaohong","ROW":"key2","id":"2","age":"22"},{"name":"xiaowang","ROW":"key3","id":"3","age":"33"}]</t>
+  </si>
+  <si>
+    <t>8b64467d-450d-4fb0-ace7-81772c74746a</t>
+  </si>
+  <si>
+    <t>tc_auto_df_split_0021545633379905</t>
+  </si>
+  <si>
+    <t>7eebcfd4-f0e5-4052-92e3-7631527579df</t>
+  </si>
+  <si>
+    <t>575bfd26-4cad-4b9f-85fc-25057b258872</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaowang","id":"3","age":"30"},{"name":"xiaoming","id":"1","age":"18"},{"name":"james","id":"6","age":"50"},{"name":"","id":"5","age":""}]</t>
+  </si>
+  <si>
+    <t>652d510c-1e9c-4343-a68d-051620dec661</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaohong","id":"2","age":"20"},{"name":"tyest","id":"4","age":"12"}]</t>
+  </si>
+  <si>
+    <t>8be22649-4c39-4732-8c8d-1b271287ffeb</t>
+  </si>
+  <si>
+    <t>tc_auto_df_join_outerjoin1545633384176</t>
+  </si>
+  <si>
+    <t>da10d44d-15e7-4729-85e9-405ca2db2baa</t>
+  </si>
+  <si>
+    <t>808bdc3c-e48a-46eb-bb35-585521ea283c</t>
+  </si>
+  <si>
+    <t>[{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"","Osalary":"","Oid":""},{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"},{"Oname":"","Osalary":"","Oid":""},{"Oname":"","Osalary":"","Oid":""}]</t>
+  </si>
+  <si>
+    <t>8e60c37a-f2c7-4eb0-9f81-8c8a8dfa337b</t>
+  </si>
+  <si>
+    <t>tc_auto_df_sink_es1545633382996</t>
+  </si>
+  <si>
+    <t>3bab5d15-bc5c-4715-bea3-2312550704db</t>
+  </si>
+  <si>
+    <t>0ddfe80a-8105-4153-844c-e2f5ed9e7869</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"","id":"5","age":""},{"name":"tyest","id":"4","age":"12"},{"name":"xiaohong","id":"2","age":"20"},{"name":"james","id":"6","age":"50"},{"name":"xiaowang","id":"3","age":"30"}]</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"james","id":"6","age":"50"},{"name":"","id":"5","age":""},{"name":"tyest","id":"4","age":"12"},{"name":"xiaowang","id":"3","age":"30"},{"name":"xiaohong","id":"2","age":"20"}]</t>
+  </si>
+  <si>
+    <t>bc1b753f-17b2-4b9b-8511-916e2a8c08b6</t>
+  </si>
+  <si>
+    <t>tc_auto_df_union_003_distinctistrue1545633384602</t>
+  </si>
+  <si>
+    <t>81cebcff-6a6d-4757-8426-6868e3e58649</t>
+  </si>
+  <si>
+    <t>2b3f2316-4f85-498b-b19b-f65dd399aefc</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaowang1","id":"3","age":"301"},{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"xiaohong","id":"2","age":"20"},{"name":"xiaowang","id":"3","age":"30"},{"name":"xiaoming","id":"1","age":"18"},{"name":"tyest1","id":"4","age":"121"},{"name":"james1","id":"1","age":"501"},{"name":"tyest","id":"4","age":"12"},{"name":"james","id":"6","age":"50"},{"name":"","id":"5","age":""}]</t>
+  </si>
+  <si>
+    <t>03d84aba-78bc-40c6-ae9c-8014ee3517f4</t>
+  </si>
+  <si>
+    <t>tc_auto_df_source_hive1545633382452</t>
+  </si>
+  <si>
+    <t>d656fb5a-72a6-447d-a013-a0493fdb8098</t>
+  </si>
+  <si>
+    <t>97e00289-0c0f-4d44-a46f-5c06dcbbacee</t>
+  </si>
+  <si>
+    <t>697bcc07-ff2c-4980-bc9c-a6abcb0283be</t>
+  </si>
+  <si>
+    <t>c_in_out</t>
+  </si>
+  <si>
+    <t>a3064e14-f4e9-4b10-8a02-19c9854d8909</t>
+  </si>
+  <si>
+    <t>3e54a2ed-b4b9-48cc-84d7-44eff0f53dee</t>
+  </si>
+  <si>
+    <t>[{"gender":"male","name":"wac","id":"1","age":"30"},{"gender":"female","name":"xh","id":"2","age":"18"}]</t>
+  </si>
+  <si>
+    <t>67f6d649-88c9-447b-9263-732e0894fd69</t>
+  </si>
+  <si>
+    <t>9a31840c-b980-4ab8-bc10-876176609add</t>
+  </si>
+  <si>
+    <t>054f8ec7-e3d3-4bd3-b16c-5f71b78eb0b2</t>
+  </si>
+  <si>
+    <t>tc_auto_df_source_001_mysql1545633383105</t>
+  </si>
+  <si>
+    <t>3c39ddfd-2aae-48df-8793-a20f0d652fca</t>
+  </si>
+  <si>
+    <t>cf4d5f63-1f29-437a-956a-2c21c1c0abb6</t>
+  </si>
+  <si>
+    <t>6d393c25-095f-45fd-bcf5-59584055dcfa</t>
+  </si>
+  <si>
+    <t>students_flow2</t>
+  </si>
+  <si>
+    <t>e2de307f-b405-474e-be52-d523adc1920e</t>
+  </si>
+  <si>
+    <t>34bf4f77-0be9-4da3-885d-6b2aa45facca</t>
+  </si>
+  <si>
+    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"65","name":"李四","id":"4"},{"subject":"语文","grade":"35","name":"李四","id":"5"},{"subject":"数学","grade":"58","name":"小明","id":"6"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"46","name":"小玲","id":"13"},{"subject":"英语","grade":"78","name":"小玲","id":"14"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
+  </si>
+  <si>
+    <t>source, sink</t>
+  </si>
+  <si>
+    <t>f2677db1-6923-42a1-8f18-f8674394580a</t>
+  </si>
+  <si>
+    <t>students_flow_filter</t>
+  </si>
+  <si>
+    <t>43960fe6-bfd4-4255-9b10-34f1be0dc3a4</t>
+  </si>
+  <si>
+    <t>71a59844-bfef-42b6-8aec-12657708db6c</t>
+  </si>
+  <si>
+    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"英语","grade":"78","name":"小玲","id":"14"}]</t>
+  </si>
+  <si>
+    <t>source,filter, sink</t>
+  </si>
+  <si>
+    <t>06316eac-90e3-4ee5-9eb9-3d622ca23297</t>
+  </si>
+  <si>
+    <t>students_flow_append8989</t>
+  </si>
+  <si>
+    <t>93a1026d-45c1-4844-83bf-444b02d62cb6</t>
+  </si>
+  <si>
+    <t>fdc8062a-1711-46e9-88b2-8b7bad75e5db</t>
+  </si>
+  <si>
+    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
+  </si>
+  <si>
+    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
+  </si>
+  <si>
+    <t>append</t>
+  </si>
+  <si>
+    <t>0a863af1-fbb2-491e-9e51-105d750f31d3</t>
+  </si>
+  <si>
+    <t>students_lookupTable_redis</t>
+  </si>
+  <si>
+    <t>aab156cc-6e72-4bf7-95a3-ae4609d01d38</t>
+  </si>
+  <si>
+    <t>c1e10d6c-ebf3-49bb-beb4-3f908ae9b114</t>
+  </si>
+  <si>
+    <t>[{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"46","name":"小玲","id":"13"},{"subject":"英语","grade":"78","name":"小玲","id":"14"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"65","name":"李四","id":"4"},{"subject":"语文","grade":"35","name":"李四","id":"5"},{"subject":"数学","grade":"58","name":"小明","id":"6"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"}]</t>
+  </si>
+  <si>
+    <t>source, lookupTable-redis</t>
+  </si>
+  <si>
+    <t>e8190da7-ce9b-4446-a35a-45852c799417</t>
+  </si>
+  <si>
+    <t>students_lookup2</t>
+  </si>
+  <si>
+    <t>023ee76e-17d6-425f-ab64-249b6c42637d</t>
+  </si>
+  <si>
+    <t>eaeb90b4-4e86-4bf7-a9f0-29bebc760aa2</t>
+  </si>
+  <si>
+    <t>[{"subject1":"语文","id":"1","name1":"张三","grade1":"89"},{"subject1":"英语","id":"2","name1":"张三","grade1":"85"},{"subject1":"数学","id":"3","name1":"李四","grade1":"95"},{"subject1":"英语","id":"4","name1":"李四","grade1":"65"},{"subject1":"语文","id":"5","name1":"李四","grade1":"35"},{"subject1":"数学","id":"6","name1":"小明","grade1":"58"},{"subject1":"英语","id":"7","name1":"小明","grade1":"96"},{"subject1":"语文","id":"8","name1":"小明","grade1":"96"},{"subject1":"数学","id":"9","name1":"小红","grade1":"85"},{"subject1":"英语","id":"10","name1":"小红","grade1":"95"},{"subject1":"语文","id":"11","name1":"小红","grade1":"78"},{"subject1":"数学","id":"12","name1":"小玲","grade1":"98"},{"subject1":"语文","id":"13","name1":"小玲","grade1":"46"},{"subject1":"英语","id":"14","name1":"小玲","grade1":"78"},{"subject1":"数学","id":"15","name1":"张三","grade1":"68"}]</t>
+  </si>
+  <si>
+    <t>source, lookup</t>
+  </si>
+  <si>
+    <t>09296a11-5abf-4af4-a58f-2f14e414db67</t>
+  </si>
+  <si>
+    <t>tc_auto_df_sample_false1545633385849</t>
+  </si>
+  <si>
+    <t>57502b49-61df-43ce-b0b4-8744fd42e8bb</t>
+  </si>
+  <si>
+    <t>4c3fc04c-7368-442c-9d66-b3a79daf9957</t>
+  </si>
+  <si>
+    <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"12","age":"数学"},{"name":"小玲","id":"13","age":"语文"},{"name":"小玲","id":"14","age":"英语"},{"name":"张三","id":"15","age":"数学"}]</t>
+  </si>
+  <si>
+    <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小明","id":"8","age":"语文"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"12","age":"数学"},{"name":"小玲","id":"13","age":"语文"},{"name":"小玲","id":"14","age":"英语"},{"name":"张三","id":"15","age":"数学"}]</t>
+  </si>
+  <si>
+    <t>source, supplement, sink</t>
+  </si>
+  <si>
+    <t>2a1a8e6f-ae2b-4eee-b8f1-993ef8c348f0</t>
+  </si>
+  <si>
+    <t>tc_auto_df_join_outerjoin1545633381249</t>
+  </si>
+  <si>
+    <t>d8a6e308-abcc-4782-8b88-7da81ec78c4d</t>
+  </si>
+  <si>
+    <t>54c00de6-10f6-45d4-9abb-aa9696d2719d</t>
+  </si>
+  <si>
+    <t>[{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"},{"Oname":"","Osalary":"","Oid":""},{"Oname":"","Osalary":"","Oid":""}]</t>
+  </si>
+  <si>
+    <t>3952884c-6dd3-40b5-9b26-3d3865dd0d7f</t>
+  </si>
+  <si>
+    <t>tc_auto_df_join_inner1545633379403</t>
+  </si>
+  <si>
+    <t>1b29d436-ce04-4ed8-82ba-1bae313ff860</t>
+  </si>
+  <si>
+    <t>d133f446-b772-41fa-9b41-62817dec0e94</t>
+  </si>
+  <si>
+    <t>[{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"}]</t>
+  </si>
+  <si>
+    <t>46fca021-28be-4699-a0a8-9c5fdd510f88</t>
+  </si>
+  <si>
+    <t>tc_auto_df_union_001_distinct为true1545633380382</t>
+  </si>
+  <si>
+    <t>2a7fb401-f7df-4961-8b98-f52d9c8b59c0</t>
+  </si>
+  <si>
+    <t>f41e2255-0c74-4f4a-b6b1-99c31592ce4c</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaowang1","id":"3","age":"301"},{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"tyest1","id":"4","age":"121"},{"name":"james1","id":"1","age":"501"}]</t>
+  </si>
+  <si>
+    <t>6cba86d5-1969-4e5f-a6f9-410d4eb9c030</t>
+  </si>
+  <si>
+    <t>tc_auto_df_minus1545633384706</t>
+  </si>
+  <si>
+    <t>66bf6ade-107d-4a9e-816e-b496c903221e</t>
+  </si>
+  <si>
+    <t>7170fda8-6e15-4a1c-bf12-5efd2205c97d</t>
+  </si>
+  <si>
+    <t>72a5c601-52a8-4f75-b194-5dc7507167be</t>
+  </si>
+  <si>
+    <t>tc_auto_df_sink_hive_分区1545633382059</t>
+  </si>
+  <si>
+    <t>f9a691f5-d0c5-44ab-aa1a-d32957f6c803</t>
+  </si>
+  <si>
+    <t>84d26b46-29a5-487c-9255-96e2f3f43c09</t>
+  </si>
+  <si>
+    <t>[{"pt_id":"3","name":"xiaoming","id":"1","age":"22"},{"pt_id":"3","name":"xiaohong","id":"2","age":"33"},{"pt_id":"3","name":"xiaozhang","id":"3","age":"18"},{"pt_id":"3","name":"xiaohuang","id":"1","age":"18"},{"pt_id":"4","name":"xiaoming","id":"1","age":"1000"},{"pt_id":"4","name":"xiaohong","id":"2","age":"20000"},{"pt_id":"4","name":"xiaowang","id":"3","age":"3012"},{"pt_id":"4","name":"tyest","id":"5","age":"12"}]</t>
+  </si>
+  <si>
+    <t>6954b766-ce0c-42fc-a78f-694c12db944e</t>
+  </si>
+  <si>
+    <t>61836c71-f239-4199-a5e4-afc3384a5051</t>
+  </si>
+  <si>
+    <t>bf156f52-8cfc-4944-94a1-d840213c6bfb</t>
+  </si>
+  <si>
+    <t>8f17d5ff-82ff-48eb-9a26-3f1e819687bc</t>
+  </si>
+  <si>
+    <t>93606c64-05b2-4ca5-ad1b-81e57a04a235</t>
+  </si>
+  <si>
+    <t>9e2d1cac-68a1-44e9-83a8-d4c43c7fce12</t>
+  </si>
+  <si>
+    <t>a2431d1f-0612-49ae-9127-ebd37046d80c</t>
+  </si>
+  <si>
+    <t>260fd718-a190-44d8-96cd-7af6b5ce5347</t>
+  </si>
+  <si>
+    <t>[{"name":"","id":"5","age":""},{"name":"tyest","id":"4","age":"12"},{"name":"xiaohong","id":"2","age":"20"},{"name":"xiaoming","id":"1","age":"18"},{"name":"james","id":"6","age":"50"},{"name":"xiaowang","id":"3","age":"30"}]</t>
+  </si>
+  <si>
+    <t>bd620adf-786d-43fc-b7d8-107bf7acb313</t>
+  </si>
+  <si>
+    <t>c02a68eb-6010-4025-be23-93f93f6cc216</t>
+  </si>
+  <si>
+    <r>
+      <t>tc_auto_df_aggregate_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>所有聚合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>id1545633384081</t>
+    </r>
+  </si>
+  <si>
+    <t>cb5039c8-1ce3-4cf4-8c50-c377867aa43e</t>
+  </si>
+  <si>
+    <t>[{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"18","AGE_max":"18","AGE_avg":"18.0","AGE_countDistinct":"1","AGE_min":"18","AGE_count":"1","id":"1","AGE_sum":"18"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"50","AGE_max":"50","AGE_avg":"50.0","AGE_countDistinct":"1","AGE_min":"50","AGE_count":"1","id":"6","AGE_sum":"50"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"30","AGE_max":"30","AGE_avg":"30.0","AGE_countDistinct":"1","AGE_min":"30","AGE_count":"1","id":"3","AGE_sum":"30"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"12","AGE_max":"12","AGE_avg":"12.0","AGE_countDistinct":"1","AGE_min":"12","AGE_count":"1","id":"4","AGE_sum":"12"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"20","AGE_max":"20","AGE_avg":"20.0","AGE_countDistinct":"1","AGE_min":"20","AGE_count":"1","id":"2","AGE_sum":"20"},{"AGE_approxCountDistinct":"0","AGE_sumDistinct":"","AGE_max":"","AGE_avg":"","AGE_countDistinct":"0","AGE_min":"","AGE_count":"0","id":"5","AGE_sum":""}]</t>
+  </si>
+  <si>
+    <t>beb2610a-8c30-4c83-98d2-e65a22945315</t>
+  </si>
+  <si>
+    <r>
+      <t>tc_auto_df_top_RATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ignore1545633379788</t>
+    </r>
+  </si>
+  <si>
+    <t>47c2e188-4e17-4e9a-83d3-e962d5f7c852</t>
+  </si>
+  <si>
+    <t>c3b92b8a-7246-4ba6-8c95-1417f01cb63d</t>
+  </si>
+  <si>
+    <r>
+      <t>tc_auto_df_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>所有类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>_new_new1545633383317</t>
+    </r>
+  </si>
+  <si>
+    <t>39333d1a-2206-4afb-a0c3-d8374a644875</t>
+  </si>
+  <si>
+    <t>[{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@239ce72c","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":""},{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@169dd9c0","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":"2018-08-03 10:22:24.0"}]</t>
+  </si>
+  <si>
+    <t>c794d453-42c5-432a-884d-424a3985eede</t>
+  </si>
+  <si>
+    <r>
+      <t>tc_auto_df_union_001_distinct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>false1545633380273</t>
+    </r>
+  </si>
+  <si>
+    <t>6c309e6c-7788-433b-aa64-a24f72cac62b</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"xiaowang1","id":"3","age":"301"},{"name":"tyest1","id":"4","age":"121"},{"name":"james1","id":"1","age":"501"}]</t>
+  </si>
+  <si>
+    <t>cc0809a8-447a-4d83-93cc-7ffb2f4d741e</t>
+  </si>
+  <si>
+    <t>tc_auto_df_sink_hdfs_quoteChar1545633379258</t>
+  </si>
+  <si>
+    <t>24af9231-20ce-468b-bae4-b28571aa94a8</t>
+  </si>
+  <si>
+    <t>[{"name":"test1","id":"1","age":""},{"name":"test3","id":"3","age":""},{"name":"test4","id":"4","age":""},{"name":"test5","id":"5","age":""},{"name":"test2","id":"2","age":""}]</t>
+  </si>
+  <si>
+    <t>e9fbd094-79fa-43e4-84e5-9d82fd5c3c64</t>
+  </si>
+  <si>
+    <t>tc_auto_df_intersect_0011545633383879</t>
+  </si>
+  <si>
+    <t>0b084b55-1137-40a1-b2e8-8e3ece334921</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>bbc9a8d4-4100-4aac-a598-6e4eabc6b6bf</t>
+  </si>
+  <si>
+    <t>tc_df_all_step_多sink</t>
+  </si>
+  <si>
+    <t>0d3e58a1-2b84-4ab6-81e0-fa5b53c4926e</t>
+  </si>
+  <si>
+    <t>8a2e83a0-3579-4e06-8872-fe51e3551b45</t>
+  </si>
+  <si>
+    <t>[{"right_age":"50","left_name":"james","left_age":"50","right_id":"6","right_name":"james","left_id":"6"}]</t>
   </si>
   <si>
     <t>[{"name":"james","id":"6","age":"50"}]</t>
@@ -79,372 +666,6 @@
     <t>fail</t>
   </si>
   <si>
-    <t xml:space="preserve">execution: d6fa1f94-a6f2-41a3-9df5-46aa4ba8f626 预期结果实际结果不一致 </t>
-  </si>
-  <si>
-    <t>overwrite</t>
-  </si>
-  <si>
-    <t>bd559386-c9e7-47fa-aff7-227a29b851ca</t>
-  </si>
-  <si>
-    <t>[{"name":"tyest","id":"4","age":"12"}]</t>
-  </si>
-  <si>
-    <t>de8cb361-977c-4b1e-855f-0eeb752f09b2</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaoming","id":"1","age":"18"}]</t>
-  </si>
-  <si>
-    <t>79ab816f-337b-457b-8be3-e0ec568a6866</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>b0a65ffa-2b5a-4af5-928b-4580fee08668</t>
-  </si>
-  <si>
-    <t>[{"name":"空","id":"5","age":"空"}]</t>
-  </si>
-  <si>
-    <t>a6cb4163-2841-44ea-bb17-b8af514e038d</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaohong","id":"2","age":"20"}]</t>
-  </si>
-  <si>
-    <t>09296a11-5abf-4af4-a58f-2f14e414db67</t>
-  </si>
-  <si>
-    <t>tc_auto_df_sample_false1545633385849</t>
-  </si>
-  <si>
-    <t>57502b49-61df-43ce-b0b4-8744fd42e8bb</t>
-  </si>
-  <si>
-    <t>fa2991ae-857d-4b01-9b6e-5bda2dc0601d</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaoming1","id":"1","age":"181"}]</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaowang1","id":"3","age":"301"},{"name":"tyest1","id":"4","age":"121"},{"name":"james1","id":"1","age":"501"}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">execution: fa2991ae-857d-4b01-9b6e-5bda2dc0601d 预期结果实际结果不一致 </t>
-  </si>
-  <si>
-    <t>source, supplement, sink</t>
-  </si>
-  <si>
-    <t>4a101c14-1cdb-48b5-bd39-06b7aeef6858</t>
-  </si>
-  <si>
-    <t>tc_auto_df_top1545633383981</t>
-  </si>
-  <si>
-    <t>c09566fa-8b70-49f6-a4c0-4e9e90fc5d0b</t>
-  </si>
-  <si>
-    <t>7ce36919-f963-40ef-a643-57cd6c04b4df</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>[{"name":"tyest","id":"4","age":"12"},{"name":"xiaoming","id":"1","age":"18"},{"name":"james","id":"6","age":"50"},{"name":"xiaowang","id":"3","age":"30"},{"name":"","id":"5","age":""},{"name":"xiaohong","id":"2","age":"20"}]</t>
-  </si>
-  <si>
-    <t>execution: 7ce36919-f963-40ef-a643-57cd6c04b4df 执行状态为 FAILED</t>
-  </si>
-  <si>
-    <t>6730da64-9444-44ff-8cef-fa0c74fa612e</t>
-  </si>
-  <si>
-    <t>tc_auto_df_sink_mysql_length1545633380883</t>
-  </si>
-  <si>
-    <t>4d41e563-6e7b-4ecd-9db9-c6f3af87d323</t>
-  </si>
-  <si>
-    <t>d77ef634-0549-449c-b211-31e6ded41c87</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"xiaohong","id":"2","age":"20"},{"name":"xiaowang","id":"3","age":"30"},{"name":"tyest","id":"4","age":"12"},{"name":"","id":"5","age":""},{"name":"james","id":"6","age":"50"}]</t>
-  </si>
-  <si>
-    <t>execution: d77ef634-0549-449c-b211-31e6ded41c87 执行状态为 FAILED</t>
-  </si>
-  <si>
-    <t>用例参数或datasetID填写错误</t>
-  </si>
-  <si>
-    <t>03d84aba-78bc-40c6-ae9c-8014ee3517f4</t>
-  </si>
-  <si>
-    <t>tc_auto_df_source_hive1545633382452</t>
-  </si>
-  <si>
-    <t>d656fb5a-72a6-447d-a013-a0493fdb8098</t>
-  </si>
-  <si>
-    <t>316b96f9-e0cd-4956-927d-d05616706897</t>
-  </si>
-  <si>
-    <t>697bcc07-ff2c-4980-bc9c-a6abcb0283be</t>
-  </si>
-  <si>
-    <t>c_in_out</t>
-  </si>
-  <si>
-    <t>a3064e14-f4e9-4b10-8a02-19c9854d8909</t>
-  </si>
-  <si>
-    <t>028fe458-cc70-4d54-a0a0-f6bce94a0505</t>
-  </si>
-  <si>
-    <t>[{"gender":"male","name":"wac","id":"1","age":"30"},{"gender":"female","name":"xh","id":"2","age":"18"}]</t>
-  </si>
-  <si>
-    <t>67f6d649-88c9-447b-9263-732e0894fd69</t>
-  </si>
-  <si>
-    <t>9a31840c-b980-4ab8-bc10-876176609add</t>
-  </si>
-  <si>
-    <t>054f8ec7-e3d3-4bd3-b16c-5f71b78eb0b2</t>
-  </si>
-  <si>
-    <t>tc_auto_df_source_001_mysql1545633383105</t>
-  </si>
-  <si>
-    <t>3c39ddfd-2aae-48df-8793-a20f0d652fca</t>
-  </si>
-  <si>
-    <t>ca22d28c-3c7d-42f3-a69e-fa7a35c5c3ec</t>
-  </si>
-  <si>
-    <t>6d393c25-095f-45fd-bcf5-59584055dcfa</t>
-  </si>
-  <si>
-    <t>students_flow2</t>
-  </si>
-  <si>
-    <t>e2de307f-b405-474e-be52-d523adc1920e</t>
-  </si>
-  <si>
-    <t>c8d235b2-1665-4f8d-9316-831b6c41e5a1</t>
-  </si>
-  <si>
-    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"65","name":"李四","id":"4"},{"subject":"语文","grade":"35","name":"李四","id":"5"},{"subject":"数学","grade":"58","name":"小明","id":"6"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"46","name":"小玲","id":"13"},{"subject":"英语","grade":"78","name":"小玲","id":"14"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
-  </si>
-  <si>
-    <t>source, sink</t>
-  </si>
-  <si>
-    <t>f2677db1-6923-42a1-8f18-f8674394580a</t>
-  </si>
-  <si>
-    <t>students_flow_filter</t>
-  </si>
-  <si>
-    <t>43960fe6-bfd4-4255-9b10-34f1be0dc3a4</t>
-  </si>
-  <si>
-    <t>12f0bbab-bf3b-43f8-b3bc-296bda63371f</t>
-  </si>
-  <si>
-    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"英语","grade":"78","name":"小玲","id":"14"}]</t>
-  </si>
-  <si>
-    <t>source,filter, sink</t>
-  </si>
-  <si>
-    <t>06316eac-90e3-4ee5-9eb9-3d622ca23297</t>
-  </si>
-  <si>
-    <t>students_flow_append8989</t>
-  </si>
-  <si>
-    <t>93a1026d-45c1-4844-83bf-444b02d62cb6</t>
-  </si>
-  <si>
-    <t>00a3bdb3-ad58-4400-9971-fa1c73a678b0</t>
-  </si>
-  <si>
-    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
-  </si>
-  <si>
-    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
-  </si>
-  <si>
-    <t>append</t>
-  </si>
-  <si>
-    <t>0a863af1-fbb2-491e-9e51-105d750f31d3</t>
-  </si>
-  <si>
-    <t>students_lookupTable_redis</t>
-  </si>
-  <si>
-    <t>aab156cc-6e72-4bf7-95a3-ae4609d01d38</t>
-  </si>
-  <si>
-    <t>fd3b3d05-ad6e-4b9b-a946-8b258022f116</t>
-  </si>
-  <si>
-    <t>[{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"46","name":"小玲","id":"13"},{"subject":"英语","grade":"78","name":"小玲","id":"14"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"65","name":"李四","id":"4"},{"subject":"语文","grade":"35","name":"李四","id":"5"},{"subject":"数学","grade":"58","name":"小明","id":"6"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"}]</t>
-  </si>
-  <si>
-    <t>source, lookupTable-redis</t>
-  </si>
-  <si>
-    <t>e8190da7-ce9b-4446-a35a-45852c799417</t>
-  </si>
-  <si>
-    <t>students_lookup2</t>
-  </si>
-  <si>
-    <t>023ee76e-17d6-425f-ab64-249b6c42637d</t>
-  </si>
-  <si>
-    <t>bb12d537-7002-41a4-b23f-e43cb7c75994</t>
-  </si>
-  <si>
-    <t>[{"subject1":"语文","id":"1","name1":"张三","grade1":"89"},{"subject1":"英语","id":"2","name1":"张三","grade1":"85"},{"subject1":"数学","id":"3","name1":"李四","grade1":"95"},{"subject1":"英语","id":"4","name1":"李四","grade1":"65"},{"subject1":"语文","id":"5","name1":"李四","grade1":"35"},{"subject1":"数学","id":"6","name1":"小明","grade1":"58"},{"subject1":"英语","id":"7","name1":"小明","grade1":"96"},{"subject1":"语文","id":"8","name1":"小明","grade1":"96"},{"subject1":"数学","id":"9","name1":"小红","grade1":"85"},{"subject1":"英语","id":"10","name1":"小红","grade1":"95"},{"subject1":"语文","id":"11","name1":"小红","grade1":"78"},{"subject1":"数学","id":"12","name1":"小玲","grade1":"98"},{"subject1":"语文","id":"13","name1":"小玲","grade1":"46"},{"subject1":"英语","id":"14","name1":"小玲","grade1":"78"},{"subject1":"数学","id":"15","name1":"张三","grade1":"68"}]</t>
-  </si>
-  <si>
-    <t>source, lookup</t>
-  </si>
-  <si>
-    <t>1aafd6e9-cefb-4c4c-a8c3-64fbaf1d381d</t>
-  </si>
-  <si>
-    <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"12","age":"数学"},{"name":"小玲","id":"13","age":"语文"},{"name":"小玲","id":"14","age":"英语"},{"name":"张三","id":"15","age":"数学"}]</t>
-  </si>
-  <si>
-    <t>[{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"7","age":"英语"},{"name":"小明","id":"8","age":"语文"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小玲","id":"12","age":"数学"},{"name":"小玲","id":"13","age":"语文"},{"name":"张三","id":"15","age":"数学"},{"name":"张三","id":"15","age":"数学"}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">execution: 1aafd6e9-cefb-4c4c-a8c3-64fbaf1d381d 预期结果实际结果不一致 </t>
-  </si>
-  <si>
-    <t>2a1a8e6f-ae2b-4eee-b8f1-993ef8c348f0</t>
-  </si>
-  <si>
-    <t>tc_auto_df_join_outerjoin1545633381249</t>
-  </si>
-  <si>
-    <t>d8a6e308-abcc-4782-8b88-7da81ec78c4d</t>
-  </si>
-  <si>
-    <t>5be55b25-d3ad-47ac-8e14-ec99314e1a88</t>
-  </si>
-  <si>
-    <t>[{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"},{"Oname":"","Osalary":"","Oid":""},{"Oname":"","Osalary":"","Oid":""}]</t>
-  </si>
-  <si>
-    <t>3952884c-6dd3-40b5-9b26-3d3865dd0d7f</t>
-  </si>
-  <si>
-    <t>tc_auto_df_join_inner1545633379403</t>
-  </si>
-  <si>
-    <t>1b29d436-ce04-4ed8-82ba-1bae313ff860</t>
-  </si>
-  <si>
-    <t>1a51b95b-587d-4d86-aa11-5fe305e61c31</t>
-  </si>
-  <si>
-    <t>[{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"}]</t>
-  </si>
-  <si>
-    <t>46fca021-28be-4699-a0a8-9c5fdd510f88</t>
-  </si>
-  <si>
-    <t>tc_auto_df_union_001_distinct为true1545633380382</t>
-  </si>
-  <si>
-    <t>2a7fb401-f7df-4961-8b98-f52d9c8b59c0</t>
-  </si>
-  <si>
-    <t>33d0a954-315a-4146-a1df-2d3946671030</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaowang1","id":"3","age":"301"},{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"tyest1","id":"4","age":"121"},{"name":"james1","id":"1","age":"501"}]</t>
-  </si>
-  <si>
-    <t>6cba86d5-1969-4e5f-a6f9-410d4eb9c030</t>
-  </si>
-  <si>
-    <t>tc_auto_df_minus1545633384706</t>
-  </si>
-  <si>
-    <t>66bf6ade-107d-4a9e-816e-b496c903221e</t>
-  </si>
-  <si>
-    <t>419225f2-4a22-4653-a30e-f4222c3242a5</t>
-  </si>
-  <si>
-    <t>72a5c601-52a8-4f75-b194-5dc7507167be</t>
-  </si>
-  <si>
-    <t>tc_auto_df_sink_hive_分区1545633382059</t>
-  </si>
-  <si>
-    <t>f9a691f5-d0c5-44ab-aa1a-d32957f6c803</t>
-  </si>
-  <si>
-    <t>e27b737b-cb1c-4c0f-9011-36056b210935</t>
-  </si>
-  <si>
-    <t>[{"pt_id":"3","name":"xiaoming","id":"1","age":"22"},{"pt_id":"3","name":"xiaohong","id":"2","age":"33"},{"pt_id":"3","name":"xiaozhang","id":"3","age":"18"},{"pt_id":"3","name":"xiaohuang","id":"1","age":"18"},{"pt_id":"4","name":"xiaoming","id":"1","age":"1000"},{"pt_id":"4","name":"xiaohong","id":"2","age":"20000"},{"pt_id":"4","name":"xiaowang","id":"3","age":"3012"},{"pt_id":"4","name":"tyest","id":"5","age":"12"}]</t>
-  </si>
-  <si>
-    <t>73cb302d-2fb3-4b54-b413-2247b98f5d1a</t>
-  </si>
-  <si>
-    <t>tc_auto_df_filter_age小于1545633384496</t>
-  </si>
-  <si>
-    <t>35599327-0f59-414e-9776-06b9188e9ee5</t>
-  </si>
-  <si>
-    <t>66ef5cc8-88c1-4037-9c3a-561e1c1d5d77</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"tyest","id":"4","age":"12"}]</t>
-  </si>
-  <si>
-    <t>593c39ef-3116-431b-8e7f-f8d3e8aab452</t>
-  </si>
-  <si>
-    <t>tc_auto_df_desicion_yes1545633385200</t>
-  </si>
-  <si>
-    <t>aa506523-53b8-4242-bd20-bbb903c3da1d</t>
-  </si>
-  <si>
-    <t>76c60718-761f-4725-89ab-f740eb686316</t>
-  </si>
-  <si>
-    <t>bbc9a8d4-4100-4aac-a598-6e4eabc6b6bf</t>
-  </si>
-  <si>
-    <t>tc_df_all_step_多sink</t>
-  </si>
-  <si>
-    <t>0d3e58a1-2b84-4ab6-81e0-fa5b53c4926e</t>
-  </si>
-  <si>
-    <t>8a2e83a0-3579-4e06-8872-fe51e3551b45</t>
-  </si>
-  <si>
-    <t>[{"right_age":"50","left_name":"james","left_age":"50","right_id":"6","right_name":"james","left_id":"6"}]</t>
-  </si>
-  <si>
     <t xml:space="preserve">execution: 8a2e83a0-3579-4e06-8872-fe51e3551b45 预期结果实际结果不一致 </t>
   </si>
   <si>
@@ -484,9 +705,6 @@
     <t>93b30137-b322-4056-921f-1792759be692</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>d3353172-dfb8-4131-a274-b16900ed054f</t>
   </si>
   <si>
@@ -500,9 +718,6 @@
   </si>
   <si>
     <t>c06eda03-8a2e-4967-b8dd-a05c935d7722</t>
-  </si>
-  <si>
-    <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小明","id":"8","age":"语文"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"12","age":"数学"},{"name":"小玲","id":"13","age":"语文"},{"name":"小玲","id":"14","age":"英语"},{"name":"张三","id":"15","age":"数学"}]</t>
   </si>
   <si>
     <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小明","id":"8","age":"语文"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"12","age":"数学"},{"name":"小玲","id":"13","age":"语文"},{"name":"小玲","id":"14","age":"英语"}]</t>
@@ -519,12 +734,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -553,8 +768,88 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -574,16 +869,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -591,7 +887,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -605,8 +901,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -621,14 +924,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -636,72 +931,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="33">
@@ -713,13 +946,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,55 +964,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,19 +994,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,7 +1036,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,7 +1084,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,25 +1096,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,13 +1120,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,23 +1143,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,15 +1179,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -985,11 +1194,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,169 +1228,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1491,7 +1727,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1538,335 +1774,347 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A2" s="6">
+    <row r="2" ht="16.5" customHeight="1" spans="1:12">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A4" s="6">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A5" s="6">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A6" s="6">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A7" s="6">
+      <c r="D6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:12">
-      <c r="A8" s="6">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" customHeight="1" spans="1:11">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A9" s="6">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" spans="1:11">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>44</v>
+      <c r="D9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A10" s="6">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" customHeight="1" spans="1:11">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>44</v>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" customHeight="1" spans="1:11">
       <c r="A11">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" customHeight="1" spans="1:11">
       <c r="A12">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1885,19 +2133,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.14285714285714" style="6" customWidth="1"/>
     <col min="2" max="2" width="42.2857142857143" style="6" customWidth="1"/>
-    <col min="3" max="6" width="9.14285714285714" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.14285714285714" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.14285714285714" style="6" customWidth="1"/>
+    <col min="3" max="3" width="54.1428571428571" style="6" customWidth="1"/>
+    <col min="4" max="6" width="9.14285714285714" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.4285714285714" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30.2857142857143" style="6" customWidth="1"/>
     <col min="9" max="9" width="22" style="6" customWidth="1"/>
     <col min="10" max="11" width="9.14285714285714" style="6" customWidth="1"/>
     <col min="12" max="12" width="32.7142857142857" style="6" customWidth="1"/>
@@ -1947,31 +2196,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J2"/>
       <c r="K2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1979,31 +2229,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J3"/>
       <c r="K3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2011,25 +2262,26 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J4"/>
       <c r="K4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2037,25 +2289,26 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J5"/>
       <c r="K5" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2063,31 +2316,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J6"/>
       <c r="K6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2095,34 +2349,35 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J7"/>
       <c r="K7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2130,34 +2385,35 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J8"/>
       <c r="K8" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2165,34 +2421,35 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J9"/>
       <c r="K9" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2200,34 +2457,35 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J10"/>
       <c r="K10" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2235,34 +2493,35 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J11"/>
       <c r="K11" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2270,37 +2529,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2308,31 +2564,32 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J13"/>
       <c r="K13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2340,31 +2597,32 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J14"/>
       <c r="K14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2372,31 +2630,32 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J15"/>
       <c r="K15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2404,31 +2663,32 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J16"/>
       <c r="K16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2436,63 +2696,68 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J17"/>
       <c r="K17" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J18"/>
       <c r="K18" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1" spans="1:11">
@@ -2500,31 +2765,460 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="H19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="D26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="K19" t="s">
-        <v>21</v>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1" spans="1:12">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K34" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2544,7 +3238,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD12"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2587,380 +3281,370 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:13">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="J4" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="J5" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="J6" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="J8" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="J9" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="J10" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" ht="17" customHeight="1" spans="1:13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="1" spans="1:11">
       <c r="A11">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="J12" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" ht="60" spans="1:15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1" spans="1:15">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="J13" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="O13" s="5"/>
     </row>

--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28245" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="flow_info-new" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
   <si>
     <t>id</t>
   </si>
@@ -229,6 +229,9 @@
     <t>97e00289-0c0f-4d44-a46f-5c06dcbbacee</t>
   </si>
   <si>
+    <t>source, sink</t>
+  </si>
+  <si>
     <t>697bcc07-ff2c-4980-bc9c-a6abcb0283be</t>
   </si>
   <si>
@@ -277,9 +280,6 @@
     <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"65","name":"李四","id":"4"},{"subject":"语文","grade":"35","name":"李四","id":"5"},{"subject":"数学","grade":"58","name":"小明","id":"6"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"46","name":"小玲","id":"13"},{"subject":"英语","grade":"78","name":"小玲","id":"14"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
   </si>
   <si>
-    <t>source, sink</t>
-  </si>
-  <si>
     <t>f2677db1-6923-42a1-8f18-f8674394580a</t>
   </si>
   <si>
@@ -334,7 +334,7 @@
     <t>[{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"46","name":"小玲","id":"13"},{"subject":"英语","grade":"78","name":"小玲","id":"14"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"65","name":"李四","id":"4"},{"subject":"语文","grade":"35","name":"李四","id":"5"},{"subject":"数学","grade":"58","name":"小明","id":"6"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"}]</t>
   </si>
   <si>
-    <t>source, lookupTable-redis</t>
+    <t>source, lookupTable</t>
   </si>
   <si>
     <t>e8190da7-ce9b-4446-a35a-45852c799417</t>
@@ -373,7 +373,7 @@
     <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小明","id":"8","age":"语文"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"12","age":"数学"},{"name":"小玲","id":"13","age":"语文"},{"name":"小玲","id":"14","age":"英语"},{"name":"张三","id":"15","age":"数学"}]</t>
   </si>
   <si>
-    <t>source, supplement, sink</t>
+    <t>source, sample, sink</t>
   </si>
   <si>
     <t>2a1a8e6f-ae2b-4eee-b8f1-993ef8c348f0</t>
@@ -391,6 +391,9 @@
     <t>[{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"},{"Oname":"","Osalary":"","Oid":""},{"Oname":"","Osalary":"","Oid":""}]</t>
   </si>
   <si>
+    <t>source, join, sink</t>
+  </si>
+  <si>
     <t>3952884c-6dd3-40b5-9b26-3d3865dd0d7f</t>
   </si>
   <si>
@@ -409,7 +412,25 @@
     <t>46fca021-28be-4699-a0a8-9c5fdd510f88</t>
   </si>
   <si>
-    <t>tc_auto_df_union_001_distinct为true1545633380382</t>
+    <r>
+      <t>tc_auto_df_union_001_distinct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Yu Gothic Medium"/>
+        <charset val="0"/>
+      </rPr>
+      <t>true1545633380382</t>
+    </r>
   </si>
   <si>
     <t>2a7fb401-f7df-4961-8b98-f52d9c8b59c0</t>
@@ -421,6 +442,9 @@
     <t>[{"name":"xiaowang1","id":"3","age":"301"},{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"tyest1","id":"4","age":"121"},{"name":"james1","id":"1","age":"501"}]</t>
   </si>
   <si>
+    <t>source,union, sink</t>
+  </si>
+  <si>
     <t>6cba86d5-1969-4e5f-a6f9-410d4eb9c030</t>
   </si>
   <si>
@@ -433,6 +457,9 @@
     <t>7170fda8-6e15-4a1c-bf12-5efd2205c97d</t>
   </si>
   <si>
+    <t>source,minus, sink</t>
+  </si>
+  <si>
     <t>72a5c601-52a8-4f75-b194-5dc7507167be</t>
   </si>
   <si>
@@ -448,22 +475,92 @@
     <t>[{"pt_id":"3","name":"xiaoming","id":"1","age":"22"},{"pt_id":"3","name":"xiaohong","id":"2","age":"33"},{"pt_id":"3","name":"xiaozhang","id":"3","age":"18"},{"pt_id":"3","name":"xiaohuang","id":"1","age":"18"},{"pt_id":"4","name":"xiaoming","id":"1","age":"1000"},{"pt_id":"4","name":"xiaohong","id":"2","age":"20000"},{"pt_id":"4","name":"xiaowang","id":"3","age":"3012"},{"pt_id":"4","name":"tyest","id":"5","age":"12"}]</t>
   </si>
   <si>
+    <r>
+      <t>tc_auto_df_filter_age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>1545633384496</t>
+    </r>
+  </si>
+  <si>
     <t>6954b766-ce0c-42fc-a78f-694c12db944e</t>
   </si>
   <si>
     <t>61836c71-f239-4199-a5e4-afc3384a5051</t>
   </si>
   <si>
+    <t>source,decision, sink</t>
+  </si>
+  <si>
+    <r>
+      <t>tc_auto_df_top_RATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ignore1545633379539</t>
+    </r>
+  </si>
+  <si>
     <t>bf156f52-8cfc-4944-94a1-d840213c6bfb</t>
   </si>
   <si>
+    <t>source,top, sink</t>
+  </si>
+  <si>
     <t>8f17d5ff-82ff-48eb-9a26-3f1e819687bc</t>
   </si>
   <si>
+    <t>source,validate, sink</t>
+  </si>
+  <si>
     <t>93606c64-05b2-4ca5-ad1b-81e57a04a235</t>
   </si>
   <si>
     <t>9e2d1cac-68a1-44e9-83a8-d4c43c7fce12</t>
+  </si>
+  <si>
+    <t>source, split,  sink</t>
   </si>
   <si>
     <t>a2431d1f-0612-49ae-9127-ebd37046d80c</t>
@@ -488,7 +585,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>所有聚合</t>
@@ -497,7 +593,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>id1545633384081</t>
@@ -508,6 +603,9 @@
   </si>
   <si>
     <t>[{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"18","AGE_max":"18","AGE_avg":"18.0","AGE_countDistinct":"1","AGE_min":"18","AGE_count":"1","id":"1","AGE_sum":"18"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"50","AGE_max":"50","AGE_avg":"50.0","AGE_countDistinct":"1","AGE_min":"50","AGE_count":"1","id":"6","AGE_sum":"50"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"30","AGE_max":"30","AGE_avg":"30.0","AGE_countDistinct":"1","AGE_min":"30","AGE_count":"1","id":"3","AGE_sum":"30"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"12","AGE_max":"12","AGE_avg":"12.0","AGE_countDistinct":"1","AGE_min":"12","AGE_count":"1","id":"4","AGE_sum":"12"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"20","AGE_max":"20","AGE_avg":"20.0","AGE_countDistinct":"1","AGE_min":"20","AGE_count":"1","id":"2","AGE_sum":"20"},{"AGE_approxCountDistinct":"0","AGE_sumDistinct":"","AGE_max":"","AGE_avg":"","AGE_countDistinct":"0","AGE_min":"","AGE_count":"0","id":"5","AGE_sum":""}]</t>
+  </si>
+  <si>
+    <t>source,aggregate, sink</t>
   </si>
   <si>
     <t>beb2610a-8c30-4c83-98d2-e65a22945315</t>
@@ -520,7 +618,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>没有</t>
@@ -529,7 +626,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>groupby</t>
@@ -538,7 +634,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>字段</t>
@@ -547,7 +642,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>ignore1545633379788</t>
@@ -567,7 +661,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>所有类型</t>
@@ -576,7 +669,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>_new_new1545633383317</t>
@@ -599,7 +691,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>为</t>
@@ -608,7 +699,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>false1545633380273</t>
@@ -645,6 +735,24 @@
     <t>[]</t>
   </si>
   <si>
+    <t>source,intetsect, sink</t>
+  </si>
+  <si>
+    <t>f3f0c194-24b3-4fcd-9d0f-ab47d1457ead</t>
+  </si>
+  <si>
+    <t>step_test_sql</t>
+  </si>
+  <si>
+    <t>fd2437d7-6190-409b-a23e-d2840981892b</t>
+  </si>
+  <si>
+    <t>[{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"91","name":"大大20","id":"20"},{"subject":"语文","grade":"94","name":"大大35","id":"35"},{"subject":"语文","grade":"98","name":"大大36","id":"36"},{"subject":"语文","grade":"95","name":"大大37","id":"37"},{"subject":"语文","grade":"98","name":"大大40","id":"40"},{"subject":"语文","grade":"97","name":"大大43","id":"43"},{"subject":"语文","grade":"97","name":"大大51","id":"51"}]</t>
+  </si>
+  <si>
+    <t>source,sql, sink</t>
+  </si>
+  <si>
     <t>bbc9a8d4-4100-4aac-a598-6e4eabc6b6bf</t>
   </si>
   <si>
@@ -724,6 +832,9 @@
   </si>
   <si>
     <t xml:space="preserve">execution: c06eda03-8a2e-4967-b8dd-a05c935d7722 预期结果实际结果不一致 </t>
+  </si>
+  <si>
+    <t>source, supplement, sink</t>
   </si>
   <si>
     <t>涉及到返回结果不固定，需要单独判断</t>
@@ -734,10 +845,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -776,28 +887,18 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -817,9 +918,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -833,8 +957,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -849,83 +1035,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -933,7 +1043,6 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
   </fonts>
@@ -946,7 +1055,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +1079,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,85 +1193,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,67 +1235,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,30 +1246,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1194,17 +1279,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,6 +1323,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1240,152 +1349,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1400,6 +1509,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1883,7 +1994,7 @@
       <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E5" t="s">
@@ -1909,7 +2020,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
@@ -1941,7 +2052,7 @@
       <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E7" t="s">
@@ -1973,7 +2084,7 @@
       <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E8" t="s">
@@ -1999,7 +2110,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E9" t="s">
@@ -2031,7 +2142,7 @@
       <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
@@ -2063,7 +2174,7 @@
       <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E11" t="s">
@@ -2095,7 +2206,7 @@
       <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>63</v>
       </c>
       <c r="E12" t="s">
@@ -2133,10 +2244,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.5"/>
@@ -2191,7 +2302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2223,31 +2334,34 @@
       <c r="K2" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>18</v>
@@ -2255,6 +2369,9 @@
       <c r="J3"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2262,19 +2379,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>18</v>
@@ -2289,19 +2406,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>18</v>
@@ -2311,21 +2428,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>16</v>
@@ -2342,6 +2459,9 @@
       <c r="J6"/>
       <c r="K6" s="6" t="s">
         <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2349,25 +2469,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>18</v>
@@ -2377,7 +2497,7 @@
         <v>19</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2559,7 +2679,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2591,31 +2711,34 @@
       <c r="K13" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>18</v>
@@ -2624,31 +2747,34 @@
       <c r="K14" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="6" t="s">
         <v>130</v>
       </c>
+      <c r="C15" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>18</v>
@@ -2657,31 +2783,34 @@
       <c r="K15" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>18</v>
@@ -2690,31 +2819,34 @@
       <c r="K16" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>18</v>
@@ -2722,6 +2854,9 @@
       <c r="J17"/>
       <c r="K17" s="6" t="s">
         <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2731,14 +2866,14 @@
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
-        <v>13</v>
+      <c r="C18" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -2756,11 +2891,11 @@
       <c r="K18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1" spans="1:11">
+      <c r="L18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2774,7 +2909,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -2792,22 +2927,25 @@
       <c r="K19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
-        <v>27</v>
+      <c r="C20" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -2825,8 +2963,11 @@
       <c r="K20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" ht="12.75" customHeight="1" spans="1:11">
+      <c r="L20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2840,7 +2981,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -2857,6 +2998,9 @@
       <c r="J21"/>
       <c r="K21" t="s">
         <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2867,7 +3011,7 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -2886,7 +3030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1" spans="1:11">
+    <row r="23" ht="12.75" customHeight="1" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2896,11 +3040,11 @@
       <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -2918,8 +3062,11 @@
       <c r="K23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2929,11 +3076,11 @@
       <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -2950,17 +3097,20 @@
       <c r="J24"/>
       <c r="K24" t="s">
         <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -2979,7 +3129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2989,11 +3139,11 @@
       <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
@@ -3011,8 +3161,11 @@
       <c r="K26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3022,11 +3175,11 @@
       <c r="C27" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -3035,7 +3188,7 @@
         <v>59</v>
       </c>
       <c r="H27" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -3044,8 +3197,11 @@
       <c r="K27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -3055,11 +3211,11 @@
       <c r="C28" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="10" t="s">
         <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
@@ -3076,47 +3232,50 @@
       <c r="J28"/>
       <c r="K28" t="s">
         <v>19</v>
+      </c>
+      <c r="L28" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>154</v>
+      <c r="B29" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>158</v>
+      <c r="B30" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -3128,97 +3287,135 @@
       <c r="K30" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" ht="12.75" customHeight="1" spans="1:11">
+      <c r="L30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" ht="12.75" customHeight="1" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>161</v>
+      <c r="B31" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>165</v>
+      <c r="B32" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" ht="12.75" customHeight="1" spans="1:11">
+      <c r="L32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>169</v>
+      <c r="B33" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>173</v>
+      <c r="B34" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="K34" t="s">
         <v>19</v>
+      </c>
+      <c r="L34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3286,37 +3483,37 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="H2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3324,10 +3521,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -3336,13 +3533,13 @@
         <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J3" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
@@ -3353,25 +3550,25 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="H4" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="I4" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J4" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
@@ -3382,25 +3579,25 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="H5" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="I5" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J5" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
@@ -3411,25 +3608,25 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="H6" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J6" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
@@ -3440,19 +3637,19 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="H7" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -3466,25 +3663,25 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="H8" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="I8" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J8" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
@@ -3495,25 +3692,25 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" t="s">
         <v>195</v>
       </c>
-      <c r="E9" t="s">
-        <v>179</v>
-      </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H9" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="I9" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J9" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>
@@ -3524,25 +3721,25 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="I10" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J10" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K10" t="s">
         <v>19</v>
@@ -3553,25 +3750,25 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" t="s">
         <v>197</v>
       </c>
-      <c r="E11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" t="s">
         <v>198</v>
       </c>
-      <c r="H11" t="s">
-        <v>181</v>
-      </c>
-      <c r="I11" t="s">
-        <v>182</v>
-      </c>
       <c r="J11" s="3" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K11" t="s">
         <v>19</v>
@@ -3582,25 +3779,25 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I12" t="s">
+        <v>198</v>
+      </c>
+      <c r="J12" t="s">
         <v>199</v>
-      </c>
-      <c r="E12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H12" t="s">
-        <v>181</v>
-      </c>
-      <c r="I12" t="s">
-        <v>182</v>
-      </c>
-      <c r="J12" t="s">
-        <v>183</v>
       </c>
       <c r="K12" t="s">
         <v>19</v>
@@ -3620,7 +3817,7 @@
         <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -3629,22 +3826,22 @@
         <v>117</v>
       </c>
       <c r="H13" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="I13" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J13" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="K13" t="s">
         <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="O13" s="5"/>
     </row>

--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28245" windowHeight="12465" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="flow_info-new" sheetId="1" r:id="rId1"/>
-    <sheet name="flow_info" sheetId="2" r:id="rId2"/>
+    <sheet name="flow_info-all" sheetId="2" r:id="rId2"/>
     <sheet name="flow_info-需要处理" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="flow_info" sheetId="4" r:id="rId4"/>
+    <sheet name="all" sheetId="5" r:id="rId5"/>
+    <sheet name="fail" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295">
   <si>
     <t>id</t>
   </si>
@@ -226,193 +228,576 @@
     <t>d656fb5a-72a6-447d-a013-a0493fdb8098</t>
   </si>
   <si>
+    <t>c261e4f2-4e89-48f7-901d-eade9877d4e7</t>
+  </si>
+  <si>
+    <t>source, sink</t>
+  </si>
+  <si>
+    <t>697bcc07-ff2c-4980-bc9c-a6abcb0283be</t>
+  </si>
+  <si>
+    <t>c_in_out</t>
+  </si>
+  <si>
+    <t>a3064e14-f4e9-4b10-8a02-19c9854d8909</t>
+  </si>
+  <si>
+    <t>[{"gender":"male","name":"wac","id":"1","age":"30"},{"gender":"female","name":"xh","id":"2","age":"18"}]</t>
+  </si>
+  <si>
+    <t>67f6d649-88c9-447b-9263-732e0894fd69</t>
+  </si>
+  <si>
+    <t>9a31840c-b980-4ab8-bc10-876176609add</t>
+  </si>
+  <si>
+    <t>054f8ec7-e3d3-4bd3-b16c-5f71b78eb0b2</t>
+  </si>
+  <si>
+    <t>tc_auto_df_source_001_mysql1545633383105</t>
+  </si>
+  <si>
+    <t>3c39ddfd-2aae-48df-8793-a20f0d652fca</t>
+  </si>
+  <si>
+    <t>74bbb47e-252f-4141-a6f3-4263f27cf90a</t>
+  </si>
+  <si>
+    <t>6d393c25-095f-45fd-bcf5-59584055dcfa</t>
+  </si>
+  <si>
+    <t>students_flow2</t>
+  </si>
+  <si>
+    <t>e2de307f-b405-474e-be52-d523adc1920e</t>
+  </si>
+  <si>
+    <t>833fc4f3-4df7-4e21-bb20-446a315d7746</t>
+  </si>
+  <si>
+    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"65","name":"李四","id":"4"},{"subject":"语文","grade":"35","name":"李四","id":"5"},{"subject":"数学","grade":"58","name":"小明","id":"6"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"46","name":"小玲","id":"13"},{"subject":"英语","grade":"78","name":"小玲","id":"14"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
+  </si>
+  <si>
+    <t>f2677db1-6923-42a1-8f18-f8674394580a</t>
+  </si>
+  <si>
+    <t>students_flow_filter</t>
+  </si>
+  <si>
+    <t>43960fe6-bfd4-4255-9b10-34f1be0dc3a4</t>
+  </si>
+  <si>
+    <t>d4abc825-7db5-40be-b613-27b6987ed370</t>
+  </si>
+  <si>
+    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"英语","grade":"78","name":"小玲","id":"14"}]</t>
+  </si>
+  <si>
+    <t>source,filter, sink</t>
+  </si>
+  <si>
+    <t>06316eac-90e3-4ee5-9eb9-3d622ca23297</t>
+  </si>
+  <si>
+    <t>students_flow_append8989</t>
+  </si>
+  <si>
+    <t>93a1026d-45c1-4844-83bf-444b02d62cb6</t>
+  </si>
+  <si>
+    <t>97102747-147e-433d-b7fc-ff10d1b83a5c</t>
+  </si>
+  <si>
+    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
+  </si>
+  <si>
+    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
+  </si>
+  <si>
+    <t>append</t>
+  </si>
+  <si>
+    <t>0a863af1-fbb2-491e-9e51-105d750f31d3</t>
+  </si>
+  <si>
+    <t>students_lookupTable_redis</t>
+  </si>
+  <si>
+    <t>aab156cc-6e72-4bf7-95a3-ae4609d01d38</t>
+  </si>
+  <si>
+    <t>[{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"46","name":"小玲","id":"13"},{"subject":"英语","grade":"78","name":"小玲","id":"14"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"65","name":"李四","id":"4"},{"subject":"语文","grade":"35","name":"李四","id":"5"},{"subject":"数学","grade":"58","name":"小明","id":"6"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"}]</t>
+  </si>
+  <si>
+    <t>source, lookupTable</t>
+  </si>
+  <si>
+    <t>e8190da7-ce9b-4446-a35a-45852c799417</t>
+  </si>
+  <si>
+    <t>students_lookup2</t>
+  </si>
+  <si>
+    <t>023ee76e-17d6-425f-ab64-249b6c42637d</t>
+  </si>
+  <si>
+    <t>be70cd3e-9347-4393-90b3-fbb9b2bcf2c2</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>[{"subject1":"语文","id":"1","name1":"张三","grade1":"89"},{"subject1":"英语","id":"2","name1":"张三","grade1":"85"},{"subject1":"数学","id":"3","name1":"李四","grade1":"95"},{"subject1":"英语","id":"4","name1":"李四","grade1":"65"},{"subject1":"语文","id":"5","name1":"李四","grade1":"35"},{"subject1":"数学","id":"6","name1":"小明","grade1":"58"},{"subject1":"英语","id":"7","name1":"小明","grade1":"96"},{"subject1":"语文","id":"8","name1":"小明","grade1":"96"},{"subject1":"数学","id":"9","name1":"小红","grade1":"85"},{"subject1":"英语","id":"10","name1":"小红","grade1":"95"},{"subject1":"语文","id":"11","name1":"小红","grade1":"78"},{"subject1":"数学","id":"12","name1":"小玲","grade1":"98"},{"subject1":"语文","id":"13","name1":"小玲","grade1":"46"},{"subject1":"英语","id":"14","name1":"小玲","grade1":"78"},{"subject1":"数学","id":"15","name1":"张三","grade1":"68"}]</t>
+  </si>
+  <si>
+    <t>source, lookup</t>
+  </si>
+  <si>
+    <t>09296a11-5abf-4af4-a58f-2f14e414db67</t>
+  </si>
+  <si>
+    <t>tc_auto_df_sample_false1545633385849</t>
+  </si>
+  <si>
+    <t>57502b49-61df-43ce-b0b4-8744fd42e8bb</t>
+  </si>
+  <si>
+    <t>d4263e90-33ab-4050-8edf-fc6582e86c83</t>
+  </si>
+  <si>
+    <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"12","age":"数学"},{"name":"小玲","id":"13","age":"语文"},{"name":"小玲","id":"14","age":"英语"},{"name":"张三","id":"15","age":"数学"}]</t>
+  </si>
+  <si>
+    <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小明","id":"8","age":"语文"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"12","age":"数学"},{"name":"小玲","id":"13","age":"语文"},{"name":"小玲","id":"14","age":"英语"},{"name":"张三","id":"15","age":"数学"}]</t>
+  </si>
+  <si>
+    <t>source, sample, sink</t>
+  </si>
+  <si>
+    <t>2a1a8e6f-ae2b-4eee-b8f1-993ef8c348f0</t>
+  </si>
+  <si>
+    <t>tc_auto_df_join_outerjoin1545633381249</t>
+  </si>
+  <si>
+    <t>d8a6e308-abcc-4782-8b88-7da81ec78c4d</t>
+  </si>
+  <si>
+    <t>a70f7130-f7eb-4e1d-bcdf-e70b2556b7a2</t>
+  </si>
+  <si>
+    <t>[{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"},{"Oname":"","Osalary":"","Oid":""},{"Oname":"","Osalary":"","Oid":""}]</t>
+  </si>
+  <si>
+    <t>source, join, sink</t>
+  </si>
+  <si>
+    <t>3952884c-6dd3-40b5-9b26-3d3865dd0d7f</t>
+  </si>
+  <si>
+    <t>tc_auto_df_join_inner1545633379403</t>
+  </si>
+  <si>
+    <t>1b29d436-ce04-4ed8-82ba-1bae313ff860</t>
+  </si>
+  <si>
+    <t>87b1036a-54b1-490d-afaa-c82635c563b7</t>
+  </si>
+  <si>
+    <t>[{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"}]</t>
+  </si>
+  <si>
+    <t>[{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"}]</t>
+  </si>
+  <si>
+    <t>46fca021-28be-4699-a0a8-9c5fdd510f88</t>
+  </si>
+  <si>
+    <t>tc_auto_df_union_001_distinct为true1545633380382</t>
+  </si>
+  <si>
+    <t>2a7fb401-f7df-4961-8b98-f52d9c8b59c0</t>
+  </si>
+  <si>
+    <t>52dbbb90-2762-4cd4-b126-79d8f61e17ae</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaowang1","id":"3","age":"301"},{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"tyest1","id":"4","age":"121"},{"name":"james1","id":"1","age":"501"}]</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"xiaowang1","id":"3","age":"301"},{"name":"james1","id":"1","age":"501"},{"name":"tyest1","id":"4","age":"121"}]</t>
+  </si>
+  <si>
+    <t>source,union, sink</t>
+  </si>
+  <si>
+    <t>6cba86d5-1969-4e5f-a6f9-410d4eb9c030</t>
+  </si>
+  <si>
+    <t>tc_auto_df_minus1545633384706</t>
+  </si>
+  <si>
+    <t>66bf6ade-107d-4a9e-816e-b496c903221e</t>
+  </si>
+  <si>
+    <t>cb047851-5100-455b-9c78-aeca10d1d8db</t>
+  </si>
+  <si>
+    <t>source,minus, sink</t>
+  </si>
+  <si>
+    <t>72a5c601-52a8-4f75-b194-5dc7507167be</t>
+  </si>
+  <si>
+    <t>tc_auto_df_sink_hive_分区1545633382059</t>
+  </si>
+  <si>
+    <t>f9a691f5-d0c5-44ab-aa1a-d32957f6c803</t>
+  </si>
+  <si>
+    <t>2efe209f-2fa2-402c-a903-5e70b0d0e75f</t>
+  </si>
+  <si>
+    <t>[{"pt_id":"3","name":"xiaoming","id":"1","age":"22"},{"pt_id":"3","name":"xiaohong","id":"2","age":"33"},{"pt_id":"3","name":"xiaozhang","id":"3","age":"18"},{"pt_id":"3","name":"xiaohuang","id":"1","age":"18"},{"pt_id":"4","name":"xiaoming","id":"1","age":"1000"},{"pt_id":"4","name":"xiaohong","id":"2","age":"20000"},{"pt_id":"4","name":"xiaowang","id":"3","age":"3012"},{"pt_id":"4","name":"tyest","id":"5","age":"12"}]</t>
+  </si>
+  <si>
+    <t>69d208d9-3049-4a22-81f6-9c79d04f80b9</t>
+  </si>
+  <si>
+    <t>bd76ec9d-d96c-4a0d-a703-821cafb44a34</t>
+  </si>
+  <si>
+    <t>source,decision, sink</t>
+  </si>
+  <si>
+    <t>34c8e90e-230f-45b4-a71d-94dbe942725e</t>
+  </si>
+  <si>
+    <t>source,top, sink</t>
+  </si>
+  <si>
+    <t>c815d509-3d08-4f48-97b1-bac9a91dff8a</t>
+  </si>
+  <si>
+    <t>source,validate, sink</t>
+  </si>
+  <si>
+    <t>97398b86-2535-4b6f-b72a-24ae87d3b92a</t>
+  </si>
+  <si>
+    <t>cb2d97b8-2995-4682-92ab-00f8434d9dd2</t>
+  </si>
+  <si>
+    <t>source, split,  sink</t>
+  </si>
+  <si>
+    <t>6abf3cd7-e30c-498f-9eeb-3f99228c126d</t>
+  </si>
+  <si>
+    <t>b6303b79-12f4-4aac-9959-6ad5c65285bb</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"xiaohong","id":"2","age":"20"},{"name":"","id":"5","age":""},{"name":"james","id":"6","age":"50"},{"name":"xiaowang","id":"3","age":"30"},{"name":"tyest","id":"4","age":"12"}]</t>
+  </si>
+  <si>
+    <t>13da9dc3-2741-44da-abec-ee3ccb12b8c2</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"xiaowang1","id":"3","age":"301"},{"name":"xiaohong","id":"2","age":"20"},{"name":"xiaowang","id":"3","age":"30"},{"name":"xiaoming","id":"1","age":"18"},{"name":"james1","id":"1","age":"501"},{"name":"tyest1","id":"4","age":"121"},{"name":"tyest","id":"4","age":"12"},{"name":"james","id":"6","age":"50"},{"name":"","id":"5","age":""}]</t>
+  </si>
+  <si>
+    <t>c02a68eb-6010-4025-be23-93f93f6cc216</t>
+  </si>
+  <si>
+    <t>tc_auto_df_aggregate_所有聚合id1545633384081</t>
+  </si>
+  <si>
+    <t>cb5039c8-1ce3-4cf4-8c50-c377867aa43e</t>
+  </si>
+  <si>
+    <t>3d8a2390-bed8-4780-a06f-4c9b16197de5</t>
+  </si>
+  <si>
+    <t>[{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"18","AGE_max":"18","AGE_avg":"18.0","AGE_countDistinct":"1","AGE_min":"18","AGE_count":"1","id":"1","AGE_sum":"18"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"50","AGE_max":"50","AGE_avg":"50.0","AGE_countDistinct":"1","AGE_min":"50","AGE_count":"1","id":"6","AGE_sum":"50"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"30","AGE_max":"30","AGE_avg":"30.0","AGE_countDistinct":"1","AGE_min":"30","AGE_count":"1","id":"3","AGE_sum":"30"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"12","AGE_max":"12","AGE_avg":"12.0","AGE_countDistinct":"1","AGE_min":"12","AGE_count":"1","id":"4","AGE_sum":"12"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"20","AGE_max":"20","AGE_avg":"20.0","AGE_countDistinct":"1","AGE_min":"20","AGE_count":"1","id":"2","AGE_sum":"20"},{"AGE_approxCountDistinct":"0","AGE_sumDistinct":"","AGE_max":"","AGE_avg":"","AGE_countDistinct":"0","AGE_min":"","AGE_count":"0","id":"5","AGE_sum":""}]</t>
+  </si>
+  <si>
+    <t>source,aggregate, sink</t>
+  </si>
+  <si>
+    <t>beb2610a-8c30-4c83-98d2-e65a22945315</t>
+  </si>
+  <si>
+    <t>tc_auto_df_top_RATE没有groupby字段ignore1545633379788</t>
+  </si>
+  <si>
+    <t>47c2e188-4e17-4e9a-83d3-e962d5f7c852</t>
+  </si>
+  <si>
+    <t>0d07fd4d-9f9a-435c-9c4f-2df9083c45dc</t>
+  </si>
+  <si>
+    <t>c3b92b8a-7246-4ba6-8c95-1417f01cb63d</t>
+  </si>
+  <si>
+    <t>tc_auto_df_所有类型_new_new1545633383317</t>
+  </si>
+  <si>
+    <t>39333d1a-2206-4afb-a0c3-d8374a644875</t>
+  </si>
+  <si>
+    <t>a704a3da-4299-45b9-b737-3977843d01a0</t>
+  </si>
+  <si>
+    <t>[{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@239ce72c","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":""},{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@169dd9c0","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":"2018-08-03 10:22:24.0"}]</t>
+  </si>
+  <si>
+    <t>[{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@3b55c65b","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":""},{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@4dd04f1e","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":"2018-08-03 10:22:24.0"}]</t>
+  </si>
+  <si>
+    <t>c794d453-42c5-432a-884d-424a3985eede</t>
+  </si>
+  <si>
+    <t>tc_auto_df_union_001_distinct为false1545633380273</t>
+  </si>
+  <si>
+    <t>6c309e6c-7788-433b-aa64-a24f72cac62b</t>
+  </si>
+  <si>
+    <t>a576c514-05ce-472a-a463-ac2e4bb4ce12</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"xiaowang1","id":"3","age":"301"},{"name":"tyest1","id":"4","age":"121"},{"name":"james1","id":"1","age":"501"}]</t>
+  </si>
+  <si>
+    <t>cc0809a8-447a-4d83-93cc-7ffb2f4d741e</t>
+  </si>
+  <si>
+    <t>tc_auto_df_sink_hdfs_quoteChar1545633379258</t>
+  </si>
+  <si>
+    <t>24af9231-20ce-468b-bae4-b28571aa94a8</t>
+  </si>
+  <si>
+    <t>ce6c3019-b5c4-438b-a8ce-e3cb941c676c</t>
+  </si>
+  <si>
+    <t>[{"name":"test1","id":"1","age":""},{"name":"test3","id":"3","age":""},{"name":"test4","id":"4","age":""},{"name":"test5","id":"5","age":""},{"name":"test2","id":"2","age":""}]</t>
+  </si>
+  <si>
+    <t>e9fbd094-79fa-43e4-84e5-9d82fd5c3c64</t>
+  </si>
+  <si>
+    <t>tc_auto_df_intersect_0011545633383879</t>
+  </si>
+  <si>
+    <t>0b084b55-1137-40a1-b2e8-8e3ece334921</t>
+  </si>
+  <si>
+    <t>239a17c7-b5da-4626-858c-eec9030c10db</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>source,intetsect, sink</t>
+  </si>
+  <si>
+    <t>f3f0c194-24b3-4fcd-9d0f-ab47d1457ead</t>
+  </si>
+  <si>
+    <t>step_test_sql</t>
+  </si>
+  <si>
+    <t>fd2437d7-6190-409b-a23e-d2840981892b</t>
+  </si>
+  <si>
+    <t>9f54b232-cb78-46af-8cca-b1517756f601</t>
+  </si>
+  <si>
+    <t>[{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"91","name":"大大20","id":"20"},{"subject":"语文","grade":"94","name":"大大35","id":"35"},{"subject":"语文","grade":"98","name":"大大36","id":"36"},{"subject":"语文","grade":"95","name":"大大37","id":"37"},{"subject":"语文","grade":"98","name":"大大40","id":"40"},{"subject":"语文","grade":"97","name":"大大43","id":"43"},{"subject":"语文","grade":"97","name":"大大51","id":"51"}]</t>
+  </si>
+  <si>
+    <t>source,sql, sink</t>
+  </si>
+  <si>
+    <t>bbc9a8d4-4100-4aac-a598-6e4eabc6b6bf</t>
+  </si>
+  <si>
+    <t>tc_df_all_step_多sink</t>
+  </si>
+  <si>
+    <t>0d3e58a1-2b84-4ab6-81e0-fa5b53c4926e</t>
+  </si>
+  <si>
+    <t>8a2e83a0-3579-4e06-8872-fe51e3551b45</t>
+  </si>
+  <si>
+    <t>[{"right_age":"50","left_name":"james","left_age":"50","right_id":"6","right_name":"james","left_id":"6"}]</t>
+  </si>
+  <si>
+    <t>[{"name":"james","id":"6","age":"50"}]</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execution: 8a2e83a0-3579-4e06-8872-fe51e3551b45 预期结果实际结果不一致 </t>
+  </si>
+  <si>
+    <t>涉及到返回多个数据集且顺序不固定，需要单独处理</t>
+  </si>
+  <si>
+    <t>68c86e6b-f6f8-4c7b-b61d-28123e9ddb03</t>
+  </si>
+  <si>
+    <t>02b3801a-576a-40f4-b8d9-f69619a9d24a</t>
+  </si>
+  <si>
+    <t>[{"left_name":"james","right_id":"","right_name":"","salary":"","left_id":"6","age":"1","age1":""}]</t>
+  </si>
+  <si>
+    <t>4ff14278-bdd7-469d-ae71-d3f6fcaed4dd</t>
+  </si>
+  <si>
+    <t>[{"right_age":"30","left_name":"xiaoming","left_age":"18","right_id":"3","right_name":"xiaowang","left_id":"1"},{"right_age":"30","left_name":"xiaohong","left_age":"20","right_id":"3","right_name":"xiaowang","left_id":"2"},{"right_age":"30","left_name":"xiaowang","left_age":"30","right_id":"3","right_name":"xiaowang","left_id":"3"},{"right_age":"30","left_name":"tyest","left_age":"12","right_id":"3","right_name":"xiaowang","left_id":"4"},{"right_age":"30","left_name":"","left_age":"","right_id":"3","right_name":"xiaowang","left_id":"5"},{"right_age":"30","left_name":"james","left_age":"50","right_id":"3","right_name":"xiaowang","left_id":"6"},{"right_age":"20","left_name":"xiaoming","left_age":"18","right_id":"2","right_name":"xiaohong","left_id":"1"},{"right_age":"20","left_name":"xiaohong","left_age":"20","right_id":"2","right_name":"xiaohong","left_id":"2"},{"right_age":"20","left_name":"xiaowang","left_age":"30","right_id":"2","right_name":"xiaohong","left_id":"3"},{"right_age":"20","left_name":"tyest","left_age":"12","right_id":"2","right_name":"xiaohong","left_id":"4"},{"right_age":"20","left_name":"","left_age":"","right_id":"2","right_name":"xiaohong","left_id":"5"},{"right_age":"20","left_name":"james","left_age":"50","right_id":"2","right_name":"xiaohong","left_id":"6"},{"right_age":"18","left_name":"xiaoming","left_age":"18","right_id":"1","right_name":"xiaoming","left_id":"1"},{"right_age":"18","left_name":"xiaohong","left_age":"20","right_id":"1","right_name":"xiaoming","left_id":"2"},{"right_age":"18","left_name":"xiaowang","left_age":"30","right_id":"1","right_name":"xiaoming","left_id":"3"},{"right_age":"18","left_name":"tyest","left_age":"12","right_id":"1","right_name":"xiaoming","left_id":"4"},{"right_age":"18","left_name":"","left_age":"","right_id":"1","right_name":"xiaoming","left_id":"5"},{"right_age":"18","left_name":"james","left_age":"50","right_id":"1","right_name":"xiaoming","left_id":"6"},{"right_age":"12","left_name":"xiaoming","left_age":"18","right_id":"4","right_name":"tyest","left_id":"1"},{"right_age":"12","left_name":"xiaohong","left_age":"20","right_id":"4","right_name":"tyest","left_id":"2"},{"right_age":"12","left_name":"xiaowang","left_age":"30","right_id":"4","right_name":"tyest","left_id":"3"},{"right_age":"12","left_name":"tyest","left_age":"12","right_id":"4","right_name":"tyest","left_id":"4"},{"right_age":"12","left_name":"","left_age":"","right_id":"4","right_name":"tyest","left_id":"5"},{"right_age":"12","left_name":"james","left_age":"50","right_id":"4","right_name":"tyest","left_id":"6"},{"right_age":"50","left_name":"xiaoming","left_age":"18","right_id":"6","right_name":"james","left_id":"1"},{"right_age":"50","left_name":"xiaohong","left_age":"20","right_id":"6","right_name":"james","left_id":"2"},{"right_age":"50","left_name":"xiaowang","left_age":"30","right_id":"6","right_name":"james","left_id":"3"},{"right_age":"50","left_name":"tyest","left_age":"12","right_id":"6","right_name":"james","left_id":"4"},{"right_age":"50","left_name":"","left_age":"","right_id":"6","right_name":"james","left_id":"5"},{"right_age":"50","left_name":"james","left_age":"50","right_id":"6","right_name":"james","left_id":"6"},{"right_age":"","left_name":"xiaoming","left_age":"18","right_id":"5","right_name":"","left_id":"1"},{"right_age":"","left_name":"xiaohong","left_age":"20","right_id":"5","right_name":"","left_id":"2"},{"right_age":"","left_name":"xiaowang","left_age":"30","right_id":"5","right_name":"","left_id":"3"},{"right_age":"","left_name":"tyest","left_age":"12","right_id":"5","right_name":"","left_id":"4"},{"right_age":"","left_name":"","left_age":"","right_id":"5","right_name":"","left_id":"5"},{"right_age":"","left_name":"james","left_age":"50","right_id":"5","right_name":"","left_id":"6"}]</t>
+  </si>
+  <si>
+    <t>2ef3666a-1ef8-4928-8c8b-d0265ed39ecc</t>
+  </si>
+  <si>
+    <t>[{"a":"6","b":"james","c":"1"}]</t>
+  </si>
+  <si>
+    <t>933b5159-75ee-4553-9cef-f22dbe20d1c7</t>
+  </si>
+  <si>
+    <t>4183b8bc-e5d2-435a-b1b5-a5e29adfbf6d</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"xiaohong","id":"2","age":"20"},{"name":"xiaowang","id":"3","age":"30"},{"name":"tyest","id":"4","age":"12"},{"name":"null","id":"5","age":"null"},{"name":"james","id":"6","age":"50"}]</t>
+  </si>
+  <si>
+    <t>93b30137-b322-4056-921f-1792759be692</t>
+  </si>
+  <si>
+    <t>d3353172-dfb8-4131-a274-b16900ed054f</t>
+  </si>
+  <si>
+    <t>068ed5db-9be7-4fc0-a50d-2650557779ad</t>
+  </si>
+  <si>
+    <t>[{"left_TIME":"2018-12-21 12:16:03.0","left_NAME":"name5","right_AGE":"82","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:03.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"82","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:02.0","left_NAME":"name5","right_AGE":"81","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:02.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"81","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:01.0","left_NAME":"name5","right_AGE":"80","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:01.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"80","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:00.0","left_NAME":"name5","right_AGE":"79","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:00.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"79","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:59.0","left_NAME":"name5","right_AGE":"78","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:59.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"78","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:58.0","left_NAME":"name5","right_AGE":"77","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:58.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"77","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:57.0","left_NAME":"name5","right_AGE":"76","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:57.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"76","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:56.0","left_NAME":"name5","right_AGE":"75","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:56.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"75","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:55.0","left_NAME":"name5","right_AGE":"74","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:55.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"74","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:54.0","left_NAME":"name5","right_AGE":"73","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:54.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"73","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:53.0","left_NAME":"name5","right_AGE":"72","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:53.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"72","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:52.0","left_NAME":"name5","right_AGE":"71","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:52.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"71","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:51.0","left_NAME":"name5","right_AGE":"70","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:51.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"70","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:50.0","left_NAME":"name5","right_AGE":"69","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:50.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"69","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:49.0","left_NAME":"name5","right_AGE":"68","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:49.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"68","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:48.0","left_NAME":"name5","right_AGE":"67","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:48.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"67","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:47.0","left_NAME":"name5","right_AGE":"66","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:47.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"66","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:45.0","left_NAME":"name5","right_AGE":"65","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:45.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"65","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:44.0","left_NAME":"name5","right_AGE":"64","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:44.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"64","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:43.0","left_NAME":"name5","right_AGE":"63","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:43.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"63","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:42.0","left_NAME":"name5","right_AGE":"62","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:42.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"62","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:41.0","left_NAME":"name5","right_AGE":"61","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:41.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"61","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:40.0","left_NAME":"name5","right_AGE":"60","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:40.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"60","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:39.0","left_NAME":"name5","right_AGE":"59","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:39.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"59","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:38.0","left_NAME":"name5","right_AGE":"58","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:38.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"58","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:37.0","left_NAME":"name5","right_AGE":"57","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:37.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"57","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:36.0","left_NAME":"name5","right_AGE":"56","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:36.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"56","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:35.0","left_NAME":"name5","right_AGE":"55","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:35.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"55","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:34.0","left_NAME":"name5","right_AGE":"54","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:34.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"54","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:33.0","left_NAME":"name5","right_AGE":"53","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:33.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"53","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:32.0","left_NAME":"name5","right_AGE":"52","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:32.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"52","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:31.0","left_NAME":"name5","right_AGE":"51","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:31.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"51","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:30.0","left_NAME":"name5","right_AGE":"50","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:30.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"50","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":"6"},{"left_TIME":"2018-12-21 12:15:29.0","left_NAME":"name5","right_AGE":"49","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:29.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"49","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:28.0","left_NAME":"name5","right_AGE":"48","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:28.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"48","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:26.0","left_NAME":"name5","right_AGE":"47","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:26.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"47","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:25.0","left_NAME":"name5","right_AGE":"46","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:25.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"46","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:24.0","left_NAME":"name5","right_AGE":"45","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:24.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"45","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:23.0","left_NAME":"name5","right_AGE":"44","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:23.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"44","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:22.0","left_NAME":"name5","right_AGE":"43","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:22.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"43","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:21.0","left_NAME":"name5","right_AGE":"42","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:21.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"42","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:20.0","left_NAME":"name5","right_AGE":"41","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:20.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"41","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:19.0","left_NAME":"name5","right_AGE":"40","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:19.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"40","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:18.0","left_NAME":"name5","right_AGE":"39","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:18.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"39","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:17.0","left_NAME":"name5","right_AGE":"38","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:17.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"38","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:16.0","left_NAME":"name5","right_AGE":"37","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:16.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"37","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:15.0","left_NAME":"name5","right_AGE":"36","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:15.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"36","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:14.0","left_NAME":"name5","right_AGE":"35","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:14.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"35","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:13.0","left_NAME":"name5","right_AGE":"34","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:13.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"34","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:12.0","left_NAME":"name5","right_AGE":"33","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:12.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"33","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""}]</t>
+  </si>
+  <si>
+    <t>81e3b910-9f26-45d4-921a-2ecb36aaf4f1</t>
+  </si>
+  <si>
+    <t>c06eda03-8a2e-4967-b8dd-a05c935d7722</t>
+  </si>
+  <si>
+    <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小明","id":"8","age":"语文"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"12","age":"数学"},{"name":"小玲","id":"13","age":"语文"},{"name":"小玲","id":"14","age":"英语"}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execution: c06eda03-8a2e-4967-b8dd-a05c935d7722 预期结果实际结果不一致 </t>
+  </si>
+  <si>
+    <t>source, supplement, sink</t>
+  </si>
+  <si>
+    <t>涉及到返回结果不固定，需要单独判断</t>
+  </si>
+  <si>
+    <t>用例参数或datasetID填写错误</t>
+  </si>
+  <si>
+    <t>4a108f18-145f-4d69-a515-824b1ad78831</t>
+  </si>
+  <si>
+    <t>execution: 4a108f18-145f-4d69-a515-824b1ad78831 执行状态为 FAILED</t>
+  </si>
+  <si>
+    <t>5c9c70ef-88d5-46d1-81ff-9fabab42cf44</t>
+  </si>
+  <si>
+    <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小明","id":"8","age":"语文"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"12","age":"数学"},{"name":"小玲","id":"13","age":"语文"},{"name":"张三","id":"15","age":"数学"}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execution: 5c9c70ef-88d5-46d1-81ff-9fabab42cf44 预期结果实际结果不一致 </t>
+  </si>
+  <si>
+    <t>ddac55f4-97ac-485b-a872-94e0fe241700</t>
+  </si>
+  <si>
+    <t>execution: ddac55f4-97ac-485b-a872-94e0fe241700 执行状态为 FAILED</t>
+  </si>
+  <si>
+    <t>3a288aa1-326a-4f38-a3ef-94ec3bf17326</t>
+  </si>
+  <si>
+    <t>execution: 3a288aa1-326a-4f38-a3ef-94ec3bf17326 执行状态为 FAILED</t>
+  </si>
+  <si>
+    <t>c2d283f6-e52d-49e8-b4ac-5fa55cb5f428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execution: c2d283f6-e52d-49e8-b4ac-5fa55cb5f428 预期结果实际结果不一致 </t>
+  </si>
+  <si>
+    <t>93bfc82a-4d1d-41be-9a6e-8eb55d146ee6</t>
+  </si>
+  <si>
+    <t>[{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@47ae1b4e","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":""},{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@78f8523","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":"2018-08-03 10:22:24.0"}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execution: 93bfc82a-4d1d-41be-9a6e-8eb55d146ee6 预期结果实际结果不一致 </t>
+  </si>
+  <si>
+    <t>3c0d79e2-238f-4a0d-8d69-c0f38c59dca4</t>
+  </si>
+  <si>
     <t>97e00289-0c0f-4d44-a46f-5c06dcbbacee</t>
   </si>
   <si>
-    <t>source, sink</t>
-  </si>
-  <si>
-    <t>697bcc07-ff2c-4980-bc9c-a6abcb0283be</t>
-  </si>
-  <si>
-    <t>c_in_out</t>
-  </si>
-  <si>
-    <t>a3064e14-f4e9-4b10-8a02-19c9854d8909</t>
-  </si>
-  <si>
     <t>3e54a2ed-b4b9-48cc-84d7-44eff0f53dee</t>
   </si>
   <si>
-    <t>[{"gender":"male","name":"wac","id":"1","age":"30"},{"gender":"female","name":"xh","id":"2","age":"18"}]</t>
-  </si>
-  <si>
-    <t>67f6d649-88c9-447b-9263-732e0894fd69</t>
-  </si>
-  <si>
-    <t>9a31840c-b980-4ab8-bc10-876176609add</t>
-  </si>
-  <si>
-    <t>054f8ec7-e3d3-4bd3-b16c-5f71b78eb0b2</t>
-  </si>
-  <si>
-    <t>tc_auto_df_source_001_mysql1545633383105</t>
-  </si>
-  <si>
-    <t>3c39ddfd-2aae-48df-8793-a20f0d652fca</t>
-  </si>
-  <si>
     <t>cf4d5f63-1f29-437a-956a-2c21c1c0abb6</t>
   </si>
   <si>
-    <t>6d393c25-095f-45fd-bcf5-59584055dcfa</t>
-  </si>
-  <si>
-    <t>students_flow2</t>
-  </si>
-  <si>
-    <t>e2de307f-b405-474e-be52-d523adc1920e</t>
-  </si>
-  <si>
     <t>34bf4f77-0be9-4da3-885d-6b2aa45facca</t>
   </si>
   <si>
-    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"65","name":"李四","id":"4"},{"subject":"语文","grade":"35","name":"李四","id":"5"},{"subject":"数学","grade":"58","name":"小明","id":"6"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"46","name":"小玲","id":"13"},{"subject":"英语","grade":"78","name":"小玲","id":"14"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
-  </si>
-  <si>
-    <t>f2677db1-6923-42a1-8f18-f8674394580a</t>
-  </si>
-  <si>
-    <t>students_flow_filter</t>
-  </si>
-  <si>
-    <t>43960fe6-bfd4-4255-9b10-34f1be0dc3a4</t>
-  </si>
-  <si>
     <t>71a59844-bfef-42b6-8aec-12657708db6c</t>
   </si>
   <si>
-    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"英语","grade":"78","name":"小玲","id":"14"}]</t>
-  </si>
-  <si>
-    <t>source,filter, sink</t>
-  </si>
-  <si>
-    <t>06316eac-90e3-4ee5-9eb9-3d622ca23297</t>
-  </si>
-  <si>
-    <t>students_flow_append8989</t>
-  </si>
-  <si>
-    <t>93a1026d-45c1-4844-83bf-444b02d62cb6</t>
-  </si>
-  <si>
     <t>fdc8062a-1711-46e9-88b2-8b7bad75e5db</t>
   </si>
   <si>
-    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
-  </si>
-  <si>
     <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
   </si>
   <si>
-    <t>append</t>
-  </si>
-  <si>
-    <t>0a863af1-fbb2-491e-9e51-105d750f31d3</t>
-  </si>
-  <si>
-    <t>students_lookupTable_redis</t>
-  </si>
-  <si>
-    <t>aab156cc-6e72-4bf7-95a3-ae4609d01d38</t>
-  </si>
-  <si>
     <t>c1e10d6c-ebf3-49bb-beb4-3f908ae9b114</t>
   </si>
   <si>
-    <t>[{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"46","name":"小玲","id":"13"},{"subject":"英语","grade":"78","name":"小玲","id":"14"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"65","name":"李四","id":"4"},{"subject":"语文","grade":"35","name":"李四","id":"5"},{"subject":"数学","grade":"58","name":"小明","id":"6"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"}]</t>
-  </si>
-  <si>
-    <t>source, lookupTable</t>
-  </si>
-  <si>
-    <t>e8190da7-ce9b-4446-a35a-45852c799417</t>
-  </si>
-  <si>
-    <t>students_lookup2</t>
-  </si>
-  <si>
-    <t>023ee76e-17d6-425f-ab64-249b6c42637d</t>
-  </si>
-  <si>
     <t>eaeb90b4-4e86-4bf7-a9f0-29bebc760aa2</t>
   </si>
   <si>
-    <t>[{"subject1":"语文","id":"1","name1":"张三","grade1":"89"},{"subject1":"英语","id":"2","name1":"张三","grade1":"85"},{"subject1":"数学","id":"3","name1":"李四","grade1":"95"},{"subject1":"英语","id":"4","name1":"李四","grade1":"65"},{"subject1":"语文","id":"5","name1":"李四","grade1":"35"},{"subject1":"数学","id":"6","name1":"小明","grade1":"58"},{"subject1":"英语","id":"7","name1":"小明","grade1":"96"},{"subject1":"语文","id":"8","name1":"小明","grade1":"96"},{"subject1":"数学","id":"9","name1":"小红","grade1":"85"},{"subject1":"英语","id":"10","name1":"小红","grade1":"95"},{"subject1":"语文","id":"11","name1":"小红","grade1":"78"},{"subject1":"数学","id":"12","name1":"小玲","grade1":"98"},{"subject1":"语文","id":"13","name1":"小玲","grade1":"46"},{"subject1":"英语","id":"14","name1":"小玲","grade1":"78"},{"subject1":"数学","id":"15","name1":"张三","grade1":"68"}]</t>
-  </si>
-  <si>
-    <t>source, lookup</t>
-  </si>
-  <si>
-    <t>09296a11-5abf-4af4-a58f-2f14e414db67</t>
-  </si>
-  <si>
-    <t>tc_auto_df_sample_false1545633385849</t>
-  </si>
-  <si>
-    <t>57502b49-61df-43ce-b0b4-8744fd42e8bb</t>
-  </si>
-  <si>
     <t>4c3fc04c-7368-442c-9d66-b3a79daf9957</t>
   </si>
   <si>
-    <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"12","age":"数学"},{"name":"小玲","id":"13","age":"语文"},{"name":"小玲","id":"14","age":"英语"},{"name":"张三","id":"15","age":"数学"}]</t>
-  </si>
-  <si>
-    <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小明","id":"8","age":"语文"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"12","age":"数学"},{"name":"小玲","id":"13","age":"语文"},{"name":"小玲","id":"14","age":"英语"},{"name":"张三","id":"15","age":"数学"}]</t>
-  </si>
-  <si>
-    <t>source, sample, sink</t>
-  </si>
-  <si>
-    <t>2a1a8e6f-ae2b-4eee-b8f1-993ef8c348f0</t>
-  </si>
-  <si>
-    <t>tc_auto_df_join_outerjoin1545633381249</t>
-  </si>
-  <si>
-    <t>d8a6e308-abcc-4782-8b88-7da81ec78c4d</t>
-  </si>
-  <si>
     <t>54c00de6-10f6-45d4-9abb-aa9696d2719d</t>
   </si>
   <si>
-    <t>[{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"},{"Oname":"","Osalary":"","Oid":""},{"Oname":"","Osalary":"","Oid":""}]</t>
-  </si>
-  <si>
-    <t>source, join, sink</t>
-  </si>
-  <si>
-    <t>3952884c-6dd3-40b5-9b26-3d3865dd0d7f</t>
-  </si>
-  <si>
-    <t>tc_auto_df_join_inner1545633379403</t>
-  </si>
-  <si>
-    <t>1b29d436-ce04-4ed8-82ba-1bae313ff860</t>
-  </si>
-  <si>
     <t>d133f446-b772-41fa-9b41-62817dec0e94</t>
   </si>
   <si>
-    <t>[{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"}]</t>
-  </si>
-  <si>
-    <t>46fca021-28be-4699-a0a8-9c5fdd510f88</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Yu Gothic Medium"/>
+        <charset val="0"/>
+      </rPr>
       <t>tc_auto_df_union_001_distinct</t>
     </r>
     <r>
@@ -433,49 +818,21 @@
     </r>
   </si>
   <si>
-    <t>2a7fb401-f7df-4961-8b98-f52d9c8b59c0</t>
-  </si>
-  <si>
     <t>f41e2255-0c74-4f4a-b6b1-99c31592ce4c</t>
   </si>
   <si>
-    <t>[{"name":"xiaowang1","id":"3","age":"301"},{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"tyest1","id":"4","age":"121"},{"name":"james1","id":"1","age":"501"}]</t>
-  </si>
-  <si>
-    <t>source,union, sink</t>
-  </si>
-  <si>
-    <t>6cba86d5-1969-4e5f-a6f9-410d4eb9c030</t>
-  </si>
-  <si>
-    <t>tc_auto_df_minus1545633384706</t>
-  </si>
-  <si>
-    <t>66bf6ade-107d-4a9e-816e-b496c903221e</t>
-  </si>
-  <si>
     <t>7170fda8-6e15-4a1c-bf12-5efd2205c97d</t>
   </si>
   <si>
-    <t>source,minus, sink</t>
-  </si>
-  <si>
-    <t>72a5c601-52a8-4f75-b194-5dc7507167be</t>
-  </si>
-  <si>
-    <t>tc_auto_df_sink_hive_分区1545633382059</t>
-  </si>
-  <si>
-    <t>f9a691f5-d0c5-44ab-aa1a-d32957f6c803</t>
-  </si>
-  <si>
     <t>84d26b46-29a5-487c-9255-96e2f3f43c09</t>
   </si>
   <si>
-    <t>[{"pt_id":"3","name":"xiaoming","id":"1","age":"22"},{"pt_id":"3","name":"xiaohong","id":"2","age":"33"},{"pt_id":"3","name":"xiaozhang","id":"3","age":"18"},{"pt_id":"3","name":"xiaohuang","id":"1","age":"18"},{"pt_id":"4","name":"xiaoming","id":"1","age":"1000"},{"pt_id":"4","name":"xiaohong","id":"2","age":"20000"},{"pt_id":"4","name":"xiaowang","id":"3","age":"3012"},{"pt_id":"4","name":"tyest","id":"5","age":"12"}]</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>tc_auto_df_filter_age</t>
     </r>
     <r>
@@ -502,10 +859,12 @@
     <t>61836c71-f239-4199-a5e4-afc3384a5051</t>
   </si>
   <si>
-    <t>source,decision, sink</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>tc_auto_df_top_RATE</t>
     </r>
     <r>
@@ -545,24 +904,15 @@
     <t>bf156f52-8cfc-4944-94a1-d840213c6bfb</t>
   </si>
   <si>
-    <t>source,top, sink</t>
-  </si>
-  <si>
     <t>8f17d5ff-82ff-48eb-9a26-3f1e819687bc</t>
   </si>
   <si>
-    <t>source,validate, sink</t>
-  </si>
-  <si>
     <t>93606c64-05b2-4ca5-ad1b-81e57a04a235</t>
   </si>
   <si>
     <t>9e2d1cac-68a1-44e9-83a8-d4c43c7fce12</t>
   </si>
   <si>
-    <t>source, split,  sink</t>
-  </si>
-  <si>
     <t>a2431d1f-0612-49ae-9127-ebd37046d80c</t>
   </si>
   <si>
@@ -575,10 +925,12 @@
     <t>bd620adf-786d-43fc-b7d8-107bf7acb313</t>
   </si>
   <si>
-    <t>c02a68eb-6010-4025-be23-93f93f6cc216</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>tc_auto_df_aggregate_</t>
     </r>
     <r>
@@ -599,19 +951,12 @@
     </r>
   </si>
   <si>
-    <t>cb5039c8-1ce3-4cf4-8c50-c377867aa43e</t>
-  </si>
-  <si>
-    <t>[{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"18","AGE_max":"18","AGE_avg":"18.0","AGE_countDistinct":"1","AGE_min":"18","AGE_count":"1","id":"1","AGE_sum":"18"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"50","AGE_max":"50","AGE_avg":"50.0","AGE_countDistinct":"1","AGE_min":"50","AGE_count":"1","id":"6","AGE_sum":"50"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"30","AGE_max":"30","AGE_avg":"30.0","AGE_countDistinct":"1","AGE_min":"30","AGE_count":"1","id":"3","AGE_sum":"30"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"12","AGE_max":"12","AGE_avg":"12.0","AGE_countDistinct":"1","AGE_min":"12","AGE_count":"1","id":"4","AGE_sum":"12"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"20","AGE_max":"20","AGE_avg":"20.0","AGE_countDistinct":"1","AGE_min":"20","AGE_count":"1","id":"2","AGE_sum":"20"},{"AGE_approxCountDistinct":"0","AGE_sumDistinct":"","AGE_max":"","AGE_avg":"","AGE_countDistinct":"0","AGE_min":"","AGE_count":"0","id":"5","AGE_sum":""}]</t>
-  </si>
-  <si>
-    <t>source,aggregate, sink</t>
-  </si>
-  <si>
-    <t>beb2610a-8c30-4c83-98d2-e65a22945315</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>tc_auto_df_top_RATE</t>
     </r>
     <r>
@@ -648,13 +993,12 @@
     </r>
   </si>
   <si>
-    <t>47c2e188-4e17-4e9a-83d3-e962d5f7c852</t>
-  </si>
-  <si>
-    <t>c3b92b8a-7246-4ba6-8c95-1417f01cb63d</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>tc_auto_df_</t>
     </r>
     <r>
@@ -675,16 +1019,12 @@
     </r>
   </si>
   <si>
-    <t>39333d1a-2206-4afb-a0c3-d8374a644875</t>
-  </si>
-  <si>
-    <t>[{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@239ce72c","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":""},{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@169dd9c0","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":"2018-08-03 10:22:24.0"}]</t>
-  </si>
-  <si>
-    <t>c794d453-42c5-432a-884d-424a3985eede</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>tc_auto_df_union_001_distinct</t>
     </r>
     <r>
@@ -705,139 +1045,58 @@
     </r>
   </si>
   <si>
-    <t>6c309e6c-7788-433b-aa64-a24f72cac62b</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"xiaowang1","id":"3","age":"301"},{"name":"tyest1","id":"4","age":"121"},{"name":"james1","id":"1","age":"501"}]</t>
-  </si>
-  <si>
-    <t>cc0809a8-447a-4d83-93cc-7ffb2f4d741e</t>
-  </si>
-  <si>
-    <t>tc_auto_df_sink_hdfs_quoteChar1545633379258</t>
-  </si>
-  <si>
-    <t>24af9231-20ce-468b-bae4-b28571aa94a8</t>
-  </si>
-  <si>
-    <t>[{"name":"test1","id":"1","age":""},{"name":"test3","id":"3","age":""},{"name":"test4","id":"4","age":""},{"name":"test5","id":"5","age":""},{"name":"test2","id":"2","age":""}]</t>
-  </si>
-  <si>
-    <t>e9fbd094-79fa-43e4-84e5-9d82fd5c3c64</t>
-  </si>
-  <si>
-    <t>tc_auto_df_intersect_0011545633383879</t>
-  </si>
-  <si>
-    <t>0b084b55-1137-40a1-b2e8-8e3ece334921</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>source,intetsect, sink</t>
-  </si>
-  <si>
-    <t>f3f0c194-24b3-4fcd-9d0f-ab47d1457ead</t>
-  </si>
-  <si>
-    <t>step_test_sql</t>
-  </si>
-  <si>
-    <t>fd2437d7-6190-409b-a23e-d2840981892b</t>
-  </si>
-  <si>
-    <t>[{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"91","name":"大大20","id":"20"},{"subject":"语文","grade":"94","name":"大大35","id":"35"},{"subject":"语文","grade":"98","name":"大大36","id":"36"},{"subject":"语文","grade":"95","name":"大大37","id":"37"},{"subject":"语文","grade":"98","name":"大大40","id":"40"},{"subject":"语文","grade":"97","name":"大大43","id":"43"},{"subject":"语文","grade":"97","name":"大大51","id":"51"}]</t>
-  </si>
-  <si>
-    <t>source,sql, sink</t>
-  </si>
-  <si>
-    <t>bbc9a8d4-4100-4aac-a598-6e4eabc6b6bf</t>
-  </si>
-  <si>
-    <t>tc_df_all_step_多sink</t>
-  </si>
-  <si>
-    <t>0d3e58a1-2b84-4ab6-81e0-fa5b53c4926e</t>
-  </si>
-  <si>
-    <t>8a2e83a0-3579-4e06-8872-fe51e3551b45</t>
-  </si>
-  <si>
-    <t>[{"right_age":"50","left_name":"james","left_age":"50","right_id":"6","right_name":"james","left_id":"6"}]</t>
-  </si>
-  <si>
-    <t>[{"name":"james","id":"6","age":"50"}]</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">execution: 8a2e83a0-3579-4e06-8872-fe51e3551b45 预期结果实际结果不一致 </t>
-  </si>
-  <si>
-    <t>涉及到返回多个数据集且顺序不固定，需要单独处理</t>
-  </si>
-  <si>
-    <t>68c86e6b-f6f8-4c7b-b61d-28123e9ddb03</t>
-  </si>
-  <si>
-    <t>02b3801a-576a-40f4-b8d9-f69619a9d24a</t>
-  </si>
-  <si>
-    <t>[{"left_name":"james","right_id":"","right_name":"","salary":"","left_id":"6","age":"1","age1":""}]</t>
-  </si>
-  <si>
-    <t>4ff14278-bdd7-469d-ae71-d3f6fcaed4dd</t>
-  </si>
-  <si>
-    <t>[{"right_age":"30","left_name":"xiaoming","left_age":"18","right_id":"3","right_name":"xiaowang","left_id":"1"},{"right_age":"30","left_name":"xiaohong","left_age":"20","right_id":"3","right_name":"xiaowang","left_id":"2"},{"right_age":"30","left_name":"xiaowang","left_age":"30","right_id":"3","right_name":"xiaowang","left_id":"3"},{"right_age":"30","left_name":"tyest","left_age":"12","right_id":"3","right_name":"xiaowang","left_id":"4"},{"right_age":"30","left_name":"","left_age":"","right_id":"3","right_name":"xiaowang","left_id":"5"},{"right_age":"30","left_name":"james","left_age":"50","right_id":"3","right_name":"xiaowang","left_id":"6"},{"right_age":"20","left_name":"xiaoming","left_age":"18","right_id":"2","right_name":"xiaohong","left_id":"1"},{"right_age":"20","left_name":"xiaohong","left_age":"20","right_id":"2","right_name":"xiaohong","left_id":"2"},{"right_age":"20","left_name":"xiaowang","left_age":"30","right_id":"2","right_name":"xiaohong","left_id":"3"},{"right_age":"20","left_name":"tyest","left_age":"12","right_id":"2","right_name":"xiaohong","left_id":"4"},{"right_age":"20","left_name":"","left_age":"","right_id":"2","right_name":"xiaohong","left_id":"5"},{"right_age":"20","left_name":"james","left_age":"50","right_id":"2","right_name":"xiaohong","left_id":"6"},{"right_age":"18","left_name":"xiaoming","left_age":"18","right_id":"1","right_name":"xiaoming","left_id":"1"},{"right_age":"18","left_name":"xiaohong","left_age":"20","right_id":"1","right_name":"xiaoming","left_id":"2"},{"right_age":"18","left_name":"xiaowang","left_age":"30","right_id":"1","right_name":"xiaoming","left_id":"3"},{"right_age":"18","left_name":"tyest","left_age":"12","right_id":"1","right_name":"xiaoming","left_id":"4"},{"right_age":"18","left_name":"","left_age":"","right_id":"1","right_name":"xiaoming","left_id":"5"},{"right_age":"18","left_name":"james","left_age":"50","right_id":"1","right_name":"xiaoming","left_id":"6"},{"right_age":"12","left_name":"xiaoming","left_age":"18","right_id":"4","right_name":"tyest","left_id":"1"},{"right_age":"12","left_name":"xiaohong","left_age":"20","right_id":"4","right_name":"tyest","left_id":"2"},{"right_age":"12","left_name":"xiaowang","left_age":"30","right_id":"4","right_name":"tyest","left_id":"3"},{"right_age":"12","left_name":"tyest","left_age":"12","right_id":"4","right_name":"tyest","left_id":"4"},{"right_age":"12","left_name":"","left_age":"","right_id":"4","right_name":"tyest","left_id":"5"},{"right_age":"12","left_name":"james","left_age":"50","right_id":"4","right_name":"tyest","left_id":"6"},{"right_age":"50","left_name":"xiaoming","left_age":"18","right_id":"6","right_name":"james","left_id":"1"},{"right_age":"50","left_name":"xiaohong","left_age":"20","right_id":"6","right_name":"james","left_id":"2"},{"right_age":"50","left_name":"xiaowang","left_age":"30","right_id":"6","right_name":"james","left_id":"3"},{"right_age":"50","left_name":"tyest","left_age":"12","right_id":"6","right_name":"james","left_id":"4"},{"right_age":"50","left_name":"","left_age":"","right_id":"6","right_name":"james","left_id":"5"},{"right_age":"50","left_name":"james","left_age":"50","right_id":"6","right_name":"james","left_id":"6"},{"right_age":"","left_name":"xiaoming","left_age":"18","right_id":"5","right_name":"","left_id":"1"},{"right_age":"","left_name":"xiaohong","left_age":"20","right_id":"5","right_name":"","left_id":"2"},{"right_age":"","left_name":"xiaowang","left_age":"30","right_id":"5","right_name":"","left_id":"3"},{"right_age":"","left_name":"tyest","left_age":"12","right_id":"5","right_name":"","left_id":"4"},{"right_age":"","left_name":"","left_age":"","right_id":"5","right_name":"","left_id":"5"},{"right_age":"","left_name":"james","left_age":"50","right_id":"5","right_name":"","left_id":"6"}]</t>
-  </si>
-  <si>
-    <t>2ef3666a-1ef8-4928-8c8b-d0265ed39ecc</t>
-  </si>
-  <si>
-    <t>[{"a":"6","b":"james","c":"1"}]</t>
-  </si>
-  <si>
-    <t>933b5159-75ee-4553-9cef-f22dbe20d1c7</t>
-  </si>
-  <si>
-    <t>4183b8bc-e5d2-435a-b1b5-a5e29adfbf6d</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"xiaohong","id":"2","age":"20"},{"name":"xiaowang","id":"3","age":"30"},{"name":"tyest","id":"4","age":"12"},{"name":"null","id":"5","age":"null"},{"name":"james","id":"6","age":"50"}]</t>
-  </si>
-  <si>
-    <t>93b30137-b322-4056-921f-1792759be692</t>
-  </si>
-  <si>
-    <t>d3353172-dfb8-4131-a274-b16900ed054f</t>
-  </si>
-  <si>
-    <t>068ed5db-9be7-4fc0-a50d-2650557779ad</t>
-  </si>
-  <si>
-    <t>[{"left_TIME":"2018-12-21 12:16:03.0","left_NAME":"name5","right_AGE":"82","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:03.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"82","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:02.0","left_NAME":"name5","right_AGE":"81","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:02.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"81","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:01.0","left_NAME":"name5","right_AGE":"80","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:01.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"80","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:16:00.0","left_NAME":"name5","right_AGE":"79","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:16:00.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"79","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:59.0","left_NAME":"name5","right_AGE":"78","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:59.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"78","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:58.0","left_NAME":"name5","right_AGE":"77","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:58.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"77","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:57.0","left_NAME":"name5","right_AGE":"76","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:57.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"76","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:56.0","left_NAME":"name5","right_AGE":"75","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:56.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"75","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:55.0","left_NAME":"name5","right_AGE":"74","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:55.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"74","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:54.0","left_NAME":"name5","right_AGE":"73","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:54.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"73","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:53.0","left_NAME":"name5","right_AGE":"72","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:53.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"72","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:52.0","left_NAME":"name5","right_AGE":"71","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:52.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"71","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:51.0","left_NAME":"name5","right_AGE":"70","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:51.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"70","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:50.0","left_NAME":"name5","right_AGE":"69","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:50.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"69","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:49.0","left_NAME":"name5","right_AGE":"68","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:49.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"68","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:48.0","left_NAME":"name5","right_AGE":"67","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:48.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"67","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:47.0","left_NAME":"name5","right_AGE":"66","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:47.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"66","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:45.0","left_NAME":"name5","right_AGE":"65","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:45.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"65","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:44.0","left_NAME":"name5","right_AGE":"64","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:44.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"64","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:43.0","left_NAME":"name5","right_AGE":"63","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:43.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"63","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:42.0","left_NAME":"name5","right_AGE":"62","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:42.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"62","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:41.0","left_NAME":"name5","right_AGE":"61","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:41.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"61","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:40.0","left_NAME":"name5","right_AGE":"60","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:40.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"60","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:39.0","left_NAME":"name5","right_AGE":"59","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:39.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"59","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:38.0","left_NAME":"name5","right_AGE":"58","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:38.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"58","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:37.0","left_NAME":"name5","right_AGE":"57","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:37.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"57","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:36.0","left_NAME":"name5","right_AGE":"56","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:36.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"56","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:35.0","left_NAME":"name5","right_AGE":"55","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:35.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"55","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:34.0","left_NAME":"name5","right_AGE":"54","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:34.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"54","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:33.0","left_NAME":"name5","right_AGE":"53","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:33.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"53","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:32.0","left_NAME":"name5","right_AGE":"52","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:32.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"52","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:31.0","left_NAME":"name5","right_AGE":"51","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:31.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"51","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:30.0","left_NAME":"name5","right_AGE":"50","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:30.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"50","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":"6"},{"left_TIME":"2018-12-21 12:15:29.0","left_NAME":"name5","right_AGE":"49","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:29.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"49","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:28.0","left_NAME":"name5","right_AGE":"48","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:28.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"48","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:26.0","left_NAME":"name5","right_AGE":"47","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:26.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"47","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:25.0","left_NAME":"name5","right_AGE":"46","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:25.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"46","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:24.0","left_NAME":"name5","right_AGE":"45","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:24.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"45","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:23.0","left_NAME":"name5","right_AGE":"44","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:23.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"44","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:22.0","left_NAME":"name5","right_AGE":"43","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:22.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"43","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:21.0","left_NAME":"name5","right_AGE":"42","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:21.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"42","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:20.0","left_NAME":"name5","right_AGE":"41","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:20.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"41","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:19.0","left_NAME":"name5","right_AGE":"40","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:19.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"40","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:18.0","left_NAME":"name5","right_AGE":"39","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:18.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"39","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:17.0","left_NAME":"name5","right_AGE":"38","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:17.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"38","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:16.0","left_NAME":"name5","right_AGE":"37","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:16.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"37","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:15.0","left_NAME":"name5","right_AGE":"36","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:15.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"36","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:14.0","left_NAME":"name5","right_AGE":"35","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:14.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"35","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:13.0","left_NAME":"name5","right_AGE":"34","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:13.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"34","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""},{"left_TIME":"2018-12-21 12:15:12.0","left_NAME":"name5","right_AGE":"33","right_JOB":"job","left_TIME1":"time1","left_SALARY":"SALARY","left_TIME2":"time2","right_TIME2":"time2","right_TIME1":"time1","right_TIME":"2018-12-21 12:15:12.0","right_TIME5":"time4","right_TEST":"","left_TEST":"","left_GENDER":"GENDER","left_JOB":"job","left_TIME5":"time4","left_AGE":"33","right_NAME":"name5","right_GENDER":"GENDER","right_SALARY":"SALARY","id":""}]</t>
-  </si>
-  <si>
-    <t>81e3b910-9f26-45d4-921a-2ecb36aaf4f1</t>
-  </si>
-  <si>
-    <t>c06eda03-8a2e-4967-b8dd-a05c935d7722</t>
-  </si>
-  <si>
-    <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小明","id":"8","age":"语文"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"12","age":"数学"},{"name":"小玲","id":"13","age":"语文"},{"name":"小玲","id":"14","age":"英语"}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">execution: c06eda03-8a2e-4967-b8dd-a05c935d7722 预期结果实际结果不一致 </t>
-  </si>
-  <si>
-    <t>source, supplement, sink</t>
-  </si>
-  <si>
-    <t>涉及到返回结果不固定，需要单独判断</t>
+    <t>fa506e85-8b47-45fa-a9d2-40d14dbbacef</t>
+  </si>
+  <si>
+    <t>gbj_productjoin_step</t>
+  </si>
+  <si>
+    <t>3dc3a626-d6b0-4a5c-9e95-5538a93f5ca6</t>
+  </si>
+  <si>
+    <t>[{"left_sId":"95001","right_cId":"1","left_cId":"1","right_cName":"数据库","left_score":"81"},{"left_sId":"95001","right_cId":"2","left_cId":"1","right_cName":"数学","left_score":"81"},{"left_sId":"95001","right_cId":"3","left_cId":"1","right_cName":"信息系统","left_score":"81"},{"left_sId":"95001","right_cId":"4","left_cId":"1","right_cName":"操作系统","left_score":"81"},{"left_sId":"95001","right_cId":"5","left_cId":"1","right_cName":"数据结构","left_score":"81"},{"left_sId":"95001","right_cId":"6","left_cId":"1","right_cName":"数据处理","left_score":"81"},{"left_sId":"95001","right_cId":"1","left_cId":"2","right_cName":"数据库","left_score":"85"},{"left_sId":"95001","right_cId":"2","left_cId":"2","right_cName":"数学","left_score":"85"},{"left_sId":"95001","right_cId":"3","left_cId":"2","right_cName":"信息系统","left_score":"85"},{"left_sId":"95001","right_cId":"4","left_cId":"2","right_cName":"操作系统","left_score":"85"},{"left_sId":"95001","right_cId":"5","left_cId":"2","right_cName":"数据结构","left_score":"85"},{"left_sId":"95001","right_cId":"6","left_cId":"2","right_cName":"数据处理","left_score":"85"},{"left_sId":"95001","right_cId":"1","left_cId":"3","right_cName":"数据库","left_score":"88"},{"left_sId":"95001","right_cId":"2","left_cId":"3","right_cName":"数学","left_score":"88"},{"left_sId":"95001","right_cId":"3","left_cId":"3","right_cName":"信息系统","left_score":"88"},{"left_sId":"95001","right_cId":"4","left_cId":"3","right_cName":"操作系统","left_score":"88"},{"left_sId":"95001","right_cId":"5","left_cId":"3","right_cName":"数据结构","left_score":"88"},{"left_sId":"95001","right_cId":"6","left_cId":"3","right_cName":"数据处理","left_score":"88"},{"left_sId":"95001","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"70"},{"left_sId":"95001","right_cId":"2","left_cId":"4","right_cName":"数学","left_score":"70"},{"left_sId":"95001","right_cId":"3","left_cId":"4","right_cName":"信息系统","left_score":"70"},{"left_sId":"95001","right_cId":"4","left_cId":"4","right_cName":"操作系统","left_score":"70"},{"left_sId":"95001","right_cId":"5","left_cId":"4","right_cName":"数据结构","left_score":"70"},{"left_sId":"95001","right_cId":"6","left_cId":"4","right_cName":"数据处理","left_score":"70"},{"left_sId":"95002","right_cId":"1","left_cId":"2","right_cName":"数据库","left_score":"90"},{"left_sId":"95002","right_cId":"2","left_cId":"2","right_cName":"数学","left_score":"90"},{"left_sId":"95002","right_cId":"3","left_cId":"2","right_cName":"信息系统","left_score":"90"},{"left_sId":"95002","right_cId":"4","left_cId":"2","right_cName":"操作系统","left_score":"90"},{"left_sId":"95002","right_cId":"5","left_cId":"2","right_cName":"数据结构","left_score":"90"},{"left_sId":"95002","right_cId":"6","left_cId":"2","right_cName":"数据处理","left_score":"90"},{"left_sId":"95002","right_cId":"1","left_cId":"3","right_cName":"数据库","left_score":"80"},{"left_sId":"95002","right_cId":"2","left_cId":"3","right_cName":"数学","left_score":"80"},{"left_sId":"95002","right_cId":"3","left_cId":"3","right_cName":"信息系统","left_score":"80"},{"left_sId":"95002","right_cId":"4","left_cId":"3","right_cName":"操作系统","left_score":"80"},{"left_sId":"95002","right_cId":"5","left_cId":"3","right_cName":"数据结构","left_score":"80"},{"left_sId":"95002","right_cId":"6","left_cId":"3","right_cName":"数据处理","left_score":"80"},{"left_sId":"95002","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"71"},{"left_sId":"95002","right_cId":"2","left_cId":"4","right_cName":"数学","left_score":"71"},{"left_sId":"95002","right_cId":"3","left_cId":"4","right_cName":"信息系统","left_score":"71"},{"left_sId":"95002","right_cId":"4","left_cId":"4","right_cName":"操作系统","left_score":"71"},{"left_sId":"95002","right_cId":"5","left_cId":"4","right_cName":"数据结构","left_score":"71"},{"left_sId":"95002","right_cId":"6","left_cId":"4","right_cName":"数据处理","left_score":"71"},{"left_sId":"95002","right_cId":"1","left_cId":"5","right_cName":"数据库","left_score":"60"},{"left_sId":"95002","right_cId":"2","left_cId":"5","right_cName":"数学","left_score":"60"},{"left_sId":"95002","right_cId":"3","left_cId":"5","right_cName":"信息系统","left_score":"60"},{"left_sId":"95002","right_cId":"4","left_cId":"5","right_cName":"操作系统","left_score":"60"},{"left_sId":"95002","right_cId":"5","left_cId":"5","right_cName":"数据结构","left_score":"60"},{"left_sId":"95002","right_cId":"6","left_cId":"5","right_cName":"数据处理","left_score":"60"},{"left_sId":"95003","right_cId":"1","left_cId":"1","right_cName":"数据库","left_score":"82"},{"left_sId":"95003","right_cId":"2","left_cId":"1","right_cName":"数学","left_score":"82"}]</t>
+  </si>
+  <si>
+    <t>618ab2fa-8ef8-4a39-a498-d7e51ba1591f</t>
+  </si>
+  <si>
+    <t>execution: 618ab2fa-8ef8-4a39-a498-d7e51ba1591f 执行状态为 FAILED</t>
+  </si>
+  <si>
+    <t>9f9575c5-e61d-4d8a-b183-472bec0376b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execution: 9f9575c5-e61d-4d8a-b183-472bec0376b1 预期结果实际结果不一致 </t>
+  </si>
+  <si>
+    <t>7eddac79-eaa6-4ee1-816d-fc9c8e416000</t>
+  </si>
+  <si>
+    <t>execution: 7eddac79-eaa6-4ee1-816d-fc9c8e416000 执行状态为 FAILED</t>
+  </si>
+  <si>
+    <t>89884fe0-2dd7-4939-b4fc-70a3425cade3</t>
+  </si>
+  <si>
+    <t>execution: 89884fe0-2dd7-4939-b4fc-70a3425cade3 执行状态为 FAILED</t>
+  </si>
+  <si>
+    <t>501b2f67-300d-4af6-83f2-50401c791172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execution: 501b2f67-300d-4af6-83f2-50401c791172 预期结果实际结果不一致 </t>
+  </si>
+  <si>
+    <t>ed658fc5-f5b8-4824-aa0c-dec514548c7f</t>
+  </si>
+  <si>
+    <t>[{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@590d1506","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":""},{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@44d83a9b","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":"2018-08-03 10:22:24.0"}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execution: ed658fc5-f5b8-4824-aa0c-dec514548c7f 预期结果实际结果不一致 </t>
+  </si>
+  <si>
+    <t>8783913e-1a9c-4abd-9799-323ce16defe7</t>
   </si>
 </sst>
 </file>
@@ -846,11 +1105,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -863,18 +1122,19 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Yu Gothic Medium"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Yu Gothic Medium"/>
       <charset val="0"/>
     </font>
@@ -886,8 +1146,31 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -898,36 +1181,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -949,6 +1203,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -957,9 +1255,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -980,23 +1285,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1009,44 +1300,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1055,7 +1310,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,139 +1454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,25 +1478,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,21 +1507,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1306,19 +1552,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1340,179 +1590,196 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1904,7 +2171,7 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
@@ -1939,7 +2206,7 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H3" t="s">
@@ -1994,7 +2261,7 @@
       <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E5" t="s">
@@ -2020,7 +2287,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
@@ -2052,7 +2319,7 @@
       <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E7" t="s">
@@ -2084,7 +2351,7 @@
       <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E8" t="s">
@@ -2093,7 +2360,7 @@
       <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H8" t="s">
@@ -2110,7 +2377,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E9" t="s">
@@ -2119,7 +2386,7 @@
       <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="16" t="s">
         <v>49</v>
       </c>
       <c r="H9" t="s">
@@ -2142,7 +2409,7 @@
       <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
@@ -2151,7 +2418,7 @@
       <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="16" t="s">
         <v>54</v>
       </c>
       <c r="H10" t="s">
@@ -2174,7 +2441,7 @@
       <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E11" t="s">
@@ -2183,7 +2450,7 @@
       <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="16" t="s">
         <v>59</v>
       </c>
       <c r="H11" t="s">
@@ -2206,7 +2473,7 @@
       <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="18" t="s">
         <v>63</v>
       </c>
       <c r="E12" t="s">
@@ -2215,7 +2482,7 @@
       <c r="F12" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="16" t="s">
         <v>65</v>
       </c>
       <c r="H12" t="s">
@@ -2246,92 +2513,88 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="6" customWidth="1"/>
-    <col min="2" max="2" width="42.2857142857143" style="6" customWidth="1"/>
-    <col min="3" max="3" width="54.1428571428571" style="6" customWidth="1"/>
-    <col min="4" max="6" width="9.14285714285714" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.4285714285714" style="7" customWidth="1"/>
-    <col min="8" max="8" width="30.2857142857143" style="6" customWidth="1"/>
-    <col min="9" max="9" width="22" style="6" customWidth="1"/>
-    <col min="10" max="11" width="9.14285714285714" style="6" customWidth="1"/>
-    <col min="12" max="12" width="32.7142857142857" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.14285714285714" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.14285714285714" style="15" customWidth="1"/>
+    <col min="2" max="2" width="42.2857142857143" style="15" customWidth="1"/>
+    <col min="3" max="3" width="54.1428571428571" style="15" customWidth="1"/>
+    <col min="4" max="6" width="9.14285714285714" style="15" customWidth="1"/>
+    <col min="7" max="7" width="17.4285714285714" style="16" customWidth="1"/>
+    <col min="8" max="8" width="30.2857142857143" style="15" customWidth="1"/>
+    <col min="9" max="9" width="22" style="15" customWidth="1"/>
+    <col min="10" max="11" width="9.14285714285714" style="15" customWidth="1"/>
+    <col min="12" max="12" width="32.7142857142857" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="9.14285714285714" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="6">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2"/>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="L2" t="s">
@@ -2339,35 +2602,28 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="6">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3"/>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="L3" t="s">
@@ -2375,89 +2631,71 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="6">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="K5" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="L6" t="s">
@@ -2465,394 +2703,345 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="6">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="F10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="K10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="C11" s="15" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="D11" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="F11" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="G11" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="K12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="6" t="s">
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14"/>
-      <c r="K14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="6">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15"/>
-      <c r="K15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16"/>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="15" t="s">
         <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="E17" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17"/>
-      <c r="K17" s="6" t="s">
+      <c r="F17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="L17" t="s">
@@ -2860,14 +3049,14 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="6">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>146</v>
+      <c r="C18" t="s">
+        <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -2878,25 +3067,21 @@
       <c r="F18" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="15" t="s">
         <v>19</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1" spans="1:12">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2912,18 +3097,11 @@
         <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19"/>
       <c r="K19" t="s">
         <v>19</v>
       </c>
@@ -2932,20 +3110,20 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="6">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>150</v>
+      <c r="C20" t="s">
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -2956,19 +3134,15 @@
       <c r="H20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20"/>
       <c r="K20" t="s">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:12">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2981,7 +3155,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -2992,26 +3166,22 @@
       <c r="H21" t="s">
         <v>37</v>
       </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21"/>
       <c r="K21" t="s">
         <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="6">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -3022,10 +3192,6 @@
       <c r="H22" t="s">
         <v>35</v>
       </c>
-      <c r="I22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22"/>
       <c r="K22" t="s">
         <v>19</v>
       </c>
@@ -3040,25 +3206,18 @@
       <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
       </c>
-      <c r="H23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23"/>
       <c r="K23" t="s">
         <v>19</v>
       </c>
@@ -3067,7 +3226,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="6">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -3076,61 +3235,53 @@
       <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="I24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24"/>
       <c r="K24" t="s">
         <v>19</v>
       </c>
       <c r="L24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="16" t="s">
         <v>49</v>
       </c>
       <c r="H25" t="s">
         <v>49</v>
       </c>
-      <c r="I25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25"/>
       <c r="K25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="6">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -3139,30 +3290,26 @@
       <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="16" t="s">
         <v>54</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26"/>
+        <v>122</v>
+      </c>
       <c r="K26" t="s">
         <v>19</v>
       </c>
       <c r="L26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3175,25 +3322,21 @@
       <c r="C27" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" t="s">
         <v>159</v>
       </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" t="s">
-        <v>160</v>
-      </c>
-      <c r="I27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27"/>
       <c r="K27" t="s">
         <v>19</v>
       </c>
@@ -3202,7 +3345,7 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="6">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -3211,106 +3354,117 @@
       <c r="C28" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="18" t="s">
         <v>63</v>
       </c>
       <c r="E28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" t="s">
         <v>161</v>
       </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28"/>
       <c r="K28" t="s">
         <v>19</v>
       </c>
       <c r="L28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29" s="7" t="s">
+      <c r="E29" t="s">
         <v>165</v>
       </c>
-      <c r="I29"/>
-      <c r="J29"/>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29" t="s">
+        <v>166</v>
+      </c>
       <c r="K29" t="s">
         <v>19</v>
       </c>
       <c r="L29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="6">
+      <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="B30" t="s">
         <v>168</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="C30" t="s">
         <v>169</v>
       </c>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30" s="7" t="s">
+      <c r="D30" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I30"/>
-      <c r="J30"/>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
       <c r="K30" t="s">
         <v>19</v>
       </c>
       <c r="L30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="B31" t="s">
         <v>172</v>
       </c>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31" s="7" t="s">
+      <c r="C31" t="s">
         <v>173</v>
       </c>
-      <c r="I31"/>
-      <c r="J31"/>
+      <c r="D31" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" t="s">
+        <v>177</v>
+      </c>
       <c r="K31" t="s">
         <v>19</v>
       </c>
@@ -3319,52 +3473,62 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="6">
+      <c r="A32" s="15">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="I32"/>
-      <c r="J32"/>
+      <c r="B32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" t="s">
+        <v>182</v>
+      </c>
       <c r="K32" t="s">
         <v>19</v>
       </c>
       <c r="L32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I33"/>
-      <c r="J33"/>
+      <c r="B33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" t="s">
+        <v>187</v>
+      </c>
       <c r="K33" t="s">
         <v>19</v>
       </c>
@@ -3373,49 +3537,67 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="6">
+      <c r="A34" s="15">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>185</v>
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="H34" t="s">
+        <v>192</v>
       </c>
       <c r="K34" t="s">
         <v>19</v>
       </c>
       <c r="L34" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="6">
+      <c r="A35" s="15">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>190</v>
+      <c r="B35" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="H35" t="s">
+        <v>198</v>
       </c>
       <c r="K35" t="s">
         <v>19</v>
       </c>
       <c r="L35" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3435,7 +3617,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -3459,7 +3641,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -3483,37 +3665,37 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>196</v>
+      <c r="G2" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="H2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>200</v>
+      <c r="M2" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3521,25 +3703,25 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
@@ -3550,25 +3732,25 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>203</v>
+      <c r="G4" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="H4" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
@@ -3579,25 +3761,25 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" t="s">
         <v>205</v>
       </c>
-      <c r="H5" t="s">
-        <v>197</v>
-      </c>
       <c r="I5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J5" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
@@ -3608,25 +3790,25 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" t="s">
         <v>206</v>
       </c>
-      <c r="E6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" t="s">
         <v>207</v>
-      </c>
-      <c r="H6" t="s">
-        <v>197</v>
-      </c>
-      <c r="I6" t="s">
-        <v>198</v>
-      </c>
-      <c r="J6" t="s">
-        <v>199</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
@@ -3637,19 +3819,19 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>197</v>
+      <c r="G7" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="H7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -3663,25 +3845,25 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>210</v>
+      <c r="G8" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="H8" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I8" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J8" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
@@ -3692,25 +3874,25 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>185</v>
+      <c r="G9" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="H9" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I9" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>
@@ -3721,25 +3903,25 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" t="s">
         <v>207</v>
-      </c>
-      <c r="H10" t="s">
-        <v>197</v>
-      </c>
-      <c r="I10" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" t="s">
-        <v>199</v>
       </c>
       <c r="K10" t="s">
         <v>19</v>
@@ -3750,25 +3932,25 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>214</v>
+      <c r="G11" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="H11" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I11" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="K11" t="s">
         <v>19</v>
@@ -3779,25 +3961,25 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" t="s">
         <v>207</v>
-      </c>
-      <c r="H12" t="s">
-        <v>197</v>
-      </c>
-      <c r="I12" t="s">
-        <v>198</v>
-      </c>
-      <c r="J12" t="s">
-        <v>199</v>
       </c>
       <c r="K12" t="s">
         <v>19</v>
@@ -3808,42 +3990,42 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
         <v>112</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>113</v>
       </c>
-      <c r="D13" t="s">
-        <v>114</v>
-      </c>
       <c r="E13" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="I13" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J13" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K13" t="s">
         <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>219</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="O13" s="5"/>
+        <v>227</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="O13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3857,14 +4039,1955 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="14" customHeight="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" t="s">
+        <v>236</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J6" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" t="s">
+        <v>243</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
+        <v>251</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:12">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:11">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" t="s">
+        <v>271</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" t="s">
+        <v>278</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A4:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="29.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J6" t="s">
+        <v>284</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" t="s">
+        <v>288</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" t="s">
+        <v>290</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" t="s">
+        <v>292</v>
+      </c>
+      <c r="I10" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" t="s">
+        <v>293</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" t="s">
+        <v>229</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" t="s">
+        <v>229</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" t="s">
+        <v>229</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -7,16 +7,16 @@
     <workbookView windowWidth="28245" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="flow_info-需要处理" sheetId="3" r:id="rId1"/>
-    <sheet name="fail" sheetId="4" r:id="rId2"/>
-    <sheet name="flow_info" sheetId="5" r:id="rId3"/>
+    <sheet name="flow_info-需要处理" sheetId="1" r:id="rId1"/>
+    <sheet name="fail" sheetId="2" r:id="rId2"/>
+    <sheet name="flow_info" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244">
   <si>
     <t>id</t>
   </si>
@@ -339,10 +339,10 @@
     <t>d656fb5a-72a6-447d-a013-a0493fdb8098</t>
   </si>
   <si>
-    <t>97e00289-0c0f-4d44-a46f-5c06dcbbacee</t>
-  </si>
-  <si>
-    <t>3e54a2ed-b4b9-48cc-84d7-44eff0f53dee</t>
+    <t>b831b813-29c0-414b-93ff-b2dc65b47cf8</t>
+  </si>
+  <si>
+    <t>717925da-4117-4034-a9b3-326618510bfc</t>
   </si>
   <si>
     <t>054f8ec7-e3d3-4bd3-b16c-5f71b78eb0b2</t>
@@ -354,7 +354,7 @@
     <t>3c39ddfd-2aae-48df-8793-a20f0d652fca</t>
   </si>
   <si>
-    <t>cf4d5f63-1f29-437a-956a-2c21c1c0abb6</t>
+    <t>5354c44f-9839-49f4-a1af-4dafe1b3c0cb</t>
   </si>
   <si>
     <t>6d393c25-095f-45fd-bcf5-59584055dcfa</t>
@@ -366,7 +366,7 @@
     <t>e2de307f-b405-474e-be52-d523adc1920e</t>
   </si>
   <si>
-    <t>34bf4f77-0be9-4da3-885d-6b2aa45facca</t>
+    <t>a46c3d2c-f213-48fb-88d4-331039114793</t>
   </si>
   <si>
     <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"65","name":"李四","id":"4"},{"subject":"语文","grade":"35","name":"李四","id":"5"},{"subject":"数学","grade":"58","name":"小明","id":"6"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"46","name":"小玲","id":"13"},{"subject":"英语","grade":"78","name":"小玲","id":"14"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
@@ -381,7 +381,7 @@
     <t>43960fe6-bfd4-4255-9b10-34f1be0dc3a4</t>
   </si>
   <si>
-    <t>71a59844-bfef-42b6-8aec-12657708db6c</t>
+    <t>77b49ce1-5eea-47d4-956b-12f0e9f740ab</t>
   </si>
   <si>
     <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"英语","grade":"78","name":"小玲","id":"14"}]</t>
@@ -399,25 +399,28 @@
     <t>93a1026d-45c1-4844-83bf-444b02d62cb6</t>
   </si>
   <si>
-    <t>fdc8062a-1711-46e9-88b2-8b7bad75e5db</t>
+    <t>b46e7b46-fbd6-4764-9c8a-db21bc8fb62d</t>
   </si>
   <si>
     <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
   </si>
   <si>
-    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
+    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
   </si>
   <si>
     <t>append</t>
   </si>
   <si>
-    <t>c1e10d6c-ebf3-49bb-beb4-3f908ae9b114</t>
-  </si>
-  <si>
-    <t>eaeb90b4-4e86-4bf7-a9f0-29bebc760aa2</t>
-  </si>
-  <si>
-    <t>4c3fc04c-7368-442c-9d66-b3a79daf9957</t>
+    <t>d9b6b745-e0ea-413d-b1b1-aa2084530096</t>
+  </si>
+  <si>
+    <t>a6583f24-5bcb-451b-a5a9-29c6c69e9a1a</t>
+  </si>
+  <si>
+    <t>504d5980-6efb-4eb9-9204-447039736784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execution: 504d5980-6efb-4eb9-9204-447039736784 预期结果实际结果不一致 </t>
   </si>
   <si>
     <t>2a1a8e6f-ae2b-4eee-b8f1-993ef8c348f0</t>
@@ -429,7 +432,7 @@
     <t>d8a6e308-abcc-4782-8b88-7da81ec78c4d</t>
   </si>
   <si>
-    <t>54c00de6-10f6-45d4-9abb-aa9696d2719d</t>
+    <t>f64f94e7-6b97-4883-a732-26c24bf9de2b</t>
   </si>
   <si>
     <t>3952884c-6dd3-40b5-9b26-3d3865dd0d7f</t>
@@ -441,7 +444,7 @@
     <t>1b29d436-ce04-4ed8-82ba-1bae313ff860</t>
   </si>
   <si>
-    <t>d133f446-b772-41fa-9b41-62817dec0e94</t>
+    <t>726f033a-6b82-4f11-8ed2-073375dc5004</t>
   </si>
   <si>
     <t>[{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"}]</t>
@@ -450,351 +453,205 @@
     <t>46fca021-28be-4699-a0a8-9c5fdd510f88</t>
   </si>
   <si>
+    <t>tc_auto_df_union_001_distinct为true1545633380382</t>
+  </si>
+  <si>
+    <t>2a7fb401-f7df-4961-8b98-f52d9c8b59c0</t>
+  </si>
+  <si>
+    <t>baad2831-22fc-4f88-99b9-e74071835dfe</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaowang1","id":"3","age":"301"},{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"tyest1","id":"4","age":"121"},{"name":"james1","id":"1","age":"501"}]</t>
+  </si>
+  <si>
+    <t>source,union, sink</t>
+  </si>
+  <si>
+    <t>6cba86d5-1969-4e5f-a6f9-410d4eb9c030</t>
+  </si>
+  <si>
+    <t>tc_auto_df_minus1545633384706</t>
+  </si>
+  <si>
+    <t>66bf6ade-107d-4a9e-816e-b496c903221e</t>
+  </si>
+  <si>
+    <t>63d6d6e5-d395-4b97-9c50-8829381460e9</t>
+  </si>
+  <si>
+    <t>source,minus, sink</t>
+  </si>
+  <si>
+    <t>72a5c601-52a8-4f75-b194-5dc7507167be</t>
+  </si>
+  <si>
+    <t>tc_auto_df_sink_hive_分区1545633382059</t>
+  </si>
+  <si>
+    <t>f9a691f5-d0c5-44ab-aa1a-d32957f6c803</t>
+  </si>
+  <si>
+    <t>682deb28-64ac-4f37-922b-1734966e64c2</t>
+  </si>
+  <si>
+    <t>[{"pt_id":"3","name":"xiaoming","id":"1","age":"22"},{"pt_id":"3","name":"xiaohong","id":"2","age":"33"},{"pt_id":"3","name":"xiaozhang","id":"3","age":"18"},{"pt_id":"3","name":"xiaohuang","id":"1","age":"18"},{"pt_id":"4","name":"xiaoming","id":"1","age":"1000"},{"pt_id":"4","name":"xiaohong","id":"2","age":"20000"},{"pt_id":"4","name":"xiaowang","id":"3","age":"3012"},{"pt_id":"4","name":"tyest","id":"5","age":"12"}]</t>
+  </si>
+  <si>
+    <t>73cb302d-2fb3-4b54-b413-2247b98f5d1a</t>
+  </si>
+  <si>
+    <t>tc_auto_df_filter_age小于1545633384496</t>
+  </si>
+  <si>
+    <t>35599327-0f59-414e-9776-06b9188e9ee5</t>
+  </si>
+  <si>
+    <t>a9c733de-73fa-4b24-8996-fafed25db47e</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"tyest","id":"4","age":"12"}]</t>
+  </si>
+  <si>
+    <t>6be5a17a-7da9-4e2e-b8bf-96f86cf286f3</t>
+  </si>
+  <si>
+    <t>7947b925-7fde-4f7b-8c89-6b443928f7f5</t>
+  </si>
+  <si>
+    <t>tc_auto_df_top_RATE没有groupby字段ignore1545633379539</t>
+  </si>
+  <si>
+    <t>05b4fcbc-ba25-4f05-9081-c807e7cdf690</t>
+  </si>
+  <si>
+    <t>8a532228-e7fc-49e8-80bb-700d71cb1725</t>
+  </si>
+  <si>
+    <t>[{"name":"","id":"5","age":""},{"name":"tyest","id":"4","age":"12"},{"name":"xiaoming","id":"1","age":"18"}]</t>
+  </si>
+  <si>
+    <t>source,top, sink</t>
+  </si>
+  <si>
+    <t>7a55a2f3-12ef-4ca4-b174-7c1fce94b254</t>
+  </si>
+  <si>
+    <t>tc_auto_df_validate_action_save1545633385422</t>
+  </si>
+  <si>
+    <t>f446e9e5-bda4-40c7-943f-6c5026886a27</t>
+  </si>
+  <si>
+    <t>5e74e995-caf4-4fee-93ce-f348b6629ade</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"xiaohong","id":"2","age":"20"},{"name":"xiaowang","id":"3","age":"30"}]</t>
+  </si>
+  <si>
+    <t>source,validate, sink</t>
+  </si>
+  <si>
+    <t>e8c1a1ec-1eb6-4034-8271-aa4441554eeb</t>
+  </si>
+  <si>
+    <t>[{"name":"tyest","id":"4","age":"12"},{"name":"","id":"5","age":""},{"name":"james","id":"6","age":"50"}]</t>
+  </si>
+  <si>
+    <t>d905839e-2601-47b8-9827-92cd291756e6</t>
+  </si>
+  <si>
+    <t>8b64467d-450d-4fb0-ace7-81772c74746a</t>
+  </si>
+  <si>
+    <t>tc_auto_df_split_0021545633379905</t>
+  </si>
+  <si>
+    <t>7eebcfd4-f0e5-4052-92e3-7631527579df</t>
+  </si>
+  <si>
+    <t>75a86375-ab81-4c86-ace1-58402a1a054c</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaowang","id":"3","age":"30"},{"name":"xiaoming","id":"1","age":"18"},{"name":"james","id":"6","age":"50"},{"name":"","id":"5","age":""}]</t>
+  </si>
+  <si>
+    <t>source, split,  sink</t>
+  </si>
+  <si>
+    <t>652d510c-1e9c-4343-a68d-051620dec661</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaohong","id":"2","age":"20"},{"name":"tyest","id":"4","age":"12"}]</t>
+  </si>
+  <si>
+    <t>ca32e21e-a9e7-4046-b1c1-7d96b0a1d598</t>
+  </si>
+  <si>
+    <t>8e60c37a-f2c7-4eb0-9f81-8c8a8dfa337b</t>
+  </si>
+  <si>
+    <t>tc_auto_df_sink_es1545633382996</t>
+  </si>
+  <si>
+    <t>3bab5d15-bc5c-4715-bea3-2312550704db</t>
+  </si>
+  <si>
+    <t>33182240-53ee-4f00-943b-e604f4b48262</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"","id":"5","age":""},{"name":"tyest","id":"4","age":"12"},{"name":"xiaohong","id":"2","age":"20"},{"name":"james","id":"6","age":"50"},{"name":"xiaowang","id":"3","age":"30"}]</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"james","id":"6","age":"50"},{"name":"","id":"5","age":""},{"name":"xiaowang","id":"3","age":"30"},{"name":"tyest","id":"4","age":"12"},{"name":"xiaohong","id":"2","age":"20"}]</t>
+  </si>
+  <si>
+    <t>bc1b753f-17b2-4b9b-8511-916e2a8c08b6</t>
+  </si>
+  <si>
+    <t>tc_auto_df_union_003_distinctistrue1545633384602</t>
+  </si>
+  <si>
+    <t>81cebcff-6a6d-4757-8426-6868e3e58649</t>
+  </si>
+  <si>
+    <t>6518b416-7087-4449-b073-f622012fb67f</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaowang1","id":"3","age":"301"},{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"xiaohong","id":"2","age":"20"},{"name":"xiaowang","id":"3","age":"30"},{"name":"xiaoming","id":"1","age":"18"},{"name":"tyest1","id":"4","age":"121"},{"name":"james1","id":"1","age":"501"},{"name":"tyest","id":"4","age":"12"},{"name":"james","id":"6","age":"50"},{"name":"","id":"5","age":""}]</t>
+  </si>
+  <si>
+    <t>c02a68eb-6010-4025-be23-93f93f6cc216</t>
+  </si>
+  <si>
+    <t>tc_auto_df_aggregate_所有聚合id1545633384081</t>
+  </si>
+  <si>
+    <t>cb5039c8-1ce3-4cf4-8c50-c377867aa43e</t>
+  </si>
+  <si>
+    <t>b5bba568-1286-48a4-81b6-8c5bf86f2bcd</t>
+  </si>
+  <si>
+    <t>[{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"18","AGE_max":"18","AGE_avg":"18.0","AGE_countDistinct":"1","AGE_min":"18","AGE_count":"1","id":"1","AGE_sum":"18"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"50","AGE_max":"50","AGE_avg":"50.0","AGE_countDistinct":"1","AGE_min":"50","AGE_count":"1","id":"6","AGE_sum":"50"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"30","AGE_max":"30","AGE_avg":"30.0","AGE_countDistinct":"1","AGE_min":"30","AGE_count":"1","id":"3","AGE_sum":"30"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"12","AGE_max":"12","AGE_avg":"12.0","AGE_countDistinct":"1","AGE_min":"12","AGE_count":"1","id":"4","AGE_sum":"12"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"20","AGE_max":"20","AGE_avg":"20.0","AGE_countDistinct":"1","AGE_min":"20","AGE_count":"1","id":"2","AGE_sum":"20"},{"AGE_approxCountDistinct":"0","AGE_sumDistinct":"","AGE_max":"","AGE_avg":"","AGE_countDistinct":"0","AGE_min":"","AGE_count":"0","id":"5","AGE_sum":""}]</t>
+  </si>
+  <si>
+    <t>source,aggregate, sink</t>
+  </si>
+  <si>
+    <t>beb2610a-8c30-4c83-98d2-e65a22945315</t>
+  </si>
+  <si>
+    <t>tc_auto_df_top_RATE没有groupby字段ignore1545633379788</t>
+  </si>
+  <si>
+    <t>47c2e188-4e17-4e9a-83d3-e962d5f7c852</t>
+  </si>
+  <si>
+    <t>5a5d1715-1f80-456b-84a1-3106da2727e3</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Yu Gothic Medium"/>
-        <charset val="0"/>
-      </rPr>
-      <t>tc_auto_df_union_001_distinct</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Yu Gothic Medium"/>
-        <charset val="0"/>
-      </rPr>
-      <t>true1545633380382</t>
-    </r>
-  </si>
-  <si>
-    <t>2a7fb401-f7df-4961-8b98-f52d9c8b59c0</t>
-  </si>
-  <si>
-    <t>f41e2255-0c74-4f4a-b6b1-99c31592ce4c</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaowang1","id":"3","age":"301"},{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"tyest1","id":"4","age":"121"},{"name":"james1","id":"1","age":"501"}]</t>
-  </si>
-  <si>
-    <t>source,union, sink</t>
-  </si>
-  <si>
-    <t>6cba86d5-1969-4e5f-a6f9-410d4eb9c030</t>
-  </si>
-  <si>
-    <t>tc_auto_df_minus1545633384706</t>
-  </si>
-  <si>
-    <t>66bf6ade-107d-4a9e-816e-b496c903221e</t>
-  </si>
-  <si>
-    <t>7170fda8-6e15-4a1c-bf12-5efd2205c97d</t>
-  </si>
-  <si>
-    <t>source,minus, sink</t>
-  </si>
-  <si>
-    <t>72a5c601-52a8-4f75-b194-5dc7507167be</t>
-  </si>
-  <si>
-    <t>tc_auto_df_sink_hive_分区1545633382059</t>
-  </si>
-  <si>
-    <t>f9a691f5-d0c5-44ab-aa1a-d32957f6c803</t>
-  </si>
-  <si>
-    <t>84d26b46-29a5-487c-9255-96e2f3f43c09</t>
-  </si>
-  <si>
-    <t>[{"pt_id":"3","name":"xiaoming","id":"1","age":"22"},{"pt_id":"3","name":"xiaohong","id":"2","age":"33"},{"pt_id":"3","name":"xiaozhang","id":"3","age":"18"},{"pt_id":"3","name":"xiaohuang","id":"1","age":"18"},{"pt_id":"4","name":"xiaoming","id":"1","age":"1000"},{"pt_id":"4","name":"xiaohong","id":"2","age":"20000"},{"pt_id":"4","name":"xiaowang","id":"3","age":"3012"},{"pt_id":"4","name":"tyest","id":"5","age":"12"}]</t>
-  </si>
-  <si>
-    <t>73cb302d-2fb3-4b54-b413-2247b98f5d1a</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>tc_auto_df_filter_age</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>小于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1545633384496</t>
-    </r>
-  </si>
-  <si>
-    <t>35599327-0f59-414e-9776-06b9188e9ee5</t>
-  </si>
-  <si>
-    <t>6954b766-ce0c-42fc-a78f-694c12db944e</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"tyest","id":"4","age":"12"}]</t>
-  </si>
-  <si>
-    <t>61836c71-f239-4199-a5e4-afc3384a5051</t>
-  </si>
-  <si>
-    <t>7947b925-7fde-4f7b-8c89-6b443928f7f5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>tc_auto_df_top_RATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>没有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>groupby</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>字段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>ignore1545633379539</t>
-    </r>
-  </si>
-  <si>
-    <t>05b4fcbc-ba25-4f05-9081-c807e7cdf690</t>
-  </si>
-  <si>
-    <t>bf156f52-8cfc-4944-94a1-d840213c6bfb</t>
-  </si>
-  <si>
-    <t>[{"name":"","id":"5","age":""},{"name":"tyest","id":"4","age":"12"},{"name":"xiaoming","id":"1","age":"18"}]</t>
-  </si>
-  <si>
-    <t>source,top, sink</t>
-  </si>
-  <si>
-    <t>7a55a2f3-12ef-4ca4-b174-7c1fce94b254</t>
-  </si>
-  <si>
-    <t>tc_auto_df_validate_action_save1545633385422</t>
-  </si>
-  <si>
-    <t>f446e9e5-bda4-40c7-943f-6c5026886a27</t>
-  </si>
-  <si>
-    <t>8f17d5ff-82ff-48eb-9a26-3f1e819687bc</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"xiaohong","id":"2","age":"20"},{"name":"xiaowang","id":"3","age":"30"}]</t>
-  </si>
-  <si>
-    <t>source,validate, sink</t>
-  </si>
-  <si>
-    <t>e8c1a1ec-1eb6-4034-8271-aa4441554eeb</t>
-  </si>
-  <si>
-    <t>[{"name":"tyest","id":"4","age":"12"},{"name":"","id":"5","age":""},{"name":"james","id":"6","age":"50"}]</t>
-  </si>
-  <si>
-    <t>93606c64-05b2-4ca5-ad1b-81e57a04a235</t>
-  </si>
-  <si>
-    <t>8b64467d-450d-4fb0-ace7-81772c74746a</t>
-  </si>
-  <si>
-    <t>tc_auto_df_split_0021545633379905</t>
-  </si>
-  <si>
-    <t>7eebcfd4-f0e5-4052-92e3-7631527579df</t>
-  </si>
-  <si>
-    <t>9e2d1cac-68a1-44e9-83a8-d4c43c7fce12</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaowang","id":"3","age":"30"},{"name":"xiaoming","id":"1","age":"18"},{"name":"james","id":"6","age":"50"},{"name":"","id":"5","age":""}]</t>
-  </si>
-  <si>
-    <t>source, split,  sink</t>
-  </si>
-  <si>
-    <t>652d510c-1e9c-4343-a68d-051620dec661</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaohong","id":"2","age":"20"},{"name":"tyest","id":"4","age":"12"}]</t>
-  </si>
-  <si>
-    <t>a2431d1f-0612-49ae-9127-ebd37046d80c</t>
-  </si>
-  <si>
-    <t>8e60c37a-f2c7-4eb0-9f81-8c8a8dfa337b</t>
-  </si>
-  <si>
-    <t>tc_auto_df_sink_es1545633382996</t>
-  </si>
-  <si>
-    <t>3bab5d15-bc5c-4715-bea3-2312550704db</t>
-  </si>
-  <si>
-    <t>260fd718-a190-44d8-96cd-7af6b5ce5347</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"","id":"5","age":""},{"name":"tyest","id":"4","age":"12"},{"name":"xiaohong","id":"2","age":"20"},{"name":"james","id":"6","age":"50"},{"name":"xiaowang","id":"3","age":"30"}]</t>
-  </si>
-  <si>
-    <t>[{"name":"","id":"5","age":""},{"name":"tyest","id":"4","age":"12"},{"name":"xiaohong","id":"2","age":"20"},{"name":"xiaoming","id":"1","age":"18"},{"name":"james","id":"6","age":"50"},{"name":"xiaowang","id":"3","age":"30"}]</t>
-  </si>
-  <si>
-    <t>bc1b753f-17b2-4b9b-8511-916e2a8c08b6</t>
-  </si>
-  <si>
-    <t>tc_auto_df_union_003_distinctistrue1545633384602</t>
-  </si>
-  <si>
-    <t>81cebcff-6a6d-4757-8426-6868e3e58649</t>
-  </si>
-  <si>
-    <t>bd620adf-786d-43fc-b7d8-107bf7acb313</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaowang1","id":"3","age":"301"},{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"xiaohong","id":"2","age":"20"},{"name":"xiaowang","id":"3","age":"30"},{"name":"xiaoming","id":"1","age":"18"},{"name":"tyest1","id":"4","age":"121"},{"name":"james1","id":"1","age":"501"},{"name":"tyest","id":"4","age":"12"},{"name":"james","id":"6","age":"50"},{"name":"","id":"5","age":""}]</t>
-  </si>
-  <si>
-    <t>c02a68eb-6010-4025-be23-93f93f6cc216</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>tc_auto_df_aggregate_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>所有聚合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>id1545633384081</t>
-    </r>
-  </si>
-  <si>
-    <t>cb5039c8-1ce3-4cf4-8c50-c377867aa43e</t>
-  </si>
-  <si>
-    <t>[{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"18","AGE_max":"18","AGE_avg":"18.0","AGE_countDistinct":"1","AGE_min":"18","AGE_count":"1","id":"1","AGE_sum":"18"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"50","AGE_max":"50","AGE_avg":"50.0","AGE_countDistinct":"1","AGE_min":"50","AGE_count":"1","id":"6","AGE_sum":"50"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"30","AGE_max":"30","AGE_avg":"30.0","AGE_countDistinct":"1","AGE_min":"30","AGE_count":"1","id":"3","AGE_sum":"30"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"12","AGE_max":"12","AGE_avg":"12.0","AGE_countDistinct":"1","AGE_min":"12","AGE_count":"1","id":"4","AGE_sum":"12"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"20","AGE_max":"20","AGE_avg":"20.0","AGE_countDistinct":"1","AGE_min":"20","AGE_count":"1","id":"2","AGE_sum":"20"},{"AGE_approxCountDistinct":"0","AGE_sumDistinct":"","AGE_max":"","AGE_avg":"","AGE_countDistinct":"0","AGE_min":"","AGE_count":"0","id":"5","AGE_sum":""}]</t>
-  </si>
-  <si>
-    <t>source,aggregate, sink</t>
-  </si>
-  <si>
-    <t>beb2610a-8c30-4c83-98d2-e65a22945315</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>tc_auto_df_top_RATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>没有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>groupby</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>字段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>ignore1545633379788</t>
-    </r>
-  </si>
-  <si>
-    <t>47c2e188-4e17-4e9a-83d3-e962d5f7c852</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
       <t>tc_auto_df_</t>
     </r>
     <r>
@@ -815,38 +672,27 @@
     </r>
   </si>
   <si>
+    <t>ad1cba01-6972-4e34-a5e1-c16b980cc75f</t>
+  </si>
+  <si>
+    <t>[{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@642dddfa","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":""},{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@60220cbb","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":"2018-08-03 10:22:24.0"}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execution: ad1cba01-6972-4e34-a5e1-c16b980cc75f 预期结果实际结果不一致 </t>
+  </si>
+  <si>
     <t>c794d453-42c5-432a-884d-424a3985eede</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>tc_auto_df_union_001_distinct</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>false1545633380273</t>
-    </r>
+    <t>tc_auto_df_union_001_distinct为false1545633380273</t>
   </si>
   <si>
     <t>6c309e6c-7788-433b-aa64-a24f72cac62b</t>
   </si>
   <si>
+    <t>162af177-7cf9-4ff6-ba5e-3bd915bb6c9b</t>
+  </si>
+  <si>
     <t>[{"name":"xiaoming1","id":"1","age":"181"},{"name":"xiaohong1","id":"2","age":"201"},{"name":"xiaowang1","id":"3","age":"301"},{"name":"tyest1","id":"4","age":"121"},{"name":"james1","id":"1","age":"501"}]</t>
   </si>
   <si>
@@ -859,6 +705,9 @@
     <t>24af9231-20ce-468b-bae4-b28571aa94a8</t>
   </si>
   <si>
+    <t>18a566b3-178d-43e5-8fe6-2bfe4b3e70c6</t>
+  </si>
+  <si>
     <t>[{"name":"test1","id":"1","age":""},{"name":"test3","id":"3","age":""},{"name":"test4","id":"4","age":""},{"name":"test5","id":"5","age":""},{"name":"test2","id":"2","age":""}]</t>
   </si>
   <si>
@@ -871,6 +720,9 @@
     <t>0b084b55-1137-40a1-b2e8-8e3ece334921</t>
   </si>
   <si>
+    <t>d7a1b98e-bf24-45fb-9357-e1852c699655</t>
+  </si>
+  <si>
     <t>source,intetsect, sink</t>
   </si>
   <si>
@@ -883,6 +735,9 @@
     <t>fd2437d7-6190-409b-a23e-d2840981892b</t>
   </si>
   <si>
+    <t>bc9c67b7-c917-4a31-8aae-49036cbacbf0</t>
+  </si>
+  <si>
     <t>[{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"91","name":"大大20","id":"20"},{"subject":"语文","grade":"94","name":"大大35","id":"35"},{"subject":"语文","grade":"98","name":"大大36","id":"36"},{"subject":"语文","grade":"95","name":"大大37","id":"37"},{"subject":"语文","grade":"98","name":"大大40","id":"40"},{"subject":"语文","grade":"97","name":"大大43","id":"43"},{"subject":"语文","grade":"97","name":"大大51","id":"51"}]</t>
   </si>
   <si>
@@ -898,7 +753,19 @@
     <t>3dc3a626-d6b0-4a5c-9e95-5538a93f5ca6</t>
   </si>
   <si>
+    <t>fbcb6197-434c-4e0b-b29e-28f8bcd1a3a3</t>
+  </si>
+  <si>
     <t>[{"left_sId":"95001","right_cId":"1","left_cId":"1","right_cName":"数据库","left_score":"81"},{"left_sId":"95001","right_cId":"2","left_cId":"1","right_cName":"数学","left_score":"81"},{"left_sId":"95001","right_cId":"3","left_cId":"1","right_cName":"信息系统","left_score":"81"},{"left_sId":"95001","right_cId":"4","left_cId":"1","right_cName":"操作系统","left_score":"81"},{"left_sId":"95001","right_cId":"5","left_cId":"1","right_cName":"数据结构","left_score":"81"},{"left_sId":"95001","right_cId":"6","left_cId":"1","right_cName":"数据处理","left_score":"81"},{"left_sId":"95001","right_cId":"1","left_cId":"2","right_cName":"数据库","left_score":"85"},{"left_sId":"95001","right_cId":"2","left_cId":"2","right_cName":"数学","left_score":"85"},{"left_sId":"95001","right_cId":"3","left_cId":"2","right_cName":"信息系统","left_score":"85"},{"left_sId":"95001","right_cId":"4","left_cId":"2","right_cName":"操作系统","left_score":"85"},{"left_sId":"95001","right_cId":"5","left_cId":"2","right_cName":"数据结构","left_score":"85"},{"left_sId":"95001","right_cId":"6","left_cId":"2","right_cName":"数据处理","left_score":"85"},{"left_sId":"95001","right_cId":"1","left_cId":"3","right_cName":"数据库","left_score":"88"},{"left_sId":"95001","right_cId":"2","left_cId":"3","right_cName":"数学","left_score":"88"},{"left_sId":"95001","right_cId":"3","left_cId":"3","right_cName":"信息系统","left_score":"88"},{"left_sId":"95001","right_cId":"4","left_cId":"3","right_cName":"操作系统","left_score":"88"},{"left_sId":"95001","right_cId":"5","left_cId":"3","right_cName":"数据结构","left_score":"88"},{"left_sId":"95001","right_cId":"6","left_cId":"3","right_cName":"数据处理","left_score":"88"},{"left_sId":"95001","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"70"},{"left_sId":"95001","right_cId":"2","left_cId":"4","right_cName":"数学","left_score":"70"},{"left_sId":"95001","right_cId":"3","left_cId":"4","right_cName":"信息系统","left_score":"70"},{"left_sId":"95001","right_cId":"4","left_cId":"4","right_cName":"操作系统","left_score":"70"},{"left_sId":"95001","right_cId":"5","left_cId":"4","right_cName":"数据结构","left_score":"70"},{"left_sId":"95001","right_cId":"6","left_cId":"4","right_cName":"数据处理","left_score":"70"},{"left_sId":"95002","right_cId":"1","left_cId":"2","right_cName":"数据库","left_score":"90"},{"left_sId":"95002","right_cId":"2","left_cId":"2","right_cName":"数学","left_score":"90"},{"left_sId":"95002","right_cId":"3","left_cId":"2","right_cName":"信息系统","left_score":"90"},{"left_sId":"95002","right_cId":"4","left_cId":"2","right_cName":"操作系统","left_score":"90"},{"left_sId":"95002","right_cId":"5","left_cId":"2","right_cName":"数据结构","left_score":"90"},{"left_sId":"95002","right_cId":"6","left_cId":"2","right_cName":"数据处理","left_score":"90"},{"left_sId":"95002","right_cId":"1","left_cId":"3","right_cName":"数据库","left_score":"80"},{"left_sId":"95002","right_cId":"2","left_cId":"3","right_cName":"数学","left_score":"80"},{"left_sId":"95002","right_cId":"3","left_cId":"3","right_cName":"信息系统","left_score":"80"},{"left_sId":"95002","right_cId":"4","left_cId":"3","right_cName":"操作系统","left_score":"80"},{"left_sId":"95002","right_cId":"5","left_cId":"3","right_cName":"数据结构","left_score":"80"},{"left_sId":"95002","right_cId":"6","left_cId":"3","right_cName":"数据处理","left_score":"80"},{"left_sId":"95002","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"71"},{"left_sId":"95002","right_cId":"2","left_cId":"4","right_cName":"数学","left_score":"71"},{"left_sId":"95002","right_cId":"3","left_cId":"4","right_cName":"信息系统","left_score":"71"},{"left_sId":"95002","right_cId":"4","left_cId":"4","right_cName":"操作系统","left_score":"71"},{"left_sId":"95002","right_cId":"5","left_cId":"4","right_cName":"数据结构","left_score":"71"},{"left_sId":"95002","right_cId":"6","left_cId":"4","right_cName":"数据处理","left_score":"71"},{"left_sId":"95002","right_cId":"1","left_cId":"5","right_cName":"数据库","left_score":"60"},{"left_sId":"95002","right_cId":"2","left_cId":"5","right_cName":"数学","left_score":"60"},{"left_sId":"95002","right_cId":"3","left_cId":"5","right_cName":"信息系统","left_score":"60"},{"left_sId":"95002","right_cId":"4","left_cId":"5","right_cName":"操作系统","left_score":"60"},{"left_sId":"95002","right_cId":"5","left_cId":"5","right_cName":"数据结构","left_score":"60"},{"left_sId":"95002","right_cId":"6","left_cId":"5","right_cName":"数据处理","left_score":"60"},{"left_sId":"95003","right_cId":"1","left_cId":"1","right_cName":"数据库","left_score":"82"},{"left_sId":"95003","right_cId":"2","left_cId":"1","right_cName":"数学","left_score":"82"}]</t>
+  </si>
+  <si>
+    <t>[{"left_sId":"95001","right_cId":"1","left_cId":"1","right_cName":"数据库","left_score":"81"},{"left_sId":"95001","right_cId":"2","left_cId":"1","right_cName":"数学","left_score":"81"},{"left_sId":"95001","right_cId":"3","left_cId":"1","right_cName":"信息系统","left_score":"81"},{"left_sId":"95001","right_cId":"4","left_cId":"1","right_cName":"操作系统","left_score":"81"},{"left_sId":"95001","right_cId":"5","left_cId":"1","right_cName":"数据结构","left_score":"81"},{"left_sId":"95001","right_cId":"6","left_cId":"1","right_cName":"数据处理","left_score":"81"},{"left_sId":"95001","right_cId":"1","left_cId":"2","right_cName":"数据库","left_score":"85"},{"left_sId":"95001","right_cId":"2","left_cId":"2","right_cName":"数学","left_score":"85"},{"left_sId":"95001","right_cId":"3","left_cId":"2","right_cName":"信息系统","left_score":"85"},{"left_sId":"95001","right_cId":"4","left_cId":"2","right_cName":"操作系统","left_score":"85"},{"left_sId":"95001","right_cId":"5","left_cId":"2","right_cName":"数据结构","left_score":"85"},{"left_sId":"95001","right_cId":"6","left_cId":"2","right_cName":"数据处理","left_score":"85"},{"left_sId":"95001","right_cId":"1","left_cId":"3","right_cName":"数据库","left_score":"88"},{"left_sId":"95001","right_cId":"2","left_cId":"3","right_cName":"数学","left_score":"88"},{"left_sId":"95001","right_cId":"3","left_cId":"3","right_cName":"信息系统","left_score":"88"},{"left_sId":"95001","right_cId":"4","left_cId":"3","right_cName":"操作系统","left_score":"88"},{"left_sId":"95001","right_cId":"5","left_cId":"3","right_cName":"数据结构","left_score":"88"},{"left_sId":"95001","right_cId":"6","left_cId":"3","right_cName":"数据处理","left_score":"88"},{"left_sId":"95001","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"70"},{"left_sId":"95001","right_cId":"2","left_cId":"4","right_cName":"数学","left_score":"70"},{"left_sId":"95001","right_cId":"3","left_cId":"4","right_cName":"信息系统","left_score":"70"},{"left_sId":"95001","right_cId":"4","left_cId":"4","right_cName":"操作系统","left_score":"70"},{"left_sId":"95001","right_cId":"5","left_cId":"4","right_cName":"数据结构","left_score":"70"},{"left_sId":"95001","right_cId":"6","left_cId":"4","right_cName":"数据处理","left_score":"70"},{"left_sId":"95002","right_cId":"1","left_cId":"2","right_cName":"数据库","left_score":"90"},{"left_sId":"95002","right_cId":"2","left_cId":"2","right_cName":"数学","left_score":"90"},{"left_sId":"95002","right_cId":"3","left_cId":"2","right_cName":"信息系统","left_score":"90"},{"left_sId":"95002","right_cId":"4","left_cId":"2","right_cName":"操作系统","left_score":"90"},{"left_sId":"95002","right_cId":"5","left_cId":"2","right_cName":"数据结构","left_score":"90"},{"left_sId":"95002","right_cId":"6","left_cId":"2","right_cName":"数据处理","left_score":"90"},{"left_sId":"95002","right_cId":"1","left_cId":"3","right_cName":"数据库","left_score":"80"},{"left_sId":"95002","right_cId":"2","left_cId":"3","right_cName":"数学","left_score":"80"},{"left_sId":"95002","right_cId":"3","left_cId":"3","right_cName":"信息系统","left_score":"80"},{"left_sId":"95002","right_cId":"4","left_cId":"3","right_cName":"操作系统","left_score":"80"},{"left_sId":"95002","right_cId":"5","left_cId":"3","right_cName":"数据结构","left_score":"80"},{"left_sId":"95002","right_cId":"6","left_cId":"3","right_cName":"数据处理","left_score":"80"},{"left_sId":"95002","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"71"},{"left_sId":"95002","right_cId":"2","left_cId":"4","right_cName":"数学","left_score":"71"},{"left_sId":"95002","right_cId":"3","left_cId":"4","right_cName":"信息系统","left_score":"71"},{"left_sId":"95002","right_cId":"4","left_cId":"4","right_cName":"操作系统","left_score":"71"},{"left_sId":"95002","right_cId":"5","left_cId":"4","right_cName":"数据结构","left_score":"71"},{"left_sId":"95002","right_cId":"6","left_cId":"4","right_cName":"数据处理","left_score":"71"},{"left_sId":"95002","right_cId":"1","left_cId":"5","right_cName":"数据库","left_score":"60"},{"left_sId":"95002","right_cId":"2","left_cId":"5","right_cName":"数学","left_score":"60"},{"left_sId":"95002","right_cId":"3","left_cId":"5","right_cName":"信息系统","left_score":"60"},{"left_sId":"95002","right_cId":"4","left_cId":"5","right_cName":"操作系统","left_score":"60"},{"left_sId":"95002","right_cId":"5","left_cId":"5","right_cName":"数据结构","left_score":"60"},{"left_sId":"95002","right_cId":"6","left_cId":"5","right_cName":"数据处理","left_score":"60"},{"left_sId":"95003","right_cId":"1","left_cId":"1","right_cName":"数据库","left_score":"82"},{"left_sId":"95003","right_cId":"2","left_cId":"1","right_cName":"数学","left_score":"82"},{"left_sId":"95003","right_cId":"3","left_cId":"1","right_cName":"信息系统","left_score":"82"},{"left_sId":"95003","right_cId":"4","left_cId":"1","right_cName":"操作系统","left_score":"82"},{"left_sId":"95003","right_cId":"5","left_cId":"1","right_cName":"数据结构","left_score":"82"},{"left_sId":"95003","right_cId":"6","left_cId":"1","right_cName":"数据处理","left_score":"82"},{"left_sId":"95003","right_cId":"1","left_cId":"3","right_cName":"数据库","left_score":"90"},{"left_sId":"95003","right_cId":"2","left_cId":"3","right_cName":"数学","left_score":"90"},{"left_sId":"95003","right_cId":"3","left_cId":"3","right_cName":"信息系统","left_score":"90"},{"left_sId":"95003","right_cId":"4","left_cId":"3","right_cName":"操作系统","left_score":"90"},{"left_sId":"95003","right_cId":"5","left_cId":"3","right_cName":"数据结构","left_score":"90"},{"left_sId":"95003","right_cId":"6","left_cId":"3","right_cName":"数据处理","left_score":"90"},{"left_sId":"95003","right_cId":"1","left_cId":"5","right_cName":"数据库","left_score":"100"},{"left_sId":"95003","right_cId":"2","left_cId":"5","right_cName":"数学","left_score":"100"},{"left_sId":"95003","right_cId":"3","left_cId":"5","right_cName":"信息系统","left_score":"100"},{"left_sId":"95003","right_cId":"4","left_cId":"5","right_cName":"操作系统","left_score":"100"},{"left_sId":"95003","right_cId":"5","left_cId":"5","right_cName":"数据结构","left_score":"100"},{"left_sId":"95003","right_cId":"6","left_cId":"5","right_cName":"数据处理","left_score":"100"},{"left_sId":"95004","right_cId":"1","left_cId":"1","right_cName":"数据库","left_score":"80"},{"left_sId":"95004","right_cId":"2","left_cId":"1","right_cName":"数学","left_score":"80"},{"left_sId":"95004","right_cId":"3","left_cId":"1","right_cName":"信息系统","left_score":"80"},{"left_sId":"95004","right_cId":"4","left_cId":"1","right_cName":"操作系统","left_score":"80"},{"left_sId":"95004","right_cId":"5","left_cId":"1","right_cName":"数据结构","left_score":"80"},{"left_sId":"95004","right_cId":"6","left_cId":"1","right_cName":"数据处理","left_score":"80"},{"left_sId":"95004","right_cId":"1","left_cId":"2","right_cName":"数据库","left_score":"92"},{"left_sId":"95004","right_cId":"2","left_cId":"2","right_cName":"数学","left_score":"92"},{"left_sId":"95004","right_cId":"3","left_cId":"2","right_cName":"信息系统","left_score":"92"},{"left_sId":"95004","right_cId":"4","left_cId":"2","right_cName":"操作系统","left_score":"92"},{"left_sId":"95004","right_cId":"5","left_cId":"2","right_cName":"数据结构","left_score":"92"},{"left_sId":"95004","right_cId":"6","left_cId":"2","right_cName":"数据处理","left_score":"92"},{"left_sId":"95004","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"91"},{"left_sId":"95004","right_cId":"2","left_cId":"4","right_cName":"数学","left_score":"91"},{"left_sId":"95004","right_cId":"3","left_cId":"4","right_cName":"信息系统","left_score":"91"},{"left_sId":"95004","right_cId":"4","left_cId":"4","right_cName":"操作系统","left_score":"91"},{"left_sId":"95004","right_cId":"5","left_cId":"4","right_cName":"数据结构","left_score":"91"},{"left_sId":"95004","right_cId":"6","left_cId":"4","right_cName":"数据处理","left_score":"91"},{"left_sId":"95004","right_cId":"1","left_cId":"5","right_cName":"数据库","left_score":"70"},{"left_sId":"95004","right_cId":"2","left_cId":"5","right_cName":"数学","left_score":"70"},{"left_sId":"95004","right_cId":"3","left_cId":"5","right_cName":"信息系统","left_score":"70"},{"left_sId":"95004","right_cId":"4","left_cId":"5","right_cName":"操作系统","left_score":"70"},{"left_sId":"95004","right_cId":"5","left_cId":"5","right_cName":"数据结构","left_score":"70"},{"left_sId":"95004","right_cId":"6","left_cId":"5","right_cName":"数据处理","left_score":"70"},{"left_sId":"95005","right_cId":"1","left_cId":"1","right_cName":"数据库","left_score":"70"},{"left_sId":"95005","right_cId":"2","left_cId":"1","right_cName":"数学","left_score":"70"},{"left_sId":"95005","right_cId":"3","left_cId":"1","right_cName":"信息系统","left_score":"70"},{"left_sId":"95005","right_cId":"4","left_cId":"1","right_cName":"操作系统","left_score":"70"},{"left_sId":"95005","right_cId":"5","left_cId":"1","right_cName":"数据结构","left_score":"70"},{"left_sId":"95005","right_cId":"6","left_cId":"1","right_cName":"数据处理","left_score":"70"},{"left_sId":"95005","right_cId":"1","left_cId":"2","right_cName":"数据库","left_score":"92"},{"left_sId":"95005","right_cId":"2","left_cId":"2","right_cName":"数学","left_score":"92"},{"left_sId":"95005","right_cId":"3","left_cId":"2","right_cName":"信息系统","left_score":"92"},{"left_sId":"95005","right_cId":"4","left_cId":"2","right_cName":"操作系统","left_score":"92"},{"left_sId":"95005","right_cId":"5","left_cId":"2","right_cName":"数据结构","left_score":"92"},{"left_sId":"95005","right_cId":"6","left_cId":"2","right_cName":"数据处理","left_score":"92"},{"left_sId":"95005","right_cId":"1","left_cId":"3","right_cName":"数据库","left_score":"99"},{"left_sId":"95005","right_cId":"2","left_cId":"3","right_cName":"数学","left_score":"99"},{"left_sId":"95005","right_cId":"3","left_cId":"3","right_cName":"信息系统","left_score":"99"},{"left_sId":"95005","right_cId":"4","left_cId":"3","right_cName":"操作系统","left_score":"99"},{"left_sId":"95005","right_cId":"5","left_cId":"3","right_cName":"数据结构","left_score":"99"},{"left_sId":"95005","right_cId":"6","left_cId":"3","right_cName":"数据处理","left_score":"99"},{"left_sId":"95005","right_cId":"1","left_cId":"6","right_cName":"数据库","left_score":"87"},{"left_sId":"95005","right_cId":"2","left_cId":"6","right_cName":"数学","left_score":"87"},{"left_sId":"95005","right_cId":"3","left_cId":"6","right_cName":"信息系统","left_score":"87"},{"left_sId":"95005","right_cId":"4","left_cId":"6","right_cName":"操作系统","left_score":"87"},{"left_sId":"95005","right_cId":"5","left_cId":"6","right_cName":"数据结构","left_score":"87"},{"left_sId":"95005","right_cId":"6","left_cId":"6","right_cName":"数据处理","left_score":"87"},{"left_sId":"95006","right_cId":"1","left_cId":"1","right_cName":"数据库","left_score":"72"},{"left_sId":"95006","right_cId":"2","left_cId":"1","right_cName":"数学","left_score":"72"},{"left_sId":"95006","right_cId":"3","left_cId":"1","right_cName":"信息系统","left_score":"72"},{"left_sId":"95006","right_cId":"4","left_cId":"1","right_cName":"操作系统","left_score":"72"},{"left_sId":"95006","right_cId":"5","left_cId":"1","right_cName":"数据结构","left_score":"72"},{"left_sId":"95006","right_cId":"6","left_cId":"1","right_cName":"数据处理","left_score":"72"},{"left_sId":"95006","right_cId":"1","left_cId":"2","right_cName":"数据库","left_score":"62"},{"left_sId":"95006","right_cId":"2","left_cId":"2","right_cName":"数学","left_score":"62"},{"left_sId":"95006","right_cId":"3","left_cId":"2","right_cName":"信息系统","left_score":"62"},{"left_sId":"95006","right_cId":"4","left_cId":"2","right_cName":"操作系统","left_score":"62"},{"left_sId":"95006","right_cId":"5","left_cId":"2","right_cName":"数据结构","left_score":"62"},{"left_sId":"95006","right_cId":"6","left_cId":"2","right_cName":"数据处理","left_score":"62"},{"left_sId":"95006","right_cId":"1","left_cId":"3","right_cName":"数据库","left_score":"100"},{"left_sId":"95006","right_cId":"2","left_cId":"3","right_cName":"数学","left_score":"100"},{"left_sId":"95006","right_cId":"3","left_cId":"3","right_cName":"信息系统","left_score":"100"},{"left_sId":"95006","right_cId":"4","left_cId":"3","right_cName":"操作系统","left_score":"100"},{"left_sId":"95006","right_cId":"5","left_cId":"3","right_cName":"数据结构","left_score":"100"},{"left_sId":"95006","right_cId":"6","left_cId":"3","right_cName":"数据处理","left_score":"100"},{"left_sId":"95006","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"59"},{"left_sId":"95006","right_cId":"2","left_cId":"4","right_cName":"数学","left_score":"59"},{"left_sId":"95006","right_cId":"3","left_cId":"4","right_cName":"信息系统","left_score":"59"},{"left_sId":"95006","right_cId":"4","left_cId":"4","right_cName":"操作系统","left_score":"59"},{"left_sId":"95006","right_cId":"5","left_cId":"4","right_cName":"数据结构","left_score":"59"},{"left_sId":"95006","right_cId":"6","left_cId":"4","right_cName":"数据处理","left_score":"59"},{"left_sId":"95006","right_cId":"1","left_cId":"5","right_cName":"数据库","left_score":"60"},{"left_sId":"95006","right_cId":"2","left_cId":"5","right_cName":"数学","left_score":"60"},{"left_sId":"95006","right_cId":"3","left_cId":"5","right_cName":"信息系统","left_score":"60"},{"left_sId":"95006","right_cId":"4","left_cId":"5","right_cName":"操作系统","left_score":"60"},{"left_sId":"95006","right_cId":"5","left_cId":"5","right_cName":"数据结构","left_score":"60"},{"left_sId":"95006","right_cId":"6","left_cId":"5","right_cName":"数据处理","left_score":"60"},{"left_sId":"95006","right_cId":"1","left_cId":"6","right_cName":"数据库","left_score":"98"},{"left_sId":"95006","right_cId":"2","left_cId":"6","right_cName":"数学","left_score":"98"},{"left_sId":"95006","right_cId":"3","left_cId":"6","right_cName":"信息系统","left_score":"98"},{"left_sId":"95006","right_cId":"4","left_cId":"6","right_cName":"操作系统","left_score":"98"},{"left_sId":"95006","right_cId":"5","left_cId":"6","right_cName":"数据结构","left_score":"98"},{"left_sId":"95006","right_cId":"6","left_cId":"6","right_cName":"数据处理","left_score":"98"},{"left_sId":"95007","right_cId":"1","left_cId":"3","right_cName":"数据库","left_score":"68"},{"left_sId":"95007","right_cId":"2","left_cId":"3","right_cName":"数学","left_score":"68"},{"left_sId":"95007","right_cId":"3","left_cId":"3","right_cName":"信息系统","left_score":"68"},{"left_sId":"95007","right_cId":"4","left_cId":"3","right_cName":"操作系统","left_score":"68"},{"left_sId":"95007","right_cId":"5","left_cId":"3","right_cName":"数据结构","left_score":"68"},{"left_sId":"95007","right_cId":"6","left_cId":"3","right_cName":"数据处理","left_score":"68"},{"left_sId":"95007","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"91"},{"left_sId":"95007","right_cId":"2","left_cId":"4","right_cName":"数学","left_score":"91"},{"left_sId":"95007","right_cId":"3","left_cId":"4","right_cName":"信息系统","left_score":"91"},{"left_sId":"95007","right_cId":"4","left_cId":"4","right_cName":"操作系统","left_score":"91"},{"left_sId":"95007","right_cId":"5","left_cId":"4","right_cName":"数据结构","left_score":"91"},{"left_sId":"95007","right_cId":"6","left_cId":"4","right_cName":"数据处理","left_score":"91"},{"left_sId":"95007","right_cId":"1","left_cId":"5","right_cName":"数据库","left_score":"94"},{"left_sId":"95007","right_cId":"2","left_cId":"5","right_cName":"数学","left_score":"94"},{"left_sId":"95007","right_cId":"3","left_cId":"5","right_cName":"信息系统","left_score":"94"},{"left_sId":"95007","right_cId":"4","left_cId":"5","right_cName":"操作系统","left_score":"94"},{"left_sId":"95007","right_cId":"5","left_cId":"5","right_cName":"数据结构","left_score":"94"},{"left_sId":"95007","right_cId":"6","left_cId":"5","right_cName":"数据处理","left_score":"94"},{"left_sId":"95007","right_cId":"1","left_cId":"6","right_cName":"数据库","left_score":"78"},{"left_sId":"95007","right_cId":"2","left_cId":"6","right_cName":"数学","left_score":"78"},{"left_sId":"95007","right_cId":"3","left_cId":"6","right_cName":"信息系统","left_score":"78"},{"left_sId":"95007","right_cId":"4","left_cId":"6","right_cName":"操作系统","left_score":"78"},{"left_sId":"95007","right_cId":"5","left_cId":"6","right_cName":"数据结构","left_score":"78"},{"left_sId":"95007","right_cId":"6","left_cId":"6","right_cName":"数据处理","left_score":"78"},{"left_sId":"95008","right_cId":"1","left_cId":"1","right_cName":"数据库","left_score":"98"},{"left_sId":"95008","right_cId":"2","left_cId":"1","right_cName":"数学","left_score":"98"},{"left_sId":"95008","right_cId":"3","left_cId":"1","right_cName":"信息系统","left_score":"98"},{"left_sId":"95008","right_cId":"4","left_cId":"1","right_cName":"操作系统","left_score":"98"},{"left_sId":"95008","right_cId":"5","left_cId":"1","right_cName":"数据结构","left_score":"98"},{"left_sId":"95008","right_cId":"6","left_cId":"1","right_cName":"数据处理","left_score":"98"},{"left_sId":"95008","right_cId":"1","left_cId":"3","right_cName":"数据库","left_score":"89"},{"left_sId":"95008","right_cId":"2","left_cId":"3","right_cName":"数学","left_score":"89"},{"left_sId":"95008","right_cId":"3","left_cId":"3","right_cName":"信息系统","left_score":"89"},{"left_sId":"95008","right_cId":"4","left_cId":"3","right_cName":"操作系统","left_score":"89"},{"left_sId":"95008","right_cId":"5","left_cId":"3","right_cName":"数据结构","left_score":"89"},{"left_sId":"95008","right_cId":"6","left_cId":"3","right_cName":"数据处理","left_score":"89"},{"left_sId":"95008","right_cId":"1","left_cId":"6","right_cName":"数据库","left_score":"91"},{"left_sId":"95008","right_cId":"2","left_cId":"6","right_cName":"数学","left_score":"91"},{"left_sId":"95008","right_cId":"3","left_cId":"6","right_cName":"信息系统","left_score":"91"},{"left_sId":"95008","right_cId":"4","left_cId":"6","right_cName":"操作系统","left_score":"91"},{"left_sId":"95008","right_cId":"5","left_cId":"6","right_cName":"数据结构","left_score":"91"},{"left_sId":"95008","right_cId":"6","left_cId":"6","right_cName":"数据处理","left_score":"91"},{"left_sId":"95009","right_cId":"1","left_cId":"2","right_cName":"数据库","left_score":"81"},{"left_sId":"95009","right_cId":"2","left_cId":"2","right_cName":"数学","left_score":"81"},{"left_sId":"95009","right_cId":"3","left_cId":"2","right_cName":"信息系统","left_score":"81"},{"left_sId":"95009","right_cId":"4","left_cId":"2","right_cName":"操作系统","left_score":"81"},{"left_sId":"95009","right_cId":"5","left_cId":"2","right_cName":"数据结构","left_score":"81"},{"left_sId":"95009","right_cId":"6","left_cId":"2","right_cName":"数据处理","left_score":"81"},{"left_sId":"95009","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"89"},{"left_sId":"95009","right_cId":"2","left_cId":"4","right_cName":"数学","left_score":"89"},{"left_sId":"95009","right_cId":"3","left_cId":"4","right_cName":"信息系统","left_score":"89"},{"left_sId":"95009","right_cId":"4","left_cId":"4","right_cName":"操作系统","left_score":"89"},{"left_sId":"95009","right_cId":"5","left_cId":"4","right_cName":"数据结构","left_score":"89"},{"left_sId":"95009","right_cId":"6","left_cId":"4","right_cName":"数据处理","left_score":"89"},{"left_sId":"95009","right_cId":"1","left_cId":"6","right_cName":"数据库","left_score":"100"},{"left_sId":"95009","right_cId":"2","left_cId":"6","right_cName":"数学","left_score":"100"},{"left_sId":"95009","right_cId":"3","left_cId":"6","right_cName":"信息系统","left_score":"100"},{"left_sId":"95009","right_cId":"4","left_cId":"6","right_cName":"操作系统","left_score":"100"},{"left_sId":"95009","right_cId":"5","left_cId":"6","right_cName":"数据结构","left_score":"100"},{"left_sId":"95009","right_cId":"6","left_cId":"6","right_cName":"数据处理","left_score":"100"},{"left_sId":"95010","right_cId":"1","left_cId":"2","right_cName":"数据库","left_score":"98"},{"left_sId":"95010","right_cId":"2","left_cId":"2","right_cName":"数学","left_score":"98"},{"left_sId":"95010","right_cId":"3","left_cId":"2","right_cName":"信息系统","left_score":"98"},{"left_sId":"95010","right_cId":"4","left_cId":"2","right_cName":"操作系统","left_score":"98"},{"left_sId":"95010","right_cId":"5","left_cId":"2","right_cName":"数据结构","left_score":"98"},{"left_sId":"95010","right_cId":"6","left_cId":"2","right_cName":"数据处理","left_score":"98"},{"left_sId":"95010","right_cId":"1","left_cId":"5","right_cName":"数据库","left_score":"90"},{"left_sId":"95010","right_cId":"2","left_cId":"5","right_cName":"数学","left_score":"90"},{"left_sId":"95010","right_cId":"3","left_cId":"5","right_cName":"信息系统","left_score":"90"},{"left_sId":"95010","right_cId":"4","left_cId":"5","right_cName":"操作系统","left_score":"90"},{"left_sId":"95010","right_cId":"5","left_cId":"5","right_cName":"数据结构","left_score":"90"},{"left_sId":"95010","right_cId":"6","left_cId":"5","right_cName":"数据处理","left_score":"90"},{"left_sId":"95010","right_cId":"1","left_cId":"6","right_cName":"数据库","left_score":"80"},{"left_sId":"95010","right_cId":"2","left_cId":"6","right_cName":"数学","left_score":"80"},{"left_sId":"95010","right_cId":"3","left_cId":"6","right_cName":"信息系统","left_score":"80"},{"left_sId":"95010","right_cId":"4","left_cId":"6","right_cName":"操作系统","left_score":"80"},{"left_sId":"95010","right_cId":"5","left_cId":"6","right_cName":"数据结构","left_score":"80"},{"left_sId":"95010","right_cId":"6","left_cId":"6","right_cName":"数据处理","left_score":"80"},{"left_sId":"95011","right_cId":"1","left_cId":"1","right_cName":"数据库","left_score":"81"},{"left_sId":"95011","right_cId":"2","left_cId":"1","right_cName":"数学","left_score":"81"},{"left_sId":"95011","right_cId":"3","left_cId":"1","right_cName":"信息系统","left_score":"81"},{"left_sId":"95011","right_cId":"4","left_cId":"1","right_cName":"操作系统","left_score":"81"},{"left_sId":"95011","right_cId":"5","left_cId":"1","right_cName":"数据结构","left_score":"81"},{"left_sId":"95011","right_cId":"6","left_cId":"1","right_cName":"数据处理","left_score":"81"},{"left_sId":"95011","right_cId":"1","left_cId":"2","right_cName":"数据库","left_score":"91"},{"left_sId":"95011","right_cId":"2","left_cId":"2","right_cName":"数学","left_score":"91"},{"left_sId":"95011","right_cId":"3","left_cId":"2","right_cName":"信息系统","left_score":"91"},{"left_sId":"95011","right_cId":"4","left_cId":"2","right_cName":"操作系统","left_score":"91"},{"left_sId":"95011","right_cId":"5","left_cId":"2","right_cName":"数据结构","left_score":"91"},{"left_sId":"95011","right_cId":"6","left_cId":"2","right_cName":"数据处理","left_score":"91"},{"left_sId":"95011","right_cId":"1","left_cId":"3","right_cName":"数据库","left_score":"81"},{"left_sId":"95011","right_cId":"2","left_cId":"3","right_cName":"数学","left_score":"81"},{"left_sId":"95011","right_cId":"3","left_cId":"3","right_cName":"信息系统","left_score":"81"},{"left_sId":"95011","right_cId":"4","left_cId":"3","right_cName":"操作系统","left_score":"81"},{"left_sId":"95011","right_cId":"5","left_cId":"3","right_cName":"数据结构","left_score":"81"},{"left_sId":"95011","right_cId":"6","left_cId":"3","right_cName":"数据处理","left_score":"81"},{"left_sId":"95011","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"86"},{"left_sId":"95011","right_cId":"2","left_cId":"4","right_cName":"数学","left_score":"86"},{"left_sId":"95011","right_cId":"3","left_cId":"4","right_cName":"信息系统","left_score":"86"},{"left_sId":"95011","right_cId":"4","left_cId":"4","right_cName":"操作系统","left_score":"86"},{"left_sId":"95011","right_cId":"5","left_cId":"4","right_cName":"数据结构","left_score":"86"},{"left_sId":"95011","right_cId":"6","left_cId":"4","right_cName":"数据处理","left_score":"86"},{"left_sId":"95012","right_cId":"1","left_cId":"1","right_cName":"数据库","left_score":"81"},{"left_sId":"95012","right_cId":"2","left_cId":"1","right_cName":"数学","left_score":"81"},{"left_sId":"95012","right_cId":"3","left_cId":"1","right_cName":"信息系统","left_score":"81"},{"left_sId":"95012","right_cId":"4","left_cId":"1","right_cName":"操作系统","left_score":"81"},{"left_sId":"95012","right_cId":"5","left_cId":"1","right_cName":"数据结构","left_score":"81"},{"left_sId":"95012","right_cId":"6","left_cId":"1","right_cName":"数据处理","left_score":"81"},{"left_sId":"95012","right_cId":"1","left_cId":"3","right_cName":"数据库","left_score":"78"},{"left_sId":"95012","right_cId":"2","left_cId":"3","right_cName":"数学","left_score":"78"},{"left_sId":"95012","right_cId":"3","left_cId":"3","right_cName":"信息系统","left_score":"78"},{"left_sId":"95012","right_cId":"4","left_cId":"3","right_cName":"操作系统","left_score":"78"},{"left_sId":"95012","right_cId":"5","left_cId":"3","right_cName":"数据结构","left_score":"78"},{"left_sId":"95012","right_cId":"6","left_cId":"3","right_cName":"数据处理","left_score":"78"},{"left_sId":"95012","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"85"},{"left_sId":"95012","right_cId":"2","left_cId":"4","right_cName":"数学","left_score":"85"},{"left_sId":"95012","right_cId":"3","left_cId":"4","right_cName":"信息系统","left_score":"85"},{"left_sId":"95012","right_cId":"4","left_cId":"4","right_cName":"操作系统","left_score":"85"},{"left_sId":"95012","right_cId":"5","left_cId":"4","right_cName":"数据结构","left_score":"85"},{"left_sId":"95012","right_cId":"6","left_cId":"4","right_cName":"数据处理","left_score":"85"},{"left_sId":"95012","right_cId":"1","left_cId":"6","right_cName":"数据库","left_score":"98"},{"left_sId":"95012","right_cId":"2","left_cId":"6","right_cName":"数学","left_score":"98"},{"left_sId":"95012","right_cId":"3","left_cId":"6","right_cName":"信息系统","left_score":"98"},{"left_sId":"95012","right_cId":"4","left_cId":"6","right_cName":"操作系统","left_score":"98"},{"left_sId":"95012","right_cId":"5","left_cId":"6","right_cName":"数据结构","left_score":"98"},{"left_sId":"95012","right_cId":"6","left_cId":"6","right_cName":"数据处理","left_score":"98"},{"left_sId":"95013","right_cId":"1","left_cId":"1","right_cName":"数据库","left_score":"98"},{"left_sId":"95013","right_cId":"2","left_cId":"1","right_cName":"数学","left_score":"98"},{"left_sId":"95013","right_cId":"3","left_cId":"1","right_cName":"信息系统","left_score":"98"},{"left_sId":"95013","right_cId":"4","left_cId":"1","right_cName":"操作系统","left_score":"98"},{"left_sId":"95013","right_cId":"5","left_cId":"1","right_cName":"数据结构","left_score":"98"},{"left_sId":"95013","right_cId":"6","left_cId":"1","right_cName":"数据处理","left_score":"98"},{"left_sId":"95013","right_cId":"1","left_cId":"2","right_cName":"数据库","left_score":"58"},{"left_sId":"95013","right_cId":"2","left_cId":"2","right_cName":"数学","left_score":"58"},{"left_sId":"95013","right_cId":"3","left_cId":"2","right_cName":"信息系统","left_score":"58"},{"left_sId":"95013","right_cId":"4","left_cId":"2","right_cName":"操作系统","left_score":"58"},{"left_sId":"95013","right_cId":"5","left_cId":"2","right_cName":"数据结构","left_score":"58"},{"left_sId":"95013","right_cId":"6","left_cId":"2","right_cName":"数据处理","left_score":"58"},{"left_sId":"95013","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"88"},{"left_sId":"95013","right_cId":"2","left_cId":"4","right_cName":"数学","left_score":"88"},{"left_sId":"95013","right_cId":"3","left_cId":"4","right_cName":"信息系统","left_score":"88"},{"left_sId":"95013","right_cId":"4","left_cId":"4","right_cName":"操作系统","left_score":"88"},{"left_sId":"95013","right_cId":"5","left_cId":"4","right_cName":"数据结构","left_score":"88"},{"left_sId":"95013","right_cId":"6","left_cId":"4","right_cName":"数据处理","left_score":"88"},{"left_sId":"95013","right_cId":"1","left_cId":"5","right_cName":"数据库","left_score":"93"},{"left_sId":"95013","right_cId":"2","left_cId":"5","right_cName":"数学","left_score":"93"},{"left_sId":"95013","right_cId":"3","left_cId":"5","right_cName":"信息系统","left_score":"93"},{"left_sId":"95013","right_cId":"4","left_cId":"5","right_cName":"操作系统","left_score":"93"},{"left_sId":"95013","right_cId":"5","left_cId":"5","right_cName":"数据结构","left_score":"93"},{"left_sId":"95013","right_cId":"6","left_cId":"5","right_cName":"数据处理","left_score":"93"},{"left_sId":"95014","right_cId":"1","left_cId":"1","right_cName":"数据库","left_score":"91"},{"left_sId":"95014","right_cId":"2","left_cId":"1","right_cName":"数学","left_score":"91"},{"left_sId":"95014","right_cId":"3","left_cId":"1","right_cName":"信息系统","left_score":"91"},{"left_sId":"95014","right_cId":"4","left_cId":"1","right_cName":"操作系统","left_score":"91"},{"left_sId":"95014","right_cId":"5","left_cId":"1","right_cName":"数据结构","left_score":"91"},{"left_sId":"95014","right_cId":"6","left_cId":"1","right_cName":"数据处理","left_score":"91"},{"left_sId":"95014","right_cId":"1","left_cId":"2","right_cName":"数据库","left_score":"100"},{"left_sId":"95014","right_cId":"2","left_cId":"2","right_cName":"数学","left_score":"100"},{"left_sId":"95014","right_cId":"3","left_cId":"2","right_cName":"信息系统","left_score":"100"},{"left_sId":"95014","right_cId":"4","left_cId":"2","right_cName":"操作系统","left_score":"100"},{"left_sId":"95014","right_cId":"5","left_cId":"2","right_cName":"数据结构","left_score":"100"},{"left_sId":"95014","right_cId":"6","left_cId":"2","right_cName":"数据处理","left_score":"100"},{"left_sId":"95014","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"98"},{"left_sId":"95014","right_cId":"2","left_cId":"4","right_cName":"数学","left_score":"98"},{"left_sId":"95014","right_cId":"3","left_cId":"4","right_cName":"信息系统","left_score":"98"},{"left_sId":"95014","right_cId":"4","left_cId":"4","right_cName":"操作系统","left_score":"98"},{"left_sId":"95014","right_cId":"5","left_cId":"4","right_cName":"数据结构","left_score":"98"},{"left_sId":"95014","right_cId":"6","left_cId":"4","right_cName":"数据处理","left_score":"98"},{"left_sId":"95015","right_cId":"1","left_cId":"1","right_cName":"数据库","left_score":"91"},{"left_sId":"95015","right_cId":"2","left_cId":"1","right_cName":"数学","left_score":"91"},{"left_sId":"95015","right_cId":"3","left_cId":"1","right_cName":"信息系统","left_score":"91"},{"left_sId":"95015","right_cId":"4","left_cId":"1","right_cName":"操作系统","left_score":"91"},{"left_sId":"95015","right_cId":"5","left_cId":"1","right_cName":"数据结构","left_score":"91"},{"left_sId":"95015","right_cId":"6","left_cId":"1","right_cName":"数据处理","left_score":"91"},{"left_sId":"95015","right_cId":"1","left_cId":"3","right_cName":"数据库","left_score":"59"},{"left_sId":"95015","right_cId":"2","left_cId":"3","right_cName":"数学","left_score":"59"},{"left_sId":"95015","right_cId":"3","left_cId":"3","right_cName":"信息系统","left_score":"59"},{"left_sId":"95015","right_cId":"4","left_cId":"3","right_cName":"操作系统","left_score":"59"},{"left_sId":"95015","right_cId":"5","left_cId":"3","right_cName":"数据结构","left_score":"59"},{"left_sId":"95015","right_cId":"6","left_cId":"3","right_cName":"数据处理","left_score":"59"},{"left_sId":"95015","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"100"},{"left_sId":"95015","right_cId":"2","left_cId":"4","right_cName":"数学","left_score":"100"},{"left_sId":"95015","right_cId":"3","left_cId":"4","right_cName":"信息系统","left_score":"100"},{"left_sId":"95015","right_cId":"4","left_cId":"4","right_cName":"操作系统","left_score":"100"},{"left_sId":"95015","right_cId":"5","left_cId":"4","right_cName":"数据结构","left_score":"100"},{"left_sId":"95015","right_cId":"6","left_cId":"4","right_cName":"数据处理","left_score":"100"},{"left_sId":"95015","right_cId":"1","left_cId":"6","right_cName":"数据库","left_score":"95"},{"left_sId":"95015","right_cId":"2","left_cId":"6","right_cName":"数学","left_score":"95"},{"left_sId":"95015","right_cId":"3","left_cId":"6","right_cName":"信息系统","left_score":"95"},{"left_sId":"95015","right_cId":"4","left_cId":"6","right_cName":"操作系统","left_score":"95"},{"left_sId":"95015","right_cId":"5","left_cId":"6","right_cName":"数据结构","left_score":"95"},{"left_sId":"95015","right_cId":"6","left_cId":"6","right_cName":"数据处理","left_score":"95"},{"left_sId":"95016","right_cId":"1","left_cId":"1","right_cName":"数据库","left_score":"92"},{"left_sId":"95016","right_cId":"2","left_cId":"1","right_cName":"数学","left_score":"92"},{"left_sId":"95016","right_cId":"3","left_cId":"1","right_cName":"信息系统","left_score":"92"},{"left_sId":"95016","right_cId":"4","left_cId":"1","right_cName":"操作系统","left_score":"92"},{"left_sId":"95016","right_cId":"5","left_cId":"1","right_cName":"数据结构","left_score":"92"},{"left_sId":"95016","right_cId":"6","left_cId":"1","right_cName":"数据处理","left_score":"92"},{"left_sId":"95016","right_cId":"1","left_cId":"2","right_cName":"数据库","left_score":"99"},{"left_sId":"95016","right_cId":"2","left_cId":"2","right_cName":"数学","left_score":"99"},{"left_sId":"95016","right_cId":"3","left_cId":"2","right_cName":"信息系统","left_score":"99"},{"left_sId":"95016","right_cId":"4","left_cId":"2","right_cName":"操作系统","left_score":"99"},{"left_sId":"95016","right_cId":"5","left_cId":"2","right_cName":"数据结构","left_score":"99"},{"left_sId":"95016","right_cId":"6","left_cId":"2","right_cName":"数据处理","left_score":"99"},{"left_sId":"95016","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"82"},{"left_sId":"95016","right_cId":"2","left_cId":"4","right_cName":"数学","left_score":"82"},{"left_sId":"95016","right_cId":"3","left_cId":"4","right_cName":"信息系统","left_score":"82"},{"left_sId":"95016","right_cId":"4","left_cId":"4","right_cName":"操作系统","left_score":"82"},{"left_sId":"95016","right_cId":"5","left_cId":"4","right_cName":"数据结构","left_score":"82"},{"left_sId":"95016","right_cId":"6","left_cId":"4","right_cName":"数据处理","left_score":"82"},{"left_sId":"95017","right_cId":"1","left_cId":"4","right_cName":"数据库","left_score":"82"},{"left_sId":"95017","right_cId":"2","left_cId":"4","right_cName":"</t>
+  </si>
+  <si>
+    <t>请确认flow的mode</t>
+  </si>
+  <si>
+    <t>source, productjoin, sink</t>
   </si>
 </sst>
 </file>
@@ -906,10 +773,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -953,6 +820,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -966,15 +840,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -996,6 +878,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1004,31 +909,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1057,21 +954,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1080,24 +962,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1118,7 +985,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,7 +1027,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,19 +1099,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,25 +1147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,97 +1165,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,41 +1179,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1364,7 +1201,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1409,162 +1261,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1976,7 +1842,7 @@
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2231,7 +2097,7 @@
       <c r="I11" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K11" t="s">
@@ -2304,10 +2170,10 @@
       <c r="L13" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="12"/>
+      <c r="O13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2368,7 +2234,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2432,7 +2298,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2505,7 +2371,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2514,7 +2380,7 @@
       <c r="C6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E6" t="s">
@@ -2549,7 +2415,7 @@
       <c r="C7" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E7" t="s">
@@ -2578,7 +2444,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2587,7 +2453,7 @@
       <c r="C8" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>92</v>
       </c>
       <c r="E8" t="s">
@@ -2651,7 +2517,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="D10" t="s">
@@ -2713,13 +2579,13 @@
   <sheetPr/>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" customFormat="1" ht="16.5" spans="1:12">
+    <row r="1" ht="16.5" customHeight="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2757,7 +2623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="16.5" spans="1:12">
+    <row r="2" ht="16.5" customHeight="1" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2792,7 +2658,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="16.5" spans="1:12">
+    <row r="3" ht="16.5" customHeight="1" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2827,7 +2693,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="16.5" spans="1:11">
+    <row r="4" ht="16.5" customHeight="1" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2853,7 +2719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="16.5" spans="1:11">
+    <row r="5" ht="16.5" customHeight="1" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2879,7 +2745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="16.5" spans="1:12">
+    <row r="6" ht="16.5" customHeight="1" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2914,7 +2780,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="16.5" spans="1:12">
+    <row r="7" ht="16.5" customHeight="1" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2949,7 +2815,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="16.5" spans="1:12">
+    <row r="8" ht="16.5" customHeight="1" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2984,7 +2850,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="16.5" spans="1:12">
+    <row r="9" ht="16.5" customHeight="1" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3019,7 +2885,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="16.5" spans="1:12">
+    <row r="10" ht="16.5" customHeight="1" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3054,7 +2920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="16.5" spans="1:12">
+    <row r="11" ht="16.5" customHeight="1" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3089,7 +2955,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:12">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3115,7 +2981,10 @@
         <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -3124,21 +2993,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="16.5" spans="1:12">
+    <row r="13" ht="16.5" customHeight="1" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -3159,30 +3028,30 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="16.5" spans="1:12">
+    <row r="14" ht="16.5" customHeight="1" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I14" t="s">
         <v>32</v>
@@ -3194,30 +3063,30 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="16.5" spans="1:12">
+    <row r="15" ht="16.5" customHeight="1" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I15" t="s">
         <v>32</v>
@@ -3226,33 +3095,33 @@
         <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="16.5" spans="1:12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" customHeight="1" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -3261,33 +3130,33 @@
         <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="16.5" spans="1:12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" customHeight="1" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -3299,30 +3168,30 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="16.5" spans="1:12">
+    <row r="18" ht="16.5" customHeight="1" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -3334,7 +3203,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" customFormat="1" customHeight="1" spans="1:12">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3348,7 +3217,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -3369,30 +3238,30 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:12">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="4" t="s">
         <v>166</v>
       </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
       <c r="D20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I20" t="s">
         <v>32</v>
@@ -3401,33 +3270,33 @@
         <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" customHeight="1" spans="1:12">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I21" t="s">
         <v>32</v>
@@ -3436,27 +3305,27 @@
         <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I22" t="s">
         <v>32</v>
@@ -3465,7 +3334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="1" customHeight="1" spans="1:12">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3475,11 +3344,11 @@
       <c r="C23" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -3500,30 +3369,30 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="16.5" spans="1:12">
+    <row r="24" ht="16.5" customHeight="1" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="5" t="s">
         <v>182</v>
       </c>
+      <c r="D24" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I24" t="s">
         <v>32</v>
@@ -3532,27 +3401,27 @@
         <v>21</v>
       </c>
       <c r="L24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" ht="16.5" spans="1:11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" customHeight="1" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>186</v>
+      <c r="D25" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
@@ -3561,7 +3430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="16.5" spans="1:12">
+    <row r="26" ht="16.5" customHeight="1" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3571,11 +3440,11 @@
       <c r="C26" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
@@ -3596,30 +3465,30 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="16.5" spans="1:12">
+    <row r="27" ht="16.5" customHeight="1" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="5" t="s">
         <v>191</v>
       </c>
+      <c r="D27" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I27" t="s">
         <v>32</v>
@@ -3631,30 +3500,30 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="16.5" spans="1:12">
+    <row r="28" ht="16.5" customHeight="1" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="5" t="s">
         <v>197</v>
       </c>
+      <c r="D28" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="E28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
@@ -3663,71 +3532,110 @@
         <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" customHeight="1" spans="1:12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29" t="s">
         <v>201</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" t="s">
         <v>202</v>
       </c>
+      <c r="D29" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
       <c r="G29" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="H29" t="s">
+        <v>205</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
       </c>
       <c r="K29" t="s">
         <v>21</v>
       </c>
       <c r="L29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" ht="16.5" spans="1:12">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" customHeight="1" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="B30" t="s">
         <v>207</v>
       </c>
+      <c r="C30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
       <c r="G30" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="H30" t="s">
+        <v>170</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
       </c>
       <c r="K30" t="s">
         <v>21</v>
       </c>
       <c r="L30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" customHeight="1" spans="1:12">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>92</v>
+      </c>
+      <c r="E31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="H31" t="s">
+        <v>213</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>214</v>
+      </c>
       <c r="K31" t="s">
         <v>21</v>
       </c>
@@ -3735,44 +3643,68 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="16.5" spans="1:12">
+    <row r="32" ht="16.5" customHeight="1" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>211</v>
+      <c r="B32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
+      </c>
+      <c r="H32" t="s">
+        <v>219</v>
+      </c>
+      <c r="I32" t="s">
+        <v>32</v>
       </c>
       <c r="K32" t="s">
         <v>21</v>
       </c>
       <c r="L32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" customHeight="1" spans="1:12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>215</v>
+      <c r="B33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
+      </c>
+      <c r="H33" t="s">
+        <v>224</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
       </c>
       <c r="K33" t="s">
         <v>21</v>
@@ -3781,67 +3713,112 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="16.5" spans="1:12">
+    <row r="34" ht="16.5" customHeight="1" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>219</v>
+      <c r="B34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
       <c r="K34" t="s">
         <v>21</v>
       </c>
       <c r="L34" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" ht="16.5" spans="1:12">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" customHeight="1" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>221</v>
+      <c r="B35" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="C35" t="s">
-        <v>222</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>223</v>
+        <v>231</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" t="s">
+        <v>233</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>224</v>
+        <v>234</v>
+      </c>
+      <c r="H35" t="s">
+        <v>234</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
       </c>
       <c r="K35" t="s">
         <v>21</v>
       </c>
       <c r="L35" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>226</v>
+      <c r="B36" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="C36" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>228</v>
+        <v>237</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>229</v>
+        <v>240</v>
+      </c>
+      <c r="H36" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s">
+        <v>242</v>
+      </c>
+      <c r="K36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="84" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="420">
   <si>
     <t>id</t>
   </si>
@@ -877,8 +877,57 @@
 </t>
   </si>
   <si>
+    <t>2a46f390-125a-4123-bdc7-66feefbe9120</t>
+  </si>
+  <si>
+    <t>[{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"1","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":""},{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"1","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":"2018-08-03 10:22:24.0"}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_所有类型_new_new1545633383317 ---&gt;预期结果实际结果不一致 
+</t>
+  </si>
+  <si>
+    <t>尝试使用新的预览接口查看数据</t>
+  </si>
+  <si>
+    <t>155af511-f563-4fef-85fb-68c48b3f11d8</t>
+  </si>
+  <si>
+    <t>9c6d06d1-e684-4363-a450-57557f00d8c8</t>
+  </si>
+  <si>
+    <t>f41ff2c6-a630-41e5-8372-35e9689923bd</t>
+  </si>
+  <si>
+    <t>4b396f19-b17b-4a0f-b002-49e95ba3abc6</t>
+  </si>
+  <si>
+    <t>1d932ba0-c15a-4049-b978-d053a663d20c</t>
+  </si>
+  <si>
+    <t>690d7432-8121-4a24-a055-43fda5d7bded</t>
+  </si>
+  <si>
+    <t>df6269a3-ddbd-468d-a697-c68e2174f5bb</t>
+  </si>
+  <si>
+    <t>[{"CName":"数据库","CID":"1"}]</t>
+  </si>
+  <si>
+    <t>400a6ef8-d1f1-4565-b2bc-56545ed6a5cc</t>
+  </si>
+  <si>
+    <t>410d6a8b-fbf2-4ea7-9bcb-88adb6273a32</t>
+  </si>
+  <si>
+    <t>7977c6d5-d291-461b-ba2a-09174c4a2189</t>
+  </si>
+  <si>
+    <t>80d9c302-8b0f-460f-a14b-7ded0702ce6c</t>
+  </si>
+  <si>
     <r>
-      <t>tc_auto_df_</t>
+      <t>gbj_use_</t>
     </r>
     <r>
       <rPr>
@@ -886,7 +935,7 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>所有类型</t>
+      <t>土葬数据清洗</t>
     </r>
     <r>
       <rPr>
@@ -894,59 +943,10 @@
         <rFont val="Arial"/>
         <charset val="0"/>
       </rPr>
-      <t>_new_new1545633383317</t>
+      <t>_transform_step</t>
     </r>
   </si>
   <si>
-    <t>2a46f390-125a-4123-bdc7-66feefbe9120</t>
-  </si>
-  <si>
-    <t>[{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"1","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":""},{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"1","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":"2018-08-03 10:22:24.0"}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: tc_auto_df_所有类型_new_new1545633383317 ---&gt;预期结果实际结果不一致 
-</t>
-  </si>
-  <si>
-    <t>尝试使用新的预览接口查看数据</t>
-  </si>
-  <si>
-    <t>155af511-f563-4fef-85fb-68c48b3f11d8</t>
-  </si>
-  <si>
-    <t>9c6d06d1-e684-4363-a450-57557f00d8c8</t>
-  </si>
-  <si>
-    <t>f41ff2c6-a630-41e5-8372-35e9689923bd</t>
-  </si>
-  <si>
-    <t>4b396f19-b17b-4a0f-b002-49e95ba3abc6</t>
-  </si>
-  <si>
-    <t>1d932ba0-c15a-4049-b978-d053a663d20c</t>
-  </si>
-  <si>
-    <t>690d7432-8121-4a24-a055-43fda5d7bded</t>
-  </si>
-  <si>
-    <t>df6269a3-ddbd-468d-a697-c68e2174f5bb</t>
-  </si>
-  <si>
-    <t>[{"CName":"数据库","CID":"1"}]</t>
-  </si>
-  <si>
-    <t>400a6ef8-d1f1-4565-b2bc-56545ed6a5cc</t>
-  </si>
-  <si>
-    <t>410d6a8b-fbf2-4ea7-9bcb-88adb6273a32</t>
-  </si>
-  <si>
-    <t>7977c6d5-d291-461b-ba2a-09174c4a2189</t>
-  </si>
-  <si>
-    <t>80d9c302-8b0f-460f-a14b-7ded0702ce6c</t>
-  </si>
-  <si>
     <t>4f0e1fd1-aa33-4d79-a24f-307fb02ba871</t>
   </si>
   <si>
@@ -984,6 +984,9 @@
   </si>
   <si>
     <t>3824443e-abfa-4cea-9e76-9907cc48667c</t>
+  </si>
+  <si>
+    <t>gbj_for_aggregate_test_sum</t>
   </si>
   <si>
     <t>ed60c1cf-2568-4d0b-8a04-edb1f1610eed</t>
@@ -1267,17 +1270,23 @@
     <t>00d4ba15-5beb-400f-8b61-2e96aea66201</t>
   </si>
   <si>
-    <t>98f37042-985e-46ab-8643-d5bb271fbd11</t>
-  </si>
-  <si>
-    <t>78898c4f-bbb0-4e13-a3dd-c289f1bd9f87</t>
-  </si>
-  <si>
-    <t>[{"sex":"男","SName":"李勇","class":"CS","age":"20","SId":"95001"},{"sex":"女","SName":"刘晨","class":"IS","age":"19","SId":"95002"},{"sex":"女","SName":"王敏","class":"MA","age":"22","SId":"95003"},{"sex":"男","SName":"张立","class":"IS","age":"19","SId":"95004"},{"sex":"男","SName":"刘刚","class":"MA","age":"18","SId":"95005"},{"sex":"男","SName":"孙庆","class":"CS","age":"23","SId":"95006"}]</t>
+    <t>7679dea5-04e1-49d4-803f-7313b2067bb8</t>
+  </si>
+  <si>
+    <t>96cfe8e3-b731-41e3-897d-b671acd856da</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: tc_auto_df_source_001_mysql1545633383105 ---&gt;执行状态为 FAILED
 </t>
+  </si>
+  <si>
+    <t>98f37042-985e-46ab-8643-d5bb271fbd11</t>
+  </si>
+  <si>
+    <t>78898c4f-bbb0-4e13-a3dd-c289f1bd9f87</t>
+  </si>
+  <si>
+    <t>[{"sex":"男","SName":"李勇","class":"CS","age":"20","SId":"95001"},{"sex":"女","SName":"刘晨","class":"IS","age":"19","SId":"95002"},{"sex":"女","SName":"王敏","class":"MA","age":"22","SId":"95003"},{"sex":"男","SName":"张立","class":"IS","age":"19","SId":"95004"},{"sex":"男","SName":"刘刚","class":"MA","age":"18","SId":"95005"},{"sex":"男","SName":"孙庆","class":"CS","age":"23","SId":"95006"}]</t>
   </si>
   <si>
     <t>01148688-886a-48f7-9f00-e7b7a4124b32</t>
@@ -1301,10 +1310,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1365,14 +1374,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -1380,99 +1381,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1495,7 +1406,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1511,6 +1482,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1549,133 +1558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,7 +1582,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1705,7 +1648,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,19 +1738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1752,15 +1761,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1778,11 +1778,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1805,190 +1833,171 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="8">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="7">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="5">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2017,20 +2026,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3124,10 +3123,10 @@
       <c r="I20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="33" t="s">
+      <c r="K20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="25" t="s">
         <v>131</v>
       </c>
       <c r="M20" s="6">
@@ -3162,10 +3161,10 @@
       <c r="I21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="33" t="s">
+      <c r="K21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="25" t="s">
         <v>137</v>
       </c>
       <c r="M21" s="6">
@@ -3200,10 +3199,10 @@
       <c r="I22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="33" t="s">
+      <c r="K22" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="25" t="s">
         <v>143</v>
       </c>
       <c r="M22" s="6">
@@ -3238,10 +3237,10 @@
       <c r="I23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="33" t="s">
+      <c r="K23" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="25" t="s">
         <v>149</v>
       </c>
       <c r="M23" s="6">
@@ -3276,10 +3275,10 @@
       <c r="I24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="33" t="s">
+      <c r="K24" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="25" t="s">
         <v>156</v>
       </c>
       <c r="M24" s="6">
@@ -3314,10 +3313,10 @@
       <c r="I25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="33" t="s">
+      <c r="K25" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="25" t="s">
         <v>156</v>
       </c>
       <c r="M25" s="6">
@@ -3352,10 +3351,10 @@
       <c r="I26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="33" t="s">
+      <c r="K26" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="25" t="s">
         <v>167</v>
       </c>
       <c r="M26" s="6">
@@ -3390,10 +3389,10 @@
       <c r="I27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="33" t="s">
+      <c r="K27" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="25" t="s">
         <v>173</v>
       </c>
       <c r="M27" s="6">
@@ -3428,10 +3427,10 @@
       <c r="I28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="33" t="s">
+      <c r="K28" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="25" t="s">
         <v>178</v>
       </c>
       <c r="M28" s="6">
@@ -3466,10 +3465,10 @@
       <c r="I29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="33" t="s">
+      <c r="K29" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="25" t="s">
         <v>183</v>
       </c>
       <c r="M29" s="6">
@@ -3504,10 +3503,10 @@
       <c r="I30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="33" t="s">
+      <c r="K30" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="25" t="s">
         <v>189</v>
       </c>
       <c r="M30" s="6">
@@ -3542,10 +3541,10 @@
       <c r="I31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="33" t="s">
+      <c r="K31" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="25" t="s">
         <v>195</v>
       </c>
       <c r="M31" s="6">
@@ -3580,10 +3579,10 @@
       <c r="I32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="33" t="s">
+      <c r="K32" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="25" t="s">
         <v>195</v>
       </c>
       <c r="M32" s="6">
@@ -3618,10 +3617,10 @@
       <c r="I33" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="33" t="s">
+      <c r="K33" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="25" t="s">
         <v>195</v>
       </c>
       <c r="M33" s="6">
@@ -3656,10 +3655,10 @@
       <c r="I34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="33" t="s">
+      <c r="K34" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="25" t="s">
         <v>211</v>
       </c>
       <c r="M34" s="6">
@@ -3694,10 +3693,10 @@
       <c r="I35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="33" t="s">
+      <c r="K35" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="25" t="s">
         <v>216</v>
       </c>
       <c r="M35" s="6">
@@ -3732,10 +3731,10 @@
       <c r="I36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="33" t="s">
+      <c r="K36" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="25" t="s">
         <v>216</v>
       </c>
       <c r="M36" s="6">
@@ -3846,10 +3845,10 @@
       <c r="I39" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="33" t="s">
+      <c r="K39" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="25" t="s">
         <v>239</v>
       </c>
       <c r="M39" s="6">
@@ -4092,7 +4091,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -4187,614 +4186,614 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" s="20" customFormat="1" ht="16.5" customHeight="1" spans="1:15">
-      <c r="A3" s="20">
+    <row r="3" ht="16.5" customHeight="1" spans="1:15">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" t="s">
         <v>273</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" t="s">
         <v>274</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="20" t="s">
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="20">
-        <v>189</v>
-      </c>
-      <c r="O3" s="20" t="s">
+      <c r="M3">
+        <v>189</v>
+      </c>
+      <c r="O3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="4" s="23" customFormat="1" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A4" s="23">
+    <row r="4" ht="16.5" customHeight="1" spans="1:13">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="24" t="s">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="23" t="s">
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="23">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" s="23" customFormat="1" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A5" s="23">
+      <c r="M4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" spans="1:13">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" t="s">
         <v>277</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="24" t="s">
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="23" t="s">
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="23">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" s="23" customFormat="1" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A6" s="23">
+      <c r="M5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" customHeight="1" spans="1:13">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="23" t="s">
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="23">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" s="23" customFormat="1" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A7" s="23">
+      <c r="M6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" spans="1:13">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" t="s">
         <v>279</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="24" t="s">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="23" t="s">
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="23">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" s="23" customFormat="1" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A8" s="23">
+      <c r="M7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" customHeight="1" spans="1:13">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" t="s">
         <v>281</v>
       </c>
-      <c r="I8" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="23" t="s">
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="23">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" s="23" customFormat="1" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A9" s="23">
+      <c r="M8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" spans="1:13">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" t="s">
         <v>283</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" t="s">
         <v>284</v>
       </c>
-      <c r="K9" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="23" t="s">
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="23">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" s="20" customFormat="1" ht="16.5" customHeight="1" spans="1:15">
-      <c r="A10" s="20">
+      <c r="M9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" customHeight="1" spans="1:15">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
         <v>285</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
         <v>286</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="20" t="s">
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s">
         <v>287</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="20" t="s">
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10">
+        <v>189</v>
+      </c>
+      <c r="O10" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="K10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="20">
-        <v>189</v>
-      </c>
-      <c r="O10" s="31" t="s">
+    </row>
+    <row r="11" ht="16.5" customHeight="1" spans="1:13">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="11" s="23" customFormat="1" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A11" s="23">
-        <v>10</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
         <v>290</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="23">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" s="23" customFormat="1" spans="1:13">
-      <c r="A12" s="23">
-        <v>11</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" customHeight="1" spans="1:13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
         <v>291</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="23">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" s="23" customFormat="1" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A13" s="23">
-        <v>12</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="23" t="s">
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" customHeight="1" spans="1:13">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
         <v>292</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="23">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" s="23" customFormat="1" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A14" s="23">
-        <v>13</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="23" t="s">
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" customHeight="1" spans="1:13">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" customHeight="1" spans="1:13">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
         <v>293</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" s="23">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" s="23" customFormat="1" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A15" s="23">
-        <v>14</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="23">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" s="23" customFormat="1" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A16" s="23">
-        <v>15</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="23" t="s">
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" customHeight="1" spans="1:13">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="M16" s="23">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" s="20" customFormat="1" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A17" s="20">
-        <v>2</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="E17" t="s">
         <v>295</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="22" t="s">
+      <c r="H17" t="s">
+        <v>296</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" customHeight="1" spans="1:13">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
         <v>297</v>
       </c>
-      <c r="H17" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="M17" s="20">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" s="23" customFormat="1" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A18" s="23">
-        <v>17</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="23" t="s">
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="23" t="s">
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
         <v>118</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18">
         <v>84</v>
       </c>
     </row>
@@ -4812,7 +4811,7 @@
         <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -4838,7 +4837,7 @@
       </c>
       <c r="N19" s="16"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4852,7 +4851,7 @@
         <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -4875,9 +4874,8 @@
       <c r="M20">
         <v>84</v>
       </c>
-      <c r="N20" s="20"/>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4891,7 +4889,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -4914,17 +4912,16 @@
       <c r="M21">
         <v>84</v>
       </c>
-      <c r="N21" s="20"/>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>138</v>
       </c>
-      <c r="C22" t="s">
-        <v>139</v>
+      <c r="C22" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="D22" t="s">
         <v>140</v>
@@ -4953,9 +4950,8 @@
       <c r="M22">
         <v>84</v>
       </c>
-      <c r="N22" s="20"/>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4992,9 +4988,8 @@
       <c r="M23">
         <v>84</v>
       </c>
-      <c r="N23" s="20"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1" spans="1:14">
+    </row>
+    <row r="24" ht="16.5" customHeight="1" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5031,9 +5026,8 @@
       <c r="M24">
         <v>84</v>
       </c>
-      <c r="N24" s="20"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1" spans="1:14">
+    </row>
+    <row r="25" ht="16.5" customHeight="1" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5070,9 +5064,8 @@
       <c r="M25">
         <v>84</v>
       </c>
-      <c r="N25" s="20"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1" spans="1:14">
+    </row>
+    <row r="26" ht="16.5" customHeight="1" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5109,9 +5102,8 @@
       <c r="M26">
         <v>84</v>
       </c>
-      <c r="N26" s="20"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1" spans="1:14">
+    </row>
+    <row r="27" ht="16.5" customHeight="1" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5148,9 +5140,8 @@
       <c r="M27">
         <v>84</v>
       </c>
-      <c r="N27" s="20"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1" spans="1:14">
+    </row>
+    <row r="28" ht="16.5" customHeight="1" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5187,9 +5178,8 @@
       <c r="M28">
         <v>84</v>
       </c>
-      <c r="N28" s="20"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1" spans="1:14">
+    </row>
+    <row r="29" ht="16.5" customHeight="1" spans="1:13">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5226,9 +5216,8 @@
       <c r="M29">
         <v>84</v>
       </c>
-      <c r="N29" s="20"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1" spans="1:14">
+    </row>
+    <row r="30" ht="16.5" customHeight="1" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5265,9 +5254,8 @@
       <c r="M30">
         <v>84</v>
       </c>
-      <c r="N30" s="20"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1" spans="1:14">
+    </row>
+    <row r="31" ht="16.5" customHeight="1" spans="1:13">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5304,9 +5292,8 @@
       <c r="M31">
         <v>84</v>
       </c>
-      <c r="N31" s="20"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1" spans="1:14">
+    </row>
+    <row r="32" ht="16.5" customHeight="1" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5314,13 +5301,13 @@
         <v>196</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>315</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>198</v>
       </c>
       <c r="E32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -5343,9 +5330,8 @@
       <c r="M32">
         <v>84</v>
       </c>
-      <c r="N32" s="20"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1" spans="1:14">
+    </row>
+    <row r="33" ht="16.5" customHeight="1" spans="1:13">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5359,7 +5345,7 @@
         <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -5382,9 +5368,8 @@
       <c r="M33">
         <v>84</v>
       </c>
-      <c r="N33" s="20"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1" spans="1:14">
+    </row>
+    <row r="34" ht="16.5" customHeight="1" spans="1:13">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5398,7 +5383,7 @@
         <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -5421,9 +5406,8 @@
       <c r="M34">
         <v>84</v>
       </c>
-      <c r="N34" s="20"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1" spans="1:14">
+    </row>
+    <row r="35" ht="16.5" customHeight="1" spans="1:13">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5437,7 +5421,7 @@
         <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -5460,9 +5444,8 @@
       <c r="M35">
         <v>84</v>
       </c>
-      <c r="N35" s="20"/>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5476,7 +5459,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F36" t="s">
         <v>18</v>
@@ -5499,93 +5482,90 @@
       <c r="M36">
         <v>84</v>
       </c>
-      <c r="N36" s="20"/>
-    </row>
-    <row r="37" s="23" customFormat="1" spans="1:14">
-      <c r="A37" s="20">
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" t="s">
         <v>222</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" t="s">
         <v>223</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="F37" s="20" t="s">
+      <c r="E37" t="s">
+        <v>321</v>
+      </c>
+      <c r="F37" t="s">
         <v>283</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H37" t="s">
         <v>226</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" t="s">
         <v>73</v>
       </c>
-      <c r="J37" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="20" t="s">
+      <c r="J37" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" t="s">
         <v>227</v>
       </c>
-      <c r="M37" s="20">
-        <v>189</v>
-      </c>
-      <c r="N37" s="20"/>
-    </row>
-    <row r="38" s="23" customFormat="1" spans="1:14">
-      <c r="A38" s="20">
+      <c r="M37">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" t="s">
         <v>229</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="22" t="s">
+      <c r="E38" t="s">
+        <v>323</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="H38" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="I38" s="20" t="s">
+      <c r="H38" t="s">
+        <v>324</v>
+      </c>
+      <c r="I38" t="s">
         <v>73</v>
       </c>
-      <c r="J38" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="20" t="s">
+      <c r="J38" t="s">
+        <v>325</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" t="s">
         <v>233</v>
       </c>
-      <c r="M38" s="20">
-        <v>189</v>
-      </c>
-      <c r="N38" s="20"/>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="M38">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5599,7 +5579,7 @@
         <v>236</v>
       </c>
       <c r="E39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
@@ -5622,9 +5602,8 @@
       <c r="M39">
         <v>84</v>
       </c>
-      <c r="N39" s="20"/>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5638,7 +5617,7 @@
         <v>242</v>
       </c>
       <c r="E40" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
@@ -5661,9 +5640,8 @@
       <c r="M40">
         <v>189</v>
       </c>
-      <c r="N40" s="23"/>
-    </row>
-    <row r="41" spans="1:14">
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5677,7 +5655,7 @@
         <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
@@ -5700,9 +5678,8 @@
       <c r="M41">
         <v>189</v>
       </c>
-      <c r="N41" s="23"/>
-    </row>
-    <row r="42" spans="1:14">
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5716,7 +5693,7 @@
         <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
@@ -5739,9 +5716,8 @@
       <c r="M42">
         <v>189</v>
       </c>
-      <c r="N42" s="23"/>
-    </row>
-    <row r="43" spans="1:14">
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5755,7 +5731,7 @@
         <v>259</v>
       </c>
       <c r="E43" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
@@ -5778,9 +5754,8 @@
       <c r="M43">
         <v>84</v>
       </c>
-      <c r="N43" s="20"/>
-    </row>
-    <row r="44" spans="1:14">
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5794,7 +5769,7 @@
         <v>265</v>
       </c>
       <c r="E44" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
@@ -5817,7 +5792,6 @@
       <c r="M44">
         <v>189</v>
       </c>
-      <c r="N44" s="23"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45">
@@ -5827,7 +5801,7 @@
         <v>269</v>
       </c>
       <c r="E45" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
@@ -5891,7 +5865,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -5910,7 +5884,7 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:13">
@@ -5927,12 +5901,12 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="20" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -5942,7 +5916,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M2">
         <v>189</v>
@@ -5953,31 +5927,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="H3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
         <v>334</v>
-      </c>
-      <c r="C3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="H3" t="s">
-        <v>338</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>333</v>
       </c>
       <c r="M3">
         <v>189</v>
@@ -5988,19 +5962,19 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="E4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>338</v>
-      </c>
       <c r="H4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -6014,19 +5988,19 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>338</v>
+      <c r="G5" s="20" t="s">
+        <v>339</v>
       </c>
       <c r="H5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -6049,12 +6023,12 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="20" t="s">
         <v>19</v>
       </c>
       <c r="H6" t="s">
@@ -6064,7 +6038,7 @@
         <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M6">
         <v>189</v>
@@ -6084,12 +6058,12 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H7" t="s">
@@ -6099,7 +6073,7 @@
         <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M7">
         <v>189</v>
@@ -6119,12 +6093,12 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="20" t="s">
         <v>51</v>
       </c>
       <c r="H8" t="s">
@@ -6154,16 +6128,16 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="20" t="s">
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K9" t="s">
         <v>59</v>
@@ -6189,12 +6163,12 @@
         <v>224</v>
       </c>
       <c r="E10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="20" t="s">
         <v>226</v>
       </c>
       <c r="H10" t="s">
@@ -6224,12 +6198,12 @@
         <v>230</v>
       </c>
       <c r="E11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="20" t="s">
         <v>232</v>
       </c>
       <c r="H11" t="s">
@@ -6239,7 +6213,7 @@
         <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M11">
         <v>189</v>
@@ -6250,31 +6224,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M12">
         <v>189</v>
@@ -6285,31 +6259,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>360</v>
+      <c r="G13" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="H13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M13">
         <v>189</v>
@@ -6320,31 +6294,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C14" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" t="s">
+        <v>365</v>
+      </c>
+      <c r="E14" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="H14" t="s">
+        <v>367</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
         <v>362</v>
-      </c>
-      <c r="C14" t="s">
-        <v>363</v>
-      </c>
-      <c r="D14" t="s">
-        <v>364</v>
-      </c>
-      <c r="E14" t="s">
-        <v>365</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="H14" t="s">
-        <v>366</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" t="s">
-        <v>361</v>
       </c>
       <c r="M14">
         <v>189</v>
@@ -6355,21 +6329,21 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>367</v>
-      </c>
-      <c r="C15" s="29" t="s">
         <v>368</v>
       </c>
+      <c r="C15" s="21" t="s">
+        <v>369</v>
+      </c>
       <c r="D15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="20" t="s">
         <v>86</v>
       </c>
       <c r="H15" t="s">
@@ -6399,12 +6373,12 @@
         <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="20" t="s">
         <v>86</v>
       </c>
       <c r="H16" t="s">
@@ -6434,12 +6408,12 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H17" t="s">
@@ -6449,7 +6423,7 @@
         <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M17">
         <v>189</v>
@@ -6460,25 +6434,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="28" t="s">
-        <v>377</v>
+      <c r="G18" s="20" t="s">
+        <v>378</v>
       </c>
       <c r="H18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K18" t="s">
         <v>21</v>
@@ -6504,7 +6478,7 @@
         <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -6530,16 +6504,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C20" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D20" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -6574,7 +6548,7 @@
         <v>265</v>
       </c>
       <c r="E21" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -6589,7 +6563,7 @@
         <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M21">
         <v>189</v>
@@ -6603,7 +6577,7 @@
         <v>269</v>
       </c>
       <c r="E22" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -6635,7 +6609,7 @@
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -6650,7 +6624,7 @@
         <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M23">
         <v>189</v>
@@ -6670,12 +6644,12 @@
         <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="20" t="s">
         <v>97</v>
       </c>
       <c r="H24" t="s">
@@ -6699,12 +6673,12 @@
         <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="20" t="s">
         <v>100</v>
       </c>
       <c r="H25" t="s">
@@ -6722,31 +6696,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C26" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E26" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="28" t="s">
-        <v>391</v>
+      <c r="G26" s="20" t="s">
+        <v>392</v>
       </c>
       <c r="H26" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K26" t="s">
         <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M26">
         <v>189</v>
@@ -6766,22 +6740,22 @@
         <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="20" t="s">
         <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
       </c>
       <c r="L27" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M27">
         <v>189</v>
@@ -6801,12 +6775,12 @@
         <v>247</v>
       </c>
       <c r="E28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="20" t="s">
         <v>249</v>
       </c>
       <c r="H28" t="s">
@@ -6827,25 +6801,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C29" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E29" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="28" t="s">
-        <v>399</v>
+      <c r="G29" s="20" t="s">
+        <v>400</v>
       </c>
       <c r="H29" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K29" t="s">
         <v>21</v>
@@ -6871,12 +6845,12 @@
         <v>242</v>
       </c>
       <c r="E30" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="20" t="s">
         <v>244</v>
       </c>
       <c r="H30" t="s">
@@ -6906,28 +6880,28 @@
         <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="20" t="s">
         <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K31" t="s">
         <v>21</v>
       </c>
       <c r="L31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M31">
         <v>189</v>
       </c>
-      <c r="N31" s="30" t="s">
-        <v>403</v>
+      <c r="N31" s="22" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1" spans="1:13">
@@ -6944,12 +6918,12 @@
         <v>254</v>
       </c>
       <c r="E32" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="20" t="s">
         <v>256</v>
       </c>
       <c r="H32" t="s">
@@ -6979,12 +6953,12 @@
         <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="20" t="s">
         <v>80</v>
       </c>
       <c r="H33" t="s">
@@ -6994,7 +6968,7 @@
         <v>21</v>
       </c>
       <c r="L33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M33">
         <v>189</v>
@@ -7014,12 +6988,12 @@
         <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="G34" s="20" t="s">
         <v>105</v>
       </c>
       <c r="H34" t="s">
@@ -7049,12 +7023,12 @@
         <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="G35" s="20" t="s">
         <v>111</v>
       </c>
       <c r="H35" t="s">
@@ -7079,17 +7053,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="43.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="54.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="28.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="36.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="35.5714285714286" customWidth="1"/>
     <col min="7" max="7" width="20.4285714285714" customWidth="1"/>
     <col min="8" max="8" width="22.1428571428571" customWidth="1"/>
     <col min="12" max="12" width="27.8571428571429" customWidth="1"/>
@@ -7153,7 +7127,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>409</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -7178,1757 +7152,50 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="20">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="E3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" t="s">
         <v>274</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="20" t="s">
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>411</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="20">
-        <v>189</v>
-      </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20" t="s">
+      <c r="M3">
+        <v>189</v>
+      </c>
+      <c r="O3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="23">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="23">
-        <v>189</v>
-      </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="23">
-        <v>4</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="23">
-        <v>189</v>
-      </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="23">
-        <v>5</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="23">
-        <v>189</v>
-      </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="23">
-        <v>6</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="23">
-        <v>189</v>
-      </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="23">
-        <v>7</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="23">
-        <v>189</v>
-      </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="23">
-        <v>8</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="23">
-        <v>189</v>
-      </c>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="20">
-        <v>189</v>
-      </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="23">
-        <v>10</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="23">
-        <v>189</v>
-      </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="23">
-        <v>11</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="23">
-        <v>189</v>
-      </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="23">
-        <v>12</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="23">
-        <v>189</v>
-      </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="23">
-        <v>13</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" s="23">
-        <v>189</v>
-      </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="23">
-        <v>14</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23">
-        <v>189</v>
-      </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="23">
-        <v>15</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="M16" s="23">
-        <v>189</v>
-      </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="20">
-        <v>2</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="M17" s="20">
-        <v>189</v>
-      </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="23">
-        <v>17</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="M18" s="23">
-        <v>84</v>
-      </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" t="s">
-        <v>299</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" s="19">
-        <v>84</v>
-      </c>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" s="6" customFormat="1" spans="1:15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" t="s">
-        <v>300</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="M20">
-        <v>84</v>
-      </c>
-      <c r="N20" s="20"/>
-      <c r="O20"/>
-    </row>
-    <row r="21" s="6" customFormat="1" spans="1:15">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21"/>
-      <c r="K21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21">
-        <v>84</v>
-      </c>
-      <c r="N21" s="20"/>
-      <c r="O21"/>
-    </row>
-    <row r="22" s="6" customFormat="1" spans="1:15">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" t="s">
-        <v>302</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" t="s">
-        <v>142</v>
-      </c>
-      <c r="I22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M22">
-        <v>84</v>
-      </c>
-      <c r="N22" s="20"/>
-      <c r="O22"/>
-    </row>
-    <row r="23" s="6" customFormat="1" spans="1:15">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E23" t="s">
-        <v>304</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" t="s">
-        <v>154</v>
-      </c>
-      <c r="I23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="M23">
-        <v>84</v>
-      </c>
-      <c r="N23" s="20"/>
-      <c r="O23"/>
-    </row>
-    <row r="24" s="6" customFormat="1" spans="1:15">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" t="s">
-        <v>305</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" t="s">
-        <v>306</v>
-      </c>
-      <c r="I24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="M24">
-        <v>84</v>
-      </c>
-      <c r="N24" s="20"/>
-      <c r="O24"/>
-    </row>
-    <row r="25" s="6" customFormat="1" spans="1:15">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" t="s">
-        <v>307</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>154</v>
-      </c>
-      <c r="H25" t="s">
-        <v>308</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="M25">
-        <v>84</v>
-      </c>
-      <c r="N25" s="20"/>
-      <c r="O25"/>
-    </row>
-    <row r="26" s="6" customFormat="1" spans="1:15">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26" t="s">
-        <v>309</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" t="s">
-        <v>166</v>
-      </c>
-      <c r="I26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26"/>
-      <c r="K26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="M26">
-        <v>84</v>
-      </c>
-      <c r="N26" s="20"/>
-      <c r="O26"/>
-    </row>
-    <row r="27" s="6" customFormat="1" spans="1:15">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" t="s">
-        <v>310</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>172</v>
-      </c>
-      <c r="H27" t="s">
-        <v>172</v>
-      </c>
-      <c r="I27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27"/>
-      <c r="K27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="M27">
-        <v>84</v>
-      </c>
-      <c r="N27" s="20"/>
-      <c r="O27"/>
-    </row>
-    <row r="28" s="6" customFormat="1" spans="1:15">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" t="s">
-        <v>311</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>166</v>
-      </c>
-      <c r="H28" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28"/>
-      <c r="K28" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="M28">
-        <v>84</v>
-      </c>
-      <c r="N28" s="20"/>
-      <c r="O28"/>
-    </row>
-    <row r="29" s="6" customFormat="1" spans="1:15">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>179</v>
-      </c>
-      <c r="C29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" t="s">
-        <v>312</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>172</v>
-      </c>
-      <c r="H29" t="s">
-        <v>172</v>
-      </c>
-      <c r="I29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29"/>
-      <c r="K29" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="M29">
-        <v>84</v>
-      </c>
-      <c r="N29" s="20"/>
-      <c r="O29"/>
-    </row>
-    <row r="30" s="6" customFormat="1" spans="1:15">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>188</v>
-      </c>
-      <c r="H30" t="s">
-        <v>188</v>
-      </c>
-      <c r="I30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30"/>
-      <c r="K30" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="M30">
-        <v>84</v>
-      </c>
-      <c r="N30" s="20"/>
-      <c r="O30"/>
-    </row>
-    <row r="31" s="6" customFormat="1" spans="1:15">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" t="s">
-        <v>191</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E31" t="s">
-        <v>314</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>194</v>
-      </c>
-      <c r="H31" t="s">
-        <v>194</v>
-      </c>
-      <c r="I31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31"/>
-      <c r="K31" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="M31">
-        <v>84</v>
-      </c>
-      <c r="N31" s="20"/>
-      <c r="O31"/>
-    </row>
-    <row r="32" s="6" customFormat="1" spans="1:15">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>196</v>
-      </c>
-      <c r="C32" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" t="s">
-        <v>315</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>200</v>
-      </c>
-      <c r="H32" t="s">
-        <v>200</v>
-      </c>
-      <c r="I32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32"/>
-      <c r="K32" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="M32">
-        <v>84</v>
-      </c>
-      <c r="N32" s="20"/>
-      <c r="O32"/>
-    </row>
-    <row r="33" s="6" customFormat="1" spans="1:15">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" t="s">
-        <v>316</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>205</v>
-      </c>
-      <c r="H33" t="s">
-        <v>205</v>
-      </c>
-      <c r="I33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33"/>
-      <c r="K33" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="M33">
-        <v>84</v>
-      </c>
-      <c r="N33" s="20"/>
-      <c r="O33"/>
-    </row>
-    <row r="34" s="6" customFormat="1" spans="1:15">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" t="s">
-        <v>208</v>
-      </c>
-      <c r="E34" t="s">
-        <v>317</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>210</v>
-      </c>
-      <c r="H34" t="s">
-        <v>210</v>
-      </c>
-      <c r="I34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34"/>
-      <c r="K34" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="M34">
-        <v>84</v>
-      </c>
-      <c r="N34" s="20"/>
-      <c r="O34"/>
-    </row>
-    <row r="35" s="6" customFormat="1" spans="1:15">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" t="s">
-        <v>213</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E35" t="s">
-        <v>318</v>
-      </c>
-      <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>210</v>
-      </c>
-      <c r="H35" t="s">
-        <v>210</v>
-      </c>
-      <c r="I35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35"/>
-      <c r="K35" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="M35">
-        <v>84</v>
-      </c>
-      <c r="N35" s="20"/>
-      <c r="O35"/>
-    </row>
-    <row r="36" s="6" customFormat="1" spans="1:15">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" t="s">
-        <v>218</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E36" t="s">
-        <v>319</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>221</v>
-      </c>
-      <c r="H36" t="s">
-        <v>221</v>
-      </c>
-      <c r="I36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="M36">
-        <v>84</v>
-      </c>
-      <c r="N36" s="20"/>
-      <c r="O36"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="20">
-        <v>36</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="M37" s="20">
-        <v>189</v>
-      </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="23"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="20">
-        <v>37</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="M38" s="20">
-        <v>189</v>
-      </c>
-      <c r="N38" s="20"/>
-      <c r="O38" s="23"/>
-    </row>
-    <row r="39" s="6" customFormat="1" spans="1:15">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C39" t="s">
-        <v>235</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E39" t="s">
-        <v>325</v>
-      </c>
-      <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>238</v>
-      </c>
-      <c r="H39" t="s">
-        <v>238</v>
-      </c>
-      <c r="I39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39"/>
-      <c r="K39" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="M39">
-        <v>84</v>
-      </c>
-      <c r="N39" s="20"/>
-      <c r="O39"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>240</v>
-      </c>
-      <c r="C40" t="s">
-        <v>241</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E40" t="s">
-        <v>326</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="H40" t="s">
-        <v>244</v>
-      </c>
-      <c r="I40" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" t="s">
-        <v>239</v>
-      </c>
-      <c r="M40">
-        <v>189</v>
-      </c>
-      <c r="N40" s="23"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1" spans="1:14">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>245</v>
-      </c>
-      <c r="C41" t="s">
-        <v>246</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E41" t="s">
-        <v>327</v>
-      </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H41" t="s">
-        <v>249</v>
-      </c>
-      <c r="I41" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" t="s">
-        <v>251</v>
-      </c>
-      <c r="M41">
-        <v>189</v>
-      </c>
-      <c r="N41" s="23"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1" spans="1:14">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>252</v>
-      </c>
-      <c r="C42" t="s">
-        <v>253</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E42" t="s">
-        <v>328</v>
-      </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H42" t="s">
-        <v>256</v>
-      </c>
-      <c r="I42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42" t="s">
-        <v>251</v>
-      </c>
-      <c r="M42">
-        <v>189</v>
-      </c>
-      <c r="N42" s="23"/>
-    </row>
-    <row r="43" s="6" customFormat="1" spans="1:15">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>257</v>
-      </c>
-      <c r="C43" t="s">
-        <v>258</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E43" t="s">
-        <v>329</v>
-      </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>261</v>
-      </c>
-      <c r="H43" t="s">
-        <v>261</v>
-      </c>
-      <c r="I43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43"/>
-      <c r="K43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" t="s">
-        <v>262</v>
-      </c>
-      <c r="M43">
-        <v>84</v>
-      </c>
-      <c r="N43" s="20"/>
-      <c r="O43"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>263</v>
-      </c>
-      <c r="C44" t="s">
-        <v>264</v>
-      </c>
-      <c r="D44" t="s">
-        <v>265</v>
-      </c>
-      <c r="E44" t="s">
-        <v>330</v>
-      </c>
-      <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>267</v>
-      </c>
-      <c r="H44" t="s">
-        <v>267</v>
-      </c>
-      <c r="I44" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44" t="s">
-        <v>268</v>
-      </c>
-      <c r="M44">
-        <v>189</v>
-      </c>
-      <c r="N44" s="23"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="D45" t="s">
-        <v>269</v>
-      </c>
-      <c r="E45" t="s">
-        <v>330</v>
-      </c>
-      <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>270</v>
-      </c>
-      <c r="H45" t="s">
-        <v>270</v>
-      </c>
-      <c r="I45" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45">
-        <v>189</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L14:L15"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -9046,16 +7313,16 @@
         <v>24</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>283</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>19</v>
@@ -9321,7 +7588,7 @@
         <v>69</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>18</v>
@@ -9330,13 +7597,13 @@
         <v>71</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>73</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>21</v>
@@ -9362,7 +7629,7 @@
         <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -9400,7 +7667,7 @@
         <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -9438,7 +7705,7 @@
         <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -9476,7 +7743,7 @@
         <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -9508,7 +7775,7 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -9543,7 +7810,7 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -9581,7 +7848,7 @@
         <v>109</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>283</v>
@@ -9596,7 +7863,7 @@
         <v>73</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>21</v>
@@ -9622,7 +7889,7 @@
         <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -9660,7 +7927,7 @@
         <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -9700,7 +7967,7 @@
         <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -9738,7 +8005,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -10156,7 +8423,7 @@
         <v>198</v>
       </c>
       <c r="E32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -10194,7 +8461,7 @@
         <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -10232,7 +8499,7 @@
         <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -10270,7 +8537,7 @@
         <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -10308,7 +8575,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F36" t="s">
         <v>18</v>
@@ -10346,7 +8613,7 @@
         <v>224</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>283</v>
@@ -10361,7 +8628,7 @@
         <v>73</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>21</v>
@@ -10387,7 +8654,7 @@
         <v>230</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>18</v>
@@ -10396,13 +8663,13 @@
         <v>232</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>73</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>21</v>
@@ -10428,7 +8695,7 @@
         <v>236</v>
       </c>
       <c r="E39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
@@ -10466,7 +8733,7 @@
         <v>242</v>
       </c>
       <c r="E40" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
@@ -10504,7 +8771,7 @@
         <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
@@ -10542,7 +8809,7 @@
         <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
@@ -10580,7 +8847,7 @@
         <v>259</v>
       </c>
       <c r="E43" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
@@ -10618,7 +8885,7 @@
         <v>265</v>
       </c>
       <c r="E44" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
@@ -10650,7 +8917,7 @@
         <v>269</v>
       </c>
       <c r="E45" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
@@ -10737,7 +9004,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
@@ -10748,13 +9015,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G2" t="s">
         <v>154</v>
@@ -10763,7 +9030,7 @@
         <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M2">
         <v>84</v>

--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="84" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="417">
   <si>
     <t>id</t>
   </si>
@@ -926,27 +926,6 @@
     <t>80d9c302-8b0f-460f-a14b-7ded0702ce6c</t>
   </si>
   <si>
-    <r>
-      <t>gbj_use_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>土葬数据清洗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>_transform_step</t>
-    </r>
-  </si>
-  <si>
     <t>4f0e1fd1-aa33-4d79-a24f-307fb02ba871</t>
   </si>
   <si>
@@ -1270,23 +1249,17 @@
     <t>00d4ba15-5beb-400f-8b61-2e96aea66201</t>
   </si>
   <si>
-    <t>7679dea5-04e1-49d4-803f-7313b2067bb8</t>
-  </si>
-  <si>
-    <t>96cfe8e3-b731-41e3-897d-b671acd856da</t>
+    <t>98f37042-985e-46ab-8643-d5bb271fbd11</t>
+  </si>
+  <si>
+    <t>78898c4f-bbb0-4e13-a3dd-c289f1bd9f87</t>
+  </si>
+  <si>
+    <t>[{"sex":"男","SName":"李勇","class":"CS","age":"20","SId":"95001"},{"sex":"女","SName":"刘晨","class":"IS","age":"19","SId":"95002"},{"sex":"女","SName":"王敏","class":"MA","age":"22","SId":"95003"},{"sex":"男","SName":"张立","class":"IS","age":"19","SId":"95004"},{"sex":"男","SName":"刘刚","class":"MA","age":"18","SId":"95005"},{"sex":"男","SName":"孙庆","class":"CS","age":"23","SId":"95006"}]</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: tc_auto_df_source_001_mysql1545633383105 ---&gt;执行状态为 FAILED
 </t>
-  </si>
-  <si>
-    <t>98f37042-985e-46ab-8643-d5bb271fbd11</t>
-  </si>
-  <si>
-    <t>78898c4f-bbb0-4e13-a3dd-c289f1bd9f87</t>
-  </si>
-  <si>
-    <t>[{"sex":"男","SName":"李勇","class":"CS","age":"20","SId":"95001"},{"sex":"女","SName":"刘晨","class":"IS","age":"19","SId":"95002"},{"sex":"女","SName":"王敏","class":"MA","age":"22","SId":"95003"},{"sex":"男","SName":"张立","class":"IS","age":"19","SId":"95004"},{"sex":"男","SName":"刘刚","class":"MA","age":"18","SId":"95005"},{"sex":"男","SName":"孙庆","class":"CS","age":"23","SId":"95006"}]</t>
   </si>
   <si>
     <t>01148688-886a-48f7-9f00-e7b7a4124b32</t>
@@ -1375,44 +1348,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1427,15 +1362,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1451,60 +1453,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1519,7 +1468,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1558,7 +1531,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,19 +1591,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,7 +1627,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1606,25 +1675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1636,67 +1687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,31 +1705,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1755,62 +1728,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1833,8 +1752,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1849,155 +1807,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="5">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="2">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="6">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2029,7 +2002,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3123,10 +3095,10 @@
       <c r="I20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="25" t="s">
+      <c r="K20" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="24" t="s">
         <v>131</v>
       </c>
       <c r="M20" s="6">
@@ -3161,10 +3133,10 @@
       <c r="I21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="25" t="s">
+      <c r="K21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="24" t="s">
         <v>137</v>
       </c>
       <c r="M21" s="6">
@@ -3199,10 +3171,10 @@
       <c r="I22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="25" t="s">
+      <c r="K22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="24" t="s">
         <v>143</v>
       </c>
       <c r="M22" s="6">
@@ -3237,10 +3209,10 @@
       <c r="I23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="25" t="s">
+      <c r="K23" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="24" t="s">
         <v>149</v>
       </c>
       <c r="M23" s="6">
@@ -3275,10 +3247,10 @@
       <c r="I24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="25" t="s">
+      <c r="K24" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="24" t="s">
         <v>156</v>
       </c>
       <c r="M24" s="6">
@@ -3313,10 +3285,10 @@
       <c r="I25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="25" t="s">
+      <c r="K25" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="24" t="s">
         <v>156</v>
       </c>
       <c r="M25" s="6">
@@ -3351,10 +3323,10 @@
       <c r="I26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="25" t="s">
+      <c r="K26" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="24" t="s">
         <v>167</v>
       </c>
       <c r="M26" s="6">
@@ -3389,10 +3361,10 @@
       <c r="I27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="25" t="s">
+      <c r="K27" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="24" t="s">
         <v>173</v>
       </c>
       <c r="M27" s="6">
@@ -3427,10 +3399,10 @@
       <c r="I28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="25" t="s">
+      <c r="K28" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="24" t="s">
         <v>178</v>
       </c>
       <c r="M28" s="6">
@@ -3465,10 +3437,10 @@
       <c r="I29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="25" t="s">
+      <c r="K29" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="24" t="s">
         <v>183</v>
       </c>
       <c r="M29" s="6">
@@ -3503,10 +3475,10 @@
       <c r="I30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="25" t="s">
+      <c r="K30" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="24" t="s">
         <v>189</v>
       </c>
       <c r="M30" s="6">
@@ -3541,10 +3513,10 @@
       <c r="I31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="25" t="s">
+      <c r="K31" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="24" t="s">
         <v>195</v>
       </c>
       <c r="M31" s="6">
@@ -3579,10 +3551,10 @@
       <c r="I32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="25" t="s">
+      <c r="K32" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="24" t="s">
         <v>195</v>
       </c>
       <c r="M32" s="6">
@@ -3617,10 +3589,10 @@
       <c r="I33" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="25" t="s">
+      <c r="K33" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="24" t="s">
         <v>195</v>
       </c>
       <c r="M33" s="6">
@@ -3655,10 +3627,10 @@
       <c r="I34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="25" t="s">
+      <c r="K34" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="24" t="s">
         <v>211</v>
       </c>
       <c r="M34" s="6">
@@ -3693,10 +3665,10 @@
       <c r="I35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="25" t="s">
+      <c r="K35" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="24" t="s">
         <v>216</v>
       </c>
       <c r="M35" s="6">
@@ -3731,10 +3703,10 @@
       <c r="I36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="25" t="s">
+      <c r="K36" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="24" t="s">
         <v>216</v>
       </c>
       <c r="M36" s="6">
@@ -3845,10 +3817,10 @@
       <c r="I39" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="25" t="s">
+      <c r="K39" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="24" t="s">
         <v>239</v>
       </c>
       <c r="M39" s="6">
@@ -4088,10 +4060,10 @@
   <sheetPr/>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="A1:O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -4920,14 +4892,14 @@
       <c r="B22" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>301</v>
+      <c r="C22" t="s">
+        <v>139</v>
       </c>
       <c r="D22" t="s">
         <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -4962,10 +4934,10 @@
         <v>145</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" t="s">
         <v>303</v>
-      </c>
-      <c r="E23" t="s">
-        <v>304</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -5003,7 +4975,7 @@
         <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -5012,7 +4984,7 @@
         <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
@@ -5041,7 +5013,7 @@
         <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -5050,7 +5022,7 @@
         <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
@@ -5079,7 +5051,7 @@
         <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
@@ -5117,7 +5089,7 @@
         <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -5155,7 +5127,7 @@
         <v>176</v>
       </c>
       <c r="E28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -5193,7 +5165,7 @@
         <v>181</v>
       </c>
       <c r="E29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -5231,7 +5203,7 @@
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -5269,7 +5241,7 @@
         <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -5301,13 +5273,13 @@
         <v>196</v>
       </c>
       <c r="C32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>198</v>
       </c>
       <c r="E32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -5345,7 +5317,7 @@
         <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -5383,7 +5355,7 @@
         <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -5421,7 +5393,7 @@
         <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -5459,7 +5431,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F36" t="s">
         <v>18</v>
@@ -5497,7 +5469,7 @@
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F37" t="s">
         <v>283</v>
@@ -5512,7 +5484,7 @@
         <v>73</v>
       </c>
       <c r="J37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K37" t="s">
         <v>21</v>
@@ -5538,7 +5510,7 @@
         <v>230</v>
       </c>
       <c r="E38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
@@ -5547,13 +5519,13 @@
         <v>232</v>
       </c>
       <c r="H38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I38" t="s">
         <v>73</v>
       </c>
       <c r="J38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K38" t="s">
         <v>21</v>
@@ -5579,7 +5551,7 @@
         <v>236</v>
       </c>
       <c r="E39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
@@ -5617,7 +5589,7 @@
         <v>242</v>
       </c>
       <c r="E40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
@@ -5655,7 +5627,7 @@
         <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
@@ -5693,7 +5665,7 @@
         <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
@@ -5731,7 +5703,7 @@
         <v>259</v>
       </c>
       <c r="E43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
@@ -5769,7 +5741,7 @@
         <v>265</v>
       </c>
       <c r="E44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
@@ -5801,7 +5773,7 @@
         <v>269</v>
       </c>
       <c r="E45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
@@ -5836,7 +5808,7 @@
   <sheetPr/>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -5884,7 +5856,7 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:13">
@@ -5901,7 +5873,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -5916,7 +5888,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M2">
         <v>189</v>
@@ -5927,31 +5899,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
         <v>335</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>336</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>337</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>339</v>
-      </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M3">
         <v>189</v>
@@ -5962,19 +5934,19 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>339</v>
-      </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -5988,19 +5960,19 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>339</v>
-      </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -6023,7 +5995,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -6038,7 +6010,7 @@
         <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M6">
         <v>189</v>
@@ -6058,7 +6030,7 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -6073,7 +6045,7 @@
         <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M7">
         <v>189</v>
@@ -6093,7 +6065,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -6128,7 +6100,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -6137,7 +6109,7 @@
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K9" t="s">
         <v>59</v>
@@ -6163,7 +6135,7 @@
         <v>224</v>
       </c>
       <c r="E10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -6198,7 +6170,7 @@
         <v>230</v>
       </c>
       <c r="E11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -6213,7 +6185,7 @@
         <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M11">
         <v>189</v>
@@ -6224,31 +6196,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" t="s">
         <v>350</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>351</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>352</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" t="s">
         <v>354</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
         <v>355</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>356</v>
       </c>
       <c r="M12">
         <v>189</v>
@@ -6259,31 +6231,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" t="s">
         <v>357</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>358</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>359</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="20" t="s">
+      <c r="H13" t="s">
+        <v>360</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
         <v>361</v>
-      </c>
-      <c r="H13" t="s">
-        <v>361</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" t="s">
-        <v>362</v>
       </c>
       <c r="M13">
         <v>189</v>
@@ -6294,31 +6266,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" t="s">
         <v>363</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>364</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>365</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>367</v>
-      </c>
       <c r="H14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M14">
         <v>189</v>
@@ -6329,16 +6301,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="D15" t="s">
         <v>369</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>370</v>
-      </c>
-      <c r="E15" t="s">
-        <v>371</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -6373,7 +6345,7 @@
         <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -6408,7 +6380,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -6423,7 +6395,7 @@
         <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M17">
         <v>189</v>
@@ -6434,25 +6406,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" t="s">
         <v>374</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>375</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>376</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>378</v>
-      </c>
       <c r="H18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K18" t="s">
         <v>21</v>
@@ -6478,7 +6450,7 @@
         <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -6504,16 +6476,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" t="s">
         <v>380</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>381</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>382</v>
-      </c>
-      <c r="E20" t="s">
-        <v>383</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -6548,7 +6520,7 @@
         <v>265</v>
       </c>
       <c r="E21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -6563,7 +6535,7 @@
         <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M21">
         <v>189</v>
@@ -6577,7 +6549,7 @@
         <v>269</v>
       </c>
       <c r="E22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -6609,7 +6581,7 @@
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -6624,7 +6596,7 @@
         <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M23">
         <v>189</v>
@@ -6644,7 +6616,7 @@
         <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -6673,7 +6645,7 @@
         <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -6696,31 +6668,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>387</v>
+      </c>
+      <c r="C26" t="s">
         <v>388</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" t="s">
         <v>390</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>392</v>
-      </c>
       <c r="H26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K26" t="s">
         <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M26">
         <v>189</v>
@@ -6740,7 +6712,7 @@
         <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -6749,13 +6721,13 @@
         <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
       </c>
       <c r="L27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M27">
         <v>189</v>
@@ -6775,7 +6747,7 @@
         <v>247</v>
       </c>
       <c r="E28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -6801,25 +6773,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>395</v>
+      </c>
+      <c r="C29" t="s">
         <v>396</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" t="s">
         <v>398</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>400</v>
-      </c>
       <c r="H29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K29" t="s">
         <v>21</v>
@@ -6845,7 +6817,7 @@
         <v>242</v>
       </c>
       <c r="E30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -6880,7 +6852,7 @@
         <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -6889,19 +6861,19 @@
         <v>71</v>
       </c>
       <c r="H31" t="s">
+        <v>402</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>333</v>
+      </c>
+      <c r="M31">
+        <v>189</v>
+      </c>
+      <c r="N31" s="22" t="s">
         <v>403</v>
-      </c>
-      <c r="K31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" t="s">
-        <v>334</v>
-      </c>
-      <c r="M31">
-        <v>189</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1" spans="1:13">
@@ -6918,7 +6890,7 @@
         <v>254</v>
       </c>
       <c r="E32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -6953,7 +6925,7 @@
         <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -6968,7 +6940,7 @@
         <v>21</v>
       </c>
       <c r="L33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M33">
         <v>189</v>
@@ -6988,7 +6960,7 @@
         <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -7023,7 +6995,7 @@
         <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -7053,13 +7025,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="A1:O45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="36.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
@@ -7127,7 +7099,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>409</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -7153,7 +7125,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -7165,10 +7137,10 @@
         <v>272</v>
       </c>
       <c r="E3" t="s">
-        <v>410</v>
+        <v>273</v>
       </c>
       <c r="F3" t="s">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>274</v>
@@ -7177,11 +7149,9 @@
         <v>274</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s">
-        <v>411</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J3"/>
       <c r="K3" t="s">
         <v>21</v>
       </c>
@@ -7195,7 +7165,1605 @@
         <v>275</v>
       </c>
     </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s">
+        <v>287</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10">
+        <v>189</v>
+      </c>
+      <c r="O10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>291</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="H17" t="s">
+        <v>296</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="19">
+        <v>84</v>
+      </c>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" t="s">
+        <v>299</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" t="s">
+        <v>300</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M21">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M22">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" t="s">
+        <v>304</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" t="s">
+        <v>305</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M24">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" t="s">
+        <v>306</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" t="s">
+        <v>307</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" t="s">
+        <v>308</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M26">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" t="s">
+        <v>309</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="M27">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" t="s">
+        <v>310</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M28">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" t="s">
+        <v>172</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M29">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" t="s">
+        <v>312</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>188</v>
+      </c>
+      <c r="H30" t="s">
+        <v>188</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M30">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" t="s">
+        <v>313</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>194</v>
+      </c>
+      <c r="H31" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M31">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" t="s">
+        <v>314</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" t="s">
+        <v>315</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>200</v>
+      </c>
+      <c r="H32" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M32">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" t="s">
+        <v>317</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M34">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35" t="s">
+        <v>318</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>210</v>
+      </c>
+      <c r="H35" t="s">
+        <v>210</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="M35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" t="s">
+        <v>319</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>221</v>
+      </c>
+      <c r="H36" t="s">
+        <v>221</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="M36">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" t="s">
+        <v>320</v>
+      </c>
+      <c r="F37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H37" t="s">
+        <v>226</v>
+      </c>
+      <c r="I37" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" t="s">
+        <v>227</v>
+      </c>
+      <c r="M37">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" t="s">
+        <v>322</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H38" t="s">
+        <v>323</v>
+      </c>
+      <c r="I38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" t="s">
+        <v>324</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" t="s">
+        <v>233</v>
+      </c>
+      <c r="M38">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E39" t="s">
+        <v>325</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39" t="s">
+        <v>238</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="M39">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" t="s">
+        <v>326</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H40" t="s">
+        <v>244</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" t="s">
+        <v>239</v>
+      </c>
+      <c r="M40">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41" t="s">
+        <v>327</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="H41" t="s">
+        <v>249</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" t="s">
+        <v>251</v>
+      </c>
+      <c r="M41">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42" t="s">
+        <v>328</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H42" t="s">
+        <v>256</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" t="s">
+        <v>251</v>
+      </c>
+      <c r="M42">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>257</v>
+      </c>
+      <c r="C43" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E43" t="s">
+        <v>329</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>261</v>
+      </c>
+      <c r="H43" t="s">
+        <v>261</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" t="s">
+        <v>262</v>
+      </c>
+      <c r="M43">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>263</v>
+      </c>
+      <c r="C44" t="s">
+        <v>264</v>
+      </c>
+      <c r="D44" t="s">
+        <v>265</v>
+      </c>
+      <c r="E44" t="s">
+        <v>330</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>267</v>
+      </c>
+      <c r="H44" t="s">
+        <v>267</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" t="s">
+        <v>268</v>
+      </c>
+      <c r="M44">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>269</v>
+      </c>
+      <c r="E45" t="s">
+        <v>330</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>270</v>
+      </c>
+      <c r="H45" t="s">
+        <v>270</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L14:L15"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -7206,8 +8774,8 @@
   <sheetPr/>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:N45"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -7313,16 +8881,16 @@
         <v>24</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>283</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>19</v>
@@ -7848,7 +9416,7 @@
         <v>109</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>283</v>
@@ -7863,7 +9431,7 @@
         <v>73</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>21</v>
@@ -8043,7 +9611,7 @@
         <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -8078,10 +9646,10 @@
         <v>145</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" t="s">
         <v>303</v>
-      </c>
-      <c r="E23" t="s">
-        <v>304</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -8119,7 +9687,7 @@
         <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -8128,7 +9696,7 @@
         <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
@@ -8157,7 +9725,7 @@
         <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -8166,7 +9734,7 @@
         <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
@@ -8195,7 +9763,7 @@
         <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
@@ -8233,7 +9801,7 @@
         <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -8271,7 +9839,7 @@
         <v>176</v>
       </c>
       <c r="E28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -8309,7 +9877,7 @@
         <v>181</v>
       </c>
       <c r="E29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -8347,7 +9915,7 @@
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -8385,7 +9953,7 @@
         <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -8423,7 +9991,7 @@
         <v>198</v>
       </c>
       <c r="E32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -8461,7 +10029,7 @@
         <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -8499,7 +10067,7 @@
         <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -8537,7 +10105,7 @@
         <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -8575,7 +10143,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F36" t="s">
         <v>18</v>
@@ -8613,7 +10181,7 @@
         <v>224</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>283</v>
@@ -8628,7 +10196,7 @@
         <v>73</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>21</v>
@@ -8654,7 +10222,7 @@
         <v>230</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>18</v>
@@ -8663,13 +10231,13 @@
         <v>232</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>73</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>21</v>
@@ -8695,7 +10263,7 @@
         <v>236</v>
       </c>
       <c r="E39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
@@ -8733,7 +10301,7 @@
         <v>242</v>
       </c>
       <c r="E40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
@@ -8771,7 +10339,7 @@
         <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
@@ -8809,7 +10377,7 @@
         <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
@@ -8847,7 +10415,7 @@
         <v>259</v>
       </c>
       <c r="E43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
@@ -8885,7 +10453,7 @@
         <v>265</v>
       </c>
       <c r="E44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
@@ -8917,7 +10485,7 @@
         <v>269</v>
       </c>
       <c r="E45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
@@ -9004,7 +10572,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
@@ -9015,13 +10583,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G2" t="s">
         <v>154</v>
@@ -9030,7 +10598,7 @@
         <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M2">
         <v>84</v>

--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -13,13 +13,14 @@
     <sheet name="flow_info" sheetId="4" r:id="rId4"/>
     <sheet name="flow_info-83" sheetId="5" r:id="rId5"/>
     <sheet name="84-append" sheetId="6" r:id="rId6"/>
+    <sheet name="flow_info-parameters" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="465">
   <si>
     <t>id</t>
   </si>
@@ -1249,24 +1250,183 @@
     <t>00d4ba15-5beb-400f-8b61-2e96aea66201</t>
   </si>
   <si>
-    <t>98f37042-985e-46ab-8643-d5bb271fbd11</t>
-  </si>
-  <si>
-    <t>78898c4f-bbb0-4e13-a3dd-c289f1bd9f87</t>
-  </si>
-  <si>
-    <t>[{"sex":"男","SName":"李勇","class":"CS","age":"20","SId":"95001"},{"sex":"女","SName":"刘晨","class":"IS","age":"19","SId":"95002"},{"sex":"女","SName":"王敏","class":"MA","age":"22","SId":"95003"},{"sex":"男","SName":"张立","class":"IS","age":"19","SId":"95004"},{"sex":"男","SName":"刘刚","class":"MA","age":"18","SId":"95005"},{"sex":"男","SName":"孙庆","class":"CS","age":"23","SId":"95006"}]</t>
+    <t>aaa6f63a-0d7f-40af-b563-51c2a3136608</t>
+  </si>
+  <si>
+    <t>78c1b906-7718-481b-abe5-ab12e06862a1</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: tc_auto_df_source_001_mysql1545633383105 ---&gt;执行状态为 FAILED
 </t>
   </si>
   <si>
-    <t>01148688-886a-48f7-9f00-e7b7a4124b32</t>
+    <t>cd7847cb-a604-4d76-9146-b09d6b564734</t>
+  </si>
+  <si>
+    <t>{"err":"Not Found","detailMsg":"HTTP 404 Not Found"}</t>
+  </si>
+  <si>
+    <t>请确认预期结果和实际结果</t>
+  </si>
+  <si>
+    <t>5c63ea0e-74a5-4308-8f8c-e33367e5f3ab</t>
+  </si>
+  <si>
+    <t>76613ce6-21c4-4fc6-88cc-9492f14fd225</t>
+  </si>
+  <si>
+    <t>41941786-c692-46a7-8351-74b15e149d5c</t>
+  </si>
+  <si>
+    <t>3620805a-a1d4-4180-8f09-6928971d8acb</t>
+  </si>
+  <si>
+    <t>execution: 3620805a-a1d4-4180-8f09-6928971d8acb 预期结果实际结果不一致 
+预期结果: [{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]
+实际结果: {"err":"Not Found","detailMsg":"HTTP 404 Not Found"}</t>
+  </si>
+  <si>
+    <t>1a7252fb-514b-48eb-b262-744bc22b3b0a</t>
+  </si>
+  <si>
+    <t>d1d7f4fb-5dca-4ae8-97f6-63d2e54dd82f</t>
+  </si>
+  <si>
+    <t>391a8507-63ae-465e-9ce8-304faa8693ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_minus1545633384706 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>921220f7-abf2-4dc4-ab95-e248d6d59631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_desicion_yes1545633385200 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>c30ce8b1-7630-4f96-b59c-0aa0b320fb6c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_split_0021545633379905 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: None ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>700edc98-06ff-49be-81af-adc2d2a1a620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_intersect_0011545633383879 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>c6281e20-b282-4eda-9bcb-9209b06f8ce6</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: step_test_sql ---&gt;执行状态为 FAILED
 </t>
+  </si>
+  <si>
+    <t>42dad4a9-91a6-484a-a0be-c603991c737b</t>
+  </si>
+  <si>
+    <t>1570bc41-b731-4e65-bffc-5f8a3ff8a4ee</t>
+  </si>
+  <si>
+    <t>78323342-5ed1-4009-a05b-7fc51ee2ed0d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_sqlsource_step_84 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>cd1ec8be-037f-4b2b-b3ee-f3503f8fc7f3</t>
+  </si>
+  <si>
+    <t>6f89628b-b6a5-428a-a3fa-670e0d6d0471</t>
+  </si>
+  <si>
+    <t>99af8208-a6c0-44d2-9645-3dc726842fc4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execution: 99af8208-a6c0-44d2-9645-3dc726842fc4 预期结果实际结果不一致 </t>
+  </si>
+  <si>
+    <t>fc97ab71-f674-4236-ad01-2cde3ddd43cf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execution: fc97ab71-f674-4236-ad01-2cde3ddd43cf 预期结果实际结果不一致 </t>
+  </si>
+  <si>
+    <t>5e214bf9-abe4-4913-b68d-c320445116cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_join_test_outer_join ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>ba100a8c-ea3d-4f5c-87db-467ffe62085e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_join_test_inner_join ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>19e8b5c8-8b2f-48ce-8605-56ac26877b49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_join_test_left_join ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>1d626b92-ae51-4439-9760-d54d8f53de11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_join_test_right_join ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>fed49699-2f55-436d-9639-936183a5a39b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_join_test_left_semi ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>fa2f669e-97e1-457b-81b6-504bffd3ad71</t>
+  </si>
+  <si>
+    <t>54caa92f-9c94-4688-b029-9083640a5ec9</t>
+  </si>
+  <si>
+    <t>8d1a687a-5c15-4ac5-a95d-504dabe380d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_top_RATE没有groupby字段ignore1545633379788 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>36122b12-458d-4068-a245-c2b88f2bb188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_validate_action_save1545633385422 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>98f37042-985e-46ab-8643-d5bb271fbd11</t>
+  </si>
+  <si>
+    <t>78898c4f-bbb0-4e13-a3dd-c289f1bd9f87</t>
+  </si>
+  <si>
+    <t>[{"sex":"男","SName":"李勇","class":"CS","age":"20","SId":"95001"},{"sex":"女","SName":"刘晨","class":"IS","age":"19","SId":"95002"},{"sex":"女","SName":"王敏","class":"MA","age":"22","SId":"95003"},{"sex":"男","SName":"张立","class":"IS","age":"19","SId":"95004"},{"sex":"男","SName":"刘刚","class":"MA","age":"18","SId":"95005"},{"sex":"男","SName":"孙庆","class":"CS","age":"23","SId":"95006"}]</t>
+  </si>
+  <si>
+    <t>01148688-886a-48f7-9f00-e7b7a4124b32</t>
   </si>
   <si>
     <t>beb8bcf8-ab90-48e8-82ba-eabade1f22a5</t>
@@ -1283,10 +1443,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1310,7 +1470,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
-      <name val="Consolas"/>
+      <name val="Arial"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1320,15 +1480,15 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1347,15 +1507,9 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1368,115 +1522,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1492,13 +1539,126 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1531,7 +1691,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,7 +1775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,7 +1787,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1567,7 +1805,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,67 +1865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,67 +1877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1727,9 +1893,74 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1753,124 +1984,53 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="8">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
@@ -1879,98 +2039,104 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="4">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="8">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1979,31 +2145,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2406,7 +2573,7 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -2444,7 +2611,7 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H3" t="s">
@@ -2482,7 +2649,7 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
@@ -2520,7 +2687,7 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H5" t="s">
@@ -2549,7 +2716,7 @@
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
@@ -2596,7 +2763,7 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
@@ -2634,7 +2801,7 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H8" t="s">
@@ -2663,7 +2830,7 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E9" t="s">
@@ -2672,7 +2839,7 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
@@ -2701,7 +2868,7 @@
       <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E10" t="s">
@@ -2710,7 +2877,7 @@
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="4" t="s">
         <v>71</v>
       </c>
       <c r="H10" t="s">
@@ -2742,7 +2909,7 @@
       <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E11" t="s">
@@ -2751,7 +2918,7 @@
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="4" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
@@ -2789,7 +2956,7 @@
       <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H12" t="s">
@@ -2827,7 +2994,7 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
@@ -2856,7 +3023,7 @@
       <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E14" t="s">
@@ -2865,7 +3032,7 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H14" t="s">
@@ -2877,7 +3044,7 @@
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="19" t="s">
         <v>98</v>
       </c>
       <c r="M14">
@@ -2888,7 +3055,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E15" t="s">
@@ -2897,7 +3064,7 @@
       <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H15" t="s">
@@ -2923,7 +3090,7 @@
       <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E16" t="s">
@@ -2932,7 +3099,7 @@
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H16" t="s">
@@ -2955,13 +3122,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C17" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E17" t="s">
@@ -2970,7 +3137,7 @@
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="4" t="s">
         <v>111</v>
       </c>
       <c r="H17" t="s">
@@ -3031,13 +3198,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E19" t="s">
@@ -3046,7 +3213,7 @@
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="5" t="s">
         <v>123</v>
       </c>
       <c r="H19" t="s">
@@ -3055,661 +3222,661 @@
       <c r="I19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="19" t="s">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="6">
         <v>84</v>
       </c>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" s="6" customFormat="1" spans="1:13">
-      <c r="A20" s="6">
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" s="10" customFormat="1" spans="1:13">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="24" t="s">
+      <c r="I20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" spans="1:13">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
+    <row r="21" s="10" customFormat="1" spans="1:13">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="24" t="s">
+      <c r="I21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:13">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="22" s="10" customFormat="1" spans="1:13">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="F22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="24" t="s">
+      <c r="I22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1" spans="1:13">
-      <c r="A23" s="6">
+    <row r="23" s="10" customFormat="1" spans="1:13">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="F23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="24" t="s">
+      <c r="I23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" spans="1:13">
-      <c r="A24" s="6">
+    <row r="24" s="10" customFormat="1" spans="1:13">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="24" t="s">
+      <c r="I24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" spans="1:13">
-      <c r="A25" s="6">
+    <row r="25" s="10" customFormat="1" spans="1:13">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="F25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="24" t="s">
+      <c r="I25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" spans="1:13">
-      <c r="A26" s="6">
+    <row r="26" s="10" customFormat="1" spans="1:13">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="F26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="24" t="s">
+      <c r="I26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" spans="1:13">
-      <c r="A27" s="6">
+    <row r="27" s="10" customFormat="1" spans="1:13">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="F27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="24" t="s">
+      <c r="I27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" spans="1:13">
-      <c r="A28" s="6">
+    <row r="28" s="10" customFormat="1" spans="1:13">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="24" t="s">
+      <c r="I28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="29" s="6" customFormat="1" spans="1:13">
-      <c r="A29" s="6">
+    <row r="29" s="10" customFormat="1" spans="1:13">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="24" t="s">
+      <c r="I29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="1" spans="1:13">
-      <c r="A30" s="6">
+    <row r="30" s="10" customFormat="1" spans="1:13">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="M30" s="6">
+      <c r="I30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="M30" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="31" s="6" customFormat="1" spans="1:13">
-      <c r="A31" s="6">
+    <row r="31" s="10" customFormat="1" spans="1:13">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="24" t="s">
+      <c r="I31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="32" s="6" customFormat="1" spans="1:13">
-      <c r="A32" s="6">
+    <row r="32" s="10" customFormat="1" spans="1:13">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="6" t="s">
+      <c r="F32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="24" t="s">
+      <c r="I32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="33" s="6" customFormat="1" spans="1:13">
-      <c r="A33" s="6">
+    <row r="33" s="10" customFormat="1" spans="1:13">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="6" t="s">
+      <c r="F33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="24" t="s">
+      <c r="I33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="34" s="6" customFormat="1" spans="1:13">
-      <c r="A34" s="6">
+    <row r="34" s="10" customFormat="1" spans="1:13">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="F34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="24" t="s">
+      <c r="I34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="35" s="6" customFormat="1" spans="1:13">
-      <c r="A35" s="6">
+    <row r="35" s="10" customFormat="1" spans="1:13">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="F35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="24" t="s">
+      <c r="I35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="36" s="6" customFormat="1" spans="1:13">
-      <c r="A36" s="6">
+    <row r="36" s="10" customFormat="1" spans="1:13">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="6" t="s">
+      <c r="F36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="24" t="s">
+      <c r="I36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="10">
         <v>84</v>
       </c>
     </row>
@@ -3732,7 +3899,7 @@
       <c r="F37" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="4" t="s">
         <v>226</v>
       </c>
       <c r="H37" t="s">
@@ -3770,7 +3937,7 @@
       <c r="F38" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="4" t="s">
         <v>232</v>
       </c>
       <c r="H38" t="s">
@@ -3789,41 +3956,41 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" s="6" customFormat="1" spans="1:13">
-      <c r="A39" s="6">
+    <row r="39" s="10" customFormat="1" spans="1:13">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="F39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="24" t="s">
+      <c r="I39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="10">
         <v>84</v>
       </c>
     </row>
@@ -3837,7 +4004,7 @@
       <c r="C40" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="3" t="s">
         <v>242</v>
       </c>
       <c r="E40" t="s">
@@ -3846,7 +4013,7 @@
       <c r="F40" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="4" t="s">
         <v>244</v>
       </c>
       <c r="H40" t="s">
@@ -3875,7 +4042,7 @@
       <c r="C41" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="3" t="s">
         <v>247</v>
       </c>
       <c r="E41" t="s">
@@ -3884,7 +4051,7 @@
       <c r="F41" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="4" t="s">
         <v>249</v>
       </c>
       <c r="H41" t="s">
@@ -3913,7 +4080,7 @@
       <c r="C42" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E42" t="s">
@@ -3922,7 +4089,7 @@
       <c r="F42" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="4" t="s">
         <v>256</v>
       </c>
       <c r="H42" t="s">
@@ -3941,41 +4108,41 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" s="6" customFormat="1" spans="1:13">
-      <c r="A43" s="6">
+    <row r="43" s="10" customFormat="1" spans="1:13">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="6" t="s">
+      <c r="F43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="I43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="6" t="s">
+      <c r="I43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="10">
         <v>84</v>
       </c>
     </row>
@@ -4139,7 +4306,7 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -4168,7 +4335,7 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>272</v>
       </c>
       <c r="E3" t="s">
@@ -4177,7 +4344,7 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>274</v>
       </c>
       <c r="H3" t="s">
@@ -4218,7 +4385,7 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
@@ -4256,7 +4423,7 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H5" t="s">
@@ -4285,7 +4452,7 @@
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
@@ -4332,7 +4499,7 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
@@ -4370,7 +4537,7 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H8" t="s">
@@ -4399,7 +4566,7 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E9" t="s">
@@ -4408,7 +4575,7 @@
       <c r="F9" t="s">
         <v>283</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
@@ -4440,7 +4607,7 @@
       <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E10" t="s">
@@ -4449,7 +4616,7 @@
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="4" t="s">
         <v>71</v>
       </c>
       <c r="H10" t="s">
@@ -4470,7 +4637,7 @@
       <c r="M10">
         <v>189</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="23" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4484,7 +4651,7 @@
       <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E11" t="s">
@@ -4493,7 +4660,7 @@
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="4" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
@@ -4531,7 +4698,7 @@
       <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H12" t="s">
@@ -4569,7 +4736,7 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
@@ -4598,7 +4765,7 @@
       <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E14" t="s">
@@ -4607,7 +4774,7 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H14" t="s">
@@ -4619,7 +4786,7 @@
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="19" t="s">
         <v>98</v>
       </c>
       <c r="M14">
@@ -4630,7 +4797,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E15" t="s">
@@ -4639,7 +4806,7 @@
       <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H15" t="s">
@@ -4665,7 +4832,7 @@
       <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E16" t="s">
@@ -4674,7 +4841,7 @@
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H16" t="s">
@@ -4697,13 +4864,13 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C17" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="3" t="s">
         <v>294</v>
       </c>
       <c r="E17" t="s">
@@ -4712,7 +4879,7 @@
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="4" t="s">
         <v>296</v>
       </c>
       <c r="H17" t="s">
@@ -4773,13 +4940,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E19" t="s">
@@ -4788,7 +4955,7 @@
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="5" t="s">
         <v>123</v>
       </c>
       <c r="H19" t="s">
@@ -4797,17 +4964,17 @@
       <c r="I19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="19" t="s">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="6">
         <v>84</v>
       </c>
-      <c r="N19" s="16"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
@@ -4819,7 +4986,7 @@
       <c r="C20" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E20" t="s">
@@ -4837,10 +5004,10 @@
       <c r="I20" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="19" t="s">
+      <c r="K20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>131</v>
       </c>
       <c r="M20">
@@ -4857,7 +5024,7 @@
       <c r="C21" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E21" t="s">
@@ -4875,10 +5042,10 @@
       <c r="I21" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="19" t="s">
+      <c r="K21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>137</v>
       </c>
       <c r="M21">
@@ -4913,10 +5080,10 @@
       <c r="I22" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="19" t="s">
+      <c r="K22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>143</v>
       </c>
       <c r="M22">
@@ -4933,7 +5100,7 @@
       <c r="C23" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="3" t="s">
         <v>302</v>
       </c>
       <c r="E23" t="s">
@@ -4951,10 +5118,10 @@
       <c r="I23" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="19" t="s">
+      <c r="K23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>149</v>
       </c>
       <c r="M23">
@@ -4971,7 +5138,7 @@
       <c r="C24" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="3" t="s">
         <v>152</v>
       </c>
       <c r="E24" t="s">
@@ -4989,10 +5156,10 @@
       <c r="I24" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="19" t="s">
+      <c r="K24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>156</v>
       </c>
       <c r="M24">
@@ -5003,13 +5170,13 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C25" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="3" t="s">
         <v>159</v>
       </c>
       <c r="E25" t="s">
@@ -5027,10 +5194,10 @@
       <c r="I25" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="19" t="s">
+      <c r="K25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>156</v>
       </c>
       <c r="M25">
@@ -5047,7 +5214,7 @@
       <c r="C26" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="3" t="s">
         <v>164</v>
       </c>
       <c r="E26" t="s">
@@ -5065,10 +5232,10 @@
       <c r="I26" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="19" t="s">
+      <c r="K26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>167</v>
       </c>
       <c r="M26">
@@ -5085,7 +5252,7 @@
       <c r="C27" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="3" t="s">
         <v>170</v>
       </c>
       <c r="E27" t="s">
@@ -5103,10 +5270,10 @@
       <c r="I27" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="19" t="s">
+      <c r="K27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>173</v>
       </c>
       <c r="M27">
@@ -5123,7 +5290,7 @@
       <c r="C28" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="3" t="s">
         <v>176</v>
       </c>
       <c r="E28" t="s">
@@ -5141,10 +5308,10 @@
       <c r="I28" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="19" t="s">
+      <c r="K28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>178</v>
       </c>
       <c r="M28">
@@ -5161,7 +5328,7 @@
       <c r="C29" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="3" t="s">
         <v>181</v>
       </c>
       <c r="E29" t="s">
@@ -5179,10 +5346,10 @@
       <c r="I29" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="19" t="s">
+      <c r="K29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>183</v>
       </c>
       <c r="M29">
@@ -5193,13 +5360,13 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C30" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="3" t="s">
         <v>186</v>
       </c>
       <c r="E30" t="s">
@@ -5217,10 +5384,10 @@
       <c r="I30" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="19" t="s">
+      <c r="K30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="6" t="s">
         <v>189</v>
       </c>
       <c r="M30">
@@ -5237,7 +5404,7 @@
       <c r="C31" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E31" t="s">
@@ -5255,10 +5422,10 @@
       <c r="I31" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="19" t="s">
+      <c r="K31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M31">
@@ -5275,7 +5442,7 @@
       <c r="C32" t="s">
         <v>314</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E32" t="s">
@@ -5293,10 +5460,10 @@
       <c r="I32" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="19" t="s">
+      <c r="K32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M32">
@@ -5313,7 +5480,7 @@
       <c r="C33" t="s">
         <v>202</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E33" t="s">
@@ -5331,10 +5498,10 @@
       <c r="I33" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="19" t="s">
+      <c r="K33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M33">
@@ -5369,10 +5536,10 @@
       <c r="I34" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="19" t="s">
+      <c r="K34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="6" t="s">
         <v>211</v>
       </c>
       <c r="M34">
@@ -5389,7 +5556,7 @@
       <c r="C35" t="s">
         <v>213</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="3" t="s">
         <v>214</v>
       </c>
       <c r="E35" t="s">
@@ -5407,10 +5574,10 @@
       <c r="I35" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="19" t="s">
+      <c r="K35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="6" t="s">
         <v>216</v>
       </c>
       <c r="M35">
@@ -5427,7 +5594,7 @@
       <c r="C36" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="3" t="s">
         <v>219</v>
       </c>
       <c r="E36" t="s">
@@ -5445,10 +5612,10 @@
       <c r="I36" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="19" t="s">
+      <c r="K36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="6" t="s">
         <v>216</v>
       </c>
       <c r="M36">
@@ -5474,7 +5641,7 @@
       <c r="F37" t="s">
         <v>283</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="4" t="s">
         <v>226</v>
       </c>
       <c r="H37" t="s">
@@ -5515,7 +5682,7 @@
       <c r="F38" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="4" t="s">
         <v>232</v>
       </c>
       <c r="H38" t="s">
@@ -5541,13 +5708,13 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C39" t="s">
         <v>235</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="3" t="s">
         <v>236</v>
       </c>
       <c r="E39" t="s">
@@ -5565,10 +5732,10 @@
       <c r="I39" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="19" t="s">
+      <c r="K39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="6" t="s">
         <v>239</v>
       </c>
       <c r="M39">
@@ -5585,7 +5752,7 @@
       <c r="C40" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="3" t="s">
         <v>242</v>
       </c>
       <c r="E40" t="s">
@@ -5594,7 +5761,7 @@
       <c r="F40" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="4" t="s">
         <v>244</v>
       </c>
       <c r="H40" t="s">
@@ -5623,7 +5790,7 @@
       <c r="C41" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="3" t="s">
         <v>247</v>
       </c>
       <c r="E41" t="s">
@@ -5632,7 +5799,7 @@
       <c r="F41" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="4" t="s">
         <v>249</v>
       </c>
       <c r="H41" t="s">
@@ -5661,7 +5828,7 @@
       <c r="C42" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E42" t="s">
@@ -5670,7 +5837,7 @@
       <c r="F42" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="4" t="s">
         <v>256</v>
       </c>
       <c r="H42" t="s">
@@ -5699,7 +5866,7 @@
       <c r="C43" t="s">
         <v>258</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="3" t="s">
         <v>259</v>
       </c>
       <c r="E43" t="s">
@@ -5837,7 +6004,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -5878,7 +6045,7 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -5913,7 +6080,7 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="21" t="s">
         <v>338</v>
       </c>
       <c r="H3" t="s">
@@ -5942,7 +6109,7 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="21" t="s">
         <v>338</v>
       </c>
       <c r="H4" t="s">
@@ -5968,7 +6135,7 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="21" t="s">
         <v>338</v>
       </c>
       <c r="H5" t="s">
@@ -6000,7 +6167,7 @@
       <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="21" t="s">
         <v>19</v>
       </c>
       <c r="H6" t="s">
@@ -6035,7 +6202,7 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="21" t="s">
         <v>32</v>
       </c>
       <c r="H7" t="s">
@@ -6070,7 +6237,7 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="21" t="s">
         <v>51</v>
       </c>
       <c r="H8" t="s">
@@ -6105,7 +6272,7 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="21" t="s">
         <v>57</v>
       </c>
       <c r="H9" t="s">
@@ -6140,7 +6307,7 @@
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="21" t="s">
         <v>226</v>
       </c>
       <c r="H10" t="s">
@@ -6175,7 +6342,7 @@
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="21" t="s">
         <v>232</v>
       </c>
       <c r="H11" t="s">
@@ -6210,7 +6377,7 @@
       <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="4" t="s">
         <v>353</v>
       </c>
       <c r="H12" t="s">
@@ -6245,7 +6412,7 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="21" t="s">
         <v>360</v>
       </c>
       <c r="H13" t="s">
@@ -6280,7 +6447,7 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="21" t="s">
         <v>366</v>
       </c>
       <c r="H14" t="s">
@@ -6303,7 +6470,7 @@
       <c r="B15" t="s">
         <v>367</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>368</v>
       </c>
       <c r="D15" t="s">
@@ -6315,7 +6482,7 @@
       <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="21" t="s">
         <v>86</v>
       </c>
       <c r="H15" t="s">
@@ -6350,7 +6517,7 @@
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="21" t="s">
         <v>86</v>
       </c>
       <c r="H16" t="s">
@@ -6385,7 +6552,7 @@
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="21" t="s">
         <v>38</v>
       </c>
       <c r="H17" t="s">
@@ -6420,7 +6587,7 @@
       <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="21" t="s">
         <v>377</v>
       </c>
       <c r="H18" t="s">
@@ -6455,7 +6622,7 @@
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H19" t="s">
@@ -6577,7 +6744,7 @@
       <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E23" t="s">
@@ -6612,7 +6779,7 @@
       <c r="C24" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>95</v>
       </c>
       <c r="E24" t="s">
@@ -6621,7 +6788,7 @@
       <c r="F24" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="21" t="s">
         <v>97</v>
       </c>
       <c r="H24" t="s">
@@ -6641,7 +6808,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="7" t="s">
         <v>99</v>
       </c>
       <c r="E25" t="s">
@@ -6650,7 +6817,7 @@
       <c r="F25" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="21" t="s">
         <v>100</v>
       </c>
       <c r="H25" t="s">
@@ -6673,7 +6840,7 @@
       <c r="C26" t="s">
         <v>388</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="7" t="s">
         <v>389</v>
       </c>
       <c r="E26" t="s">
@@ -6682,7 +6849,7 @@
       <c r="F26" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="21" t="s">
         <v>391</v>
       </c>
       <c r="H26" t="s">
@@ -6708,7 +6875,7 @@
       <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E27" t="s">
@@ -6717,7 +6884,7 @@
       <c r="F27" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="21" t="s">
         <v>64</v>
       </c>
       <c r="H27" t="s">
@@ -6743,7 +6910,7 @@
       <c r="C28" t="s">
         <v>246</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="7" t="s">
         <v>247</v>
       </c>
       <c r="E28" t="s">
@@ -6752,7 +6919,7 @@
       <c r="F28" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="21" t="s">
         <v>249</v>
       </c>
       <c r="H28" t="s">
@@ -6778,7 +6945,7 @@
       <c r="C29" t="s">
         <v>396</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="7" t="s">
         <v>397</v>
       </c>
       <c r="E29" t="s">
@@ -6787,7 +6954,7 @@
       <c r="F29" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="21" t="s">
         <v>399</v>
       </c>
       <c r="H29" t="s">
@@ -6813,7 +6980,7 @@
       <c r="C30" t="s">
         <v>241</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="7" t="s">
         <v>242</v>
       </c>
       <c r="E30" t="s">
@@ -6822,7 +6989,7 @@
       <c r="F30" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="21" t="s">
         <v>244</v>
       </c>
       <c r="H30" t="s">
@@ -6848,7 +7015,7 @@
       <c r="C31" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E31" t="s">
@@ -6857,7 +7024,7 @@
       <c r="F31" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="21" t="s">
         <v>71</v>
       </c>
       <c r="H31" t="s">
@@ -6872,7 +7039,7 @@
       <c r="M31">
         <v>189</v>
       </c>
-      <c r="N31" s="22" t="s">
+      <c r="N31" s="23" t="s">
         <v>403</v>
       </c>
     </row>
@@ -6886,7 +7053,7 @@
       <c r="C32" t="s">
         <v>253</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="7" t="s">
         <v>254</v>
       </c>
       <c r="E32" t="s">
@@ -6895,7 +7062,7 @@
       <c r="F32" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="21" t="s">
         <v>256</v>
       </c>
       <c r="H32" t="s">
@@ -6921,7 +7088,7 @@
       <c r="C33" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E33" t="s">
@@ -6930,7 +7097,7 @@
       <c r="F33" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="21" t="s">
         <v>80</v>
       </c>
       <c r="H33" t="s">
@@ -6956,7 +7123,7 @@
       <c r="C34" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E34" t="s">
@@ -6965,7 +7132,7 @@
       <c r="F34" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="21" t="s">
         <v>105</v>
       </c>
       <c r="H34" t="s">
@@ -6985,13 +7152,13 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C35" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E35" t="s">
@@ -7000,7 +7167,7 @@
       <c r="F35" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="21" t="s">
         <v>111</v>
       </c>
       <c r="H35" t="s">
@@ -7025,10 +7192,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="A1:O45"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -7099,12 +7266,12 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>408</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -7125,7 +7292,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -7133,25 +7300,27 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>272</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>274</v>
       </c>
       <c r="H3" t="s">
         <v>274</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3"/>
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>410</v>
+      </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
@@ -7179,19 +7348,19 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>411</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
+        <v>412</v>
+      </c>
+      <c r="J4" t="s">
+        <v>413</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -7217,19 +7386,19 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>414</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
+        <v>412</v>
+      </c>
+      <c r="J5" t="s">
+        <v>413</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -7251,11 +7420,11 @@
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>415</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -7264,10 +7433,10 @@
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
+        <v>412</v>
+      </c>
+      <c r="J6" t="s">
+        <v>413</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -7293,19 +7462,19 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>416</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
+        <v>412</v>
+      </c>
+      <c r="J7" t="s">
+        <v>413</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -7331,19 +7500,22 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>417</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>281</v>
+        <v>412</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>418</v>
       </c>
       <c r="K8" t="s">
         <v>59</v>
@@ -7365,16 +7537,16 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>282</v>
-      </c>
-      <c r="F9" t="s">
+        <v>419</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
@@ -7406,16 +7578,16 @@
       <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>285</v>
+        <v>420</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="4" t="s">
         <v>71</v>
       </c>
       <c r="H10" t="s">
@@ -7450,16 +7622,16 @@
       <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>289</v>
+        <v>420</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="4" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
@@ -7492,19 +7664,22 @@
         <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>290</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H12" t="s">
         <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>422</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -7530,19 +7705,22 @@
         <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>291</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J13" t="s">
+        <v>424</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
@@ -7564,28 +7742,31 @@
       <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>292</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H14" t="s">
         <v>97</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J14" t="s">
+        <v>426</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="19" t="s">
         <v>98</v>
       </c>
       <c r="M14">
@@ -7596,23 +7777,26 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H15" t="s">
         <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J15" t="s">
+        <v>427</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
@@ -7631,23 +7815,26 @@
       <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>293</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H16" t="s">
         <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J16" t="s">
+        <v>429</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
@@ -7661,31 +7848,34 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C17" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="3" t="s">
         <v>294</v>
       </c>
       <c r="E17" t="s">
-        <v>295</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>296</v>
       </c>
       <c r="H17" t="s">
         <v>296</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J17" t="s">
+        <v>431</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
@@ -7711,7 +7901,7 @@
         <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>297</v>
+        <v>432</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -7720,10 +7910,10 @@
         <v>117</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
+        <v>412</v>
+      </c>
+      <c r="J18" t="s">
+        <v>413</v>
       </c>
       <c r="K18" t="s">
         <v>21</v>
@@ -7739,41 +7929,40 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>298</v>
+        <v>433</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="5" t="s">
         <v>123</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="6">
         <v>84</v>
       </c>
-      <c r="N19" s="16"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
@@ -7785,14 +7974,14 @@
       <c r="C20" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>299</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
+        <v>434</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>283</v>
       </c>
       <c r="G20" t="s">
         <v>130</v>
@@ -7801,12 +7990,15 @@
         <v>130</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s">
+        <v>435</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>131</v>
       </c>
       <c r="M20">
@@ -7823,11 +8015,11 @@
       <c r="C21" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>300</v>
+        <v>436</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -7836,15 +8028,15 @@
         <v>136</v>
       </c>
       <c r="H21" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="J21" t="s">
+        <v>413</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>137</v>
       </c>
       <c r="M21">
@@ -7865,7 +8057,7 @@
         <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>301</v>
+        <v>437</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -7874,15 +8066,15 @@
         <v>142</v>
       </c>
       <c r="H22" t="s">
-        <v>142</v>
-      </c>
-      <c r="I22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="J22" t="s">
+        <v>413</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>143</v>
       </c>
       <c r="M22">
@@ -7894,16 +8086,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>302</v>
+        <v>151</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="E23" t="s">
-        <v>303</v>
+        <v>438</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -7912,16 +8104,19 @@
         <v>154</v>
       </c>
       <c r="H23" t="s">
-        <v>154</v>
+        <v>412</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>149</v>
+        <v>73</v>
+      </c>
+      <c r="J23" t="s">
+        <v>439</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="M23">
         <v>84</v>
@@ -7931,17 +8126,17 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>150</v>
+      <c r="B24" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>152</v>
+        <v>158</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>304</v>
+        <v>440</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -7950,15 +8145,18 @@
         <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>305</v>
+        <v>412</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" t="s">
+        <v>441</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>156</v>
       </c>
       <c r="M24">
@@ -7969,35 +8167,38 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>157</v>
+      <c r="B25" t="s">
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>306</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
+        <v>442</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>283</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H25" t="s">
-        <v>307</v>
+        <v>166</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>156</v>
+        <v>73</v>
+      </c>
+      <c r="J25" t="s">
+        <v>443</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="M25">
         <v>84</v>
@@ -8008,34 +8209,37 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>164</v>
+        <v>169</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>308</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
+        <v>444</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>283</v>
       </c>
       <c r="G26" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H26" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>167</v>
+        <v>73</v>
+      </c>
+      <c r="J26" t="s">
+        <v>445</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="M26">
         <v>84</v>
@@ -8046,34 +8250,37 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>170</v>
+        <v>175</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="E27" t="s">
-        <v>309</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
+        <v>446</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>283</v>
       </c>
       <c r="G27" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H27" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>173</v>
+        <v>73</v>
+      </c>
+      <c r="J27" t="s">
+        <v>447</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="M27">
         <v>84</v>
@@ -8084,34 +8291,37 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E28" t="s">
-        <v>310</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
+        <v>448</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>283</v>
       </c>
       <c r="G28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>178</v>
+        <v>73</v>
+      </c>
+      <c r="J28" t="s">
+        <v>449</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="M28">
         <v>84</v>
@@ -8121,35 +8331,38 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>179</v>
+      <c r="B29" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E29" t="s">
-        <v>311</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
+        <v>450</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>283</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="H29" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>183</v>
+        <v>73</v>
+      </c>
+      <c r="J29" t="s">
+        <v>451</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="M29">
         <v>84</v>
@@ -8159,35 +8372,35 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>184</v>
+      <c r="B30" t="s">
+        <v>190</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>186</v>
+        <v>191</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="E30" t="s">
-        <v>312</v>
+        <v>452</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H30" t="s">
-        <v>188</v>
-      </c>
-      <c r="I30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>189</v>
+        <v>412</v>
+      </c>
+      <c r="J30" t="s">
+        <v>413</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="M30">
         <v>84</v>
@@ -8198,33 +8411,33 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>192</v>
+        <v>314</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="E31" t="s">
-        <v>313</v>
+        <v>453</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>194</v>
-      </c>
-      <c r="I31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="J31" t="s">
+        <v>413</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M31">
@@ -8236,37 +8449,40 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="C32" t="s">
-        <v>314</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>198</v>
+        <v>241</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="E32" t="s">
-        <v>315</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>200</v>
+        <v>454</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H32" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>195</v>
+        <v>73</v>
+      </c>
+      <c r="J32" t="s">
+        <v>455</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" t="s">
+        <v>239</v>
       </c>
       <c r="M32">
-        <v>84</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -8274,489 +8490,71 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>203</v>
+        <v>264</v>
+      </c>
+      <c r="D33" t="s">
+        <v>265</v>
       </c>
       <c r="E33" t="s">
-        <v>316</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
+        <v>456</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>283</v>
       </c>
       <c r="G33" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="H33" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>195</v>
+        <v>73</v>
+      </c>
+      <c r="J33" t="s">
+        <v>457</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" t="s">
+        <v>268</v>
       </c>
       <c r="M33">
-        <v>84</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" t="s">
-        <v>207</v>
-      </c>
       <c r="D34" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="E34" t="s">
-        <v>317</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
+        <v>456</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>283</v>
       </c>
       <c r="G34" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="H34" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>211</v>
+        <v>73</v>
+      </c>
+      <c r="J34" t="s">
+        <v>427</v>
+      </c>
+      <c r="K34" t="s">
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" t="s">
-        <v>213</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E35" t="s">
-        <v>318</v>
-      </c>
-      <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>210</v>
-      </c>
-      <c r="H35" t="s">
-        <v>210</v>
-      </c>
-      <c r="I35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="M35">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" t="s">
-        <v>218</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E36" t="s">
-        <v>319</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>221</v>
-      </c>
-      <c r="H36" t="s">
-        <v>221</v>
-      </c>
-      <c r="I36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="M36">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D37" t="s">
-        <v>224</v>
-      </c>
-      <c r="E37" t="s">
-        <v>320</v>
-      </c>
-      <c r="F37" t="s">
-        <v>283</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="H37" t="s">
-        <v>226</v>
-      </c>
-      <c r="I37" t="s">
-        <v>73</v>
-      </c>
-      <c r="J37" t="s">
-        <v>321</v>
-      </c>
-      <c r="K37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" t="s">
-        <v>227</v>
-      </c>
-      <c r="M37">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>228</v>
-      </c>
-      <c r="C38" t="s">
-        <v>229</v>
-      </c>
-      <c r="D38" t="s">
-        <v>230</v>
-      </c>
-      <c r="E38" t="s">
-        <v>322</v>
-      </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="H38" t="s">
-        <v>323</v>
-      </c>
-      <c r="I38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J38" t="s">
-        <v>324</v>
-      </c>
-      <c r="K38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" t="s">
-        <v>233</v>
-      </c>
-      <c r="M38">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C39" t="s">
-        <v>235</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E39" t="s">
-        <v>325</v>
-      </c>
-      <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>238</v>
-      </c>
-      <c r="H39" t="s">
-        <v>238</v>
-      </c>
-      <c r="I39" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="M39">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>240</v>
-      </c>
-      <c r="C40" t="s">
-        <v>241</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E40" t="s">
-        <v>326</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="H40" t="s">
-        <v>244</v>
-      </c>
-      <c r="I40" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" t="s">
-        <v>239</v>
-      </c>
-      <c r="M40">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>245</v>
-      </c>
-      <c r="C41" t="s">
-        <v>246</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E41" t="s">
-        <v>327</v>
-      </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H41" t="s">
-        <v>249</v>
-      </c>
-      <c r="I41" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" t="s">
-        <v>251</v>
-      </c>
-      <c r="M41">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>252</v>
-      </c>
-      <c r="C42" t="s">
-        <v>253</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E42" t="s">
-        <v>328</v>
-      </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H42" t="s">
-        <v>256</v>
-      </c>
-      <c r="I42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42" t="s">
-        <v>251</v>
-      </c>
-      <c r="M42">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>257</v>
-      </c>
-      <c r="C43" t="s">
-        <v>258</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E43" t="s">
-        <v>329</v>
-      </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>261</v>
-      </c>
-      <c r="H43" t="s">
-        <v>261</v>
-      </c>
-      <c r="I43" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" t="s">
-        <v>262</v>
-      </c>
-      <c r="M43">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>263</v>
-      </c>
-      <c r="C44" t="s">
-        <v>264</v>
-      </c>
-      <c r="D44" t="s">
-        <v>265</v>
-      </c>
-      <c r="E44" t="s">
-        <v>330</v>
-      </c>
-      <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>267</v>
-      </c>
-      <c r="H44" t="s">
-        <v>267</v>
-      </c>
-      <c r="I44" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44" t="s">
-        <v>268</v>
-      </c>
-      <c r="M44">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="D45" t="s">
-        <v>269</v>
-      </c>
-      <c r="E45" t="s">
-        <v>330</v>
-      </c>
-      <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>270</v>
-      </c>
-      <c r="H45" t="s">
-        <v>270</v>
-      </c>
-      <c r="I45" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45">
         <v>189</v>
       </c>
     </row>
@@ -8851,7 +8649,7 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -8870,44 +8668,44 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:13">
-      <c r="A3" s="4">
+    <row r="3" s="8" customFormat="1" spans="1:13">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="8">
         <v>189</v>
       </c>
     </row>
@@ -8930,7 +8728,7 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
@@ -8968,7 +8766,7 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H5" t="s">
@@ -8997,7 +8795,7 @@
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
@@ -9044,7 +8842,7 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
@@ -9082,7 +8880,7 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H8" t="s">
@@ -9111,7 +8909,7 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E9" t="s">
@@ -9120,7 +8918,7 @@
       <c r="F9" t="s">
         <v>283</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
@@ -9142,44 +8940,44 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" spans="1:13">
-      <c r="A10" s="5">
+    <row r="10" s="9" customFormat="1" spans="1:13">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="K10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="9">
         <v>189</v>
       </c>
     </row>
@@ -9193,7 +8991,7 @@
       <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E11" t="s">
@@ -9202,7 +9000,7 @@
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="4" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
@@ -9240,7 +9038,7 @@
       <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H12" t="s">
@@ -9278,7 +9076,7 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
@@ -9307,7 +9105,7 @@
       <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E14" t="s">
@@ -9316,7 +9114,7 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H14" t="s">
@@ -9328,7 +9126,7 @@
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="19" t="s">
         <v>98</v>
       </c>
       <c r="M14">
@@ -9339,7 +9137,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E15" t="s">
@@ -9348,7 +9146,7 @@
       <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H15" t="s">
@@ -9374,7 +9172,7 @@
       <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E16" t="s">
@@ -9383,7 +9181,7 @@
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H16" t="s">
@@ -9402,44 +9200,44 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" spans="1:13">
-      <c r="A17" s="6">
+    <row r="17" s="10" customFormat="1" spans="1:13">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="J17" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="10">
         <v>189</v>
       </c>
     </row>
@@ -9485,13 +9283,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E19" t="s">
@@ -9500,7 +9298,7 @@
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="5" t="s">
         <v>123</v>
       </c>
       <c r="H19" t="s">
@@ -9509,19 +9307,19 @@
       <c r="I19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="19" t="s">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="6">
         <v>84</v>
       </c>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" s="6" customFormat="1" spans="1:13">
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" s="10" customFormat="1" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9531,7 +9329,7 @@
       <c r="C20" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E20" t="s">
@@ -9549,17 +9347,17 @@
       <c r="I20" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="19" t="s">
+      <c r="K20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>131</v>
       </c>
       <c r="M20">
         <v>84</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" spans="1:13">
+    <row r="21" s="10" customFormat="1" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9569,7 +9367,7 @@
       <c r="C21" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E21" t="s">
@@ -9587,17 +9385,17 @@
       <c r="I21" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="19" t="s">
+      <c r="K21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>137</v>
       </c>
       <c r="M21">
         <v>84</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:13">
+    <row r="22" s="10" customFormat="1" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9625,17 +9423,17 @@
       <c r="I22" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="19" t="s">
+      <c r="K22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>143</v>
       </c>
       <c r="M22">
         <v>84</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1" spans="1:13">
+    <row r="23" s="10" customFormat="1" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9645,7 +9443,7 @@
       <c r="C23" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="3" t="s">
         <v>302</v>
       </c>
       <c r="E23" t="s">
@@ -9663,17 +9461,17 @@
       <c r="I23" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="19" t="s">
+      <c r="K23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>149</v>
       </c>
       <c r="M23">
         <v>84</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" spans="1:13">
+    <row r="24" s="10" customFormat="1" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9683,7 +9481,7 @@
       <c r="C24" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="3" t="s">
         <v>152</v>
       </c>
       <c r="E24" t="s">
@@ -9701,27 +9499,27 @@
       <c r="I24" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="19" t="s">
+      <c r="K24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>156</v>
       </c>
       <c r="M24">
         <v>84</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" spans="1:13">
+    <row r="25" s="10" customFormat="1" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C25" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="3" t="s">
         <v>159</v>
       </c>
       <c r="E25" t="s">
@@ -9739,17 +9537,17 @@
       <c r="I25" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="19" t="s">
+      <c r="K25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>156</v>
       </c>
       <c r="M25">
         <v>84</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" spans="1:13">
+    <row r="26" s="10" customFormat="1" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9759,7 +9557,7 @@
       <c r="C26" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="3" t="s">
         <v>164</v>
       </c>
       <c r="E26" t="s">
@@ -9777,17 +9575,17 @@
       <c r="I26" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="19" t="s">
+      <c r="K26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>167</v>
       </c>
       <c r="M26">
         <v>84</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" spans="1:13">
+    <row r="27" s="10" customFormat="1" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9797,7 +9595,7 @@
       <c r="C27" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="3" t="s">
         <v>170</v>
       </c>
       <c r="E27" t="s">
@@ -9815,17 +9613,17 @@
       <c r="I27" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="19" t="s">
+      <c r="K27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>173</v>
       </c>
       <c r="M27">
         <v>84</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" spans="1:13">
+    <row r="28" s="10" customFormat="1" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9835,7 +9633,7 @@
       <c r="C28" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="3" t="s">
         <v>176</v>
       </c>
       <c r="E28" t="s">
@@ -9853,17 +9651,17 @@
       <c r="I28" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="19" t="s">
+      <c r="K28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>178</v>
       </c>
       <c r="M28">
         <v>84</v>
       </c>
     </row>
-    <row r="29" s="6" customFormat="1" spans="1:13">
+    <row r="29" s="10" customFormat="1" spans="1:13">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9873,7 +9671,7 @@
       <c r="C29" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="3" t="s">
         <v>181</v>
       </c>
       <c r="E29" t="s">
@@ -9891,27 +9689,27 @@
       <c r="I29" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="19" t="s">
+      <c r="K29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>183</v>
       </c>
       <c r="M29">
         <v>84</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="1" spans="1:13">
+    <row r="30" s="10" customFormat="1" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C30" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="3" t="s">
         <v>186</v>
       </c>
       <c r="E30" t="s">
@@ -9929,17 +9727,17 @@
       <c r="I30" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="19" t="s">
+      <c r="K30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="6" t="s">
         <v>189</v>
       </c>
       <c r="M30">
         <v>84</v>
       </c>
     </row>
-    <row r="31" s="6" customFormat="1" spans="1:13">
+    <row r="31" s="10" customFormat="1" spans="1:13">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9949,7 +9747,7 @@
       <c r="C31" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E31" t="s">
@@ -9967,17 +9765,17 @@
       <c r="I31" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="19" t="s">
+      <c r="K31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M31">
         <v>84</v>
       </c>
     </row>
-    <row r="32" s="6" customFormat="1" spans="1:13">
+    <row r="32" s="10" customFormat="1" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9987,7 +9785,7 @@
       <c r="C32" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E32" t="s">
@@ -10005,17 +9803,17 @@
       <c r="I32" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="19" t="s">
+      <c r="K32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M32">
         <v>84</v>
       </c>
     </row>
-    <row r="33" s="6" customFormat="1" spans="1:13">
+    <row r="33" s="10" customFormat="1" spans="1:13">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10025,7 +9823,7 @@
       <c r="C33" t="s">
         <v>202</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E33" t="s">
@@ -10043,17 +9841,17 @@
       <c r="I33" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="19" t="s">
+      <c r="K33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M33">
         <v>84</v>
       </c>
     </row>
-    <row r="34" s="6" customFormat="1" spans="1:13">
+    <row r="34" s="10" customFormat="1" spans="1:13">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10081,17 +9879,17 @@
       <c r="I34" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="19" t="s">
+      <c r="K34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="6" t="s">
         <v>211</v>
       </c>
       <c r="M34">
         <v>84</v>
       </c>
     </row>
-    <row r="35" s="6" customFormat="1" spans="1:13">
+    <row r="35" s="10" customFormat="1" spans="1:13">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10101,7 +9899,7 @@
       <c r="C35" t="s">
         <v>213</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="3" t="s">
         <v>214</v>
       </c>
       <c r="E35" t="s">
@@ -10119,17 +9917,17 @@
       <c r="I35" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="19" t="s">
+      <c r="K35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="6" t="s">
         <v>216</v>
       </c>
       <c r="M35">
         <v>84</v>
       </c>
     </row>
-    <row r="36" s="6" customFormat="1" spans="1:13">
+    <row r="36" s="10" customFormat="1" spans="1:13">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10139,7 +9937,7 @@
       <c r="C36" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="3" t="s">
         <v>219</v>
       </c>
       <c r="E36" t="s">
@@ -10157,109 +9955,109 @@
       <c r="I36" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="19" t="s">
+      <c r="K36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="6" t="s">
         <v>216</v>
       </c>
       <c r="M36">
         <v>84</v>
       </c>
     </row>
-    <row r="37" s="6" customFormat="1" spans="1:13">
-      <c r="A37" s="6">
+    <row r="37" s="10" customFormat="1" spans="1:13">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="6" t="s">
+      <c r="K37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="M37" s="6">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" s="7" customFormat="1" spans="1:13">
-      <c r="A38" s="7">
+      <c r="M37" s="10">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" s="11" customFormat="1" spans="1:13">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="17" t="s">
+      <c r="F38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="7" t="s">
+      <c r="K38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="M38" s="7">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" s="6" customFormat="1" spans="1:13">
+      <c r="M38" s="11">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" s="10" customFormat="1" spans="1:13">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C39" t="s">
         <v>235</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="3" t="s">
         <v>236</v>
       </c>
       <c r="E39" t="s">
@@ -10277,10 +10075,10 @@
       <c r="I39" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="19" t="s">
+      <c r="K39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="6" t="s">
         <v>239</v>
       </c>
       <c r="M39">
@@ -10297,7 +10095,7 @@
       <c r="C40" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="3" t="s">
         <v>242</v>
       </c>
       <c r="E40" t="s">
@@ -10306,7 +10104,7 @@
       <c r="F40" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="4" t="s">
         <v>244</v>
       </c>
       <c r="H40" t="s">
@@ -10335,7 +10133,7 @@
       <c r="C41" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="3" t="s">
         <v>247</v>
       </c>
       <c r="E41" t="s">
@@ -10344,7 +10142,7 @@
       <c r="F41" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="4" t="s">
         <v>249</v>
       </c>
       <c r="H41" t="s">
@@ -10373,7 +10171,7 @@
       <c r="C42" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E42" t="s">
@@ -10382,7 +10180,7 @@
       <c r="F42" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="4" t="s">
         <v>256</v>
       </c>
       <c r="H42" t="s">
@@ -10401,7 +10199,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" s="6" customFormat="1" spans="1:13">
+    <row r="43" s="10" customFormat="1" spans="1:13">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10411,7 +10209,7 @@
       <c r="C43" t="s">
         <v>258</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="3" t="s">
         <v>259</v>
       </c>
       <c r="E43" t="s">
@@ -10583,13 +10381,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>416</v>
+        <v>463</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>464</v>
       </c>
       <c r="G2" t="s">
         <v>154</v>
@@ -10608,4 +10406,489 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="38.25" customHeight="1" spans="1:13">
+      <c r="A2">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" ht="38.25" customHeight="1" spans="1:13">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" ht="51" customHeight="1" spans="1:13">
+      <c r="A4">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="M4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" ht="38.25" customHeight="1" spans="1:13">
+      <c r="A5">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="M5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" ht="51" customHeight="1" spans="1:13">
+      <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="M6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>321</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>227</v>
+      </c>
+      <c r="M8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1" spans="1:13">
+      <c r="A9">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="M9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" t="s">
+        <v>256</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>251</v>
+      </c>
+      <c r="M10">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>251</v>
+      </c>
+      <c r="M11">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>262</v>
+      </c>
+      <c r="M12">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="84" sheetId="1" r:id="rId1"/>
     <sheet name="189" sheetId="2" r:id="rId2"/>
     <sheet name="189&amp;84" sheetId="3" r:id="rId3"/>
-    <sheet name="flow_info" sheetId="4" r:id="rId4"/>
-    <sheet name="flow_info-83" sheetId="5" r:id="rId5"/>
-    <sheet name="84-append" sheetId="6" r:id="rId6"/>
-    <sheet name="flow_info-parameters" sheetId="7" r:id="rId7"/>
+    <sheet name="flow_info-83" sheetId="4" r:id="rId4"/>
+    <sheet name="84-append" sheetId="5" r:id="rId5"/>
+    <sheet name="flow_info-no par" sheetId="7" r:id="rId6"/>
+    <sheet name="flow_info-par" sheetId="8" r:id="rId7"/>
+    <sheet name="flow_info" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="502">
   <si>
     <t>id</t>
   </si>
@@ -1250,63 +1251,122 @@
     <t>00d4ba15-5beb-400f-8b61-2e96aea66201</t>
   </si>
   <si>
-    <t>aaa6f63a-0d7f-40af-b563-51c2a3136608</t>
-  </si>
-  <si>
-    <t>78c1b906-7718-481b-abe5-ab12e06862a1</t>
+    <t>98f37042-985e-46ab-8643-d5bb271fbd11</t>
+  </si>
+  <si>
+    <t>78898c4f-bbb0-4e13-a3dd-c289f1bd9f87</t>
+  </si>
+  <si>
+    <t>[{"sex":"男","SName":"李勇","class":"CS","age":"20","SId":"95001"},{"sex":"女","SName":"刘晨","class":"IS","age":"19","SId":"95002"},{"sex":"女","SName":"王敏","class":"MA","age":"22","SId":"95003"},{"sex":"男","SName":"张立","class":"IS","age":"19","SId":"95004"},{"sex":"男","SName":"刘刚","class":"MA","age":"18","SId":"95005"},{"sex":"男","SName":"孙庆","class":"CS","age":"23","SId":"95006"}]</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: tc_auto_df_source_001_mysql1545633383105 ---&gt;执行状态为 FAILED
 </t>
   </si>
   <si>
-    <t>cd7847cb-a604-4d76-9146-b09d6b564734</t>
-  </si>
-  <si>
-    <t>{"err":"Not Found","detailMsg":"HTTP 404 Not Found"}</t>
-  </si>
-  <si>
-    <t>请确认预期结果和实际结果</t>
-  </si>
-  <si>
-    <t>5c63ea0e-74a5-4308-8f8c-e33367e5f3ab</t>
-  </si>
-  <si>
-    <t>76613ce6-21c4-4fc6-88cc-9492f14fd225</t>
-  </si>
-  <si>
-    <t>41941786-c692-46a7-8351-74b15e149d5c</t>
-  </si>
-  <si>
-    <t>3620805a-a1d4-4180-8f09-6928971d8acb</t>
-  </si>
-  <si>
-    <t>execution: 3620805a-a1d4-4180-8f09-6928971d8acb 预期结果实际结果不一致 
+    <t>01148688-886a-48f7-9f00-e7b7a4124b32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: step_test_sql ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>beb8bcf8-ab90-48e8-82ba-eabade1f22a5</t>
+  </si>
+  <si>
+    <t>gbj_sample_mode_append</t>
+  </si>
+  <si>
+    <t>a9019d52-f0be-406e-a8eb-f777004ff1e9</t>
+  </si>
+  <si>
+    <t>0a9ebfdc-20e8-4d76-a042-ed2ec1ab2393</t>
+  </si>
+  <si>
+    <t>22f0e23b-70aa-47b0-812d-37df84faa172</t>
+  </si>
+  <si>
+    <t>[{'name': 'xiaoming', 'id': '1', 'age': '18'}, {'name': 'xiaohong', 'id': '2', 'age': '20'}, {'name': 'xiaowang', 'id': '3', 'age': '30'}, {'name': 'tyest', 'id': '4', 'age': '12'}, {'name': '', 'id': '5', 'age': ''}, {'name': 'james', 'id': '6', 'age': '50'}]</t>
+  </si>
+  <si>
+    <t>ce7f029f-47ce-4350-aa9e-d2161305c795</t>
+  </si>
+  <si>
+    <t>[{'CName': '数据库', 'CID': '1'}, {'CName': '数学', 'CID': '2'}, {'CName': '信息系统', 'CID': '3'}, {'CName': '操作系统', 'CID': '4'}, {'CName': '数据结构', 'CID': '5'}, {'CName': '数据处理', 'CID': '6'}]</t>
+  </si>
+  <si>
+    <t>93462096-ad6f-46ed-82bc-8aab60c33119</t>
+  </si>
+  <si>
+    <t>[{'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '95', 'name': '李四', 'id': '3'}, {'subject': '英语', 'grade': '65', 'name': '李四', 'id': '4'}, {'subject': '语文', 'grade': '35', 'name': '李四', 'id': '5'}, {'subject': '数学', 'grade': '58', 'name': '小明', 'id': '6'}, {'subject': '英语', 'grade': '96', 'name': '小明', 'id': '7'}, {'subject': '语文', 'grade': '96', 'name': '小明', 'id': '8'}, {'subject': '数学', 'grade': '85', 'name': '小红', 'id': '9'}, {'subject': '英语', 'grade': '95', 'name': '小红', 'id': '10'}, {'subject': '语文', 'grade': '78', 'name': '小红', 'id': '11'}, {'subject': '数学', 'grade': '98', 'name': '小玲', 'id': '12'}, {'subject': '语文', 'grade': '46', 'name': '小玲', 'id': '13'}, {'subject': '英语', 'grade': '78', 'name': '小玲', 'id': '14'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}]</t>
+  </si>
+  <si>
+    <t>dfb974ce-dc1c-410e-b5f3-17092a9bdf6e</t>
+  </si>
+  <si>
+    <t>[{'pt_id': '3', 'name': 'xiaoming', 'id': '1', 'age': '22'}, {'pt_id': '3', 'name': 'xiaohong', 'id': '2', 'age': '33'}, {'pt_id': '3', 'name': 'xiaozhang', 'id': '3', 'age': '18'}, {'pt_id': '3', 'name': 'xiaohuang', 'id': '1', 'age': '18'}, {'pt_id': '4', 'name': 'xiaoming', 'id': '1', 'age': '1000'}, {'pt_id': '4', 'name': 'xiaohong', 'id': '2', 'age': '20000'}, {'pt_id': '4', 'name': 'xiaowang', 'id': '3', 'age': '3012'}, {'pt_id': '4', 'name': 'tyest', 'id': '5', 'age': '12'}]</t>
+  </si>
+  <si>
+    <t>b8607222-d152-45df-b417-12656e551c2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_source_hbase_append1545633381086 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>2e836a76-a8ae-4817-854a-7ca9e00a8ff8</t>
+  </si>
+  <si>
+    <t>[{'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '95', 'name': '李四', 'id': '3'}, {'subject': '英语', 'grade': '96', 'name': '小明', 'id': '7'}, {'subject': '语文', 'grade': '96', 'name': '小明', 'id': '8'}, {'subject': '数学', 'grade': '85', 'name': '小红', 'id': '9'}, {'subject': '英语', 'grade': '95', 'name': '小红', 'id': '10'}, {'subject': '语文', 'grade': '78', 'name': '小红', 'id': '11'}, {'subject': '数学', 'grade': '98', 'name': '小玲', 'id': '12'}, {'subject': '英语', 'grade': '78', 'name': '小玲', 'id': '14'}]</t>
+  </si>
+  <si>
+    <t>2c0bc9f6-89d8-4e48-8104-248706b104a4</t>
+  </si>
+  <si>
+    <t>[{'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}]</t>
+  </si>
+  <si>
+    <t>execution: 2c0bc9f6-89d8-4e48-8104-248706b104a4 预期结果实际结果不一致 
 预期结果: [{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]
-实际结果: {"err":"Not Found","detailMsg":"HTTP 404 Not Found"}</t>
-  </si>
-  <si>
-    <t>1a7252fb-514b-48eb-b262-744bc22b3b0a</t>
-  </si>
-  <si>
-    <t>d1d7f4fb-5dca-4ae8-97f6-63d2e54dd82f</t>
-  </si>
-  <si>
-    <t>391a8507-63ae-465e-9ce8-304faa8693ab</t>
+实际结果: [{'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}]</t>
+  </si>
+  <si>
+    <t>db3f4045-2eb7-4adb-929a-6fb243fa2fb0</t>
+  </si>
+  <si>
+    <t>97f77f3e-4701-489e-92bf-110b3a62f39e</t>
+  </si>
+  <si>
+    <t>用例参数或datasetID填写错误</t>
+  </si>
+  <si>
+    <t>3b7f0b50-a96e-4ded-b92a-03e10471e7ed</t>
+  </si>
+  <si>
+    <t>[{"name":"test1","id":"1","age":"\\?123测试"},{"name":"test3","id":"3","age":"'\\013'"},{"name":"test4","id":"4","age":"\\?"},{"name":"test5","id":"5","age":"\\n换行"},{"name":"test2","id":"2","age":"ces"}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'test1', 'id': '1', 'age': '\\?123测试'}, {'name': 'test3', 'id': '3', 'age': "'\\013'"}, {'name': 'test4', 'id': '4', 'age': '\\?'}, {'name': 'test5', 'id': '5', 'age': '\\n换行'}, {'name': 'test2', 'id': '2', 'age': 'ces'}]</t>
+  </si>
+  <si>
+    <t>预期和实际结果不一致，已调整</t>
+  </si>
+  <si>
+    <t>9b068a1e-87ef-4db7-9e27-81188f89b794</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: tc_auto_df_minus1545633384706 ---&gt;执行状态为 FAILED
 </t>
   </si>
   <si>
-    <t>921220f7-abf2-4dc4-ab95-e248d6d59631</t>
+    <t>5b724841-c76d-47a8-8406-5190bf722af0</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: tc_auto_df_desicion_yes1545633385200 ---&gt;执行状态为 FAILED
 </t>
   </si>
   <si>
-    <t>c30ce8b1-7630-4f96-b59c-0aa0b320fb6c</t>
+    <t>ff252f2a-81a8-4868-bfb1-263d48e6daa2</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: tc_auto_df_split_0021545633379905 ---&gt;执行状态为 FAILED
@@ -1317,125 +1377,191 @@
 </t>
   </si>
   <si>
-    <t>700edc98-06ff-49be-81af-adc2d2a1a620</t>
+    <t>d6322002-4f98-4c4a-9bb8-dcec8a50c7e4</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: tc_auto_df_intersect_0011545633383879 ---&gt;执行状态为 FAILED
 </t>
   </si>
   <si>
-    <t>c6281e20-b282-4eda-9bcb-9209b06f8ce6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: step_test_sql ---&gt;执行状态为 FAILED
+    <t>b5254e3a-330d-4d05-a674-a0a2f61dd786</t>
+  </si>
+  <si>
+    <t>873a7e95-9418-4edf-8cbc-657f43375b52</t>
+  </si>
+  <si>
+    <t>{"err":"Not Found","detailMsg":"HTTP 404 Not Found"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: startjoin_step_gbj ---&gt;执行状态为 FAILED
 </t>
   </si>
   <si>
-    <t>42dad4a9-91a6-484a-a0be-c603991c737b</t>
-  </si>
-  <si>
-    <t>1570bc41-b731-4e65-bffc-5f8a3ff8a4ee</t>
-  </si>
-  <si>
-    <t>78323342-5ed1-4009-a05b-7fc51ee2ed0d</t>
+    <t>0d72e8a1-5d58-4bc1-8093-24f96a926423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: productjoin_step_test_gbj ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>343e3b90-ea13-4378-97a4-e086f6c710c3</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: gbj_sqlsource_step_84 ---&gt;执行状态为 FAILED
 </t>
   </si>
   <si>
-    <t>cd1ec8be-037f-4b2b-b3ee-f3503f8fc7f3</t>
-  </si>
-  <si>
-    <t>6f89628b-b6a5-428a-a3fa-670e0d6d0471</t>
-  </si>
-  <si>
-    <t>99af8208-a6c0-44d2-9645-3dc726842fc4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">execution: 99af8208-a6c0-44d2-9645-3dc726842fc4 预期结果实际结果不一致 </t>
-  </si>
-  <si>
-    <t>fc97ab71-f674-4236-ad01-2cde3ddd43cf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">execution: fc97ab71-f674-4236-ad01-2cde3ddd43cf 预期结果实际结果不一致 </t>
-  </si>
-  <si>
-    <t>5e214bf9-abe4-4913-b68d-c320445116cd</t>
+    <t>aca4b0be-af21-4e61-8fac-31d01b36f982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_intersect ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>2572a151-a3c8-44e8-98a0-f4b97a9b90f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_use_土葬数据清洗_transform_step ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>33fc1d79-9963-4801-97d0-4c5ec3c54f4e</t>
+  </si>
+  <si>
+    <t>execution: 33fc1d79-9963-4801-97d0-4c5ec3c54f4e 执行状态为 FAILED</t>
+  </si>
+  <si>
+    <t>0be34560-3391-4151-bb61-d3f36ffa36de</t>
+  </si>
+  <si>
+    <t>execution: 0be34560-3391-4151-bb61-d3f36ffa36de 执行状态为 FAILED</t>
+  </si>
+  <si>
+    <t>0a075f86-4934-482f-8cfb-939b1fa60502</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: gbj_for_join_test_outer_join ---&gt;执行状态为 FAILED
 </t>
   </si>
   <si>
-    <t>ba100a8c-ea3d-4f5c-87db-467ffe62085e</t>
+    <t>10a559d6-5685-4070-b964-9a57d095c39a</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: gbj_for_join_test_inner_join ---&gt;执行状态为 FAILED
 </t>
   </si>
   <si>
-    <t>19e8b5c8-8b2f-48ce-8605-56ac26877b49</t>
+    <t>b25fabe6-1789-45b2-9085-980697b90985</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: gbj_for_join_test_left_join ---&gt;执行状态为 FAILED
 </t>
   </si>
   <si>
-    <t>1d626b92-ae51-4439-9760-d54d8f53de11</t>
+    <t>1f8b818a-d0b6-48f4-9b12-e3a69f5d9c0f</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: gbj_for_join_test_right_join ---&gt;执行状态为 FAILED
 </t>
   </si>
   <si>
-    <t>fed49699-2f55-436d-9639-936183a5a39b</t>
+    <t>5c20cfa8-6773-43e0-883d-d6a629417fb1</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: gbj_for_join_test_left_semi ---&gt;执行状态为 FAILED
 </t>
   </si>
   <si>
-    <t>fa2f669e-97e1-457b-81b6-504bffd3ad71</t>
-  </si>
-  <si>
-    <t>54caa92f-9c94-4688-b029-9083640a5ec9</t>
-  </si>
-  <si>
-    <t>8d1a687a-5c15-4ac5-a95d-504dabe380d3</t>
+    <t>2490ed83-f9d5-48da-9a38-4e6a493b70f9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_aggregate_test_count ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>a6c946fc-56b3-4071-9fb0-4087e1292ec3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_aggregate_test_sum ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>1b05ad07-0d7f-4ffc-ac00-7fed5a3e9da1</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: tc_auto_df_top_RATE没有groupby字段ignore1545633379788 ---&gt;执行状态为 FAILED
 </t>
   </si>
   <si>
-    <t>36122b12-458d-4068-a245-c2b88f2bb188</t>
+    <t>78e60fcd-30b7-4701-a74a-2a2cff32597f</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: tc_auto_df_validate_action_save1545633385422 ---&gt;执行状态为 FAILED
 </t>
   </si>
   <si>
-    <t>98f37042-985e-46ab-8643-d5bb271fbd11</t>
-  </si>
-  <si>
-    <t>78898c4f-bbb0-4e13-a3dd-c289f1bd9f87</t>
-  </si>
-  <si>
-    <t>[{"sex":"男","SName":"李勇","class":"CS","age":"20","SId":"95001"},{"sex":"女","SName":"刘晨","class":"IS","age":"19","SId":"95002"},{"sex":"女","SName":"王敏","class":"MA","age":"22","SId":"95003"},{"sex":"男","SName":"张立","class":"IS","age":"19","SId":"95004"},{"sex":"男","SName":"刘刚","class":"MA","age":"18","SId":"95005"},{"sex":"男","SName":"孙庆","class":"CS","age":"23","SId":"95006"}]</t>
-  </si>
-  <si>
-    <t>01148688-886a-48f7-9f00-e7b7a4124b32</t>
-  </si>
-  <si>
-    <t>beb8bcf8-ab90-48e8-82ba-eabade1f22a5</t>
-  </si>
-  <si>
-    <t>gbj_sample_mode_append</t>
-  </si>
-  <si>
-    <t>a9019d52-f0be-406e-a8eb-f777004ff1e9</t>
+    <t>ca77d9ab-cb61-4a72-8b5b-89a6b645b2c4</t>
+  </si>
+  <si>
+    <t>[{'age_approxCountDistinct': '1', 'sex_countDistinct': '1', 'age_sumDistinct': '22', 'sId': '95003'}, {'age_approxCountDistinct': '1', 'sex_countDistinct': '1', 'age_sumDistinct': '20', 'sId': '95001'}, {'age_approxCountDistinct': '1', 'sex_countDistinct': '1', 'age_sumDistinct': '19', 'sId': '95002'}, {'age_approxCountDistinct': '1', 'sex_countDistinct': '1', 'age_sumDistinct': '18', 'sId': '95005'}, {'age_approxCountDistinct': '1', 'sex_countDistinct': '1', 'age_sumDistinct': '19', 'sId': '95004'}, {'age_approxCountDistinct': '1', 'sex_countDistinct': '1', 'age_sumDistinct': '23', 'sId': '95006'}]</t>
+  </si>
+  <si>
+    <t>bb42507b-c949-4809-85c2-f5c6b00640a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_lookup_mapDB ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>4779b4ed-a4e0-43f0-a387-c1ed26858f2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_lookupTable_step_MapDB ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>7ffc1e20-5814-4c5c-bcfa-91b5c3858606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_lookUp_test_chain ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>12b2c02a-713a-4d38-801f-0be931e57d46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: students_lookup2 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>c6e35ffa-70a1-47b7-8557-26abe52f5351</t>
+  </si>
+  <si>
+    <t>1ae99d8b-6224-46f1-b187-28a74afd39a8</t>
+  </si>
+  <si>
+    <t>[{'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}]</t>
+  </si>
+  <si>
+    <t>b77b65ec-82dd-431e-a591-d61bdfc8de53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_union_001_distinct为false1545633380273 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>22741665-8a0b-4ad5-95d6-7d7dee6a1920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_union_003_distinctistrue1545633384602 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>e95515d6-fa1b-4c1b-9fb1-5b0158099201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_validate_test_showDetail_false ---&gt;执行状态为 FAILED
+</t>
   </si>
 </sst>
 </file>
@@ -1443,10 +1569,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1507,7 +1633,13 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1515,23 +1647,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1545,8 +1671,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1554,7 +1709,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1569,66 +1724,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1637,7 +1732,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1657,6 +1752,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -1664,6 +1790,18 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1679,19 +1817,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1703,7 +1895,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1715,7 +1913,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1727,157 +2003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,6 +2014,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1905,8 +2055,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1929,23 +2079,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1979,160 +2114,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="5">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="7">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2144,33 +2270,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2573,7 +2699,7 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -2611,7 +2737,7 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H3" t="s">
@@ -2649,7 +2775,7 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
@@ -2687,7 +2813,7 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H5" t="s">
@@ -2716,7 +2842,7 @@
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
@@ -2763,7 +2889,7 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
@@ -2801,7 +2927,7 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>57</v>
       </c>
       <c r="H8" t="s">
@@ -2830,7 +2956,7 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E9" t="s">
@@ -2839,7 +2965,7 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
@@ -2868,7 +2994,7 @@
       <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E10" t="s">
@@ -2877,7 +3003,7 @@
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>71</v>
       </c>
       <c r="H10" t="s">
@@ -2909,7 +3035,7 @@
       <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E11" t="s">
@@ -2918,7 +3044,7 @@
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
@@ -2956,7 +3082,7 @@
       <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H12" t="s">
@@ -2994,7 +3120,7 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
@@ -3023,7 +3149,7 @@
       <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E14" t="s">
@@ -3032,7 +3158,7 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>97</v>
       </c>
       <c r="H14" t="s">
@@ -3044,7 +3170,7 @@
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="M14">
@@ -3055,7 +3181,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E15" t="s">
@@ -3064,7 +3190,7 @@
       <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>100</v>
       </c>
       <c r="H15" t="s">
@@ -3090,7 +3216,7 @@
       <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E16" t="s">
@@ -3099,7 +3225,7 @@
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>105</v>
       </c>
       <c r="H16" t="s">
@@ -3122,13 +3248,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C17" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E17" t="s">
@@ -3137,7 +3263,7 @@
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>111</v>
       </c>
       <c r="H17" t="s">
@@ -3198,13 +3324,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>121</v>
       </c>
       <c r="E19" t="s">
@@ -3213,7 +3339,7 @@
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="8" t="s">
         <v>123</v>
       </c>
       <c r="H19" t="s">
@@ -3222,44 +3348,44 @@
       <c r="I19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="9">
         <v>84</v>
       </c>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" s="10" customFormat="1" spans="1:13">
-      <c r="A20" s="10">
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:13">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="24" t="s">
@@ -3268,36 +3394,36 @@
       <c r="L20" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="21" s="10" customFormat="1" spans="1:13">
-      <c r="A21" s="10">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
+    <row r="21" s="3" customFormat="1" spans="1:13">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="10" t="s">
+      <c r="F21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="24" t="s">
@@ -3306,36 +3432,36 @@
       <c r="L21" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="22" s="10" customFormat="1" spans="1:13">
-      <c r="A22" s="10">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
+    <row r="22" s="3" customFormat="1" spans="1:13">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="24" t="s">
@@ -3344,36 +3470,36 @@
       <c r="L22" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="23" s="10" customFormat="1" spans="1:13">
-      <c r="A23" s="10">
+    <row r="23" s="3" customFormat="1" spans="1:13">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="24" t="s">
@@ -3382,36 +3508,36 @@
       <c r="L23" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="24" s="10" customFormat="1" spans="1:13">
-      <c r="A24" s="10">
+    <row r="24" s="3" customFormat="1" spans="1:13">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="F24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="24" t="s">
@@ -3420,36 +3546,36 @@
       <c r="L24" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="25" s="10" customFormat="1" spans="1:13">
-      <c r="A25" s="10">
+    <row r="25" s="3" customFormat="1" spans="1:13">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="10" t="s">
+      <c r="F25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K25" s="24" t="s">
@@ -3458,36 +3584,36 @@
       <c r="L25" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="26" s="10" customFormat="1" spans="1:13">
-      <c r="A26" s="10">
+    <row r="26" s="3" customFormat="1" spans="1:13">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="F26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K26" s="24" t="s">
@@ -3496,36 +3622,36 @@
       <c r="L26" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="27" s="10" customFormat="1" spans="1:13">
-      <c r="A27" s="10">
+    <row r="27" s="3" customFormat="1" spans="1:13">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="10" t="s">
+      <c r="F27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="24" t="s">
@@ -3534,36 +3660,36 @@
       <c r="L27" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="28" s="10" customFormat="1" spans="1:13">
-      <c r="A28" s="10">
+    <row r="28" s="3" customFormat="1" spans="1:13">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="10" t="s">
+      <c r="F28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K28" s="24" t="s">
@@ -3572,36 +3698,36 @@
       <c r="L28" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="29" s="10" customFormat="1" spans="1:13">
-      <c r="A29" s="10">
+    <row r="29" s="3" customFormat="1" spans="1:13">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="10" t="s">
+      <c r="F29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="24" t="s">
@@ -3610,36 +3736,36 @@
       <c r="L29" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="30" s="10" customFormat="1" spans="1:13">
-      <c r="A30" s="10">
+    <row r="30" s="3" customFormat="1" spans="1:13">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="10" t="s">
+      <c r="F30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="24" t="s">
@@ -3648,36 +3774,36 @@
       <c r="L30" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="31" s="10" customFormat="1" spans="1:13">
-      <c r="A31" s="10">
+    <row r="31" s="3" customFormat="1" spans="1:13">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="10" t="s">
+      <c r="F31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K31" s="24" t="s">
@@ -3686,36 +3812,36 @@
       <c r="L31" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="32" s="10" customFormat="1" spans="1:13">
-      <c r="A32" s="10">
+    <row r="32" s="3" customFormat="1" spans="1:13">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="10" t="s">
+      <c r="F32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K32" s="24" t="s">
@@ -3724,36 +3850,36 @@
       <c r="L32" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="33" s="10" customFormat="1" spans="1:13">
-      <c r="A33" s="10">
+    <row r="33" s="3" customFormat="1" spans="1:13">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="10" t="s">
+      <c r="F33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K33" s="24" t="s">
@@ -3762,36 +3888,36 @@
       <c r="L33" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M33" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="34" s="10" customFormat="1" spans="1:13">
-      <c r="A34" s="10">
+    <row r="34" s="3" customFormat="1" spans="1:13">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="10" t="s">
+      <c r="F34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K34" s="24" t="s">
@@ -3800,36 +3926,36 @@
       <c r="L34" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M34" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="35" s="10" customFormat="1" spans="1:13">
-      <c r="A35" s="10">
+    <row r="35" s="3" customFormat="1" spans="1:13">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="10" t="s">
+      <c r="F35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K35" s="24" t="s">
@@ -3838,36 +3964,36 @@
       <c r="L35" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M35" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="36" s="10" customFormat="1" spans="1:13">
-      <c r="A36" s="10">
+    <row r="36" s="3" customFormat="1" spans="1:13">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="10" t="s">
+      <c r="F36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K36" s="24" t="s">
@@ -3876,7 +4002,7 @@
       <c r="L36" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M36" s="3">
         <v>84</v>
       </c>
     </row>
@@ -3899,7 +4025,7 @@
       <c r="F37" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="5" t="s">
         <v>226</v>
       </c>
       <c r="H37" t="s">
@@ -3937,7 +4063,7 @@
       <c r="F38" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="5" t="s">
         <v>232</v>
       </c>
       <c r="H38" t="s">
@@ -3956,32 +4082,32 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" s="10" customFormat="1" spans="1:13">
-      <c r="A39" s="10">
+    <row r="39" s="3" customFormat="1" spans="1:13">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="10" t="s">
+      <c r="F39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K39" s="24" t="s">
@@ -3990,7 +4116,7 @@
       <c r="L39" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="M39" s="10">
+      <c r="M39" s="3">
         <v>84</v>
       </c>
     </row>
@@ -4004,7 +4130,7 @@
       <c r="C40" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>242</v>
       </c>
       <c r="E40" t="s">
@@ -4013,7 +4139,7 @@
       <c r="F40" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="5" t="s">
         <v>244</v>
       </c>
       <c r="H40" t="s">
@@ -4042,7 +4168,7 @@
       <c r="C41" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>247</v>
       </c>
       <c r="E41" t="s">
@@ -4051,7 +4177,7 @@
       <c r="F41" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="5" t="s">
         <v>249</v>
       </c>
       <c r="H41" t="s">
@@ -4080,7 +4206,7 @@
       <c r="C42" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>254</v>
       </c>
       <c r="E42" t="s">
@@ -4089,7 +4215,7 @@
       <c r="F42" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="5" t="s">
         <v>256</v>
       </c>
       <c r="H42" t="s">
@@ -4108,41 +4234,41 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" s="10" customFormat="1" spans="1:13">
-      <c r="A43" s="10">
+    <row r="43" s="3" customFormat="1" spans="1:13">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="10" t="s">
+      <c r="F43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I43" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="10" t="s">
+      <c r="I43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="M43" s="10">
+      <c r="M43" s="3">
         <v>84</v>
       </c>
     </row>
@@ -4228,7 +4354,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C1" sqref="A1:O45"/>
     </sheetView>
@@ -4306,7 +4432,7 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -4335,7 +4461,7 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>272</v>
       </c>
       <c r="E3" t="s">
@@ -4344,7 +4470,7 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>274</v>
       </c>
       <c r="H3" t="s">
@@ -4385,7 +4511,7 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
@@ -4423,7 +4549,7 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H5" t="s">
@@ -4452,7 +4578,7 @@
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
@@ -4499,7 +4625,7 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
@@ -4537,7 +4663,7 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>57</v>
       </c>
       <c r="H8" t="s">
@@ -4566,7 +4692,7 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E9" t="s">
@@ -4575,7 +4701,7 @@
       <c r="F9" t="s">
         <v>283</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
@@ -4607,7 +4733,7 @@
       <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E10" t="s">
@@ -4616,7 +4742,7 @@
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>71</v>
       </c>
       <c r="H10" t="s">
@@ -4651,7 +4777,7 @@
       <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E11" t="s">
@@ -4660,7 +4786,7 @@
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
@@ -4698,7 +4824,7 @@
       <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H12" t="s">
@@ -4736,7 +4862,7 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
@@ -4765,7 +4891,7 @@
       <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E14" t="s">
@@ -4774,7 +4900,7 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>97</v>
       </c>
       <c r="H14" t="s">
@@ -4786,7 +4912,7 @@
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="M14">
@@ -4797,7 +4923,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E15" t="s">
@@ -4806,7 +4932,7 @@
       <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>100</v>
       </c>
       <c r="H15" t="s">
@@ -4832,7 +4958,7 @@
       <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E16" t="s">
@@ -4841,7 +4967,7 @@
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>105</v>
       </c>
       <c r="H16" t="s">
@@ -4864,13 +4990,13 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C17" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>294</v>
       </c>
       <c r="E17" t="s">
@@ -4879,7 +5005,7 @@
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>296</v>
       </c>
       <c r="H17" t="s">
@@ -4940,13 +5066,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>121</v>
       </c>
       <c r="E19" t="s">
@@ -4955,7 +5081,7 @@
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="8" t="s">
         <v>123</v>
       </c>
       <c r="H19" t="s">
@@ -4964,17 +5090,17 @@
       <c r="I19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="9">
         <v>84</v>
       </c>
-      <c r="N19" s="5"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
@@ -4986,7 +5112,7 @@
       <c r="C20" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E20" t="s">
@@ -5004,10 +5130,10 @@
       <c r="I20" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="6" t="s">
+      <c r="K20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>131</v>
       </c>
       <c r="M20">
@@ -5024,7 +5150,7 @@
       <c r="C21" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E21" t="s">
@@ -5042,10 +5168,10 @@
       <c r="I21" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="6" t="s">
+      <c r="K21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="9" t="s">
         <v>137</v>
       </c>
       <c r="M21">
@@ -5080,10 +5206,10 @@
       <c r="I22" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="6" t="s">
+      <c r="K22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>143</v>
       </c>
       <c r="M22">
@@ -5100,7 +5226,7 @@
       <c r="C23" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>302</v>
       </c>
       <c r="E23" t="s">
@@ -5118,10 +5244,10 @@
       <c r="I23" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="6" t="s">
+      <c r="K23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>149</v>
       </c>
       <c r="M23">
@@ -5138,7 +5264,7 @@
       <c r="C24" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>152</v>
       </c>
       <c r="E24" t="s">
@@ -5156,10 +5282,10 @@
       <c r="I24" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="6" t="s">
+      <c r="K24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>156</v>
       </c>
       <c r="M24">
@@ -5170,13 +5296,13 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C25" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>159</v>
       </c>
       <c r="E25" t="s">
@@ -5194,10 +5320,10 @@
       <c r="I25" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="6" t="s">
+      <c r="K25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="9" t="s">
         <v>156</v>
       </c>
       <c r="M25">
@@ -5214,7 +5340,7 @@
       <c r="C26" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E26" t="s">
@@ -5232,10 +5358,10 @@
       <c r="I26" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="6" t="s">
+      <c r="K26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>167</v>
       </c>
       <c r="M26">
@@ -5252,7 +5378,7 @@
       <c r="C27" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>170</v>
       </c>
       <c r="E27" t="s">
@@ -5270,10 +5396,10 @@
       <c r="I27" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="6" t="s">
+      <c r="K27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="9" t="s">
         <v>173</v>
       </c>
       <c r="M27">
@@ -5290,7 +5416,7 @@
       <c r="C28" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E28" t="s">
@@ -5308,10 +5434,10 @@
       <c r="I28" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="6" t="s">
+      <c r="K28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>178</v>
       </c>
       <c r="M28">
@@ -5328,7 +5454,7 @@
       <c r="C29" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E29" t="s">
@@ -5346,10 +5472,10 @@
       <c r="I29" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="6" t="s">
+      <c r="K29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="9" t="s">
         <v>183</v>
       </c>
       <c r="M29">
@@ -5360,13 +5486,13 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C30" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E30" t="s">
@@ -5384,10 +5510,10 @@
       <c r="I30" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="6" t="s">
+      <c r="K30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="9" t="s">
         <v>189</v>
       </c>
       <c r="M30">
@@ -5404,7 +5530,7 @@
       <c r="C31" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>192</v>
       </c>
       <c r="E31" t="s">
@@ -5422,10 +5548,10 @@
       <c r="I31" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="6" t="s">
+      <c r="K31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="9" t="s">
         <v>195</v>
       </c>
       <c r="M31">
@@ -5442,7 +5568,7 @@
       <c r="C32" t="s">
         <v>314</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E32" t="s">
@@ -5460,10 +5586,10 @@
       <c r="I32" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="6" t="s">
+      <c r="K32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="9" t="s">
         <v>195</v>
       </c>
       <c r="M32">
@@ -5480,7 +5606,7 @@
       <c r="C33" t="s">
         <v>202</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E33" t="s">
@@ -5498,10 +5624,10 @@
       <c r="I33" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="6" t="s">
+      <c r="K33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="9" t="s">
         <v>195</v>
       </c>
       <c r="M33">
@@ -5536,10 +5662,10 @@
       <c r="I34" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="6" t="s">
+      <c r="K34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="9" t="s">
         <v>211</v>
       </c>
       <c r="M34">
@@ -5556,7 +5682,7 @@
       <c r="C35" t="s">
         <v>213</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>214</v>
       </c>
       <c r="E35" t="s">
@@ -5574,10 +5700,10 @@
       <c r="I35" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="6" t="s">
+      <c r="K35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="9" t="s">
         <v>216</v>
       </c>
       <c r="M35">
@@ -5594,7 +5720,7 @@
       <c r="C36" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E36" t="s">
@@ -5612,10 +5738,10 @@
       <c r="I36" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="6" t="s">
+      <c r="K36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="9" t="s">
         <v>216</v>
       </c>
       <c r="M36">
@@ -5641,7 +5767,7 @@
       <c r="F37" t="s">
         <v>283</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="5" t="s">
         <v>226</v>
       </c>
       <c r="H37" t="s">
@@ -5682,7 +5808,7 @@
       <c r="F38" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="5" t="s">
         <v>232</v>
       </c>
       <c r="H38" t="s">
@@ -5708,13 +5834,13 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C39" t="s">
         <v>235</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>236</v>
       </c>
       <c r="E39" t="s">
@@ -5732,10 +5858,10 @@
       <c r="I39" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="6" t="s">
+      <c r="K39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="9" t="s">
         <v>239</v>
       </c>
       <c r="M39">
@@ -5752,7 +5878,7 @@
       <c r="C40" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>242</v>
       </c>
       <c r="E40" t="s">
@@ -5761,7 +5887,7 @@
       <c r="F40" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="5" t="s">
         <v>244</v>
       </c>
       <c r="H40" t="s">
@@ -5790,7 +5916,7 @@
       <c r="C41" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>247</v>
       </c>
       <c r="E41" t="s">
@@ -5799,7 +5925,7 @@
       <c r="F41" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="5" t="s">
         <v>249</v>
       </c>
       <c r="H41" t="s">
@@ -5828,7 +5954,7 @@
       <c r="C42" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>254</v>
       </c>
       <c r="E42" t="s">
@@ -5837,7 +5963,7 @@
       <c r="F42" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="5" t="s">
         <v>256</v>
       </c>
       <c r="H42" t="s">
@@ -5866,7 +5992,7 @@
       <c r="C43" t="s">
         <v>258</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E43" t="s">
@@ -6377,7 +6503,7 @@
       <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>353</v>
       </c>
       <c r="H12" t="s">
@@ -6622,7 +6748,7 @@
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H19" t="s">
@@ -6744,7 +6870,7 @@
       <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E23" t="s">
@@ -6779,7 +6905,7 @@
       <c r="C24" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="10" t="s">
         <v>95</v>
       </c>
       <c r="E24" t="s">
@@ -6808,7 +6934,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="10" t="s">
         <v>99</v>
       </c>
       <c r="E25" t="s">
@@ -6840,7 +6966,7 @@
       <c r="C26" t="s">
         <v>388</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="10" t="s">
         <v>389</v>
       </c>
       <c r="E26" t="s">
@@ -6875,7 +7001,7 @@
       <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E27" t="s">
@@ -6910,7 +7036,7 @@
       <c r="C28" t="s">
         <v>246</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="10" t="s">
         <v>247</v>
       </c>
       <c r="E28" t="s">
@@ -6945,7 +7071,7 @@
       <c r="C29" t="s">
         <v>396</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="10" t="s">
         <v>397</v>
       </c>
       <c r="E29" t="s">
@@ -6980,7 +7106,7 @@
       <c r="C30" t="s">
         <v>241</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="10" t="s">
         <v>242</v>
       </c>
       <c r="E30" t="s">
@@ -7015,7 +7141,7 @@
       <c r="C31" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E31" t="s">
@@ -7053,7 +7179,7 @@
       <c r="C32" t="s">
         <v>253</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="10" t="s">
         <v>254</v>
       </c>
       <c r="E32" t="s">
@@ -7088,7 +7214,7 @@
       <c r="C33" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E33" t="s">
@@ -7123,7 +7249,7 @@
       <c r="C34" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="10" t="s">
         <v>103</v>
       </c>
       <c r="E34" t="s">
@@ -7152,13 +7278,13 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C35" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="10" t="s">
         <v>109</v>
       </c>
       <c r="E35" t="s">
@@ -7192,1388 +7318,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="2" max="2" width="36.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="35.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="20.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="22.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="27.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.5" customHeight="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="H3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s">
-        <v>410</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3">
-        <v>189</v>
-      </c>
-      <c r="O3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>411</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>412</v>
-      </c>
-      <c r="J4" t="s">
-        <v>413</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>414</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>412</v>
-      </c>
-      <c r="J5" t="s">
-        <v>413</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>415</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>412</v>
-      </c>
-      <c r="J6" t="s">
-        <v>413</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>412</v>
-      </c>
-      <c r="J7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>417</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>412</v>
-      </c>
-      <c r="I8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" t="s">
-        <v>418</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>419</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>284</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>420</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" t="s">
-        <v>286</v>
-      </c>
-      <c r="I10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" t="s">
-        <v>287</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10">
-        <v>189</v>
-      </c>
-      <c r="O10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>420</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" t="s">
-        <v>421</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" t="s">
-        <v>422</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" t="s">
-        <v>423</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" t="s">
-        <v>424</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" t="s">
-        <v>425</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" t="s">
-        <v>426</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" t="s">
-        <v>425</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" t="s">
-        <v>427</v>
-      </c>
-      <c r="K15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" t="s">
-        <v>428</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" t="s">
-        <v>429</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" t="s">
-        <v>106</v>
-      </c>
-      <c r="M16">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E17" t="s">
-        <v>430</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H17" t="s">
-        <v>296</v>
-      </c>
-      <c r="I17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" t="s">
-        <v>431</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" t="s">
-        <v>112</v>
-      </c>
-      <c r="M17">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" t="s">
-        <v>432</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" t="s">
-        <v>412</v>
-      </c>
-      <c r="J18" t="s">
-        <v>413</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" t="s">
-        <v>118</v>
-      </c>
-      <c r="M18">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" t="s">
-        <v>433</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" t="s">
-        <v>412</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" s="6">
-        <v>84</v>
-      </c>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" t="s">
-        <v>434</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G20" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" t="s">
-        <v>435</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="M20">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" t="s">
-        <v>436</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" t="s">
-        <v>412</v>
-      </c>
-      <c r="J21" t="s">
-        <v>413</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" t="s">
-        <v>437</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" t="s">
-        <v>412</v>
-      </c>
-      <c r="J22" t="s">
-        <v>413</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="M22">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" t="s">
-        <v>438</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" t="s">
-        <v>412</v>
-      </c>
-      <c r="I23" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" t="s">
-        <v>439</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="M23">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" t="s">
-        <v>440</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" t="s">
-        <v>412</v>
-      </c>
-      <c r="I24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" t="s">
-        <v>441</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="M24">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" t="s">
-        <v>442</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G25" t="s">
-        <v>166</v>
-      </c>
-      <c r="H25" t="s">
-        <v>166</v>
-      </c>
-      <c r="I25" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" t="s">
-        <v>443</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M25">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" t="s">
-        <v>444</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G26" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" t="s">
-        <v>172</v>
-      </c>
-      <c r="I26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" t="s">
-        <v>445</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="M26">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E27" t="s">
-        <v>446</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G27" t="s">
-        <v>166</v>
-      </c>
-      <c r="H27" t="s">
-        <v>166</v>
-      </c>
-      <c r="I27" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" t="s">
-        <v>447</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="M27">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" t="s">
-        <v>448</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G28" t="s">
-        <v>172</v>
-      </c>
-      <c r="H28" t="s">
-        <v>172</v>
-      </c>
-      <c r="I28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" t="s">
-        <v>449</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="M28">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" t="s">
-        <v>450</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G29" t="s">
-        <v>188</v>
-      </c>
-      <c r="H29" t="s">
-        <v>188</v>
-      </c>
-      <c r="I29" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" t="s">
-        <v>451</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="M29">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" t="s">
-        <v>452</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>194</v>
-      </c>
-      <c r="H30" t="s">
-        <v>412</v>
-      </c>
-      <c r="J30" t="s">
-        <v>413</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M30">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C31" t="s">
-        <v>314</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" t="s">
-        <v>453</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>200</v>
-      </c>
-      <c r="H31" t="s">
-        <v>412</v>
-      </c>
-      <c r="J31" t="s">
-        <v>413</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M31">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E32" t="s">
-        <v>454</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H32" t="s">
-        <v>244</v>
-      </c>
-      <c r="I32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" t="s">
-        <v>455</v>
-      </c>
-      <c r="K32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" t="s">
-        <v>239</v>
-      </c>
-      <c r="M32">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C33" t="s">
-        <v>264</v>
-      </c>
-      <c r="D33" t="s">
-        <v>265</v>
-      </c>
-      <c r="E33" t="s">
-        <v>456</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G33" t="s">
-        <v>267</v>
-      </c>
-      <c r="H33" t="s">
-        <v>267</v>
-      </c>
-      <c r="I33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J33" t="s">
-        <v>457</v>
-      </c>
-      <c r="K33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" t="s">
-        <v>268</v>
-      </c>
-      <c r="M33">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>269</v>
-      </c>
-      <c r="E34" t="s">
-        <v>456</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G34" t="s">
-        <v>270</v>
-      </c>
-      <c r="H34" t="s">
-        <v>270</v>
-      </c>
-      <c r="I34" t="s">
-        <v>73</v>
-      </c>
-      <c r="J34" t="s">
-        <v>427</v>
-      </c>
-      <c r="K34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L14:L15"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -8649,7 +7397,7 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -8668,44 +7416,44 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" spans="1:13">
-      <c r="A3" s="8">
+    <row r="3" s="11" customFormat="1" spans="1:13">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="J3" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="11">
         <v>189</v>
       </c>
     </row>
@@ -8728,7 +7476,7 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
@@ -8766,7 +7514,7 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H5" t="s">
@@ -8795,7 +7543,7 @@
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
@@ -8842,7 +7590,7 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
@@ -8880,7 +7628,7 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>57</v>
       </c>
       <c r="H8" t="s">
@@ -8909,7 +7657,7 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E9" t="s">
@@ -8918,7 +7666,7 @@
       <c r="F9" t="s">
         <v>283</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
@@ -8940,44 +7688,44 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" spans="1:13">
-      <c r="A10" s="9">
+    <row r="10" s="12" customFormat="1" spans="1:13">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="9" t="s">
+      <c r="K10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="12">
         <v>189</v>
       </c>
     </row>
@@ -8991,7 +7739,7 @@
       <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E11" t="s">
@@ -9000,7 +7748,7 @@
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
@@ -9038,7 +7786,7 @@
       <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H12" t="s">
@@ -9076,7 +7824,7 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
@@ -9105,7 +7853,7 @@
       <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E14" t="s">
@@ -9114,7 +7862,7 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>97</v>
       </c>
       <c r="H14" t="s">
@@ -9126,7 +7874,7 @@
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="M14">
@@ -9137,7 +7885,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E15" t="s">
@@ -9146,7 +7894,7 @@
       <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>100</v>
       </c>
       <c r="H15" t="s">
@@ -9172,7 +7920,7 @@
       <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E16" t="s">
@@ -9181,7 +7929,7 @@
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>105</v>
       </c>
       <c r="H16" t="s">
@@ -9200,44 +7948,44 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" s="10" customFormat="1" spans="1:13">
-      <c r="A17" s="10">
+    <row r="17" s="3" customFormat="1" spans="1:13">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="10" t="s">
+      <c r="J17" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="3">
         <v>189</v>
       </c>
     </row>
@@ -9283,13 +8031,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>121</v>
       </c>
       <c r="E19" t="s">
@@ -9298,7 +8046,7 @@
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="8" t="s">
         <v>123</v>
       </c>
       <c r="H19" t="s">
@@ -9307,19 +8055,19 @@
       <c r="I19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="9">
         <v>84</v>
       </c>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" s="10" customFormat="1" spans="1:13">
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9329,7 +8077,7 @@
       <c r="C20" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E20" t="s">
@@ -9347,17 +8095,17 @@
       <c r="I20" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="6" t="s">
+      <c r="K20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>131</v>
       </c>
       <c r="M20">
         <v>84</v>
       </c>
     </row>
-    <row r="21" s="10" customFormat="1" spans="1:13">
+    <row r="21" s="3" customFormat="1" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9367,7 +8115,7 @@
       <c r="C21" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E21" t="s">
@@ -9385,17 +8133,17 @@
       <c r="I21" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="6" t="s">
+      <c r="K21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="9" t="s">
         <v>137</v>
       </c>
       <c r="M21">
         <v>84</v>
       </c>
     </row>
-    <row r="22" s="10" customFormat="1" spans="1:13">
+    <row r="22" s="3" customFormat="1" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9423,17 +8171,17 @@
       <c r="I22" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="6" t="s">
+      <c r="K22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>143</v>
       </c>
       <c r="M22">
         <v>84</v>
       </c>
     </row>
-    <row r="23" s="10" customFormat="1" spans="1:13">
+    <row r="23" s="3" customFormat="1" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9443,7 +8191,7 @@
       <c r="C23" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>302</v>
       </c>
       <c r="E23" t="s">
@@ -9461,17 +8209,17 @@
       <c r="I23" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="6" t="s">
+      <c r="K23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>149</v>
       </c>
       <c r="M23">
         <v>84</v>
       </c>
     </row>
-    <row r="24" s="10" customFormat="1" spans="1:13">
+    <row r="24" s="3" customFormat="1" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9481,7 +8229,7 @@
       <c r="C24" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>152</v>
       </c>
       <c r="E24" t="s">
@@ -9499,27 +8247,27 @@
       <c r="I24" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="6" t="s">
+      <c r="K24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>156</v>
       </c>
       <c r="M24">
         <v>84</v>
       </c>
     </row>
-    <row r="25" s="10" customFormat="1" spans="1:13">
+    <row r="25" s="3" customFormat="1" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C25" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>159</v>
       </c>
       <c r="E25" t="s">
@@ -9537,17 +8285,17 @@
       <c r="I25" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="6" t="s">
+      <c r="K25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="9" t="s">
         <v>156</v>
       </c>
       <c r="M25">
         <v>84</v>
       </c>
     </row>
-    <row r="26" s="10" customFormat="1" spans="1:13">
+    <row r="26" s="3" customFormat="1" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9557,7 +8305,7 @@
       <c r="C26" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E26" t="s">
@@ -9575,17 +8323,17 @@
       <c r="I26" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="6" t="s">
+      <c r="K26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>167</v>
       </c>
       <c r="M26">
         <v>84</v>
       </c>
     </row>
-    <row r="27" s="10" customFormat="1" spans="1:13">
+    <row r="27" s="3" customFormat="1" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9595,7 +8343,7 @@
       <c r="C27" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>170</v>
       </c>
       <c r="E27" t="s">
@@ -9613,17 +8361,17 @@
       <c r="I27" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="6" t="s">
+      <c r="K27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="9" t="s">
         <v>173</v>
       </c>
       <c r="M27">
         <v>84</v>
       </c>
     </row>
-    <row r="28" s="10" customFormat="1" spans="1:13">
+    <row r="28" s="3" customFormat="1" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9633,7 +8381,7 @@
       <c r="C28" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E28" t="s">
@@ -9651,17 +8399,17 @@
       <c r="I28" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="6" t="s">
+      <c r="K28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>178</v>
       </c>
       <c r="M28">
         <v>84</v>
       </c>
     </row>
-    <row r="29" s="10" customFormat="1" spans="1:13">
+    <row r="29" s="3" customFormat="1" spans="1:13">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9671,7 +8419,7 @@
       <c r="C29" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E29" t="s">
@@ -9689,27 +8437,27 @@
       <c r="I29" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="6" t="s">
+      <c r="K29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="9" t="s">
         <v>183</v>
       </c>
       <c r="M29">
         <v>84</v>
       </c>
     </row>
-    <row r="30" s="10" customFormat="1" spans="1:13">
+    <row r="30" s="3" customFormat="1" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C30" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E30" t="s">
@@ -9727,17 +8475,17 @@
       <c r="I30" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="6" t="s">
+      <c r="K30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="9" t="s">
         <v>189</v>
       </c>
       <c r="M30">
         <v>84</v>
       </c>
     </row>
-    <row r="31" s="10" customFormat="1" spans="1:13">
+    <row r="31" s="3" customFormat="1" spans="1:13">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9747,7 +8495,7 @@
       <c r="C31" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>192</v>
       </c>
       <c r="E31" t="s">
@@ -9765,17 +8513,17 @@
       <c r="I31" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="6" t="s">
+      <c r="K31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="9" t="s">
         <v>195</v>
       </c>
       <c r="M31">
         <v>84</v>
       </c>
     </row>
-    <row r="32" s="10" customFormat="1" spans="1:13">
+    <row r="32" s="3" customFormat="1" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9785,7 +8533,7 @@
       <c r="C32" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E32" t="s">
@@ -9803,17 +8551,17 @@
       <c r="I32" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="6" t="s">
+      <c r="K32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="9" t="s">
         <v>195</v>
       </c>
       <c r="M32">
         <v>84</v>
       </c>
     </row>
-    <row r="33" s="10" customFormat="1" spans="1:13">
+    <row r="33" s="3" customFormat="1" spans="1:13">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9823,7 +8571,7 @@
       <c r="C33" t="s">
         <v>202</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E33" t="s">
@@ -9841,17 +8589,17 @@
       <c r="I33" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="6" t="s">
+      <c r="K33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="9" t="s">
         <v>195</v>
       </c>
       <c r="M33">
         <v>84</v>
       </c>
     </row>
-    <row r="34" s="10" customFormat="1" spans="1:13">
+    <row r="34" s="3" customFormat="1" spans="1:13">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9879,17 +8627,17 @@
       <c r="I34" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="6" t="s">
+      <c r="K34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="9" t="s">
         <v>211</v>
       </c>
       <c r="M34">
         <v>84</v>
       </c>
     </row>
-    <row r="35" s="10" customFormat="1" spans="1:13">
+    <row r="35" s="3" customFormat="1" spans="1:13">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9899,7 +8647,7 @@
       <c r="C35" t="s">
         <v>213</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>214</v>
       </c>
       <c r="E35" t="s">
@@ -9917,17 +8665,17 @@
       <c r="I35" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="6" t="s">
+      <c r="K35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="9" t="s">
         <v>216</v>
       </c>
       <c r="M35">
         <v>84</v>
       </c>
     </row>
-    <row r="36" s="10" customFormat="1" spans="1:13">
+    <row r="36" s="3" customFormat="1" spans="1:13">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9937,7 +8685,7 @@
       <c r="C36" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E36" t="s">
@@ -9955,109 +8703,109 @@
       <c r="I36" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="6" t="s">
+      <c r="K36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="9" t="s">
         <v>216</v>
       </c>
       <c r="M36">
         <v>84</v>
       </c>
     </row>
-    <row r="37" s="10" customFormat="1" spans="1:13">
-      <c r="A37" s="10">
+    <row r="37" s="3" customFormat="1" spans="1:13">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="K37" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="10" t="s">
+      <c r="K37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="M37" s="10">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" s="11" customFormat="1" spans="1:13">
-      <c r="A38" s="11">
+      <c r="M37" s="3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" s="13" customFormat="1" spans="1:13">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="18" t="s">
+      <c r="F38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="11" t="s">
+      <c r="K38" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="M38" s="11">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" s="10" customFormat="1" spans="1:13">
+      <c r="M38" s="13">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" s="3" customFormat="1" spans="1:13">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C39" t="s">
         <v>235</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>236</v>
       </c>
       <c r="E39" t="s">
@@ -10075,10 +8823,10 @@
       <c r="I39" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="6" t="s">
+      <c r="K39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="9" t="s">
         <v>239</v>
       </c>
       <c r="M39">
@@ -10095,7 +8843,7 @@
       <c r="C40" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>242</v>
       </c>
       <c r="E40" t="s">
@@ -10104,7 +8852,7 @@
       <c r="F40" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="5" t="s">
         <v>244</v>
       </c>
       <c r="H40" t="s">
@@ -10133,7 +8881,7 @@
       <c r="C41" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>247</v>
       </c>
       <c r="E41" t="s">
@@ -10142,7 +8890,7 @@
       <c r="F41" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="5" t="s">
         <v>249</v>
       </c>
       <c r="H41" t="s">
@@ -10171,7 +8919,7 @@
       <c r="C42" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>254</v>
       </c>
       <c r="E42" t="s">
@@ -10180,7 +8928,7 @@
       <c r="F42" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="5" t="s">
         <v>256</v>
       </c>
       <c r="H42" t="s">
@@ -10199,7 +8947,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" s="10" customFormat="1" spans="1:13">
+    <row r="43" s="3" customFormat="1" spans="1:13">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10209,7 +8957,7 @@
       <c r="C43" t="s">
         <v>258</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E43" t="s">
@@ -10313,7 +9061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N2"/>
@@ -10381,13 +9129,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="C2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>464</v>
+        <v>415</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>416</v>
       </c>
       <c r="G2" t="s">
         <v>154</v>
@@ -10404,6 +9152,1390 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="$A6:$XFD6 $A9:$XFD9 $A12:$XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="64.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H3" t="s">
+        <v>421</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3">
+        <v>189</v>
+      </c>
+      <c r="O3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>423</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>425</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>427</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>429</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>431</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>432</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>433</v>
+      </c>
+      <c r="F9" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s">
+        <v>435</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10">
+        <v>189</v>
+      </c>
+      <c r="O10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>436</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="H11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11">
+        <v>189</v>
+      </c>
+      <c r="N11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>441</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>442</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s">
+        <v>443</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>444</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s">
+        <v>445</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>444</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s">
+        <v>446</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>447</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" t="s">
+        <v>448</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" t="s">
+        <v>449</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H17" t="s">
+        <v>296</v>
+      </c>
+      <c r="I17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" t="s">
+        <v>413</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>450</v>
+      </c>
+      <c r="F18" t="s">
+        <v>283</v>
+      </c>
+      <c r="G18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" t="s">
+        <v>451</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s">
+        <v>452</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" ht="38.25" customHeight="1" spans="1:13">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>453</v>
+      </c>
+      <c r="F19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s">
+        <v>451</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s">
+        <v>454</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" ht="25.5" customHeight="1" spans="1:13">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" t="s">
+        <v>455</v>
+      </c>
+      <c r="F20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s">
+        <v>456</v>
+      </c>
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" ht="38.25" customHeight="1" spans="1:13">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" t="s">
+        <v>457</v>
+      </c>
+      <c r="F21" t="s">
+        <v>283</v>
+      </c>
+      <c r="G21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" t="s">
+        <v>451</v>
+      </c>
+      <c r="I21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s">
+        <v>458</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>137</v>
+      </c>
+      <c r="M21">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" ht="38.25" customHeight="1" spans="1:13">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" t="s">
+        <v>459</v>
+      </c>
+      <c r="F22" t="s">
+        <v>283</v>
+      </c>
+      <c r="G22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" t="s">
+        <v>451</v>
+      </c>
+      <c r="I22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s">
+        <v>460</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>143</v>
+      </c>
+      <c r="M22">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" ht="38.25" customHeight="1" spans="1:13">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" t="s">
+        <v>461</v>
+      </c>
+      <c r="F23" t="s">
+        <v>283</v>
+      </c>
+      <c r="G23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" t="s">
+        <v>451</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" t="s">
+        <v>462</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>156</v>
+      </c>
+      <c r="M23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" ht="38.25" customHeight="1" spans="1:13">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" t="s">
+        <v>463</v>
+      </c>
+      <c r="F24" t="s">
+        <v>283</v>
+      </c>
+      <c r="G24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" t="s">
+        <v>451</v>
+      </c>
+      <c r="I24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" t="s">
+        <v>464</v>
+      </c>
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" t="s">
+        <v>156</v>
+      </c>
+      <c r="M24">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" ht="38.25" customHeight="1" spans="1:13">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F25" t="s">
+        <v>283</v>
+      </c>
+      <c r="G25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" t="s">
+        <v>466</v>
+      </c>
+      <c r="K25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>167</v>
+      </c>
+      <c r="M25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" ht="38.25" customHeight="1" spans="1:13">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" t="s">
+        <v>467</v>
+      </c>
+      <c r="F26" t="s">
+        <v>283</v>
+      </c>
+      <c r="G26" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" t="s">
+        <v>172</v>
+      </c>
+      <c r="I26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" t="s">
+        <v>468</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" t="s">
+        <v>173</v>
+      </c>
+      <c r="M26">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" ht="51" customHeight="1" spans="1:13">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" t="s">
+        <v>469</v>
+      </c>
+      <c r="F27" t="s">
+        <v>283</v>
+      </c>
+      <c r="G27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" t="s">
+        <v>470</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" t="s">
+        <v>178</v>
+      </c>
+      <c r="M27">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" ht="51" customHeight="1" spans="1:13">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" t="s">
+        <v>471</v>
+      </c>
+      <c r="F28" t="s">
+        <v>283</v>
+      </c>
+      <c r="G28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" t="s">
+        <v>472</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" t="s">
+        <v>183</v>
+      </c>
+      <c r="M28">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" ht="51" customHeight="1" spans="1:13">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" t="s">
+        <v>473</v>
+      </c>
+      <c r="F29" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" t="s">
+        <v>474</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" t="s">
+        <v>189</v>
+      </c>
+      <c r="M29">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" ht="38.25" customHeight="1" spans="1:13">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" t="s">
+        <v>475</v>
+      </c>
+      <c r="F30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H30" t="s">
+        <v>451</v>
+      </c>
+      <c r="I30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" t="s">
+        <v>476</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>195</v>
+      </c>
+      <c r="M30">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" ht="38.25" customHeight="1" spans="1:13">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" t="s">
+        <v>314</v>
+      </c>
+      <c r="D31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" t="s">
+        <v>477</v>
+      </c>
+      <c r="F31" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" t="s">
+        <v>451</v>
+      </c>
+      <c r="I31" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" t="s">
+        <v>478</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>195</v>
+      </c>
+      <c r="M31">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" t="s">
+        <v>479</v>
+      </c>
+      <c r="F32" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" t="s">
+        <v>244</v>
+      </c>
+      <c r="H32" t="s">
+        <v>244</v>
+      </c>
+      <c r="I32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" t="s">
+        <v>480</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" t="s">
+        <v>239</v>
+      </c>
+      <c r="M32">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" t="s">
+        <v>264</v>
+      </c>
+      <c r="D33" t="s">
+        <v>265</v>
+      </c>
+      <c r="E33" t="s">
+        <v>481</v>
+      </c>
+      <c r="F33" t="s">
+        <v>283</v>
+      </c>
+      <c r="G33" t="s">
+        <v>267</v>
+      </c>
+      <c r="H33" t="s">
+        <v>267</v>
+      </c>
+      <c r="I33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" t="s">
+        <v>482</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" t="s">
+        <v>268</v>
+      </c>
+      <c r="M33">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>269</v>
+      </c>
+      <c r="E34" t="s">
+        <v>481</v>
+      </c>
+      <c r="F34" t="s">
+        <v>283</v>
+      </c>
+      <c r="G34" t="s">
+        <v>270</v>
+      </c>
+      <c r="H34" t="s">
+        <v>270</v>
+      </c>
+      <c r="I34" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" t="s">
+        <v>446</v>
+      </c>
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L14:L15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -10414,7 +10546,513 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="34.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="38.25" customHeight="1" spans="1:13">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" ht="38.25" customHeight="1" spans="1:13">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" t="s">
+        <v>484</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" ht="51" customHeight="1" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" t="s">
+        <v>485</v>
+      </c>
+      <c r="F4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" t="s">
+        <v>486</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="M4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" ht="38.25" customHeight="1" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>488</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="M5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" ht="51" customHeight="1" spans="1:13">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>490</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="M6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" t="s">
+        <v>493</v>
+      </c>
+      <c r="F8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>321</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>227</v>
+      </c>
+      <c r="M8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1" spans="1:13">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" t="s">
+        <v>494</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H9" t="s">
+        <v>495</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="M9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" t="s">
+        <v>496</v>
+      </c>
+      <c r="F10" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" t="s">
+        <v>256</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s">
+        <v>497</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>251</v>
+      </c>
+      <c r="M10">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" t="s">
+        <v>498</v>
+      </c>
+      <c r="F11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" t="s">
+        <v>499</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>251</v>
+      </c>
+      <c r="M11">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" t="s">
+        <v>500</v>
+      </c>
+      <c r="F12" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>501</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>262</v>
+      </c>
+      <c r="M12">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -10463,232 +11101,232 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="38.25" customHeight="1" spans="1:13">
+    <row r="2" spans="1:13">
       <c r="A2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>302</v>
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>426</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>149</v>
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
       </c>
       <c r="M2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" ht="38.25" customHeight="1" spans="1:13">
-      <c r="A3">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" t="s">
-        <v>316</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" ht="51" customHeight="1" spans="1:13">
-      <c r="A4">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="E4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>210</v>
+        <v>440</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>216</v>
+        <v>73</v>
+      </c>
+      <c r="J4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>87</v>
       </c>
       <c r="M4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" ht="38.25" customHeight="1" spans="1:13">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>317</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>210</v>
+        <v>442</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>211</v>
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>443</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>92</v>
       </c>
       <c r="M5">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" ht="51" customHeight="1" spans="1:13">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>219</v>
+        <v>94</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>319</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>221</v>
+        <v>444</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="H6" t="s">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>216</v>
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>445</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>84</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" t="s">
-        <v>230</v>
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>232</v>
+        <v>444</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>323</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
         <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>324</v>
+        <v>446</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
-      </c>
-      <c r="L7" t="s">
-        <v>233</v>
       </c>
       <c r="M7">
         <v>189</v>
@@ -10696,198 +11334,90 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" t="s">
-        <v>224</v>
+        <v>102</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>320</v>
-      </c>
-      <c r="F8" t="s">
+        <v>447</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>226</v>
+      <c r="G8" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="H8" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="I8" t="s">
         <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>321</v>
+        <v>448</v>
       </c>
       <c r="K8" t="s">
         <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="M8">
         <v>189</v>
       </c>
     </row>
-    <row r="9" ht="25.5" customHeight="1" spans="1:13">
+    <row r="9" spans="1:13">
       <c r="A9">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>234</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>236</v>
+        <v>108</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="E9" t="s">
-        <v>325</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>238</v>
+        <v>449</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="H9" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>239</v>
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>413</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
       </c>
       <c r="M9">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E10" t="s">
-        <v>328</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H10" t="s">
-        <v>256</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" t="s">
-        <v>251</v>
-      </c>
-      <c r="M10">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E11" t="s">
-        <v>327</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" t="s">
-        <v>251</v>
-      </c>
-      <c r="M11">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E12" t="s">
-        <v>329</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>261</v>
-      </c>
-      <c r="H12" t="s">
-        <v>261</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>262</v>
-      </c>
-      <c r="M12">
-        <v>84</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L6:L7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -8,20 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="84" sheetId="1" r:id="rId1"/>
-    <sheet name="189" sheetId="2" r:id="rId2"/>
+    <sheet name="flow_info-all" sheetId="2" r:id="rId2"/>
     <sheet name="189&amp;84" sheetId="3" r:id="rId3"/>
     <sheet name="flow_info-83" sheetId="4" r:id="rId4"/>
     <sheet name="84-append" sheetId="5" r:id="rId5"/>
-    <sheet name="flow_info-no par" sheetId="7" r:id="rId6"/>
-    <sheet name="flow_info-par" sheetId="8" r:id="rId7"/>
-    <sheet name="flow_info" sheetId="9" r:id="rId8"/>
+    <sheet name="flow_info-no par" sheetId="6" r:id="rId6"/>
+    <sheet name="flow_info-par" sheetId="7" r:id="rId7"/>
+    <sheet name="flow_info" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="556">
   <si>
     <t>id</t>
   </si>
@@ -836,62 +836,663 @@
     <t>[{"name":"tyest","id":"4","age":"12"},{"name":"","id":"5","age":""},{"name":"james","id":"6","age":"50"}]</t>
   </si>
   <si>
-    <t>7bde2f94-f1be-4ab1-8adf-0e9cfcb3108d</t>
+    <t>7f8d7b9f-adc6-4b1a-ba6d-b7b30d1cdd69</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_source_hive1545633382452 ---&gt;执行状态为 FAILED
+</t>
   </si>
   <si>
     <t>e3c9ce58-77fa-4fe1-9211-8a28a63e8438</t>
   </si>
   <si>
-    <t>7a7e2203-6a68-4f26-8ecb-a13d8e4a49d3</t>
+    <t>f2839ae9-3b73-4f35-9348-9c6338da664a</t>
   </si>
   <si>
     <t>[{"CName":"数据库","CID":"1"},{"CName":"数学","CID":"2"},{"CName":"信息系统","CID":"3"},{"CName":"操作系统","CID":"4"},{"CName":"数据结构","CID":"5"},{"CName":"数据处理","CID":"6"}]</t>
   </si>
   <si>
+    <t xml:space="preserve">flowname: tc_auto_df_source_001_mysql1545633383105 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
     <t>189环境，执行失败，找不到数据库表</t>
   </si>
   <si>
-    <t>a28afb1d-4ea2-474a-a5d6-745077136cbf</t>
-  </si>
-  <si>
-    <t>fb14ae97-8728-4837-be1d-1ad9323b545b</t>
-  </si>
-  <si>
-    <t>94f6fd4d-04d7-4b5d-accd-88504e7804ce</t>
-  </si>
-  <si>
-    <t>ff42df18-c50c-45c3-9fb5-aa8f59e9e2d4</t>
-  </si>
-  <si>
-    <t>38f10a44-e0b3-4c07-a26e-a476d14f01a3</t>
+    <t>b50f829e-5924-48ef-a00a-53ca551cf145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: students_flow2 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>tc_auto_df_sink_hive_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>分区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>1545633382059</t>
+    </r>
+  </si>
+  <si>
+    <t>cb3376c4-faa5-4837-94b6-e7ea856d8e7e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_sink_hive_分区1545633382059 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>8effb170-c951-4515-babe-43c952a05ef1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_source_hbase_append1545633381086 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>8a6f2297-a493-43c8-8620-7e37e5d4dde1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: students_flow_filter ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>0358a984-7f7e-42a2-a81e-1b34310f2f78</t>
   </si>
   <si>
     <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
   </si>
   <si>
-    <t>cba5acad-d4f2-4cfb-a88b-f52c25376fa9</t>
-  </si>
-  <si>
-    <t>FAILED</t>
+    <t>execution: 0358a984-7f7e-42a2-a81e-1b34310f2f78 执行状态为 FAILED</t>
+  </si>
+  <si>
+    <t>1583f9a9-3d2b-4ae0-929a-2117f4acbb29</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: tc_auto_df_sink_es1545633382996 ---&gt;执行状态为 FAILED
 </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>tc_auto_df_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>所有类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>_new_new1545633383317</t>
+    </r>
+  </si>
+  <si>
+    <t>099600e7-5946-485f-b9b2-f0695c9ad6fa</t>
+  </si>
+  <si>
+    <t>[{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"1","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":""},{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"1","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":"2018-08-03 10:22:24.0"}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_所有类型_new_new1545633383317 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>尝试使用新的预览接口查看数据</t>
+  </si>
+  <si>
+    <t>9974c69f-be76-4f9f-813e-9e4d9f996b45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_sink_hdfs_quoteChar1545633379258 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>05011048-5072-4a1e-b81e-8bfcd8539888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_minus1545633384706 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>612f325a-39b6-4898-b4a4-4f259ee5d104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_desicion_yes1545633385200 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>deed8224-bf0d-464b-a2e8-e04d412674ae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_split_0021545633379905 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: None ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>e1759397-515a-46a1-87e7-6d3ef8dc27da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_intersect_0011545633383879 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>690d7432-8121-4a24-a055-43fda5d7bded</t>
+  </si>
+  <si>
+    <t>4db0e115-131b-44eb-9ebd-59c6ab362399</t>
+  </si>
+  <si>
+    <t>[{"CName":"数据库","CID":"1"}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: step_test_sql ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>bf5da28b-8ede-404a-9099-e817870f6b1c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: startjoin_step_gbj ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>0194fd82-a917-46d4-9bc4-ab41c5bf6977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: productjoin_step_test_gbj ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>24fec933-ec68-4a10-9846-66632776b40b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_sqlsource_step_84 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>089aaad9-36d9-4aa9-b68e-e13c0c2ae2ac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_intersect ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>53261f49-054e-473d-829f-0c6c2ad8bcd4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_use_土葬数据清洗_transform_step ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>d3d2f8a8-b9b3-4fcc-b284-ed5057dbbb9a</t>
+  </si>
+  <si>
+    <t>4a0121e0-2289-4a36-adf1-70c553ccd29d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_supplement_step_84 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>4c871dc8-4054-4a2e-9a09-dc3a64a7c758</t>
+  </si>
+  <si>
+    <t>[{"sName":"李勇","sex":"男","class":"CS","age":"20","sId":"95001"},{"sName":"王敏","sex":"女","class":"MA","age":"22","sId":"95003"},{"sName":"张立","sex":"男","class":"IS","age":"19","sId":"95004"},{"sName":"刘刚","sex":"男","class":"MA","age":"18","sId":"95005"},{"sName":"孙庆","sex":"男","class":"CS","age":"23","sId":"95006"}]</t>
+  </si>
+  <si>
+    <t>execution: 4c871dc8-4054-4a2e-9a09-dc3a64a7c758 执行状态为 FAILED</t>
+  </si>
+  <si>
+    <t>dbcb6fda-1a85-456f-92c1-5c0604745dfb</t>
+  </si>
+  <si>
+    <t>[{"sName":"王敏","sex":"女","class":"MA","age":"22","sId":"95003"},{"sName":"刘刚","sex":"男","class":"MA","age":"18","sId":"95005"},{"sName":"孙庆","sex":"男","class":"CS","age":"23","sId":"95006"},{"sName":"孙庆","sex":"男","class":"CS","age":"23","sId":"95006"}]</t>
+  </si>
+  <si>
+    <t>execution: dbcb6fda-1a85-456f-92c1-5c0604745dfb 执行状态为 FAILED</t>
+  </si>
+  <si>
+    <t>8c0f3248-623b-41f4-8a55-f3afe8508f4a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_join_test_outer_join ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>44d5767f-7211-4d19-ab0a-6ed946a545a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_join_test_inner_join ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>ad7a9593-fb87-4abb-aef7-ba22dfa73ce9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_join_test_left_join ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>6eeab040-56d4-4cc2-a44f-8931b2b9e413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_join_test_right_join ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>8899e155-6dba-46ce-8a65-82954aaebaf2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_join_test_left_semi ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>3962b50e-4872-4066-974b-ad7fe79348e6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_aggregate_test_count ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>gbj_for_aggregate_test_sum</t>
+  </si>
+  <si>
+    <t>9643d239-6786-4401-8d6a-332b0f9c4e04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_aggregate_test_sum ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>afd33db7-6539-4efe-89bd-e06bc2488ff8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_aggregate_countdistinct_sumdistinct_approxCountDistinct ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>821f75bd-03ac-428a-a15e-3cb5e907ec6f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_lookupTable_step_MapDB ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>18fb94f5-a673-4bc9-a90d-97951043b4a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_lookup_mapDB ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>e90b590d-4218-4b7a-91fc-82c7e11ed1ae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_lookUp_test_chain ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>85a8d205-8c72-4c22-a2e8-261358c2bcf6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: students_lookupTable_redis ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>5d30dda5-27f1-4209-9db1-db29453f9415</t>
+  </si>
+  <si>
+    <t>[{"subject1":"","id":"1","name1":"","grade1":""},{"subject1":"","id":"2","name1":"","grade1":""},{"subject1":"","id":"3","name1":"","grade1":""},{"subject1":"","id":"4","name1":"","grade1":""},{"subject1":"","id":"5","name1":"","grade1":""},{"subject1":"","id":"6","name1":"","grade1":""},{"subject1":"","id":"7","name1":"","grade1":""},{"subject1":"","id":"8","name1":"","grade1":""},{"subject1":"","id":"9","name1":"","grade1":""},{"subject1":"","id":"10","name1":"","grade1":""},{"subject1":"","id":"11","name1":"","grade1":""},{"subject1":"","id":"12","name1":"","grade1":""},{"subject1":"","id":"13","name1":"","grade1":""},{"subject1":"","id":"14","name1":"","grade1":""},{"subject1":"","id":"15","name1":"","grade1":""}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: students_lookup2 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>5a45b0d5-efac-4f45-82fa-6d1f41e59bca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_top_test_rowCount_84 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>1e6f60b8-f01c-40db-a261-e168b61e5d27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_top_RATE没有groupby字段ignore1545633379788 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>8a3aff15-d17e-422f-932d-b679841bca1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_union_003_distinctistrue1545633384602 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>e4b6cd97-bd76-4fa5-9e77-c30f291454d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_union_001_distinct为false1545633380273 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>c4affb28-833e-4a62-9dd1-fa514852fd65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: gbj_for_validate_test_showDetail_false ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>b9d5ee4c-4c25-4b0e-b833-615711f98473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_auto_df_validate_action_save1545633385422 ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>46a32581-311d-4643-8f6c-31dcd066c5c1</t>
+  </si>
+  <si>
+    <t>source, sink</t>
+  </si>
+  <si>
+    <t>697bcc07-ff2c-4980-bc9c-a6abcb0283be</t>
+  </si>
+  <si>
+    <t>c_in_out</t>
+  </si>
+  <si>
+    <t>a3064e14-f4e9-4b10-8a02-19c9854d8909</t>
+  </si>
+  <si>
+    <t>b1a8ca13-710e-4e60-a8c8-1845aa7c8caa</t>
+  </si>
+  <si>
+    <t>[{"gender":"male","name":"wac","id":"1","age":"30"},{"gender":"female","name":"xh","id":"2","age":"18"}]</t>
+  </si>
+  <si>
+    <t>67f6d649-88c9-447b-9263-732e0894fd69</t>
+  </si>
+  <si>
+    <t>9a31840c-b980-4ab8-bc10-876176609add</t>
+  </si>
+  <si>
+    <t>8ccf0421-6480-497f-8f01-e82a8a83d959</t>
+  </si>
+  <si>
+    <t>31fb8c9b-7f9a-487c-b222-007378fcec16</t>
+  </si>
+  <si>
+    <t>9f985579-5fce-485c-94b5-088652dcb578</t>
+  </si>
+  <si>
+    <t>a454eec4-687e-4a29-9ab6-9602463cee56</t>
+  </si>
+  <si>
+    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
+  </si>
+  <si>
+    <t>b93040de-a9c1-46fd-8046-b1a1539ae7ea</t>
+  </si>
+  <si>
+    <t>b50f1d0d-b3c0-4e78-afa8-664fbc8ae5cc</t>
+  </si>
+  <si>
+    <t>source, lookup</t>
+  </si>
+  <si>
+    <t>09296a11-5abf-4af4-a58f-2f14e414db67</t>
+  </si>
+  <si>
+    <t>tc_auto_df_sample_false1545633385849</t>
+  </si>
+  <si>
+    <t>57502b49-61df-43ce-b0b4-8744fd42e8bb</t>
+  </si>
+  <si>
+    <t>d12ce73f-1dda-45f4-9609-84aabdf0f610</t>
+  </si>
+  <si>
+    <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小明","id":"8","age":"语文"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"12","age":"数学"},{"name":"小玲","id":"13","age":"语文"},{"name":"小玲","id":"14","age":"英语"},{"name":"张三","id":"15","age":"数学"}]</t>
+  </si>
+  <si>
+    <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小明","id":"8","age":"语文"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"13","age":"语文"},{"name":"小玲","id":"14","age":"英语"},{"name":"张三","id":"15","age":"数学"}]</t>
+  </si>
+  <si>
+    <t>source, sample, sink</t>
+  </si>
+  <si>
+    <t>2a1a8e6f-ae2b-4eee-b8f1-993ef8c348f0</t>
+  </si>
+  <si>
+    <t>tc_auto_df_join_outerjoin1545633381249</t>
+  </si>
+  <si>
+    <t>d8a6e308-abcc-4782-8b88-7da81ec78c4d</t>
+  </si>
+  <si>
+    <t>92c66828-a151-43a6-9b37-d9a35ec0ffcb</t>
+  </si>
+  <si>
+    <t>[{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"},{"Oname":"","Osalary":"","Oid":""},{"Oname":"","Osalary":"","Oid":""}]</t>
+  </si>
+  <si>
+    <t>source, join, sink</t>
+  </si>
+  <si>
+    <t>3952884c-6dd3-40b5-9b26-3d3865dd0d7f</t>
+  </si>
+  <si>
+    <t>tc_auto_df_join_inner1545633379403</t>
+  </si>
+  <si>
+    <t>1b29d436-ce04-4ed8-82ba-1bae313ff860</t>
+  </si>
+  <si>
+    <t>6bdb4293-62db-4dca-a6b1-9b243ff9426b</t>
+  </si>
+  <si>
+    <t>[{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"}]</t>
+  </si>
+  <si>
+    <t>46fca021-28be-4699-a0a8-9c5fdd510f88</t>
+  </si>
+  <si>
+    <t>tc_auto_df_union_001_distinct为true1545633380382</t>
+  </si>
+  <si>
+    <t>2a7fb401-f7df-4961-8b98-f52d9c8b59c0</t>
+  </si>
+  <si>
+    <t>aeaf6d7f-8c88-4953-b4a9-71fba2ef28e2</t>
+  </si>
+  <si>
+    <t>cc2925d4-b00a-4308-b4b0-c99b038bc728</t>
+  </si>
+  <si>
+    <t>37ad0561-3e91-4596-8701-014a2e3295f6</t>
+  </si>
+  <si>
+    <t>73cb302d-2fb3-4b54-b413-2247b98f5d1a</t>
+  </si>
+  <si>
+    <t>tc_auto_df_filter_age小于1545633384496</t>
+  </si>
+  <si>
+    <t>35599327-0f59-414e-9776-06b9188e9ee5</t>
+  </si>
+  <si>
+    <t>7e2a4935-d3aa-4d7f-a8c8-1a70776aae12</t>
+  </si>
+  <si>
+    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"tyest","id":"4","age":"12"}]</t>
+  </si>
+  <si>
+    <t>9164ab8e-e80d-4920-9455-8bcb65b268b9</t>
+  </si>
+  <si>
+    <t>7947b925-7fde-4f7b-8c89-6b443928f7f5</t>
+  </si>
+  <si>
+    <t>tc_auto_df_top_RATE没有groupby字段ignore1545633379539</t>
+  </si>
+  <si>
+    <t>05b4fcbc-ba25-4f05-9081-c807e7cdf690</t>
+  </si>
+  <si>
+    <t>dc8f47d8-f653-40e8-a8aa-6c3cf6bc8779</t>
+  </si>
+  <si>
+    <t>015b386e-c42e-4aab-98a7-198041b11318</t>
+  </si>
+  <si>
+    <t>source,validate, sink</t>
+  </si>
+  <si>
+    <t>4a00d36e-b027-4a09-afe7-21f64121f353</t>
+  </si>
+  <si>
+    <t>28191e84-c482-4603-9c4c-21752f1c8ef4</t>
+  </si>
+  <si>
+    <t>8be22649-4c39-4732-8c8d-1b271287ffeb</t>
+  </si>
+  <si>
+    <t>tc_auto_df_join_outerjoin1545633384176</t>
+  </si>
+  <si>
+    <t>da10d44d-15e7-4729-85e9-405ca2db2baa</t>
+  </si>
+  <si>
+    <t>047dcbc8-1f7b-4139-a176-570785f60725</t>
+  </si>
+  <si>
+    <t>[{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"","Osalary":"","Oid":""},{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"},{"Oname":"","Osalary":"","Oid":""},{"Oname":"","Osalary":"","Oid":""}]</t>
+  </si>
+  <si>
+    <t>cb6e6925-0f78-4259-b0e1-fc3faa1c30fa</t>
+  </si>
+  <si>
+    <t>[{"name":"tyest","id":"4","age":"12"},{"name":"","id":"5","age":""},{"name":"xiaoming","id":"1","age":"18"},{"name":"james","id":"6","age":"50"},{"name":"xiaowang","id":"3","age":"30"},{"name":"xiaohong","id":"2","age":"20"}]</t>
+  </si>
+  <si>
+    <t>86543ea7-786d-43db-a938-3ba5f274fadf</t>
+  </si>
+  <si>
+    <t>c02a68eb-6010-4025-be23-93f93f6cc216</t>
+  </si>
+  <si>
+    <t>tc_auto_df_aggregate_所有聚合id1545633384081</t>
+  </si>
+  <si>
+    <t>cb5039c8-1ce3-4cf4-8c50-c377867aa43e</t>
+  </si>
+  <si>
+    <t>c1cf696d-4833-400f-a78f-2b1252612ff5</t>
+  </si>
+  <si>
+    <t>[{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"18","AGE_max":"18","AGE_avg":"18.0","AGE_countDistinct":"1","AGE_min":"18","AGE_count":"1","id":"1","AGE_sum":"18"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"50","AGE_max":"50","AGE_avg":"50.0","AGE_countDistinct":"1","AGE_min":"50","AGE_count":"1","id":"6","AGE_sum":"50"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"30","AGE_max":"30","AGE_avg":"30.0","AGE_countDistinct":"1","AGE_min":"30","AGE_count":"1","id":"3","AGE_sum":"30"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"12","AGE_max":"12","AGE_avg":"12.0","AGE_countDistinct":"1","AGE_min":"12","AGE_count":"1","id":"4","AGE_sum":"12"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"20","AGE_max":"20","AGE_avg":"20.0","AGE_countDistinct":"1","AGE_min":"20","AGE_count":"1","id":"2","AGE_sum":"20"},{"AGE_approxCountDistinct":"0","AGE_sumDistinct":"","AGE_max":"","AGE_avg":"","AGE_countDistinct":"0","AGE_min":"","AGE_count":"0","id":"5","AGE_sum":""}]</t>
+  </si>
+  <si>
+    <t>043b2556-7254-44e3-9d19-90748e690ce4</t>
+  </si>
+  <si>
+    <t>4c02298d-f117-4008-a106-877f0d226c81</t>
+  </si>
+  <si>
+    <t>[{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@21586871","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":""},{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@5a526c77","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":"2018-08-03 10:22:24.0"}]</t>
+  </si>
+  <si>
+    <t>每次返回的"binary_test"所对应的内存地址都不一样</t>
+  </si>
+  <si>
+    <t>fee94b56-3646-4ac8-8fd9-50ecfdab3237</t>
+  </si>
+  <si>
+    <t>ad095930-0518-4aaa-a9a8-ae155ff9d6d2</t>
+  </si>
+  <si>
+    <t>c4619622-fd17-4164-be7e-1d60eb627b34</t>
+  </si>
+  <si>
+    <t>00d4ba15-5beb-400f-8b61-2e96aea66201</t>
+  </si>
+  <si>
+    <t>7bde2f94-f1be-4ab1-8adf-0e9cfcb3108d</t>
+  </si>
+  <si>
+    <t>98f37042-985e-46ab-8643-d5bb271fbd11</t>
+  </si>
+  <si>
+    <t>78898c4f-bbb0-4e13-a3dd-c289f1bd9f87</t>
+  </si>
+  <si>
+    <t>[{"sex":"男","SName":"李勇","class":"CS","age":"20","SId":"95001"},{"sex":"女","SName":"刘晨","class":"IS","age":"19","SId":"95002"},{"sex":"女","SName":"王敏","class":"MA","age":"22","SId":"95003"},{"sex":"男","SName":"张立","class":"IS","age":"19","SId":"95004"},{"sex":"男","SName":"刘刚","class":"MA","age":"18","SId":"95005"},{"sex":"男","SName":"孙庆","class":"CS","age":"23","SId":"95006"}]</t>
+  </si>
+  <si>
+    <t>a28afb1d-4ea2-474a-a5d6-745077136cbf</t>
+  </si>
+  <si>
+    <t>fb14ae97-8728-4837-be1d-1ad9323b545b</t>
+  </si>
+  <si>
+    <t>94f6fd4d-04d7-4b5d-accd-88504e7804ce</t>
+  </si>
+  <si>
+    <t>ff42df18-c50c-45c3-9fb5-aa8f59e9e2d4</t>
+  </si>
+  <si>
+    <t>38f10a44-e0b3-4c07-a26e-a476d14f01a3</t>
+  </si>
+  <si>
+    <t>cba5acad-d4f2-4cfb-a88b-f52c25376fa9</t>
+  </si>
+  <si>
     <t>2a46f390-125a-4123-bdc7-66feefbe9120</t>
-  </si>
-  <si>
-    <t>[{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"1","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":""},{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"1","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":"2018-08-03 10:22:24.0"}]</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: tc_auto_df_所有类型_new_new1545633383317 ---&gt;预期结果实际结果不一致 
 </t>
   </si>
   <si>
-    <t>尝试使用新的预览接口查看数据</t>
-  </si>
-  <si>
     <t>155af511-f563-4fef-85fb-68c48b3f11d8</t>
   </si>
   <si>
@@ -907,13 +1508,7 @@
     <t>1d932ba0-c15a-4049-b978-d053a663d20c</t>
   </si>
   <si>
-    <t>690d7432-8121-4a24-a055-43fda5d7bded</t>
-  </si>
-  <si>
-    <t>df6269a3-ddbd-468d-a697-c68e2174f5bb</t>
-  </si>
-  <si>
-    <t>[{"CName":"数据库","CID":"1"}]</t>
+    <t>01148688-886a-48f7-9f00-e7b7a4124b32</t>
   </si>
   <si>
     <t>400a6ef8-d1f1-4565-b2bc-56545ed6a5cc</t>
@@ -931,24 +1526,15 @@
     <t>4f0e1fd1-aa33-4d79-a24f-307fb02ba871</t>
   </si>
   <si>
-    <t>d3d2f8a8-b9b3-4fcc-b284-ed5057dbbb9a</t>
-  </si>
-  <si>
     <t>6aa3627a-8b00-482b-a8b8-ada86699e42b</t>
   </si>
   <si>
     <t>cc4fadae-9b58-4470-a728-ccaa8a1d8be7</t>
   </si>
   <si>
-    <t>[{"sName":"李勇","sex":"男","class":"CS","age":"20","sId":"95001"},{"sName":"王敏","sex":"女","class":"MA","age":"22","sId":"95003"},{"sName":"张立","sex":"男","class":"IS","age":"19","sId":"95004"},{"sName":"刘刚","sex":"男","class":"MA","age":"18","sId":"95005"},{"sName":"孙庆","sex":"男","class":"CS","age":"23","sId":"95006"}]</t>
-  </si>
-  <si>
     <t>fd3b8241-b943-4e22-a475-a17ba7a656fc</t>
   </si>
   <si>
-    <t>[{"sName":"王敏","sex":"女","class":"MA","age":"22","sId":"95003"},{"sName":"刘刚","sex":"男","class":"MA","age":"18","sId":"95005"},{"sName":"孙庆","sex":"男","class":"CS","age":"23","sId":"95006"},{"sName":"孙庆","sex":"男","class":"CS","age":"23","sId":"95006"}]</t>
-  </si>
-  <si>
     <t>6946dd8c-ffbf-4650-83c6-8fb3edfdfbb0</t>
   </si>
   <si>
@@ -967,9 +1553,6 @@
     <t>3824443e-abfa-4cea-9e76-9907cc48667c</t>
   </si>
   <si>
-    <t>gbj_for_aggregate_test_sum</t>
-  </si>
-  <si>
     <t>ed60c1cf-2568-4d0b-8a04-edb1f1610eed</t>
   </si>
   <si>
@@ -988,14 +1571,7 @@
     <t>cfc0c471-06f7-4d2b-82e9-1a473dc5697f</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: students_lookupTable_redis ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>80bd617f-52e7-4bd6-b549-f0821861670d</t>
-  </si>
-  <si>
-    <t>[{"subject1":"","id":"1","name1":"","grade1":""},{"subject1":"","id":"2","name1":"","grade1":""},{"subject1":"","id":"3","name1":"","grade1":""},{"subject1":"","id":"4","name1":"","grade1":""},{"subject1":"","id":"5","name1":"","grade1":""},{"subject1":"","id":"6","name1":"","grade1":""},{"subject1":"","id":"7","name1":"","grade1":""},{"subject1":"","id":"8","name1":"","grade1":""},{"subject1":"","id":"9","name1":"","grade1":""},{"subject1":"","id":"10","name1":"","grade1":""},{"subject1":"","id":"11","name1":"","grade1":""},{"subject1":"","id":"12","name1":"","grade1":""},{"subject1":"","id":"13","name1":"","grade1":""},{"subject1":"","id":"14","name1":"","grade1":""},{"subject1":"","id":"15","name1":"","grade1":""}]</t>
   </si>
   <si>
     <t xml:space="preserve">flowname: students_lookup2 ---&gt;预期结果实际结果不一致 
@@ -1020,257 +1596,6 @@
     <t>adbd1b88-a83d-4de9-a96d-e453e57a870d</t>
   </si>
   <si>
-    <t>environment</t>
-  </si>
-  <si>
-    <t>46a32581-311d-4643-8f6c-31dcd066c5c1</t>
-  </si>
-  <si>
-    <t>source, sink</t>
-  </si>
-  <si>
-    <t>697bcc07-ff2c-4980-bc9c-a6abcb0283be</t>
-  </si>
-  <si>
-    <t>c_in_out</t>
-  </si>
-  <si>
-    <t>a3064e14-f4e9-4b10-8a02-19c9854d8909</t>
-  </si>
-  <si>
-    <t>b1a8ca13-710e-4e60-a8c8-1845aa7c8caa</t>
-  </si>
-  <si>
-    <t>[{"gender":"male","name":"wac","id":"1","age":"30"},{"gender":"female","name":"xh","id":"2","age":"18"}]</t>
-  </si>
-  <si>
-    <t>67f6d649-88c9-447b-9263-732e0894fd69</t>
-  </si>
-  <si>
-    <t>9a31840c-b980-4ab8-bc10-876176609add</t>
-  </si>
-  <si>
-    <t>8ccf0421-6480-497f-8f01-e82a8a83d959</t>
-  </si>
-  <si>
-    <t>31fb8c9b-7f9a-487c-b222-007378fcec16</t>
-  </si>
-  <si>
-    <t>9f985579-5fce-485c-94b5-088652dcb578</t>
-  </si>
-  <si>
-    <t>a454eec4-687e-4a29-9ab6-9602463cee56</t>
-  </si>
-  <si>
-    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
-  </si>
-  <si>
-    <t>b93040de-a9c1-46fd-8046-b1a1539ae7ea</t>
-  </si>
-  <si>
-    <t>b50f1d0d-b3c0-4e78-afa8-664fbc8ae5cc</t>
-  </si>
-  <si>
-    <t>source, lookup</t>
-  </si>
-  <si>
-    <t>09296a11-5abf-4af4-a58f-2f14e414db67</t>
-  </si>
-  <si>
-    <t>tc_auto_df_sample_false1545633385849</t>
-  </si>
-  <si>
-    <t>57502b49-61df-43ce-b0b4-8744fd42e8bb</t>
-  </si>
-  <si>
-    <t>d12ce73f-1dda-45f4-9609-84aabdf0f610</t>
-  </si>
-  <si>
-    <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小明","id":"8","age":"语文"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"12","age":"数学"},{"name":"小玲","id":"13","age":"语文"},{"name":"小玲","id":"14","age":"英语"},{"name":"张三","id":"15","age":"数学"}]</t>
-  </si>
-  <si>
-    <t>[{"name":"张三","id":"1","age":"语文"},{"name":"张三","id":"2","age":"英语"},{"name":"李四","id":"3","age":"数学"},{"name":"李四","id":"4","age":"英语"},{"name":"李四","id":"5","age":"语文"},{"name":"小明","id":"6","age":"数学"},{"name":"小明","id":"7","age":"英语"},{"name":"小明","id":"8","age":"语文"},{"name":"小红","id":"9","age":"数学"},{"name":"小红","id":"10","age":"英语"},{"name":"小红","id":"11","age":"语文"},{"name":"小玲","id":"13","age":"语文"},{"name":"小玲","id":"14","age":"英语"},{"name":"张三","id":"15","age":"数学"}]</t>
-  </si>
-  <si>
-    <t>source, sample, sink</t>
-  </si>
-  <si>
-    <t>2a1a8e6f-ae2b-4eee-b8f1-993ef8c348f0</t>
-  </si>
-  <si>
-    <t>tc_auto_df_join_outerjoin1545633381249</t>
-  </si>
-  <si>
-    <t>d8a6e308-abcc-4782-8b88-7da81ec78c4d</t>
-  </si>
-  <si>
-    <t>92c66828-a151-43a6-9b37-d9a35ec0ffcb</t>
-  </si>
-  <si>
-    <t>[{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"},{"Oname":"","Osalary":"","Oid":""},{"Oname":"","Osalary":"","Oid":""}]</t>
-  </si>
-  <si>
-    <t>source, join, sink</t>
-  </si>
-  <si>
-    <t>3952884c-6dd3-40b5-9b26-3d3865dd0d7f</t>
-  </si>
-  <si>
-    <t>tc_auto_df_join_inner1545633379403</t>
-  </si>
-  <si>
-    <t>1b29d436-ce04-4ed8-82ba-1bae313ff860</t>
-  </si>
-  <si>
-    <t>6bdb4293-62db-4dca-a6b1-9b243ff9426b</t>
-  </si>
-  <si>
-    <t>[{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"}]</t>
-  </si>
-  <si>
-    <t>46fca021-28be-4699-a0a8-9c5fdd510f88</t>
-  </si>
-  <si>
-    <t>tc_auto_df_union_001_distinct为true1545633380382</t>
-  </si>
-  <si>
-    <t>2a7fb401-f7df-4961-8b98-f52d9c8b59c0</t>
-  </si>
-  <si>
-    <t>aeaf6d7f-8c88-4953-b4a9-71fba2ef28e2</t>
-  </si>
-  <si>
-    <t>cc2925d4-b00a-4308-b4b0-c99b038bc728</t>
-  </si>
-  <si>
-    <t>37ad0561-3e91-4596-8701-014a2e3295f6</t>
-  </si>
-  <si>
-    <t>73cb302d-2fb3-4b54-b413-2247b98f5d1a</t>
-  </si>
-  <si>
-    <t>tc_auto_df_filter_age小于1545633384496</t>
-  </si>
-  <si>
-    <t>35599327-0f59-414e-9776-06b9188e9ee5</t>
-  </si>
-  <si>
-    <t>7e2a4935-d3aa-4d7f-a8c8-1a70776aae12</t>
-  </si>
-  <si>
-    <t>[{"name":"xiaoming","id":"1","age":"18"},{"name":"tyest","id":"4","age":"12"}]</t>
-  </si>
-  <si>
-    <t>9164ab8e-e80d-4920-9455-8bcb65b268b9</t>
-  </si>
-  <si>
-    <t>7947b925-7fde-4f7b-8c89-6b443928f7f5</t>
-  </si>
-  <si>
-    <t>tc_auto_df_top_RATE没有groupby字段ignore1545633379539</t>
-  </si>
-  <si>
-    <t>05b4fcbc-ba25-4f05-9081-c807e7cdf690</t>
-  </si>
-  <si>
-    <t>dc8f47d8-f653-40e8-a8aa-6c3cf6bc8779</t>
-  </si>
-  <si>
-    <t>015b386e-c42e-4aab-98a7-198041b11318</t>
-  </si>
-  <si>
-    <t>source,validate, sink</t>
-  </si>
-  <si>
-    <t>4a00d36e-b027-4a09-afe7-21f64121f353</t>
-  </si>
-  <si>
-    <t>28191e84-c482-4603-9c4c-21752f1c8ef4</t>
-  </si>
-  <si>
-    <t>8be22649-4c39-4732-8c8d-1b271287ffeb</t>
-  </si>
-  <si>
-    <t>tc_auto_df_join_outerjoin1545633384176</t>
-  </si>
-  <si>
-    <t>da10d44d-15e7-4729-85e9-405ca2db2baa</t>
-  </si>
-  <si>
-    <t>047dcbc8-1f7b-4139-a176-570785f60725</t>
-  </si>
-  <si>
-    <t>[{"Oname":"xiaohong","Osalary":"20000","Oid":"2"},{"Oname":"","Osalary":"","Oid":""},{"Oname":"xiaore","Osalary":"2333333","Oid":"1"},{"Oname":"xiaoming","Osalary":"1000","Oid":"1"},{"Oname":"xiaowang","Osalary":"3012","Oid":"3"},{"Oname":"tyest","Osalary":"12","Oid":"5"},{"Oname":"","Osalary":"","Oid":""},{"Oname":"","Osalary":"","Oid":""}]</t>
-  </si>
-  <si>
-    <t>cb6e6925-0f78-4259-b0e1-fc3faa1c30fa</t>
-  </si>
-  <si>
-    <t>[{"name":"tyest","id":"4","age":"12"},{"name":"","id":"5","age":""},{"name":"xiaoming","id":"1","age":"18"},{"name":"james","id":"6","age":"50"},{"name":"xiaowang","id":"3","age":"30"},{"name":"xiaohong","id":"2","age":"20"}]</t>
-  </si>
-  <si>
-    <t>86543ea7-786d-43db-a938-3ba5f274fadf</t>
-  </si>
-  <si>
-    <t>c02a68eb-6010-4025-be23-93f93f6cc216</t>
-  </si>
-  <si>
-    <t>tc_auto_df_aggregate_所有聚合id1545633384081</t>
-  </si>
-  <si>
-    <t>cb5039c8-1ce3-4cf4-8c50-c377867aa43e</t>
-  </si>
-  <si>
-    <t>c1cf696d-4833-400f-a78f-2b1252612ff5</t>
-  </si>
-  <si>
-    <t>[{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"18","AGE_max":"18","AGE_avg":"18.0","AGE_countDistinct":"1","AGE_min":"18","AGE_count":"1","id":"1","AGE_sum":"18"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"50","AGE_max":"50","AGE_avg":"50.0","AGE_countDistinct":"1","AGE_min":"50","AGE_count":"1","id":"6","AGE_sum":"50"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"30","AGE_max":"30","AGE_avg":"30.0","AGE_countDistinct":"1","AGE_min":"30","AGE_count":"1","id":"3","AGE_sum":"30"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"12","AGE_max":"12","AGE_avg":"12.0","AGE_countDistinct":"1","AGE_min":"12","AGE_count":"1","id":"4","AGE_sum":"12"},{"AGE_approxCountDistinct":"1","AGE_sumDistinct":"20","AGE_max":"20","AGE_avg":"20.0","AGE_countDistinct":"1","AGE_min":"20","AGE_count":"1","id":"2","AGE_sum":"20"},{"AGE_approxCountDistinct":"0","AGE_sumDistinct":"","AGE_max":"","AGE_avg":"","AGE_countDistinct":"0","AGE_min":"","AGE_count":"0","id":"5","AGE_sum":""}]</t>
-  </si>
-  <si>
-    <t>043b2556-7254-44e3-9d19-90748e690ce4</t>
-  </si>
-  <si>
-    <t>4c02298d-f117-4008-a106-877f0d226c81</t>
-  </si>
-  <si>
-    <t>[{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@21586871","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":""},{"decimal_test":"8.3333333","bigint_test":"88888888","short_test":"-1","double_test":"1.23","boolean_test":"true","float_test":"8.88","byte_test":"1","binary_test":"[B@5a526c77","date_test":"2018-08-03","string_test":"测试STRING20","int_test":"12","timestamp_test":"2018-08-03 10:22:24.0"}]</t>
-  </si>
-  <si>
-    <t>每次返回的"binary_test"所对应的内存地址都不一样</t>
-  </si>
-  <si>
-    <t>fee94b56-3646-4ac8-8fd9-50ecfdab3237</t>
-  </si>
-  <si>
-    <t>ad095930-0518-4aaa-a9a8-ae155ff9d6d2</t>
-  </si>
-  <si>
-    <t>c4619622-fd17-4164-be7e-1d60eb627b34</t>
-  </si>
-  <si>
-    <t>00d4ba15-5beb-400f-8b61-2e96aea66201</t>
-  </si>
-  <si>
-    <t>98f37042-985e-46ab-8643-d5bb271fbd11</t>
-  </si>
-  <si>
-    <t>78898c4f-bbb0-4e13-a3dd-c289f1bd9f87</t>
-  </si>
-  <si>
-    <t>[{"sex":"男","SName":"李勇","class":"CS","age":"20","SId":"95001"},{"sex":"女","SName":"刘晨","class":"IS","age":"19","SId":"95002"},{"sex":"女","SName":"王敏","class":"MA","age":"22","SId":"95003"},{"sex":"男","SName":"张立","class":"IS","age":"19","SId":"95004"},{"sex":"男","SName":"刘刚","class":"MA","age":"18","SId":"95005"},{"sex":"男","SName":"孙庆","class":"CS","age":"23","SId":"95006"}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: tc_auto_df_source_001_mysql1545633383105 ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
-    <t>01148688-886a-48f7-9f00-e7b7a4124b32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: step_test_sql ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>beb8bcf8-ab90-48e8-82ba-eabade1f22a5</t>
   </si>
   <si>
@@ -1308,10 +1633,6 @@
   </si>
   <si>
     <t>b8607222-d152-45df-b417-12656e551c2d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: tc_auto_df_source_hbase_append1545633381086 ---&gt;执行状态为 FAILED
-</t>
   </si>
   <si>
     <t>2e836a76-a8ae-4817-854a-7ca9e00a8ff8</t>
@@ -1355,35 +1676,15 @@
     <t>9b068a1e-87ef-4db7-9e27-81188f89b794</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: tc_auto_df_minus1545633384706 ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>5b724841-c76d-47a8-8406-5190bf722af0</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: tc_auto_df_desicion_yes1545633385200 ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>ff252f2a-81a8-4868-bfb1-263d48e6daa2</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: tc_auto_df_split_0021545633379905 ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: None ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>d6322002-4f98-4c4a-9bb8-dcec8a50c7e4</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: tc_auto_df_intersect_0011545633383879 ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>b5254e3a-330d-4d05-a674-a0a2f61dd786</t>
   </si>
   <si>
@@ -1393,38 +1694,18 @@
     <t>{"err":"Not Found","detailMsg":"HTTP 404 Not Found"}</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: startjoin_step_gbj ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>0d72e8a1-5d58-4bc1-8093-24f96a926423</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: productjoin_step_test_gbj ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>343e3b90-ea13-4378-97a4-e086f6c710c3</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: gbj_sqlsource_step_84 ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>aca4b0be-af21-4e61-8fac-31d01b36f982</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: gbj_intersect ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>2572a151-a3c8-44e8-98a0-f4b97a9b90f2</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: gbj_use_土葬数据清洗_transform_step ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>33fc1d79-9963-4801-97d0-4c5ec3c54f4e</t>
   </si>
   <si>
@@ -1440,66 +1721,30 @@
     <t>0a075f86-4934-482f-8cfb-939b1fa60502</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: gbj_for_join_test_outer_join ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>10a559d6-5685-4070-b964-9a57d095c39a</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: gbj_for_join_test_inner_join ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>b25fabe6-1789-45b2-9085-980697b90985</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: gbj_for_join_test_left_join ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>1f8b818a-d0b6-48f4-9b12-e3a69f5d9c0f</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: gbj_for_join_test_right_join ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>5c20cfa8-6773-43e0-883d-d6a629417fb1</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: gbj_for_join_test_left_semi ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>2490ed83-f9d5-48da-9a38-4e6a493b70f9</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: gbj_for_aggregate_test_count ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>a6c946fc-56b3-4071-9fb0-4087e1292ec3</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: gbj_for_aggregate_test_sum ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>1b05ad07-0d7f-4ffc-ac00-7fed5a3e9da1</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: tc_auto_df_top_RATE没有groupby字段ignore1545633379788 ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>78e60fcd-30b7-4701-a74a-2a2cff32597f</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: tc_auto_df_validate_action_save1545633385422 ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>ca77d9ab-cb61-4a72-8b5b-89a6b645b2c4</t>
   </si>
   <si>
@@ -1509,31 +1754,15 @@
     <t>bb42507b-c949-4809-85c2-f5c6b00640a2</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: gbj_lookup_mapDB ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>4779b4ed-a4e0-43f0-a387-c1ed26858f2d</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: gbj_lookupTable_step_MapDB ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>7ffc1e20-5814-4c5c-bcfa-91b5c3858606</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: gbj_for_lookUp_test_chain ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>12b2c02a-713a-4d38-801f-0be931e57d46</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: students_lookup2 ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>c6e35ffa-70a1-47b7-8557-26abe52f5351</t>
   </si>
   <si>
@@ -1546,22 +1775,10 @@
     <t>b77b65ec-82dd-431e-a591-d61bdfc8de53</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: tc_auto_df_union_001_distinct为false1545633380273 ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>22741665-8a0b-4ad5-95d6-7d7dee6a1920</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: tc_auto_df_union_003_distinctistrue1545633384602 ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
     <t>e95515d6-fa1b-4c1b-9fb1-5b0158099201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: gbj_for_validate_test_showDetail_false ---&gt;执行状态为 FAILED
-</t>
   </si>
 </sst>
 </file>
@@ -1569,9 +1786,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -1594,14 +1811,14 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <charset val="0"/>
     </font>
@@ -1633,6 +1850,14 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -1640,24 +1865,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1678,8 +1888,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1693,8 +1956,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1709,61 +1988,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1771,14 +1996,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1823,7 +2040,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1835,13 +2184,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1853,157 +2214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2014,15 +2231,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2041,22 +2249,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2076,15 +2279,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2100,169 +2294,192 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="2">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="8">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2270,31 +2487,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2621,9 +2840,9 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2699,7 +2918,7 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -2737,7 +2956,7 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H3" t="s">
@@ -2775,7 +2994,7 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
@@ -2813,7 +3032,7 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H5" t="s">
@@ -2889,7 +3108,7 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
@@ -2927,7 +3146,7 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H8" t="s">
@@ -2965,7 +3184,7 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
@@ -3003,7 +3222,7 @@
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>71</v>
       </c>
       <c r="H10" t="s">
@@ -3044,7 +3263,7 @@
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
@@ -3082,7 +3301,7 @@
       <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H12" t="s">
@@ -3120,7 +3339,7 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
@@ -3158,7 +3377,7 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>97</v>
       </c>
       <c r="H14" t="s">
@@ -3170,7 +3389,7 @@
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="9" t="s">
         <v>98</v>
       </c>
       <c r="M14">
@@ -3190,7 +3409,7 @@
       <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>100</v>
       </c>
       <c r="H15" t="s">
@@ -3225,7 +3444,7 @@
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>105</v>
       </c>
       <c r="H16" t="s">
@@ -3263,7 +3482,7 @@
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>111</v>
       </c>
       <c r="H17" t="s">
@@ -3324,13 +3543,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E19" t="s">
@@ -3339,7 +3558,7 @@
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="5" t="s">
         <v>123</v>
       </c>
       <c r="H19" t="s">
@@ -3348,661 +3567,661 @@
       <c r="I19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="9" t="s">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="6">
         <v>84</v>
       </c>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:13">
-      <c r="A20" s="3">
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" s="7" customFormat="1" spans="1:13">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>127</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="25" t="s">
+      <c r="K20" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:13">
-      <c r="A21" s="3">
+    <row r="21" s="7" customFormat="1" spans="1:13">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="25" t="s">
+      <c r="K21" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:13">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="22" s="7" customFormat="1" spans="1:13">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="25" t="s">
+      <c r="K22" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:13">
-      <c r="A23" s="3">
+    <row r="23" s="7" customFormat="1" spans="1:13">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="25" t="s">
+      <c r="K23" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:13">
-      <c r="A24" s="3">
+    <row r="24" s="7" customFormat="1" spans="1:13">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>151</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="25" t="s">
+      <c r="K24" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:13">
-      <c r="A25" s="3">
+    <row r="25" s="7" customFormat="1" spans="1:13">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="25" t="s">
+      <c r="K25" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:13">
-      <c r="A26" s="3">
+    <row r="26" s="7" customFormat="1" spans="1:13">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="25" t="s">
+      <c r="K26" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:13">
-      <c r="A27" s="3">
+    <row r="27" s="7" customFormat="1" spans="1:13">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>169</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="F27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="25" t="s">
+      <c r="K27" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:13">
-      <c r="A28" s="3">
+    <row r="28" s="7" customFormat="1" spans="1:13">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>175</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="25" t="s">
+      <c r="K28" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:13">
-      <c r="A29" s="3">
+    <row r="29" s="7" customFormat="1" spans="1:13">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>180</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="25" t="s">
+      <c r="K29" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:13">
-      <c r="A30" s="3">
+    <row r="30" s="7" customFormat="1" spans="1:13">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>185</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="M30" s="3">
+      <c r="K30" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="M30" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:13">
-      <c r="A31" s="3">
+    <row r="31" s="7" customFormat="1" spans="1:13">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="7" t="s">
         <v>191</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="F31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="25" t="s">
+      <c r="K31" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:13">
-      <c r="A32" s="3">
+    <row r="32" s="7" customFormat="1" spans="1:13">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>197</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="F32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="25" t="s">
+      <c r="K32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:13">
-      <c r="A33" s="3">
+    <row r="33" s="7" customFormat="1" spans="1:13">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="7" t="s">
         <v>202</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="F33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="25" t="s">
+      <c r="K33" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:13">
-      <c r="A34" s="3">
+    <row r="34" s="7" customFormat="1" spans="1:13">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="25" t="s">
+      <c r="K34" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" spans="1:13">
-      <c r="A35" s="3">
+    <row r="35" s="7" customFormat="1" spans="1:13">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="7" t="s">
         <v>213</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="F35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="25" t="s">
+      <c r="K35" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" spans="1:13">
-      <c r="A36" s="3">
+    <row r="36" s="7" customFormat="1" spans="1:13">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>218</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="F36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="25" t="s">
+      <c r="K36" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="7">
         <v>84</v>
       </c>
     </row>
@@ -4025,7 +4244,7 @@
       <c r="F37" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="3" t="s">
         <v>226</v>
       </c>
       <c r="H37" t="s">
@@ -4063,7 +4282,7 @@
       <c r="F38" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="3" t="s">
         <v>232</v>
       </c>
       <c r="H38" t="s">
@@ -4082,41 +4301,41 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="1" spans="1:13">
-      <c r="A39" s="3">
+    <row r="39" s="7" customFormat="1" spans="1:13">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="7" t="s">
         <v>235</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="F39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="25" t="s">
+      <c r="K39" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="7">
         <v>84</v>
       </c>
     </row>
@@ -4139,7 +4358,7 @@
       <c r="F40" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="3" t="s">
         <v>244</v>
       </c>
       <c r="H40" t="s">
@@ -4177,7 +4396,7 @@
       <c r="F41" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="3" t="s">
         <v>249</v>
       </c>
       <c r="H41" t="s">
@@ -4215,7 +4434,7 @@
       <c r="F42" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="3" t="s">
         <v>256</v>
       </c>
       <c r="H42" t="s">
@@ -4234,41 +4453,41 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" s="3" customFormat="1" spans="1:13">
-      <c r="A43" s="3">
+    <row r="43" s="7" customFormat="1" spans="1:13">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="7" t="s">
         <v>258</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="F43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="3" t="s">
+      <c r="K43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="7">
         <v>84</v>
       </c>
     </row>
@@ -4356,13 +4575,13 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="A1:O45"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="43.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="26.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="47.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="28.5714285714286" customWidth="1"/>
     <col min="7" max="7" width="20.4285714285714" customWidth="1"/>
     <col min="8" max="8" width="22.1428571428571" customWidth="1"/>
@@ -4430,16 +4649,19 @@
         <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>273</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -4453,7 +4675,7 @@
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:15">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -4462,22 +4684,25 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" t="s">
         <v>272</v>
       </c>
-      <c r="E3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>274</v>
+      <c r="G3" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="H3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>277</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -4489,7 +4714,7 @@
         <v>189</v>
       </c>
       <c r="O3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="1:13">
@@ -4499,26 +4724,29 @@
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J4" t="s">
+        <v>280</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -4537,26 +4765,29 @@
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
+      <c r="C5" s="24" t="s">
+        <v>281</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H5" t="s">
         <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>283</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -4582,10 +4813,10 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -4594,7 +4825,10 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>285</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -4620,19 +4854,22 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
         <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>287</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -4651,26 +4888,29 @@
       <c r="B8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>290</v>
       </c>
       <c r="K8" t="s">
         <v>59</v>
@@ -4696,12 +4936,12 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
@@ -4711,7 +4951,7 @@
         <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -4730,29 +4970,29 @@
       <c r="B10" t="s">
         <v>67</v>
       </c>
-      <c r="C10" t="s">
-        <v>68</v>
+      <c r="C10" s="24" t="s">
+        <v>293</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="I10" t="s">
         <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -4764,7 +5004,7 @@
         <v>189</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:13">
@@ -4781,19 +5021,22 @@
         <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
         <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J11" t="s">
+        <v>299</v>
       </c>
       <c r="K11" t="s">
         <v>21</v>
@@ -4819,19 +5062,22 @@
         <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H12" t="s">
         <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>301</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -4857,19 +5103,22 @@
         <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J13" t="s">
+        <v>303</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
@@ -4895,24 +5144,27 @@
         <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>97</v>
       </c>
       <c r="H14" t="s">
         <v>97</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J14" t="s">
+        <v>305</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="9" t="s">
         <v>98</v>
       </c>
       <c r="M14">
@@ -4927,19 +5179,22 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>100</v>
       </c>
       <c r="H15" t="s">
         <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J15" t="s">
+        <v>306</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
@@ -4962,19 +5217,22 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>105</v>
       </c>
       <c r="H16" t="s">
         <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J16" t="s">
+        <v>308</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
@@ -4988,7 +5246,7 @@
     </row>
     <row r="17" ht="16.5" customHeight="1" spans="1:13">
       <c r="A17">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>107</v>
@@ -4997,22 +5255,25 @@
         <v>108</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="E17" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>296</v>
+        <v>272</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="H17" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J17" t="s">
+        <v>312</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
@@ -5031,17 +5292,17 @@
       <c r="B18" t="s">
         <v>113</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D18" t="s">
         <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G18" t="s">
         <v>117</v>
@@ -5050,7 +5311,10 @@
         <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J18" t="s">
+        <v>314</v>
       </c>
       <c r="K18" t="s">
         <v>21</v>
@@ -5066,41 +5330,43 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>123</v>
       </c>
       <c r="H19" t="s">
         <v>123</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="6">
         <v>84</v>
       </c>
-      <c r="N19" s="8"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
@@ -5116,10 +5382,10 @@
         <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G20" t="s">
         <v>130</v>
@@ -5128,12 +5394,15 @@
         <v>130</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s">
+        <v>318</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>131</v>
       </c>
       <c r="M20">
@@ -5147,17 +5416,17 @@
       <c r="B21" t="s">
         <v>132</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="11" t="s">
         <v>133</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G21" t="s">
         <v>136</v>
@@ -5166,12 +5435,15 @@
         <v>136</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s">
+        <v>320</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>137</v>
       </c>
       <c r="M21">
@@ -5185,17 +5457,17 @@
       <c r="B22" t="s">
         <v>138</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="11" t="s">
         <v>139</v>
       </c>
       <c r="D22" t="s">
         <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G22" t="s">
         <v>142</v>
@@ -5204,12 +5476,15 @@
         <v>142</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s">
+        <v>322</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>143</v>
       </c>
       <c r="M22">
@@ -5223,17 +5498,17 @@
       <c r="B23" t="s">
         <v>144</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="11" t="s">
         <v>145</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="E23" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G23" t="s">
         <v>154</v>
@@ -5242,12 +5517,15 @@
         <v>154</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" t="s">
+        <v>325</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>149</v>
       </c>
       <c r="M23">
@@ -5261,31 +5539,34 @@
       <c r="B24" t="s">
         <v>150</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G24" t="s">
         <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" t="s">
+        <v>328</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>156</v>
       </c>
       <c r="M24">
@@ -5299,31 +5580,34 @@
       <c r="B25" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="11" t="s">
         <v>158</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G25" t="s">
         <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" t="s">
+        <v>331</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>156</v>
       </c>
       <c r="M25">
@@ -5344,10 +5628,10 @@
         <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
         <v>166</v>
@@ -5356,12 +5640,15 @@
         <v>166</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" t="s">
+        <v>333</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>167</v>
       </c>
       <c r="M26">
@@ -5382,10 +5669,10 @@
         <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G27" t="s">
         <v>172</v>
@@ -5394,12 +5681,15 @@
         <v>172</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" t="s">
+        <v>335</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>173</v>
       </c>
       <c r="M27">
@@ -5420,10 +5710,10 @@
         <v>176</v>
       </c>
       <c r="E28" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G28" t="s">
         <v>166</v>
@@ -5432,12 +5722,15 @@
         <v>166</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" t="s">
+        <v>337</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>178</v>
       </c>
       <c r="M28">
@@ -5458,10 +5751,10 @@
         <v>181</v>
       </c>
       <c r="E29" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G29" t="s">
         <v>172</v>
@@ -5470,12 +5763,15 @@
         <v>172</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" t="s">
+        <v>339</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>183</v>
       </c>
       <c r="M29">
@@ -5496,10 +5792,10 @@
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G30" t="s">
         <v>188</v>
@@ -5508,12 +5804,15 @@
         <v>188</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" t="s">
+        <v>341</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="6" t="s">
         <v>189</v>
       </c>
       <c r="M30">
@@ -5527,17 +5826,17 @@
       <c r="B31" t="s">
         <v>190</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="11" t="s">
         <v>191</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
         <v>194</v>
@@ -5546,12 +5845,15 @@
         <v>194</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" t="s">
+        <v>343</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M31">
@@ -5565,17 +5867,17 @@
       <c r="B32" t="s">
         <v>196</v>
       </c>
-      <c r="C32" t="s">
-        <v>314</v>
+      <c r="C32" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E32" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G32" t="s">
         <v>200</v>
@@ -5584,12 +5886,15 @@
         <v>200</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" t="s">
+        <v>346</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M32">
@@ -5603,17 +5908,17 @@
       <c r="B33" t="s">
         <v>201</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="11" t="s">
         <v>202</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
         <v>205</v>
@@ -5622,12 +5927,15 @@
         <v>205</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" t="s">
+        <v>348</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M33">
@@ -5641,17 +5949,17 @@
       <c r="B34" t="s">
         <v>206</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D34" t="s">
         <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G34" t="s">
         <v>210</v>
@@ -5660,12 +5968,15 @@
         <v>210</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" t="s">
+        <v>350</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="6" t="s">
         <v>211</v>
       </c>
       <c r="M34">
@@ -5679,17 +5990,17 @@
       <c r="B35" t="s">
         <v>212</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="11" t="s">
         <v>213</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G35" t="s">
         <v>210</v>
@@ -5698,12 +6009,15 @@
         <v>210</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" t="s">
+        <v>352</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="6" t="s">
         <v>216</v>
       </c>
       <c r="M35">
@@ -5717,17 +6031,17 @@
       <c r="B36" t="s">
         <v>217</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="11" t="s">
         <v>218</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G36" t="s">
         <v>221</v>
@@ -5736,12 +6050,15 @@
         <v>221</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36" t="s">
+        <v>354</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="6" t="s">
         <v>216</v>
       </c>
       <c r="M36">
@@ -5755,19 +6072,19 @@
       <c r="B37" t="s">
         <v>222</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="11" t="s">
         <v>223</v>
       </c>
       <c r="D37" t="s">
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="F37" t="s">
-        <v>283</v>
-      </c>
-      <c r="G37" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>226</v>
       </c>
       <c r="H37" t="s">
@@ -5777,7 +6094,7 @@
         <v>73</v>
       </c>
       <c r="J37" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="K37" t="s">
         <v>21</v>
@@ -5796,29 +6113,29 @@
       <c r="B38" t="s">
         <v>228</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="11" t="s">
         <v>229</v>
       </c>
       <c r="D38" t="s">
         <v>230</v>
       </c>
       <c r="E38" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>232</v>
       </c>
       <c r="H38" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="I38" t="s">
         <v>73</v>
       </c>
       <c r="J38" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="K38" t="s">
         <v>21</v>
@@ -5844,10 +6161,10 @@
         <v>236</v>
       </c>
       <c r="E39" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G39" t="s">
         <v>238</v>
@@ -5856,12 +6173,15 @@
         <v>238</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" t="s">
+        <v>361</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="6" t="s">
         <v>239</v>
       </c>
       <c r="M39">
@@ -5882,19 +6202,22 @@
         <v>242</v>
       </c>
       <c r="E40" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>244</v>
       </c>
       <c r="H40" t="s">
         <v>244</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J40" t="s">
+        <v>363</v>
       </c>
       <c r="K40" t="s">
         <v>21</v>
@@ -5920,19 +6243,22 @@
         <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>249</v>
       </c>
       <c r="H41" t="s">
         <v>249</v>
       </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J41" t="s">
+        <v>365</v>
       </c>
       <c r="K41" t="s">
         <v>21</v>
@@ -5951,26 +6277,29 @@
       <c r="B42" t="s">
         <v>252</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="11" t="s">
         <v>253</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>256</v>
       </c>
       <c r="H42" t="s">
         <v>256</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J42" t="s">
+        <v>367</v>
       </c>
       <c r="K42" t="s">
         <v>21</v>
@@ -5989,17 +6318,17 @@
       <c r="B43" t="s">
         <v>257</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="11" t="s">
         <v>258</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E43" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G43" t="s">
         <v>261</v>
@@ -6008,7 +6337,10 @@
         <v>261</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J43" t="s">
+        <v>369</v>
       </c>
       <c r="K43" t="s">
         <v>21</v>
@@ -6034,10 +6366,10 @@
         <v>265</v>
       </c>
       <c r="E44" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G44" t="s">
         <v>267</v>
@@ -6046,7 +6378,10 @@
         <v>267</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J44" t="s">
+        <v>371</v>
       </c>
       <c r="K44" t="s">
         <v>21</v>
@@ -6066,10 +6401,10 @@
         <v>269</v>
       </c>
       <c r="E45" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G45" t="s">
         <v>270</v>
@@ -6078,7 +6413,10 @@
         <v>270</v>
       </c>
       <c r="I45" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J45" t="s">
+        <v>306</v>
       </c>
       <c r="K45" t="s">
         <v>21</v>
@@ -6149,7 +6487,7 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:13">
@@ -6166,7 +6504,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -6181,7 +6519,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="M2">
         <v>189</v>
@@ -6192,31 +6530,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="D3" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="E3" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="H3" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="M3">
         <v>189</v>
@@ -6227,19 +6565,19 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="E4" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="H4" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -6253,19 +6591,19 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="E5" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="H5" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -6288,7 +6626,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -6303,7 +6641,7 @@
         <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="M6">
         <v>189</v>
@@ -6323,7 +6661,7 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -6338,7 +6676,7 @@
         <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="M7">
         <v>189</v>
@@ -6358,7 +6696,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -6393,7 +6731,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -6402,7 +6740,7 @@
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="K9" t="s">
         <v>59</v>
@@ -6428,7 +6766,7 @@
         <v>224</v>
       </c>
       <c r="E10" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -6463,7 +6801,7 @@
         <v>230</v>
       </c>
       <c r="E11" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -6478,7 +6816,7 @@
         <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="M11">
         <v>189</v>
@@ -6489,31 +6827,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="C12" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="D12" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="E12" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>353</v>
+      <c r="G12" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="H12" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="M12">
         <v>189</v>
@@ -6524,31 +6862,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="C13" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="D13" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="E13" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="H13" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="M13">
         <v>189</v>
@@ -6559,31 +6897,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="C14" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="D14" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="E14" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="H14" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="M14">
         <v>189</v>
@@ -6594,16 +6932,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="D15" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="E15" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -6638,7 +6976,7 @@
         <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -6673,7 +7011,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -6688,7 +7026,7 @@
         <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="M17">
         <v>189</v>
@@ -6699,25 +7037,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="C18" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="D18" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="E18" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="H18" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="K18" t="s">
         <v>21</v>
@@ -6743,12 +7081,12 @@
         <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H19" t="s">
@@ -6769,16 +7107,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="C20" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="D20" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="E20" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -6813,7 +7151,7 @@
         <v>265</v>
       </c>
       <c r="E21" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -6828,7 +7166,7 @@
         <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="M21">
         <v>189</v>
@@ -6842,7 +7180,7 @@
         <v>269</v>
       </c>
       <c r="E22" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -6874,7 +7212,7 @@
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -6889,7 +7227,7 @@
         <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="M23">
         <v>189</v>
@@ -6909,7 +7247,7 @@
         <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -6938,7 +7276,7 @@
         <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -6961,31 +7299,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="C26" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="E26" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="H26" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="K26" t="s">
         <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="M26">
         <v>189</v>
@@ -7005,7 +7343,7 @@
         <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -7014,13 +7352,13 @@
         <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
       </c>
       <c r="L27" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="M27">
         <v>189</v>
@@ -7040,7 +7378,7 @@
         <v>247</v>
       </c>
       <c r="E28" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -7066,25 +7404,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="C29" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="E29" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="H29" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="K29" t="s">
         <v>21</v>
@@ -7110,7 +7448,7 @@
         <v>242</v>
       </c>
       <c r="E30" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -7145,7 +7483,7 @@
         <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -7154,19 +7492,19 @@
         <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="K31" t="s">
         <v>21</v>
       </c>
       <c r="L31" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="M31">
         <v>189</v>
       </c>
       <c r="N31" s="23" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1" spans="1:13">
@@ -7183,7 +7521,7 @@
         <v>254</v>
       </c>
       <c r="E32" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -7218,7 +7556,7 @@
         <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -7233,7 +7571,7 @@
         <v>21</v>
       </c>
       <c r="L33" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="M33">
         <v>189</v>
@@ -7253,7 +7591,7 @@
         <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -7288,7 +7626,7 @@
         <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -7392,12 +7730,12 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>449</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -7427,16 +7765,16 @@
         <v>24</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>19</v>
@@ -7445,7 +7783,7 @@
         <v>73</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>411</v>
+        <v>277</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>21</v>
@@ -7471,12 +7809,12 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>453</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
@@ -7509,12 +7847,12 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>454</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H5" t="s">
@@ -7547,7 +7885,7 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>455</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -7585,12 +7923,12 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>456</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
@@ -7623,16 +7961,16 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>457</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
@@ -7661,12 +7999,12 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>282</v>
+        <v>458</v>
       </c>
       <c r="F9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
@@ -7676,7 +8014,7 @@
         <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -7702,7 +8040,7 @@
         <v>69</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>285</v>
+        <v>459</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>18</v>
@@ -7711,13 +8049,13 @@
         <v>71</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>73</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>287</v>
+        <v>460</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>21</v>
@@ -7743,12 +8081,12 @@
         <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>289</v>
+        <v>461</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
@@ -7781,12 +8119,12 @@
         <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>290</v>
+        <v>462</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H12" t="s">
@@ -7819,12 +8157,12 @@
         <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>291</v>
+        <v>463</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
@@ -7857,12 +8195,12 @@
         <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>292</v>
+        <v>464</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>97</v>
       </c>
       <c r="H14" t="s">
@@ -7874,7 +8212,7 @@
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="9" t="s">
         <v>98</v>
       </c>
       <c r="M14">
@@ -7889,12 +8227,12 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>464</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>100</v>
       </c>
       <c r="H15" t="s">
@@ -7924,12 +8262,12 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>293</v>
+        <v>465</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>105</v>
       </c>
       <c r="H16" t="s">
@@ -7948,44 +8286,44 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:13">
-      <c r="A17" s="3">
+    <row r="17" s="7" customFormat="1" spans="1:13">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>283</v>
+      <c r="E17" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="J17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="7">
         <v>189</v>
       </c>
     </row>
@@ -8003,7 +8341,7 @@
         <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>297</v>
+        <v>467</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -8031,22 +8369,22 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>298</v>
+        <v>468</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="5" t="s">
         <v>123</v>
       </c>
       <c r="H19" t="s">
@@ -8055,19 +8393,19 @@
       <c r="I19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="9" t="s">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="6">
         <v>84</v>
       </c>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:13">
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" s="7" customFormat="1" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8081,7 +8419,7 @@
         <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>299</v>
+        <v>469</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -8095,17 +8433,17 @@
       <c r="I20" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="9" t="s">
+      <c r="K20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>131</v>
       </c>
       <c r="M20">
         <v>84</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:13">
+    <row r="21" s="7" customFormat="1" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8119,7 +8457,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -8133,17 +8471,17 @@
       <c r="I21" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="9" t="s">
+      <c r="K21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>137</v>
       </c>
       <c r="M21">
         <v>84</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:13">
+    <row r="22" s="7" customFormat="1" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8157,7 +8495,7 @@
         <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>301</v>
+        <v>471</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -8171,17 +8509,17 @@
       <c r="I22" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="9" t="s">
+      <c r="K22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>143</v>
       </c>
       <c r="M22">
         <v>84</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:13">
+    <row r="23" s="7" customFormat="1" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8192,10 +8530,10 @@
         <v>145</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="E23" t="s">
-        <v>303</v>
+        <v>472</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -8209,17 +8547,17 @@
       <c r="I23" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="9" t="s">
+      <c r="K23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>149</v>
       </c>
       <c r="M23">
         <v>84</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:13">
+    <row r="24" s="7" customFormat="1" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8233,7 +8571,7 @@
         <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>304</v>
+        <v>473</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -8242,22 +8580,22 @@
         <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="9" t="s">
+      <c r="K24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>156</v>
       </c>
       <c r="M24">
         <v>84</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:13">
+    <row r="25" s="7" customFormat="1" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8271,7 +8609,7 @@
         <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>306</v>
+        <v>474</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -8280,22 +8618,22 @@
         <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="9" t="s">
+      <c r="K25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>156</v>
       </c>
       <c r="M25">
         <v>84</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:13">
+    <row r="26" s="7" customFormat="1" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8309,7 +8647,7 @@
         <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>308</v>
+        <v>475</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
@@ -8323,17 +8661,17 @@
       <c r="I26" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="9" t="s">
+      <c r="K26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>167</v>
       </c>
       <c r="M26">
         <v>84</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:13">
+    <row r="27" s="7" customFormat="1" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8347,7 +8685,7 @@
         <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>309</v>
+        <v>476</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -8361,17 +8699,17 @@
       <c r="I27" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="9" t="s">
+      <c r="K27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>173</v>
       </c>
       <c r="M27">
         <v>84</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:13">
+    <row r="28" s="7" customFormat="1" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8385,7 +8723,7 @@
         <v>176</v>
       </c>
       <c r="E28" t="s">
-        <v>310</v>
+        <v>477</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -8399,17 +8737,17 @@
       <c r="I28" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="9" t="s">
+      <c r="K28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>178</v>
       </c>
       <c r="M28">
         <v>84</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:13">
+    <row r="29" s="7" customFormat="1" spans="1:13">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8423,7 +8761,7 @@
         <v>181</v>
       </c>
       <c r="E29" t="s">
-        <v>311</v>
+        <v>478</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -8437,17 +8775,17 @@
       <c r="I29" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="9" t="s">
+      <c r="K29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>183</v>
       </c>
       <c r="M29">
         <v>84</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:13">
+    <row r="30" s="7" customFormat="1" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8461,7 +8799,7 @@
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>312</v>
+        <v>479</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -8475,17 +8813,17 @@
       <c r="I30" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="9" t="s">
+      <c r="K30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="6" t="s">
         <v>189</v>
       </c>
       <c r="M30">
         <v>84</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:13">
+    <row r="31" s="7" customFormat="1" spans="1:13">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8499,7 +8837,7 @@
         <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>313</v>
+        <v>480</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -8513,17 +8851,17 @@
       <c r="I31" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="9" t="s">
+      <c r="K31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M31">
         <v>84</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:13">
+    <row r="32" s="7" customFormat="1" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8537,7 +8875,7 @@
         <v>198</v>
       </c>
       <c r="E32" t="s">
-        <v>315</v>
+        <v>481</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -8551,17 +8889,17 @@
       <c r="I32" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="9" t="s">
+      <c r="K32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M32">
         <v>84</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:13">
+    <row r="33" s="7" customFormat="1" spans="1:13">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8575,7 +8913,7 @@
         <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>316</v>
+        <v>482</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -8589,17 +8927,17 @@
       <c r="I33" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="9" t="s">
+      <c r="K33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M33">
         <v>84</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:13">
+    <row r="34" s="7" customFormat="1" spans="1:13">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8613,7 +8951,7 @@
         <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>317</v>
+        <v>483</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -8627,17 +8965,17 @@
       <c r="I34" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="9" t="s">
+      <c r="K34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="6" t="s">
         <v>211</v>
       </c>
       <c r="M34">
         <v>84</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" spans="1:13">
+    <row r="35" s="7" customFormat="1" spans="1:13">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8651,7 +8989,7 @@
         <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>318</v>
+        <v>484</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -8665,17 +9003,17 @@
       <c r="I35" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="9" t="s">
+      <c r="K35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="6" t="s">
         <v>216</v>
       </c>
       <c r="M35">
         <v>84</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" spans="1:13">
+    <row r="36" s="7" customFormat="1" spans="1:13">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8689,7 +9027,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>319</v>
+        <v>485</v>
       </c>
       <c r="F36" t="s">
         <v>18</v>
@@ -8703,54 +9041,54 @@
       <c r="I36" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="9" t="s">
+      <c r="K36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="6" t="s">
         <v>216</v>
       </c>
       <c r="M36">
         <v>84</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" spans="1:13">
-      <c r="A37" s="3">
+    <row r="37" s="7" customFormat="1" spans="1:13">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>283</v>
+      <c r="E37" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="G37" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="3" t="s">
+      <c r="J37" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="7">
         <v>189</v>
       </c>
     </row>
@@ -8768,7 +9106,7 @@
         <v>230</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>322</v>
+        <v>487</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>18</v>
@@ -8777,13 +9115,13 @@
         <v>232</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>73</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>324</v>
+        <v>488</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>21</v>
@@ -8795,7 +9133,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="1" spans="1:13">
+    <row r="39" s="7" customFormat="1" spans="1:13">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8809,7 +9147,7 @@
         <v>236</v>
       </c>
       <c r="E39" t="s">
-        <v>325</v>
+        <v>489</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
@@ -8823,10 +9161,10 @@
       <c r="I39" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="9" t="s">
+      <c r="K39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="6" t="s">
         <v>239</v>
       </c>
       <c r="M39">
@@ -8847,12 +9185,12 @@
         <v>242</v>
       </c>
       <c r="E40" t="s">
-        <v>326</v>
+        <v>490</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="3" t="s">
         <v>244</v>
       </c>
       <c r="H40" t="s">
@@ -8885,12 +9223,12 @@
         <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>327</v>
+        <v>491</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="3" t="s">
         <v>249</v>
       </c>
       <c r="H41" t="s">
@@ -8923,12 +9261,12 @@
         <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>328</v>
+        <v>492</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="3" t="s">
         <v>256</v>
       </c>
       <c r="H42" t="s">
@@ -8947,7 +9285,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" s="3" customFormat="1" spans="1:13">
+    <row r="43" s="7" customFormat="1" spans="1:13">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8961,7 +9299,7 @@
         <v>259</v>
       </c>
       <c r="E43" t="s">
-        <v>329</v>
+        <v>493</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
@@ -8999,7 +9337,7 @@
         <v>265</v>
       </c>
       <c r="E44" t="s">
-        <v>330</v>
+        <v>494</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
@@ -9031,7 +9369,7 @@
         <v>269</v>
       </c>
       <c r="E45" t="s">
-        <v>330</v>
+        <v>494</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
@@ -9118,7 +9456,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
@@ -9129,13 +9467,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>495</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>496</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>416</v>
+        <v>497</v>
       </c>
       <c r="G2" t="s">
         <v>154</v>
@@ -9144,7 +9482,7 @@
         <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="M2">
         <v>84</v>
@@ -9161,13 +9499,14 @@
   <sheetPr/>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="$A6:$XFD6 $A9:$XFD9 $A12:$XFD17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="64.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="28.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:14">
@@ -9225,19 +9564,19 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>417</v>
+        <v>498</v>
       </c>
       <c r="E2" t="s">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>419</v>
+        <v>500</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -9259,23 +9598,23 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
-        <v>420</v>
+        <v>501</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>274</v>
+      <c r="G3" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="H3" t="s">
-        <v>421</v>
+        <v>502</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
@@ -9290,7 +9629,7 @@
         <v>189</v>
       </c>
       <c r="O3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9307,16 +9646,16 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>422</v>
+        <v>503</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>423</v>
+        <v>504</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -9345,16 +9684,16 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>424</v>
+        <v>505</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>425</v>
+        <v>506</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
@@ -9371,22 +9710,22 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>426</v>
+        <v>507</v>
       </c>
       <c r="F6" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -9395,7 +9734,7 @@
         <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>427</v>
+        <v>285</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -9409,7 +9748,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -9421,16 +9760,16 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>428</v>
+        <v>508</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>429</v>
+        <v>509</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
@@ -9447,7 +9786,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -9459,22 +9798,22 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>431</v>
+        <v>511</v>
       </c>
       <c r="I8" t="s">
         <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>432</v>
+        <v>512</v>
       </c>
       <c r="K8" t="s">
         <v>59</v>
@@ -9488,31 +9827,31 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>433</v>
+        <v>513</v>
       </c>
       <c r="F9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>64</v>
       </c>
       <c r="I9" t="s">
         <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -9526,9 +9865,9 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C10" t="s">
@@ -9538,19 +9877,19 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>434</v>
+        <v>514</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>71</v>
       </c>
       <c r="I10" t="s">
         <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>435</v>
+        <v>515</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -9562,12 +9901,12 @@
         <v>189</v>
       </c>
       <c r="O10" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -9579,16 +9918,16 @@
         <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>436</v>
+        <v>516</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>437</v>
+      <c r="G11" s="3" t="s">
+        <v>517</v>
       </c>
       <c r="H11" t="s">
-        <v>438</v>
+        <v>518</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -9603,12 +9942,12 @@
         <v>189</v>
       </c>
       <c r="N11" t="s">
-        <v>439</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -9620,12 +9959,12 @@
         <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>440</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G12" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H12" t="s">
@@ -9635,7 +9974,7 @@
         <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>441</v>
+        <v>301</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -9649,7 +9988,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>88</v>
@@ -9661,12 +10000,12 @@
         <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>442</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
@@ -9676,7 +10015,7 @@
         <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>443</v>
+        <v>303</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
@@ -9690,7 +10029,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>93</v>
@@ -9702,12 +10041,12 @@
         <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>97</v>
       </c>
       <c r="H14" t="s">
@@ -9717,12 +10056,12 @@
         <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>445</v>
+        <v>305</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="9" t="s">
         <v>98</v>
       </c>
       <c r="M14">
@@ -9731,18 +10070,18 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>444</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G15" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>100</v>
       </c>
       <c r="H15" t="s">
@@ -9752,7 +10091,7 @@
         <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>446</v>
+        <v>306</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
@@ -9763,7 +10102,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>101</v>
@@ -9775,12 +10114,12 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>447</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>105</v>
       </c>
       <c r="H16" t="s">
@@ -9790,7 +10129,7 @@
         <v>73</v>
       </c>
       <c r="J16" t="s">
-        <v>448</v>
+        <v>308</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
@@ -9804,7 +10143,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>107</v>
@@ -9813,25 +10152,25 @@
         <v>108</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="E17" t="s">
-        <v>449</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>296</v>
+        <v>524</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="H17" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="I17" t="s">
         <v>73</v>
       </c>
       <c r="J17" t="s">
-        <v>413</v>
+        <v>312</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
@@ -9845,7 +10184,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>113</v>
@@ -9857,22 +10196,22 @@
         <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="F18" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G18" t="s">
         <v>117</v>
       </c>
       <c r="H18" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="I18" t="s">
         <v>73</v>
       </c>
       <c r="J18" t="s">
-        <v>452</v>
+        <v>314</v>
       </c>
       <c r="K18" t="s">
         <v>21</v>
@@ -9886,7 +10225,7 @@
     </row>
     <row r="19" ht="38.25" customHeight="1" spans="1:13">
       <c r="A19">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
@@ -9898,22 +10237,22 @@
         <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>453</v>
+        <v>527</v>
       </c>
       <c r="F19" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G19" t="s">
         <v>123</v>
       </c>
       <c r="H19" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="I19" t="s">
         <v>73</v>
       </c>
       <c r="J19" t="s">
-        <v>454</v>
+        <v>316</v>
       </c>
       <c r="K19" t="s">
         <v>21</v>
@@ -9927,7 +10266,7 @@
     </row>
     <row r="20" ht="25.5" customHeight="1" spans="1:13">
       <c r="A20">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>126</v>
@@ -9939,10 +10278,10 @@
         <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="F20" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G20" t="s">
         <v>130</v>
@@ -9954,7 +10293,7 @@
         <v>73</v>
       </c>
       <c r="J20" t="s">
-        <v>456</v>
+        <v>318</v>
       </c>
       <c r="K20" t="s">
         <v>21</v>
@@ -9968,7 +10307,7 @@
     </row>
     <row r="21" ht="38.25" customHeight="1" spans="1:13">
       <c r="A21">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>132</v>
@@ -9980,22 +10319,22 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>457</v>
+        <v>529</v>
       </c>
       <c r="F21" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G21" t="s">
         <v>136</v>
       </c>
       <c r="H21" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="I21" t="s">
         <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>458</v>
+        <v>320</v>
       </c>
       <c r="K21" t="s">
         <v>21</v>
@@ -10009,7 +10348,7 @@
     </row>
     <row r="22" ht="38.25" customHeight="1" spans="1:13">
       <c r="A22">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>138</v>
@@ -10021,22 +10360,22 @@
         <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>459</v>
+        <v>530</v>
       </c>
       <c r="F22" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G22" t="s">
         <v>142</v>
       </c>
       <c r="H22" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="I22" t="s">
         <v>73</v>
       </c>
       <c r="J22" t="s">
-        <v>460</v>
+        <v>322</v>
       </c>
       <c r="K22" t="s">
         <v>21</v>
@@ -10050,7 +10389,7 @@
     </row>
     <row r="23" ht="38.25" customHeight="1" spans="1:13">
       <c r="A23">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>150</v>
@@ -10062,22 +10401,22 @@
         <v>152</v>
       </c>
       <c r="E23" t="s">
-        <v>461</v>
+        <v>531</v>
       </c>
       <c r="F23" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G23" t="s">
         <v>154</v>
       </c>
       <c r="H23" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="I23" t="s">
         <v>73</v>
       </c>
       <c r="J23" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
       <c r="K23" t="s">
         <v>21</v>
@@ -10091,7 +10430,7 @@
     </row>
     <row r="24" ht="38.25" customHeight="1" spans="1:13">
       <c r="A24">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>157</v>
@@ -10103,22 +10442,22 @@
         <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>463</v>
+        <v>533</v>
       </c>
       <c r="F24" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G24" t="s">
         <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="I24" t="s">
         <v>73</v>
       </c>
       <c r="J24" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="K24" t="s">
         <v>21</v>
@@ -10132,7 +10471,7 @@
     </row>
     <row r="25" ht="38.25" customHeight="1" spans="1:13">
       <c r="A25">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>162</v>
@@ -10144,10 +10483,10 @@
         <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="F25" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G25" t="s">
         <v>166</v>
@@ -10159,7 +10498,7 @@
         <v>73</v>
       </c>
       <c r="J25" t="s">
-        <v>466</v>
+        <v>333</v>
       </c>
       <c r="K25" t="s">
         <v>21</v>
@@ -10173,7 +10512,7 @@
     </row>
     <row r="26" ht="38.25" customHeight="1" spans="1:13">
       <c r="A26">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>168</v>
@@ -10185,10 +10524,10 @@
         <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="F26" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
         <v>172</v>
@@ -10200,7 +10539,7 @@
         <v>73</v>
       </c>
       <c r="J26" t="s">
-        <v>468</v>
+        <v>335</v>
       </c>
       <c r="K26" t="s">
         <v>21</v>
@@ -10214,7 +10553,7 @@
     </row>
     <row r="27" ht="51" customHeight="1" spans="1:13">
       <c r="A27">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>174</v>
@@ -10226,10 +10565,10 @@
         <v>176</v>
       </c>
       <c r="E27" t="s">
-        <v>469</v>
+        <v>537</v>
       </c>
       <c r="F27" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G27" t="s">
         <v>166</v>
@@ -10241,7 +10580,7 @@
         <v>73</v>
       </c>
       <c r="J27" t="s">
-        <v>470</v>
+        <v>337</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
@@ -10255,7 +10594,7 @@
     </row>
     <row r="28" ht="51" customHeight="1" spans="1:13">
       <c r="A28">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>179</v>
@@ -10267,10 +10606,10 @@
         <v>181</v>
       </c>
       <c r="E28" t="s">
-        <v>471</v>
+        <v>538</v>
       </c>
       <c r="F28" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G28" t="s">
         <v>172</v>
@@ -10282,7 +10621,7 @@
         <v>73</v>
       </c>
       <c r="J28" t="s">
-        <v>472</v>
+        <v>339</v>
       </c>
       <c r="K28" t="s">
         <v>21</v>
@@ -10296,7 +10635,7 @@
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:13">
       <c r="A29">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>184</v>
@@ -10308,10 +10647,10 @@
         <v>186</v>
       </c>
       <c r="E29" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="F29" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G29" t="s">
         <v>188</v>
@@ -10323,7 +10662,7 @@
         <v>73</v>
       </c>
       <c r="J29" t="s">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="K29" t="s">
         <v>21</v>
@@ -10337,7 +10676,7 @@
     </row>
     <row r="30" ht="38.25" customHeight="1" spans="1:13">
       <c r="A30">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>190</v>
@@ -10349,22 +10688,22 @@
         <v>192</v>
       </c>
       <c r="E30" t="s">
-        <v>475</v>
+        <v>540</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G30" t="s">
         <v>194</v>
       </c>
       <c r="H30" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="I30" t="s">
         <v>73</v>
       </c>
       <c r="J30" t="s">
-        <v>476</v>
+        <v>343</v>
       </c>
       <c r="K30" t="s">
         <v>21</v>
@@ -10378,34 +10717,34 @@
     </row>
     <row r="31" ht="38.25" customHeight="1" spans="1:13">
       <c r="A31">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>196</v>
       </c>
       <c r="C31" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="D31" t="s">
         <v>198</v>
       </c>
       <c r="E31" t="s">
-        <v>477</v>
+        <v>541</v>
       </c>
       <c r="F31" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
         <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="I31" t="s">
         <v>73</v>
       </c>
       <c r="J31" t="s">
-        <v>478</v>
+        <v>346</v>
       </c>
       <c r="K31" t="s">
         <v>21</v>
@@ -10419,7 +10758,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>240</v>
@@ -10431,10 +10770,10 @@
         <v>242</v>
       </c>
       <c r="E32" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G32" t="s">
         <v>244</v>
@@ -10446,7 +10785,7 @@
         <v>73</v>
       </c>
       <c r="J32" t="s">
-        <v>480</v>
+        <v>363</v>
       </c>
       <c r="K32" t="s">
         <v>21</v>
@@ -10460,7 +10799,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>263</v>
@@ -10472,10 +10811,10 @@
         <v>265</v>
       </c>
       <c r="E33" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="F33" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
         <v>267</v>
@@ -10487,7 +10826,7 @@
         <v>73</v>
       </c>
       <c r="J33" t="s">
-        <v>482</v>
+        <v>371</v>
       </c>
       <c r="K33" t="s">
         <v>21</v>
@@ -10501,16 +10840,16 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
         <v>269</v>
       </c>
       <c r="E34" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="F34" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G34" t="s">
         <v>270</v>
@@ -10522,7 +10861,7 @@
         <v>73</v>
       </c>
       <c r="J34" t="s">
-        <v>446</v>
+        <v>306</v>
       </c>
       <c r="K34" t="s">
         <v>21</v>
@@ -10546,7 +10885,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -10609,10 +10948,10 @@
         <v>145</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>472</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -10626,10 +10965,10 @@
       <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>149</v>
       </c>
       <c r="M2">
@@ -10650,7 +10989,7 @@
         <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -10659,15 +10998,15 @@
         <v>205</v>
       </c>
       <c r="H3" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="9" t="s">
+      <c r="K3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M3">
@@ -10688,10 +11027,10 @@
         <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="F4" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
         <v>210</v>
@@ -10703,12 +11042,12 @@
         <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>486</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>216</v>
       </c>
       <c r="M4">
@@ -10729,10 +11068,10 @@
         <v>208</v>
       </c>
       <c r="E5" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="F5" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G5" t="s">
         <v>210</v>
@@ -10744,12 +11083,12 @@
         <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>488</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>211</v>
       </c>
       <c r="M5">
@@ -10770,10 +11109,10 @@
         <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="F6" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G6" t="s">
         <v>221</v>
@@ -10785,12 +11124,12 @@
         <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>490</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>216</v>
       </c>
       <c r="M6">
@@ -10811,22 +11150,22 @@
         <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="F7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>232</v>
       </c>
       <c r="H7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="I7" t="s">
         <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>492</v>
+        <v>359</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -10852,12 +11191,12 @@
         <v>224</v>
       </c>
       <c r="E8" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="F8" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>226</v>
       </c>
       <c r="H8" t="s">
@@ -10867,7 +11206,7 @@
         <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="K8" t="s">
         <v>21</v>
@@ -10893,7 +11232,7 @@
         <v>236</v>
       </c>
       <c r="E9" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -10902,15 +11241,15 @@
         <v>238</v>
       </c>
       <c r="H9" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="9" t="s">
+      <c r="K9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>239</v>
       </c>
       <c r="M9">
@@ -10931,12 +11270,12 @@
         <v>254</v>
       </c>
       <c r="E10" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="F10" t="s">
-        <v>283</v>
-      </c>
-      <c r="G10" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>256</v>
       </c>
       <c r="H10" t="s">
@@ -10946,7 +11285,7 @@
         <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>497</v>
+        <v>367</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -10972,12 +11311,12 @@
         <v>247</v>
       </c>
       <c r="E11" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="F11" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>249</v>
       </c>
       <c r="H11" t="s">
@@ -10987,7 +11326,7 @@
         <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>499</v>
+        <v>365</v>
       </c>
       <c r="K11" t="s">
         <v>21</v>
@@ -11013,10 +11352,10 @@
         <v>259</v>
       </c>
       <c r="E12" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="F12" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G12" t="s">
         <v>261</v>
@@ -11028,7 +11367,7 @@
         <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>501</v>
+        <v>369</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -11049,13 +11388,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -11101,323 +11440,92 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" ht="16.5" customHeight="1" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>426</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
+        <v>272</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>427</v>
+        <v>273</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M2">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" ht="16.5" customHeight="1" spans="1:15">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
-        <v>433</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>64</v>
+        <v>272</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" t="s">
+        <v>276</v>
       </c>
       <c r="I3" t="s">
         <v>73</v>
       </c>
       <c r="J3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="M3">
         <v>189</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" t="s">
-        <v>441</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M4">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" t="s">
-        <v>442</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>443</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" t="s">
-        <v>444</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" t="s">
-        <v>445</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" t="s">
-        <v>444</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" t="s">
-        <v>446</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" t="s">
-        <v>447</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" t="s">
-        <v>448</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E9" t="s">
-        <v>449</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H9" t="s">
-        <v>296</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>413</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9">
-        <v>189</v>
+      <c r="O3" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L6:L7"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="7"/>
+    <workbookView windowWidth="28245" windowHeight="12465" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="84" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="560">
   <si>
     <t>id</t>
   </si>
@@ -869,32 +869,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>tc_auto_df_sink_hive_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>分区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1545633382059</t>
-    </r>
-  </si>
-  <si>
     <t>cb3376c4-faa5-4837-94b6-e7ea856d8e7e</t>
   </si>
   <si>
@@ -930,32 +904,6 @@
   <si>
     <t xml:space="preserve">flowname: tc_auto_df_sink_es1545633382996 ---&gt;执行状态为 FAILED
 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>tc_auto_df_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>所有类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>_new_new1545633383317</t>
-    </r>
   </si>
   <si>
     <t>099600e7-5946-485f-b9b2-f0695c9ad6fa</t>
@@ -1779,6 +1727,24 @@
   </si>
   <si>
     <t>e95515d6-fa1b-4c1b-9fb1-5b0158099201</t>
+  </si>
+  <si>
+    <t>6e524eaf-99f8-47a4-8489-8e2214406efe</t>
+  </si>
+  <si>
+    <t>test_基础</t>
+  </si>
+  <si>
+    <t>5e314d85-b54c-44f7-b366-c497dcf4bde8</t>
+  </si>
+  <si>
+    <t>2f62cbdd-b808-45a4-98f6-283b0e21ecd2</t>
+  </si>
+  <si>
+    <t>[{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"65","name":"李四","id":"4"},{"subject":"语文","grade":"35","name":"李四","id":"5"},{"subject":"数学","grade":"58","name":"小明","id":"6"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"46","name":"小玲","id":"13"},{"subject":"英语","grade":"78","name":"小玲","id":"14"},{"subject":"数学","grade":"68","name":"张三","id":"15"},{"subject":"语文","grade":"89","name":"张三","id":"1"},{"subject":"英语","grade":"85","name":"张三","id":"2"},{"subject":"数学","grade":"95","name":"李四","id":"3"},{"subject":"英语","grade":"65","name":"李四","id":"4"},{"subject":"语文","grade":"35","name":"李四","id":"5"},{"subject":"数学","grade":"58","name":"小明","id":"6"},{"subject":"英语","grade":"96","name":"小明","id":"7"},{"subject":"语文","grade":"96","name":"小明","id":"8"},{"subject":"数学","grade":"85","name":"小红","id":"9"},{"subject":"英语","grade":"95","name":"小红","id":"10"},{"subject":"语文","grade":"78","name":"小红","id":"11"},{"subject":"数学","grade":"98","name":"小玲","id":"12"},{"subject":"语文","grade":"46","name":"小玲","id":"13"},{"subject":"英语","grade":"78","name":"小玲","id":"14"},{"subject":"数学","grade":"68","name":"张三","id":"15"}]</t>
+  </si>
+  <si>
+    <t>[{'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '95', 'name': '李四', 'id': '3'}, {'subject': '英语', 'grade': '65', 'name': '李四', 'id': '4'}, {'subject': '语文', 'grade': '35', 'name': '李四', 'id': '5'}, {'subject': '数学', 'grade': '58', 'name': '小明', 'id': '6'}, {'subject': '英语', 'grade': '96', 'name': '小明', 'id': '7'}, {'subject': '语文', 'grade': '96', 'name': '小明', 'id': '8'}, {'subject': '数学', 'grade': '85', 'name': '小红', 'id': '9'}, {'subject': '英语', 'grade': '95', 'name': '小红', 'id': '10'}, {'subject': '语文', 'grade': '78', 'name': '小红', 'id': '11'}, {'subject': '数学', 'grade': '98', 'name': '小玲', 'id': '12'}, {'subject': '语文', 'grade': '46', 'name': '小玲', 'id': '13'}, {'subject': '英语', 'grade': '78', 'name': '小玲', 'id': '14'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '95', 'name': '李四', 'id': '3'}, {'subject': '英语', 'grade': '65', 'name': '李四', 'id': '4'}, {'subject': '语文', 'grade': '35', 'name': '李四', 'id': '5'}, {'subject': '数学', 'grade': '58', 'name': '小明', 'id': '6'}, {'subject': '英语', 'grade': '96', 'name': '小明', 'id': '7'}, {'subject': '语文', 'grade': '96', 'name': '小明', 'id': '8'}, {'subject': '数学', 'grade': '85', 'name': '小红', 'id': '9'}, {'subject': '英语', 'grade': '95', 'name': '小红', 'id': '10'}, {'subject': '语文', 'grade': '78', 'name': '小红', 'id': '11'}, {'subject': '数学', 'grade': '98', 'name': '小玲', 'id': '12'}, {'subject': '语文', 'grade': '46', 'name': '小玲', 'id': '13'}, {'subject': '英语', 'grade': '78', 'name': '小玲', 'id': '14'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '95', 'name': '李四', 'id': '3'}, {'subject': '英语', 'grade': '65', 'name': '李四', 'id': '4'}, {'subject': '语文', 'grade': '35', 'name': '李四', 'id': '5'}, {'subject': '数学', 'grade': '58', 'name': '小明', 'id': '6'}, {'subject': '英语', 'grade': '96', 'name': '小明', 'id': '7'}, {'subject': '语文', 'grade': '96', 'name': '小明', 'id': '8'}, {'subject': '数学', 'grade': '85', 'name': '小红', 'id': '9'}, {'subject': '英语', 'grade': '95', 'name': '小红', 'id': '10'}, {'subject': '语文', 'grade': '78', 'name': '小红', 'id': '11'}, {'subject': '数学', 'grade': '98', 'name': '小玲', 'id': '12'}, {'subject': '语文', 'grade': '46', 'name': '小玲', 'id': '13'}, {'subject': '英语', 'grade': '78', 'name': '小玲', 'id': '14'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '95', 'name': '李四', 'id': '3'}, {'subject': '英语', 'grade': '65', 'name': '李四', 'id': '4'}, {'subject': '语文', 'grade': '35', 'name': '李四', 'id': '5'}, {'subject': '数学', 'grade': '58', 'name': '小明', 'id': '6'}, {'subject': '英语', 'grade': '96', 'name': '小明', 'id': '7'}, {'subject': '语文', 'grade': '96', 'name': '小明', 'id': '8'}, {'subject': '数学', 'grade': '85', 'name': '小红', 'id': '9'}, {'subject': '英语', 'grade': '95', 'name': '小红', 'id': '10'}, {'subject': '语文', 'grade': '78', 'name': '小红', 'id': '11'}, {'subject': '数学', 'grade': '98', 'name': '小玲', 'id': '12'}, {'subject': '语文', 'grade': '46', 'name': '小玲', 'id': '13'}, {'subject': '英语', 'grade': '78', 'name': '小玲', 'id': '14'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '95', 'name': '李四', 'id': '3'}, {'subject': '英语', 'grade': '65', 'name': '李四', 'id': '4'}, {'subject': '语文', 'grade': '35', 'name': '李四', 'id': '5'}, {'subject': '数学', 'grade': '58', 'name': '小明', 'id': '6'}, {'subject': '英语', 'grade': '96', 'name': '小明', 'id': '7'}, {'subject': '语文', 'grade': '96', 'name': '小明', 'id': '8'}, {'subject': '数学', 'grade': '85', 'name': '小红', 'id': '9'}, {'subject': '英语', 'grade': '95', 'name': '小红', 'id': '10'}, {'subject': '语文', 'grade': '78', 'name': '小红', 'id': '11'}, {'subject': '数学', 'grade': '98', 'name': '小玲', 'id': '12'}, {'subject': '语文', 'grade': '46', 'name': '小玲', 'id': '13'}, {'subject': '英语', 'grade': '78', 'name': '小玲', 'id': '14'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '95', 'name': '李四', 'id': '3'}, {'subject': '英语', 'grade': '65', 'name': '李四', 'id': '4'}, {'subject': '语文', 'grade': '35', 'name': '李四', 'id': '5'}, {'subject': '数学', 'grade': '58', 'name': '小明', 'id': '6'}, {'subject': '英语', 'grade': '96', 'name': '小明', 'id': '7'}, {'subject': '语文', 'grade': '96', 'name': '小明', 'id': '8'}, {'subject': '数学', 'grade': '85', 'name': '小红', 'id': '9'}, {'subject': '英语', 'grade': '95', 'name': '小红', 'id': '10'}, {'subject': '语文', 'grade': '78', 'name': '小红', 'id': '11'}, {'subject': '数学', 'grade': '98', 'name': '小玲', 'id': '12'}, {'subject': '语文', 'grade': '46', 'name': '小玲', 'id': '13'}, {'subject': '英语', 'grade': '78', 'name': '小玲', 'id': '14'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '95', 'name': '李四', 'id': '3'}, {'subject': '英语', 'grade': '65', 'name': '李四', 'id': '4'}, {'subject': '语文', 'grade': '35', 'name': '李四', 'id': '5'}, {'subject': '数学', 'grade': '58', 'name': '小明', 'id': '6'}, {'subject': '英语', 'grade': '96', 'name': '小明', 'id': '7'}, {'subject': '语文', 'grade': '96', 'name': '小明', 'id': '8'}, {'subject': '数学', 'grade': '85', 'name': '小红', 'id': '9'}, {'subject': '英语', 'grade': '95', 'name': '小红', 'id': '10'}, {'subject': '语文', 'grade': '78', 'name': '小红', 'id': '11'}, {'subject': '数学', 'grade': '98', 'name': '小玲', 'id': '12'}, {'subject': '语文', 'grade': '46', 'name': '小玲', 'id': '13'}, {'subject': '英语', 'grade': '78', 'name': '小玲', 'id': '14'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '95', 'name': '李四', 'id': '3'}, {'subject': '英语', 'grade': '65', 'name': '李四', 'id': '4'}, {'subject': '语文', 'grade': '35', 'name': '李四', 'id': '5'}, {'subject': '数学', 'grade': '58', 'name': '小明', 'id': '6'}, {'subject': '英语', 'grade': '96', 'name': '小明', 'id': '7'}, {'subject': '语文', 'grade': '96', 'name': '小明', 'id': '8'}, {'subject': '数学', 'grade': '85', 'name': '小红', 'id': '9'}, {'subject': '英语', 'grade': '95', 'name': '小红', 'id': '10'}, {'subject': '语文', 'grade': '78', 'name': '小红', 'id': '11'}, {'subject': '数学', 'grade': '98', 'name': '小玲', 'id': '12'}, {'subject': '语文', 'grade': '46', 'name': '小玲', 'id': '13'}, {'subject': '英语', 'grade': '78', 'name': '小玲', 'id': '14'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '95', 'name': '李四', 'id': '3'}, {'subject': '英语', 'grade': '65', 'name': '李四', 'id': '4'}, {'subject': '语文', 'grade': '35', 'name': '李四', 'id': '5'}, {'subject': '数学', 'grade': '58', 'name': '小明', 'id': '6'}, {'subject': '英语', 'grade': '96', 'name': '小明', 'id': '7'}, {'subject': '语文', 'grade': '96', 'name': '小明', 'id': '8'}, {'subject': '数学', 'grade': '85', 'name': '小红', 'id': '9'}, {'subject': '英语', 'grade': '95', 'name': '小红', 'id': '10'}, {'subject': '语文', 'grade': '78', 'name': '小红', 'id': '11'}, {'subject': '数学', 'grade': '98', 'name': '小玲', 'id': '12'}, {'subject': '语文', 'grade': '46', 'name': '小玲', 'id': '13'}, {'subject': '英语', 'grade': '78', 'name': '小玲', 'id': '14'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}, {'subject': '语文', 'grade': '89', 'name': '张三', 'id': '1'}, {'subject': '英语', 'grade': '85', 'name': '张三', 'id': '2'}, {'subject': '数学', 'grade': '95', 'name': '李四', 'id': '3'}, {'subject': '英语', 'grade': '65', 'name': '李四', 'id': '4'}, {'subject': '语文', 'grade': '35', 'name': '李四', 'id': '5'}, {'subject': '数学', 'grade': '58', 'name': '小明', 'id': '6'}, {'subject': '英语', 'grade': '96', 'name': '小明', 'id': '7'}, {'subject': '语文', 'grade': '96', 'name': '小明', 'id': '8'}, {'subject': '数学', 'grade': '85', 'name': '小红', 'id': '9'}, {'subject': '英语', 'grade': '95', 'name': '小红', 'id': '10'}, {'subject': '语文', 'grade': '78', 'name': '小红', 'id': '11'}, {'subject': '数学', 'grade': '98', 'name': '小玲', 'id': '12'}, {'subject': '语文', 'grade': '46', 'name': '小玲', 'id': '13'}, {'subject': '英语', 'grade': '78', 'name': '小玲', 'id': '14'}, {'subject': '数学', 'grade': '68', 'name': '张三', 'id': '15'}]</t>
   </si>
 </sst>
 </file>
@@ -1787,8 +1753,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -1811,6 +1777,12 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1826,12 +1798,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1850,9 +1816,15 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1866,30 +1838,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1904,74 +1853,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1994,8 +1882,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2040,13 +2006,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,37 +2078,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2100,7 +2108,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2112,115 +2180,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2231,6 +2197,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2245,21 +2220,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2296,8 +2256,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2305,11 +2267,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2323,163 +2283,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2490,7 +2456,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2498,24 +2465,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2918,7 +2883,7 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -2956,7 +2921,7 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H3" t="s">
@@ -2994,7 +2959,7 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
@@ -3032,7 +2997,7 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H5" t="s">
@@ -3061,7 +3026,7 @@
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
@@ -3108,7 +3073,7 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
@@ -3146,7 +3111,7 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H8" t="s">
@@ -3175,7 +3140,7 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E9" t="s">
@@ -3184,7 +3149,7 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
@@ -3213,7 +3178,7 @@
       <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E10" t="s">
@@ -3222,7 +3187,7 @@
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>71</v>
       </c>
       <c r="H10" t="s">
@@ -3254,7 +3219,7 @@
       <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E11" t="s">
@@ -3263,7 +3228,7 @@
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
@@ -3301,7 +3266,7 @@
       <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H12" t="s">
@@ -3339,7 +3304,7 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
@@ -3368,7 +3333,7 @@
       <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>95</v>
       </c>
       <c r="E14" t="s">
@@ -3377,7 +3342,7 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H14" t="s">
@@ -3389,7 +3354,7 @@
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="10" t="s">
         <v>98</v>
       </c>
       <c r="M14">
@@ -3400,7 +3365,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E15" t="s">
@@ -3409,7 +3374,7 @@
       <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H15" t="s">
@@ -3435,7 +3400,7 @@
       <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E16" t="s">
@@ -3444,7 +3409,7 @@
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H16" t="s">
@@ -3467,13 +3432,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C17" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E17" t="s">
@@ -3482,7 +3447,7 @@
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>111</v>
       </c>
       <c r="H17" t="s">
@@ -3543,13 +3508,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E19" t="s">
@@ -3558,7 +3523,7 @@
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>123</v>
       </c>
       <c r="H19" t="s">
@@ -3567,661 +3532,661 @@
       <c r="I19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="7">
         <v>84</v>
       </c>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" s="7" customFormat="1" spans="1:13">
-      <c r="A20" s="7">
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" s="8" customFormat="1" spans="1:13">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="27" t="s">
+      <c r="K20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="1" spans="1:13">
-      <c r="A21" s="7">
+    <row r="21" s="8" customFormat="1" spans="1:13">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="27" t="s">
+      <c r="K21" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="22" s="7" customFormat="1" spans="1:13">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
+    <row r="22" s="8" customFormat="1" spans="1:13">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="F22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="27" t="s">
+      <c r="K22" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="1" spans="1:13">
-      <c r="A23" s="7">
+    <row r="23" s="8" customFormat="1" spans="1:13">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="F23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="27" t="s">
+      <c r="K23" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="24" s="7" customFormat="1" spans="1:13">
-      <c r="A24" s="7">
+    <row r="24" s="8" customFormat="1" spans="1:13">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>151</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="27" t="s">
+      <c r="K24" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="1" spans="1:13">
-      <c r="A25" s="7">
+    <row r="25" s="8" customFormat="1" spans="1:13">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>158</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="F25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="27" t="s">
+      <c r="K25" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" spans="1:13">
-      <c r="A26" s="7">
+    <row r="26" s="8" customFormat="1" spans="1:13">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>163</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="F26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="27" t="s">
+      <c r="K26" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="1" spans="1:13">
-      <c r="A27" s="7">
+    <row r="27" s="8" customFormat="1" spans="1:13">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>169</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="F27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="27" t="s">
+      <c r="K27" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" spans="1:13">
-      <c r="A28" s="7">
+    <row r="28" s="8" customFormat="1" spans="1:13">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>175</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="F28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="27" t="s">
+      <c r="K28" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" spans="1:13">
-      <c r="A29" s="7">
+    <row r="29" s="8" customFormat="1" spans="1:13">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>180</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="F29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="27" t="s">
+      <c r="K29" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" spans="1:13">
-      <c r="A30" s="7">
+    <row r="30" s="8" customFormat="1" spans="1:13">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="M30" s="7">
+      <c r="K30" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="M30" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="31" s="7" customFormat="1" spans="1:13">
-      <c r="A31" s="7">
+    <row r="31" s="8" customFormat="1" spans="1:13">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>191</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="F31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="27" t="s">
+      <c r="K31" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="1" spans="1:13">
-      <c r="A32" s="7">
+    <row r="32" s="8" customFormat="1" spans="1:13">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="F32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="27" t="s">
+      <c r="K32" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="33" s="7" customFormat="1" spans="1:13">
-      <c r="A33" s="7">
+    <row r="33" s="8" customFormat="1" spans="1:13">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>202</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="F33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="27" t="s">
+      <c r="K33" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="34" s="7" customFormat="1" spans="1:13">
-      <c r="A34" s="7">
+    <row r="34" s="8" customFormat="1" spans="1:13">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="F34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="27" t="s">
+      <c r="K34" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="35" s="7" customFormat="1" spans="1:13">
-      <c r="A35" s="7">
+    <row r="35" s="8" customFormat="1" spans="1:13">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="F35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="27" t="s">
+      <c r="K35" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="36" s="7" customFormat="1" spans="1:13">
-      <c r="A36" s="7">
+    <row r="36" s="8" customFormat="1" spans="1:13">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>218</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="F36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="27" t="s">
+      <c r="K36" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="8">
         <v>84</v>
       </c>
     </row>
@@ -4244,7 +4209,7 @@
       <c r="F37" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="4" t="s">
         <v>226</v>
       </c>
       <c r="H37" t="s">
@@ -4282,7 +4247,7 @@
       <c r="F38" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="4" t="s">
         <v>232</v>
       </c>
       <c r="H38" t="s">
@@ -4301,41 +4266,41 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" s="7" customFormat="1" spans="1:13">
-      <c r="A39" s="7">
+    <row r="39" s="8" customFormat="1" spans="1:13">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>235</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="7" t="s">
+      <c r="F39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="27" t="s">
+      <c r="K39" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="8">
         <v>84</v>
       </c>
     </row>
@@ -4349,7 +4314,7 @@
       <c r="C40" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E40" t="s">
@@ -4358,7 +4323,7 @@
       <c r="F40" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="4" t="s">
         <v>244</v>
       </c>
       <c r="H40" t="s">
@@ -4387,7 +4352,7 @@
       <c r="C41" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>247</v>
       </c>
       <c r="E41" t="s">
@@ -4396,7 +4361,7 @@
       <c r="F41" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="4" t="s">
         <v>249</v>
       </c>
       <c r="H41" t="s">
@@ -4425,7 +4390,7 @@
       <c r="C42" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>254</v>
       </c>
       <c r="E42" t="s">
@@ -4434,7 +4399,7 @@
       <c r="F42" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="4" t="s">
         <v>256</v>
       </c>
       <c r="H42" t="s">
@@ -4453,41 +4418,41 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" s="7" customFormat="1" spans="1:13">
-      <c r="A43" s="7">
+    <row r="43" s="8" customFormat="1" spans="1:13">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>258</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="F43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="7" t="s">
+      <c r="K43" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="8">
         <v>84</v>
       </c>
     </row>
@@ -4651,7 +4616,7 @@
       <c r="F2" t="s">
         <v>272</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -4683,7 +4648,7 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>274</v>
       </c>
       <c r="E3" t="s">
@@ -4692,7 +4657,7 @@
       <c r="F3" t="s">
         <v>272</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>276</v>
       </c>
       <c r="H3" t="s">
@@ -4736,7 +4701,7 @@
       <c r="F4" t="s">
         <v>272</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
@@ -4765,19 +4730,19 @@
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>281</v>
+      <c r="C5" t="s">
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F5" t="s">
         <v>272</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H5" t="s">
@@ -4787,7 +4752,7 @@
         <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -4809,11 +4774,11 @@
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" t="s">
         <v>272</v>
@@ -4828,7 +4793,7 @@
         <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -4854,12 +4819,12 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F7" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
@@ -4869,7 +4834,7 @@
         <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -4895,22 +4860,22 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
         <v>272</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I8" t="s">
         <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K8" t="s">
         <v>59</v>
@@ -4932,16 +4897,16 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F9" t="s">
         <v>272</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
@@ -4951,7 +4916,7 @@
         <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -4970,29 +4935,29 @@
       <c r="B10" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
         <v>272</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I10" t="s">
         <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -5004,7 +4969,7 @@
         <v>189</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:13">
@@ -5017,16 +4982,16 @@
       <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F11" t="s">
         <v>272</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
@@ -5036,7 +5001,7 @@
         <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K11" t="s">
         <v>21</v>
@@ -5062,12 +5027,12 @@
         <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F12" t="s">
         <v>272</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H12" t="s">
@@ -5077,7 +5042,7 @@
         <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -5103,12 +5068,12 @@
         <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F13" t="s">
         <v>272</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
@@ -5118,7 +5083,7 @@
         <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
@@ -5140,16 +5105,16 @@
       <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F14" t="s">
         <v>272</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H14" t="s">
@@ -5159,12 +5124,12 @@
         <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="10" t="s">
         <v>98</v>
       </c>
       <c r="M14">
@@ -5175,16 +5140,16 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F15" t="s">
         <v>272</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H15" t="s">
@@ -5194,7 +5159,7 @@
         <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
@@ -5213,16 +5178,16 @@
       <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F16" t="s">
         <v>272</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H16" t="s">
@@ -5232,7 +5197,7 @@
         <v>73</v>
       </c>
       <c r="J16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
@@ -5248,32 +5213,32 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C17" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>309</v>
+      <c r="D17" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="E17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F17" t="s">
         <v>272</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>311</v>
+      <c r="G17" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="H17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I17" t="s">
         <v>73</v>
       </c>
       <c r="J17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
@@ -5299,7 +5264,7 @@
         <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F18" t="s">
         <v>272</v>
@@ -5314,7 +5279,7 @@
         <v>73</v>
       </c>
       <c r="J18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K18" t="s">
         <v>21</v>
@@ -5330,22 +5295,22 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F19" t="s">
         <v>272</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>123</v>
       </c>
       <c r="H19" t="s">
@@ -5354,19 +5319,19 @@
       <c r="I19" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="J19" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="7">
         <v>84</v>
       </c>
-      <c r="N19" s="5"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
@@ -5378,11 +5343,11 @@
       <c r="C20" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F20" t="s">
         <v>272</v>
@@ -5397,12 +5362,12 @@
         <v>73</v>
       </c>
       <c r="J20" t="s">
-        <v>318</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>131</v>
       </c>
       <c r="M20">
@@ -5419,11 +5384,11 @@
       <c r="C21" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F21" t="s">
         <v>272</v>
@@ -5438,12 +5403,12 @@
         <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>320</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>137</v>
       </c>
       <c r="M21">
@@ -5464,7 +5429,7 @@
         <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F22" t="s">
         <v>272</v>
@@ -5479,12 +5444,12 @@
         <v>73</v>
       </c>
       <c r="J22" t="s">
-        <v>322</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>143</v>
       </c>
       <c r="M22">
@@ -5501,11 +5466,11 @@
       <c r="C23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>323</v>
+      <c r="D23" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="E23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F23" t="s">
         <v>272</v>
@@ -5520,12 +5485,12 @@
         <v>73</v>
       </c>
       <c r="J23" t="s">
-        <v>325</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>149</v>
       </c>
       <c r="M23">
@@ -5542,11 +5507,11 @@
       <c r="C24" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F24" t="s">
         <v>272</v>
@@ -5555,18 +5520,18 @@
         <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I24" t="s">
         <v>73</v>
       </c>
       <c r="J24" t="s">
-        <v>328</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>156</v>
       </c>
       <c r="M24">
@@ -5577,17 +5542,17 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>157</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F25" t="s">
         <v>272</v>
@@ -5596,18 +5561,18 @@
         <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I25" t="s">
         <v>73</v>
       </c>
       <c r="J25" t="s">
-        <v>331</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>156</v>
       </c>
       <c r="M25">
@@ -5624,11 +5589,11 @@
       <c r="C26" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F26" t="s">
         <v>272</v>
@@ -5643,12 +5608,12 @@
         <v>73</v>
       </c>
       <c r="J26" t="s">
-        <v>333</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>167</v>
       </c>
       <c r="M26">
@@ -5665,11 +5630,11 @@
       <c r="C27" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F27" t="s">
         <v>272</v>
@@ -5684,12 +5649,12 @@
         <v>73</v>
       </c>
       <c r="J27" t="s">
-        <v>335</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>173</v>
       </c>
       <c r="M27">
@@ -5706,11 +5671,11 @@
       <c r="C28" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F28" t="s">
         <v>272</v>
@@ -5725,12 +5690,12 @@
         <v>73</v>
       </c>
       <c r="J28" t="s">
-        <v>337</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>178</v>
       </c>
       <c r="M28">
@@ -5747,11 +5712,11 @@
       <c r="C29" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>181</v>
       </c>
       <c r="E29" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F29" t="s">
         <v>272</v>
@@ -5766,12 +5731,12 @@
         <v>73</v>
       </c>
       <c r="J29" t="s">
-        <v>339</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>183</v>
       </c>
       <c r="M29">
@@ -5782,17 +5747,17 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>184</v>
       </c>
       <c r="C30" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F30" t="s">
         <v>272</v>
@@ -5807,12 +5772,12 @@
         <v>73</v>
       </c>
       <c r="J30" t="s">
-        <v>341</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>189</v>
       </c>
       <c r="M30">
@@ -5829,11 +5794,11 @@
       <c r="C31" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F31" t="s">
         <v>272</v>
@@ -5848,12 +5813,12 @@
         <v>73</v>
       </c>
       <c r="J31" t="s">
-        <v>343</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>195</v>
       </c>
       <c r="M31">
@@ -5868,13 +5833,13 @@
         <v>196</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="D32" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E32" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F32" t="s">
         <v>272</v>
@@ -5889,12 +5854,12 @@
         <v>73</v>
       </c>
       <c r="J32" t="s">
-        <v>346</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>195</v>
       </c>
       <c r="M32">
@@ -5911,11 +5876,11 @@
       <c r="C33" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F33" t="s">
         <v>272</v>
@@ -5930,12 +5895,12 @@
         <v>73</v>
       </c>
       <c r="J33" t="s">
-        <v>348</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>195</v>
       </c>
       <c r="M33">
@@ -5956,7 +5921,7 @@
         <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F34" t="s">
         <v>272</v>
@@ -5971,12 +5936,12 @@
         <v>73</v>
       </c>
       <c r="J34" t="s">
-        <v>350</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>211</v>
       </c>
       <c r="M34">
@@ -5993,11 +5958,11 @@
       <c r="C35" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F35" t="s">
         <v>272</v>
@@ -6012,12 +5977,12 @@
         <v>73</v>
       </c>
       <c r="J35" t="s">
-        <v>352</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>216</v>
       </c>
       <c r="M35">
@@ -6034,11 +5999,11 @@
       <c r="C36" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F36" t="s">
         <v>272</v>
@@ -6053,12 +6018,12 @@
         <v>73</v>
       </c>
       <c r="J36" t="s">
-        <v>354</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>216</v>
       </c>
       <c r="M36">
@@ -6079,12 +6044,12 @@
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F37" t="s">
         <v>272</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="4" t="s">
         <v>226</v>
       </c>
       <c r="H37" t="s">
@@ -6094,7 +6059,7 @@
         <v>73</v>
       </c>
       <c r="J37" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K37" t="s">
         <v>21</v>
@@ -6120,22 +6085,22 @@
         <v>230</v>
       </c>
       <c r="E38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F38" t="s">
         <v>272</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="4" t="s">
         <v>232</v>
       </c>
       <c r="H38" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I38" t="s">
         <v>73</v>
       </c>
       <c r="J38" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K38" t="s">
         <v>21</v>
@@ -6151,17 +6116,17 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>234</v>
       </c>
       <c r="C39" t="s">
         <v>235</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E39" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F39" t="s">
         <v>272</v>
@@ -6176,12 +6141,12 @@
         <v>73</v>
       </c>
       <c r="J39" t="s">
-        <v>361</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>239</v>
       </c>
       <c r="M39">
@@ -6198,16 +6163,16 @@
       <c r="C40" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E40" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F40" t="s">
         <v>272</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="4" t="s">
         <v>244</v>
       </c>
       <c r="H40" t="s">
@@ -6217,7 +6182,7 @@
         <v>73</v>
       </c>
       <c r="J40" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K40" t="s">
         <v>21</v>
@@ -6239,16 +6204,16 @@
       <c r="C41" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F41" t="s">
         <v>272</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="4" t="s">
         <v>249</v>
       </c>
       <c r="H41" t="s">
@@ -6258,7 +6223,7 @@
         <v>73</v>
       </c>
       <c r="J41" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K41" t="s">
         <v>21</v>
@@ -6280,16 +6245,16 @@
       <c r="C42" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F42" t="s">
         <v>272</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="4" t="s">
         <v>256</v>
       </c>
       <c r="H42" t="s">
@@ -6299,7 +6264,7 @@
         <v>73</v>
       </c>
       <c r="J42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K42" t="s">
         <v>21</v>
@@ -6321,11 +6286,11 @@
       <c r="C43" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>259</v>
       </c>
       <c r="E43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F43" t="s">
         <v>272</v>
@@ -6340,7 +6305,7 @@
         <v>73</v>
       </c>
       <c r="J43" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K43" t="s">
         <v>21</v>
@@ -6366,7 +6331,7 @@
         <v>265</v>
       </c>
       <c r="E44" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F44" t="s">
         <v>272</v>
@@ -6381,7 +6346,7 @@
         <v>73</v>
       </c>
       <c r="J44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K44" t="s">
         <v>21</v>
@@ -6401,7 +6366,7 @@
         <v>269</v>
       </c>
       <c r="E45" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F45" t="s">
         <v>272</v>
@@ -6416,7 +6381,7 @@
         <v>73</v>
       </c>
       <c r="J45" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K45" t="s">
         <v>21</v>
@@ -6439,13 +6404,13 @@
   <sheetPr/>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="$A36:$XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="3" max="3" width="57.7142857142857" customWidth="1"/>
     <col min="12" max="12" width="52.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6487,7 +6452,7 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:13">
@@ -6504,7 +6469,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -6519,7 +6484,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M2">
         <v>189</v>
@@ -6530,31 +6495,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" t="s">
         <v>375</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>376</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="E3" t="s">
-        <v>378</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>379</v>
-      </c>
       <c r="H3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M3">
         <v>189</v>
@@ -6565,19 +6530,19 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -6591,19 +6556,19 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -6626,7 +6591,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -6641,7 +6606,7 @@
         <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M6">
         <v>189</v>
@@ -6661,7 +6626,7 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -6676,7 +6641,7 @@
         <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M7">
         <v>189</v>
@@ -6696,7 +6661,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -6731,7 +6696,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -6740,7 +6705,7 @@
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K9" t="s">
         <v>59</v>
@@ -6766,7 +6731,7 @@
         <v>224</v>
       </c>
       <c r="E10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -6801,7 +6766,7 @@
         <v>230</v>
       </c>
       <c r="E11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -6816,7 +6781,7 @@
         <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M11">
         <v>189</v>
@@ -6827,31 +6792,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" t="s">
         <v>390</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>391</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>393</v>
       </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
         <v>394</v>
-      </c>
-      <c r="H12" t="s">
-        <v>395</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>396</v>
       </c>
       <c r="M12">
         <v>189</v>
@@ -6862,31 +6827,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C13" t="s">
+        <v>396</v>
+      </c>
+      <c r="D13" t="s">
         <v>397</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>398</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
         <v>400</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="H13" t="s">
-        <v>401</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" t="s">
-        <v>402</v>
       </c>
       <c r="M13">
         <v>189</v>
@@ -6897,31 +6862,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" t="s">
+        <v>402</v>
+      </c>
+      <c r="D14" t="s">
         <v>403</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>404</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="E14" t="s">
-        <v>406</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>407</v>
-      </c>
       <c r="H14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M14">
         <v>189</v>
@@ -6932,16 +6897,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="D15" t="s">
         <v>408</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="E15" t="s">
         <v>409</v>
-      </c>
-      <c r="D15" t="s">
-        <v>410</v>
-      </c>
-      <c r="E15" t="s">
-        <v>411</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -6976,7 +6941,7 @@
         <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -7011,7 +6976,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -7026,7 +6991,7 @@
         <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M17">
         <v>189</v>
@@ -7037,25 +7002,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" t="s">
+        <v>413</v>
+      </c>
+      <c r="D18" t="s">
         <v>414</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>415</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="E18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>418</v>
-      </c>
       <c r="H18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K18" t="s">
         <v>21</v>
@@ -7081,12 +7046,12 @@
         <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H19" t="s">
@@ -7107,16 +7072,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C20" t="s">
+        <v>419</v>
+      </c>
+      <c r="D20" t="s">
         <v>420</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>421</v>
-      </c>
-      <c r="D20" t="s">
-        <v>422</v>
-      </c>
-      <c r="E20" t="s">
-        <v>423</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -7151,7 +7116,7 @@
         <v>265</v>
       </c>
       <c r="E21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -7166,7 +7131,7 @@
         <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M21">
         <v>189</v>
@@ -7180,7 +7145,7 @@
         <v>269</v>
       </c>
       <c r="E22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -7208,11 +7173,11 @@
       <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -7227,7 +7192,7 @@
         <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M23">
         <v>189</v>
@@ -7243,11 +7208,11 @@
       <c r="C24" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -7272,11 +7237,11 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -7299,31 +7264,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C26" t="s">
+        <v>427</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>429</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="E26" t="s">
-        <v>431</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>432</v>
-      </c>
       <c r="H26" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K26" t="s">
         <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M26">
         <v>189</v>
@@ -7339,11 +7304,11 @@
       <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -7352,13 +7317,13 @@
         <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
       </c>
       <c r="L27" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M27">
         <v>189</v>
@@ -7374,11 +7339,11 @@
       <c r="C28" t="s">
         <v>246</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="3" t="s">
         <v>247</v>
       </c>
       <c r="E28" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -7404,25 +7369,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>434</v>
+      </c>
+      <c r="C29" t="s">
+        <v>435</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>437</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="E29" t="s">
-        <v>439</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>440</v>
-      </c>
       <c r="H29" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K29" t="s">
         <v>21</v>
@@ -7444,11 +7409,11 @@
       <c r="C30" t="s">
         <v>241</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="3" t="s">
         <v>242</v>
       </c>
       <c r="E30" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -7479,11 +7444,11 @@
       <c r="C31" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -7492,19 +7457,19 @@
         <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K31" t="s">
         <v>21</v>
       </c>
       <c r="L31" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M31">
         <v>189</v>
       </c>
       <c r="N31" s="23" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1" spans="1:13">
@@ -7517,11 +7482,11 @@
       <c r="C32" t="s">
         <v>253</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -7552,11 +7517,11 @@
       <c r="C33" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -7571,7 +7536,7 @@
         <v>21</v>
       </c>
       <c r="L33" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M33">
         <v>189</v>
@@ -7587,11 +7552,11 @@
       <c r="C34" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -7616,17 +7581,17 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C35" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -7658,7 +7623,7 @@
   <sheetPr/>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -7730,12 +7695,12 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -7765,16 +7730,16 @@
         <v>24</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>272</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>19</v>
@@ -7809,12 +7774,12 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
@@ -7847,12 +7812,12 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H5" t="s">
@@ -7881,11 +7846,11 @@
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -7923,12 +7888,12 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
@@ -7961,16 +7926,16 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
@@ -7995,16 +7960,16 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F9" t="s">
         <v>272</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
@@ -8014,7 +7979,7 @@
         <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -8040,7 +8005,7 @@
         <v>69</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>18</v>
@@ -8049,13 +8014,13 @@
         <v>71</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>73</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>21</v>
@@ -8077,16 +8042,16 @@
       <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
@@ -8119,12 +8084,12 @@
         <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H12" t="s">
@@ -8157,12 +8122,12 @@
         <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
@@ -8191,16 +8156,16 @@
       <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H14" t="s">
@@ -8212,7 +8177,7 @@
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="10" t="s">
         <v>98</v>
       </c>
       <c r="M14">
@@ -8223,16 +8188,16 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H15" t="s">
@@ -8258,16 +8223,16 @@
       <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H16" t="s">
@@ -8286,44 +8251,44 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="1" spans="1:13">
-      <c r="A17" s="7">
+    <row r="17" s="8" customFormat="1" spans="1:13">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>272</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="J17" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="8">
         <v>189</v>
       </c>
     </row>
@@ -8341,7 +8306,7 @@
         <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -8369,22 +8334,22 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>123</v>
       </c>
       <c r="H19" t="s">
@@ -8393,19 +8358,19 @@
       <c r="I19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="7">
         <v>84</v>
       </c>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" s="7" customFormat="1" spans="1:13">
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" s="8" customFormat="1" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8415,11 +8380,11 @@
       <c r="C20" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -8433,17 +8398,17 @@
       <c r="I20" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="6" t="s">
+      <c r="K20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>131</v>
       </c>
       <c r="M20">
         <v>84</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="1" spans="1:13">
+    <row r="21" s="8" customFormat="1" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8453,11 +8418,11 @@
       <c r="C21" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -8471,17 +8436,17 @@
       <c r="I21" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="6" t="s">
+      <c r="K21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>137</v>
       </c>
       <c r="M21">
         <v>84</v>
       </c>
     </row>
-    <row r="22" s="7" customFormat="1" spans="1:13">
+    <row r="22" s="8" customFormat="1" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8495,7 +8460,7 @@
         <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -8509,17 +8474,17 @@
       <c r="I22" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="6" t="s">
+      <c r="K22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>143</v>
       </c>
       <c r="M22">
         <v>84</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="1" spans="1:13">
+    <row r="23" s="8" customFormat="1" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8529,11 +8494,11 @@
       <c r="C23" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>323</v>
+      <c r="D23" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="E23" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -8547,17 +8512,17 @@
       <c r="I23" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="6" t="s">
+      <c r="K23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>149</v>
       </c>
       <c r="M23">
         <v>84</v>
       </c>
     </row>
-    <row r="24" s="7" customFormat="1" spans="1:13">
+    <row r="24" s="8" customFormat="1" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8567,11 +8532,11 @@
       <c r="C24" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -8580,36 +8545,36 @@
         <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="6" t="s">
+      <c r="K24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>156</v>
       </c>
       <c r="M24">
         <v>84</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="1" spans="1:13">
+    <row r="25" s="8" customFormat="1" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>157</v>
       </c>
       <c r="C25" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -8618,22 +8583,22 @@
         <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="6" t="s">
+      <c r="K25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>156</v>
       </c>
       <c r="M25">
         <v>84</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" spans="1:13">
+    <row r="26" s="8" customFormat="1" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8643,11 +8608,11 @@
       <c r="C26" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
@@ -8661,17 +8626,17 @@
       <c r="I26" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="6" t="s">
+      <c r="K26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>167</v>
       </c>
       <c r="M26">
         <v>84</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="1" spans="1:13">
+    <row r="27" s="8" customFormat="1" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8681,11 +8646,11 @@
       <c r="C27" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -8699,17 +8664,17 @@
       <c r="I27" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="6" t="s">
+      <c r="K27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>173</v>
       </c>
       <c r="M27">
         <v>84</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" spans="1:13">
+    <row r="28" s="8" customFormat="1" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8719,11 +8684,11 @@
       <c r="C28" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E28" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -8737,17 +8702,17 @@
       <c r="I28" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="6" t="s">
+      <c r="K28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>178</v>
       </c>
       <c r="M28">
         <v>84</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" spans="1:13">
+    <row r="29" s="8" customFormat="1" spans="1:13">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8757,11 +8722,11 @@
       <c r="C29" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>181</v>
       </c>
       <c r="E29" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -8775,31 +8740,31 @@
       <c r="I29" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="6" t="s">
+      <c r="K29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>183</v>
       </c>
       <c r="M29">
         <v>84</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" spans="1:13">
+    <row r="30" s="8" customFormat="1" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>184</v>
       </c>
       <c r="C30" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -8813,17 +8778,17 @@
       <c r="I30" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="6" t="s">
+ 